--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -632,7 +632,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>184</x:v>
@@ -661,16 +661,16 @@
         <x:v>321</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>426</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>878</x:v>
+        <x:v>877</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>902</x:v>
+        <x:v>903</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>361</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -713,7 +713,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>112</x:v>
@@ -843,7 +843,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>185</x:v>
@@ -1152,16 +1152,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C26" s="1" t="n">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
-        <x:v>306</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="E26" s="1" t="n">
-        <x:v>474</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="F26" s="1" t="n">
-        <x:v>543</x:v>
+        <x:v>544</x:v>
       </x:c>
       <x:c r="G26" s="1" t="n">
         <x:v>191</x:v>
@@ -1184,13 +1184,13 @@
         <x:v>388</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
-        <x:v>647</x:v>
+        <x:v>648</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
-        <x:v>619</x:v>
+        <x:v>620</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
-        <x:v>261</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
         <x:v>0</x:v>
@@ -1386,7 +1386,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C35" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D35" s="1" t="n">
         <x:v>0</x:v>
@@ -1473,7 +1473,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G38" s="1" t="n">
         <x:v>21</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -641,10 +641,10 @@
         <x:v>258</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -658,16 +658,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>321</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>427</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>877</x:v>
+        <x:v>878</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>903</x:v>
+        <x:v>906</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>362</x:v>
@@ -840,7 +840,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>87</x:v>
@@ -849,10 +849,10 @@
         <x:v>185</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
         <x:v>0</x:v>
@@ -869,13 +869,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>448</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>532</x:v>
+        <x:v>535</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>199</x:v>
@@ -970,7 +970,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>84</x:v>
@@ -1022,7 +1022,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>9</x:v>
@@ -1161,7 +1161,7 @@
         <x:v>476</x:v>
       </x:c>
       <x:c r="F26" s="1" t="n">
-        <x:v>544</x:v>
+        <x:v>546</x:v>
       </x:c>
       <x:c r="G26" s="1" t="n">
         <x:v>191</x:v>
@@ -1178,7 +1178,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
-        <x:v>172</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
         <x:v>388</x:v>
@@ -1190,7 +1190,7 @@
         <x:v>620</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
-        <x:v>263</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
         <x:v>0</x:v>
@@ -1288,13 +1288,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
         <x:v>0</x:v>
@@ -1412,7 +1412,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C36" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
         <x:v>45</x:v>
@@ -1473,7 +1473,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G38" s="1" t="n">
         <x:v>21</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -846,7 +846,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>235</x:v>
@@ -1499,7 +1499,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
         <x:v>5</x:v>
@@ -1516,7 +1516,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
         <x:v>119</x:v>
@@ -1525,7 +1525,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G40" s="1" t="n">
         <x:v>36</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -632,19 +632,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>184</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -664,7 +664,7 @@
         <x:v>427</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>878</x:v>
+        <x:v>881</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>906</x:v>
@@ -849,7 +849,7 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>53</x:v>
@@ -976,7 +976,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
         <x:v>104</x:v>
@@ -1161,7 +1161,7 @@
         <x:v>476</x:v>
       </x:c>
       <x:c r="F26" s="1" t="n">
-        <x:v>546</x:v>
+        <x:v>547</x:v>
       </x:c>
       <x:c r="G26" s="1" t="n">
         <x:v>191</x:v>
@@ -1184,10 +1184,10 @@
         <x:v>388</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
-        <x:v>648</x:v>
+        <x:v>649</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
-        <x:v>620</x:v>
+        <x:v>621</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
         <x:v>264</x:v>
@@ -1444,7 +1444,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E37" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F37" s="1" t="n">
         <x:v>14</x:v>
@@ -1470,7 +1470,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
         <x:v>69</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -632,19 +632,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -658,19 +658,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>319</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>427</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>881</x:v>
+        <x:v>886</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>906</x:v>
+        <x:v>907</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>362</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -710,10 +710,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>112</x:v>
@@ -745,7 +745,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>1</x:v>
@@ -843,13 +843,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>186</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>236</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>53</x:v>
@@ -875,10 +875,10 @@
         <x:v>448</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>535</x:v>
+        <x:v>537</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>
@@ -950,7 +950,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
         <x:v>43</x:v>
@@ -976,7 +976,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
         <x:v>104</x:v>
@@ -1158,13 +1158,13 @@
         <x:v>308</x:v>
       </x:c>
       <x:c r="E26" s="1" t="n">
-        <x:v>476</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="F26" s="1" t="n">
-        <x:v>547</x:v>
+        <x:v>564</x:v>
       </x:c>
       <x:c r="G26" s="1" t="n">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="H26" s="1" t="n">
         <x:v>0</x:v>
@@ -1178,19 +1178,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
-        <x:v>175</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>388</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
-        <x:v>649</x:v>
+        <x:v>653</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
-        <x:v>621</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
-        <x:v>264</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
         <x:v>0</x:v>
@@ -1340,7 +1340,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F33" s="1" t="n">
         <x:v>1</x:v>
@@ -1366,7 +1366,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E34" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F34" s="1" t="n">
         <x:v>15</x:v>
@@ -1415,10 +1415,10 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E36" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F36" s="1" t="n">
         <x:v>51</x:v>
@@ -1473,7 +1473,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G38" s="1" t="n">
         <x:v>21</x:v>
@@ -1516,7 +1516,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
         <x:v>119</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -589,7 +589,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>2</x:v>
@@ -638,10 +638,10 @@
         <x:v>185</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>101</x:v>
@@ -658,16 +658,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>429</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>886</x:v>
+        <x:v>887</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>907</x:v>
+        <x:v>910</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>364</x:v>
@@ -748,7 +748,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
         <x:v>0</x:v>
@@ -768,7 +768,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>35</x:v>
@@ -817,13 +817,13 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>91</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>17</x:v>
@@ -843,16 +843,16 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
         <x:v>0</x:v>
@@ -1152,19 +1152,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C26" s="1" t="n">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="E26" s="1" t="n">
-        <x:v>480</x:v>
+        <x:v>483</x:v>
       </x:c>
       <x:c r="F26" s="1" t="n">
-        <x:v>564</x:v>
+        <x:v>567</x:v>
       </x:c>
       <x:c r="G26" s="1" t="n">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="H26" s="1" t="n">
         <x:v>0</x:v>
@@ -1178,7 +1178,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
         <x:v>389</x:v>
@@ -1187,7 +1187,7 @@
         <x:v>653</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
-        <x:v>630</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
         <x:v>265</x:v>
@@ -1233,7 +1233,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
         <x:v>25</x:v>
@@ -1389,7 +1389,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D35" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E35" s="1" t="n">
         <x:v>0</x:v>
@@ -1467,16 +1467,16 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
         <x:v>68</x:v>
       </x:c>
       <x:c r="G38" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H38" s="1" t="n">
         <x:v>0</x:v>
@@ -1522,7 +1522,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
         <x:v>93</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -661,7 +661,7 @@
         <x:v>322</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>429</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>887</x:v>
@@ -742,7 +742,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>28</x:v>
@@ -846,7 +846,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>239</x:v>
@@ -979,7 +979,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>34</x:v>
@@ -1022,7 +1022,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>9</x:v>
@@ -1129,7 +1129,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>5</x:v>
@@ -1158,10 +1158,10 @@
         <x:v>309</x:v>
       </x:c>
       <x:c r="E26" s="1" t="n">
-        <x:v>483</x:v>
+        <x:v>496</x:v>
       </x:c>
       <x:c r="F26" s="1" t="n">
-        <x:v>567</x:v>
+        <x:v>581</x:v>
       </x:c>
       <x:c r="G26" s="1" t="n">
         <x:v>193</x:v>
@@ -1187,7 +1187,7 @@
         <x:v>653</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
-        <x:v>634</x:v>
+        <x:v>648</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
         <x:v>265</x:v>
@@ -1464,7 +1464,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C38" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
         <x:v>39</x:v>
@@ -1525,7 +1525,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G40" s="1" t="n">
         <x:v>36</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -635,7 +635,7 @@
         <x:v>215</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
         <x:v>261</x:v>
@@ -664,13 +664,13 @@
         <x:v>430</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>887</x:v>
+        <x:v>889</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>910</x:v>
+        <x:v>911</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>364</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -869,10 +869,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>448</x:v>
+        <x:v>450</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>537</x:v>
@@ -950,7 +950,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
         <x:v>43</x:v>
@@ -973,10 +973,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
         <x:v>105</x:v>
@@ -1158,7 +1158,7 @@
         <x:v>309</x:v>
       </x:c>
       <x:c r="E26" s="1" t="n">
-        <x:v>496</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="F26" s="1" t="n">
         <x:v>581</x:v>
@@ -1178,19 +1178,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
         <x:v>389</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
-        <x:v>653</x:v>
+        <x:v>655</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
-        <x:v>648</x:v>
+        <x:v>649</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
-        <x:v>265</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -632,16 +632,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>186</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>261</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>291</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>101</x:v>
@@ -661,10 +661,10 @@
         <x:v>322</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>430</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>889</x:v>
+        <x:v>890</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>911</x:v>
@@ -771,7 +771,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>14</x:v>
@@ -823,7 +823,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>17</x:v>
@@ -846,7 +846,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>239</x:v>
@@ -872,13 +872,13 @@
         <x:v>218</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>450</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>537</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>
@@ -950,7 +950,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
         <x:v>43</x:v>
@@ -1525,7 +1525,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G40" s="1" t="n">
         <x:v>36</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <x:si>
     <x:t>Offense Category</x:t>
   </x:si>
@@ -71,6 +71,9 @@
   </x:si>
   <x:si>
     <x:t>Fraud Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gambling Offenses</x:t>
   </x:si>
   <x:si>
     <x:t>Homicide Offenses</x:t>
@@ -484,7 +487,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H40"/>
+  <x:dimension ref="A1:H41"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -534,10 +537,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>0</x:v>
@@ -554,16 +557,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>3</x:v>
@@ -580,7 +583,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>1</x:v>
@@ -589,7 +592,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>2</x:v>
@@ -606,19 +609,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F5" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G5" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H5" s="1" t="n">
         <x:v>0</x:v>
@@ -632,19 +635,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>216</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>188</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>263</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>293</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -658,19 +661,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>322</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>431</x:v>
+        <x:v>578</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>890</x:v>
+        <x:v>1189</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>911</x:v>
+        <x:v>1176</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>365</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -687,16 +690,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -710,19 +713,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -739,16 +742,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
         <x:v>0</x:v>
@@ -765,16 +768,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
         <x:v>0</x:v>
@@ -788,19 +791,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
         <x:v>0</x:v>
@@ -814,19 +817,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>86</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
         <x:v>0</x:v>
@@ -843,16 +846,16 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>189</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>239</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
         <x:v>0</x:v>
@@ -866,19 +869,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>218</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>452</x:v>
+        <x:v>602</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>538</x:v>
+        <x:v>678</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>201</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>
@@ -895,13 +898,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E16" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F16" s="1" t="n">
         <x:v>2</x:v>
-      </x:c>
-      <x:c r="E16" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F16" s="1" t="n">
-        <x:v>1</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>2</x:v>
@@ -918,7 +921,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>0</x:v>
@@ -927,7 +930,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>1</x:v>
@@ -944,19 +947,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
         <x:v>0</x:v>
@@ -973,16 +976,16 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
         <x:v>0</x:v>
@@ -993,19 +996,19 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>0</x:v>
@@ -1016,25 +1019,25 @@
     </x:row>
     <x:row r="21" spans="1:8">
       <x:c r="A21" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
         <x:v>0</x:v>
@@ -1045,22 +1048,22 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
         <x:v>0</x:v>
@@ -1068,10 +1071,10 @@
     </x:row>
     <x:row r="23" spans="1:8">
       <x:c r="A23" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
         <x:v>0</x:v>
@@ -1080,13 +1083,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
         <x:v>0</x:v>
@@ -1097,19 +1100,19 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
         <x:v>2</x:v>
@@ -1120,25 +1123,25 @@
     </x:row>
     <x:row r="25" spans="1:8">
       <x:c r="A25" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F25" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G25" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H25" s="1" t="n">
         <x:v>0</x:v>
@@ -1149,22 +1152,22 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C26" s="1" t="n">
-        <x:v>148</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
-        <x:v>309</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E26" s="1" t="n">
-        <x:v>497</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F26" s="1" t="n">
-        <x:v>581</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G26" s="1" t="n">
-        <x:v>193</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H26" s="1" t="n">
         <x:v>0</x:v>
@@ -1172,25 +1175,25 @@
     </x:row>
     <x:row r="27" spans="1:8">
       <x:c r="A27" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
-        <x:v>180</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>389</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
-        <x:v>655</x:v>
+        <x:v>621</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
-        <x:v>649</x:v>
+        <x:v>729</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
-        <x:v>266</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
         <x:v>0</x:v>
@@ -1201,22 +1204,22 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>506</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>848</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>839</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>0</x:v>
@@ -1224,25 +1227,25 @@
     </x:row>
     <x:row r="29" spans="1:8">
       <x:c r="A29" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1253,22 +1256,22 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
         <x:v>0</x:v>
@@ -1276,25 +1279,25 @@
     </x:row>
     <x:row r="31" spans="1:8">
       <x:c r="A31" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
         <x:v>0</x:v>
@@ -1308,19 +1311,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
         <x:v>0</x:v>
@@ -1331,22 +1334,22 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F33" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G33" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H33" s="1" t="n">
         <x:v>0</x:v>
@@ -1354,25 +1357,25 @@
     </x:row>
     <x:row r="34" spans="1:8">
       <x:c r="A34" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C34" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E34" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F34" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G34" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H34" s="1" t="n">
         <x:v>0</x:v>
@@ -1383,22 +1386,22 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C35" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D35" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E35" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F35" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G35" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H35" s="1" t="n">
         <x:v>0</x:v>
@@ -1406,25 +1409,25 @@
     </x:row>
     <x:row r="36" spans="1:8">
       <x:c r="A36" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C36" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E36" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F36" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G36" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H36" s="1" t="n">
         <x:v>0</x:v>
@@ -1435,22 +1438,22 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C37" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E37" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F37" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G37" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H37" s="1" t="n">
         <x:v>0</x:v>
@@ -1458,25 +1461,25 @@
     </x:row>
     <x:row r="38" spans="1:8">
       <x:c r="A38" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C38" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G38" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H38" s="1" t="n">
         <x:v>0</x:v>
@@ -1487,22 +1490,22 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H39" s="1" t="n">
         <x:v>0</x:v>
@@ -1510,27 +1513,53 @@
     </x:row>
     <x:row r="40" spans="1:8">
       <x:c r="A40" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G40" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H40" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:8">
+      <x:c r="A41" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C41" s="1" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D41" s="1" t="n">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="E41" s="1" t="n">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="F41" s="1" t="n">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="G41" s="1" t="n">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H41" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -635,13 +635,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>288</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>349</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>381</x:v>
@@ -661,19 +661,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>422</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>578</x:v>
+        <x:v>582</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>1189</x:v>
+        <x:v>1190</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>1176</x:v>
+        <x:v>1181</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>477</x:v>
+        <x:v>483</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -713,16 +713,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>51</x:v>
@@ -745,10 +745,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>5</x:v>
@@ -774,7 +774,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>19</x:v>
@@ -846,16 +846,16 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>128</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>235</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>298</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
         <x:v>0</x:v>
@@ -872,13 +872,13 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>297</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>602</x:v>
+        <x:v>607</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>678</x:v>
+        <x:v>681</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>256</x:v>
@@ -976,13 +976,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>162</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>44</x:v>
@@ -1181,19 +1181,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
-        <x:v>182</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>412</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
-        <x:v>621</x:v>
+        <x:v>628</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
-        <x:v>729</x:v>
+        <x:v>730</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
-        <x:v>257</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
         <x:v>0</x:v>
@@ -1210,16 +1210,16 @@
         <x:v>235</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>506</x:v>
+        <x:v>508</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>848</x:v>
+        <x:v>855</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>839</x:v>
+        <x:v>843</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>358</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>0</x:v>
@@ -1314,7 +1314,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
         <x:v>10</x:v>
@@ -1444,7 +1444,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E37" s="1" t="n">
         <x:v>61</x:v>
@@ -1496,10 +1496,10 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
         <x:v>97</x:v>
@@ -1545,7 +1545,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
         <x:v>165</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -635,7 +635,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>292</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>251</x:v>
@@ -670,7 +670,7 @@
         <x:v>1190</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>1181</x:v>
+        <x:v>1182</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>483</x:v>
@@ -719,7 +719,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>133</x:v>
@@ -1057,7 +1057,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
         <x:v>7</x:v>
@@ -1184,16 +1184,16 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>416</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
-        <x:v>628</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
         <x:v>730</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
         <x:v>0</x:v>
@@ -1210,16 +1210,16 @@
         <x:v>235</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>508</x:v>
+        <x:v>509</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>855</x:v>
+        <x:v>857</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
         <x:v>843</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>360</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -661,13 +661,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>428</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>582</x:v>
+        <x:v>583</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>1190</x:v>
+        <x:v>1191</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>1182</x:v>
@@ -846,7 +846,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>239</x:v>
@@ -875,7 +875,7 @@
         <x:v>299</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>607</x:v>
+        <x:v>608</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>681</x:v>
@@ -979,7 +979,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
         <x:v>142</x:v>
@@ -1181,10 +1181,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
-        <x:v>184</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>417</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
         <x:v>629</x:v>
@@ -1193,7 +1193,7 @@
         <x:v>730</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
-        <x:v>261</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
         <x:v>0</x:v>
@@ -1207,19 +1207,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>235</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>509</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>857</x:v>
+        <x:v>861</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>843</x:v>
+        <x:v>848</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>361</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>0</x:v>
@@ -1320,7 +1320,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>10</x:v>
@@ -1444,13 +1444,13 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E37" s="1" t="n">
         <x:v>61</x:v>
       </x:c>
       <x:c r="F37" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G37" s="1" t="n">
         <x:v>48</x:v>
@@ -1554,7 +1554,7 @@
         <x:v>191</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
         <x:v>49</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -635,16 +635,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>251</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>351</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>381</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>130</x:v>
@@ -661,19 +661,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>429</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>583</x:v>
+        <x:v>584</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>1191</x:v>
+        <x:v>1192</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>1182</x:v>
+        <x:v>1184</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>483</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -716,13 +716,13 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>149</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>51</x:v>
@@ -797,7 +797,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
         <x:v>37</x:v>
@@ -823,10 +823,10 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>128</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>26</x:v>
@@ -872,13 +872,13 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>299</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>608</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>681</x:v>
+        <x:v>682</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>256</x:v>
@@ -982,7 +982,7 @@
         <x:v>165</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>44</x:v>
@@ -1181,19 +1181,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>418</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
-        <x:v>629</x:v>
+        <x:v>633</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
-        <x:v>730</x:v>
+        <x:v>734</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
-        <x:v>263</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
         <x:v>0</x:v>
@@ -1207,19 +1207,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>511</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>861</x:v>
+        <x:v>863</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>848</x:v>
+        <x:v>853</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>362</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>0</x:v>
@@ -1259,13 +1259,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
         <x:v>31</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
         <x:v>57</x:v>
@@ -1311,7 +1311,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
         <x:v>13</x:v>
@@ -1441,13 +1441,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C37" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E37" s="1" t="n">
         <x:v>62</x:v>
-      </x:c>
-      <x:c r="E37" s="1" t="n">
-        <x:v>61</x:v>
       </x:c>
       <x:c r="F37" s="1" t="n">
         <x:v>76</x:v>
@@ -1493,7 +1493,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
         <x:v>53</x:v>
@@ -1502,7 +1502,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
         <x:v>26</x:v>
@@ -1551,7 +1551,7 @@
         <x:v>165</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
         <x:v>136</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -641,7 +641,7 @@
         <x:v>251</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>352</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>382</x:v>
@@ -661,7 +661,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>430</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>584</x:v>
@@ -670,10 +670,10 @@
         <x:v>1192</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>1184</x:v>
+        <x:v>1185</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>485</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -713,10 +713,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>153</x:v>
@@ -774,7 +774,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>19</x:v>
@@ -849,7 +849,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>298</x:v>
@@ -872,7 +872,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>608</x:v>
@@ -956,10 +956,10 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
         <x:v>0</x:v>
@@ -1184,10 +1184,10 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>423</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
-        <x:v>633</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
         <x:v>734</x:v>
@@ -1210,16 +1210,16 @@
         <x:v>235</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>518</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>863</x:v>
+        <x:v>866</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>853</x:v>
+        <x:v>854</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>369</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>0</x:v>
@@ -1447,7 +1447,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E37" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F37" s="1" t="n">
         <x:v>76</x:v>
@@ -1545,7 +1545,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
         <x:v>165</x:v>
@@ -1557,7 +1557,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -661,19 +661,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>431</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>584</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>1192</x:v>
+        <x:v>1193</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>1185</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>486</x:v>
+        <x:v>488</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -690,7 +690,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>27</x:v>
@@ -716,7 +716,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>153</x:v>
@@ -768,10 +768,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>49</x:v>
@@ -800,7 +800,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>9</x:v>
@@ -950,7 +950,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
         <x:v>77</x:v>
@@ -979,7 +979,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
         <x:v>143</x:v>
@@ -1184,10 +1184,10 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>428</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
-        <x:v>634</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
         <x:v>734</x:v>
@@ -1210,13 +1210,13 @@
         <x:v>235</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>521</x:v>
+        <x:v>522</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>866</x:v>
+        <x:v>872</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>854</x:v>
+        <x:v>859</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
         <x:v>370</x:v>
@@ -1259,7 +1259,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
         <x:v>31</x:v>
@@ -1366,7 +1366,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E34" s="1" t="n">
         <x:v>17</x:v>
@@ -1447,10 +1447,10 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E37" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F37" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G37" s="1" t="n">
         <x:v>48</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -644,7 +644,7 @@
         <x:v>353</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>130</x:v>
@@ -664,16 +664,16 @@
         <x:v>432</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>584</x:v>
+        <x:v>585</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>1193</x:v>
+        <x:v>1194</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>1185</x:v>
+        <x:v>1186</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>488</x:v>
+        <x:v>490</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -716,7 +716,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>153</x:v>
@@ -748,7 +748,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>5</x:v>
@@ -849,10 +849,10 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>240</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>298</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>70</x:v>
@@ -878,7 +878,7 @@
         <x:v>608</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>682</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>256</x:v>
@@ -927,7 +927,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
         <x:v>6</x:v>
@@ -982,7 +982,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>44</x:v>
@@ -1210,16 +1210,16 @@
         <x:v>235</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>522</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>872</x:v>
+        <x:v>875</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>859</x:v>
+        <x:v>863</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>370</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>0</x:v>
@@ -1268,7 +1268,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
         <x:v>5</x:v>
@@ -1314,7 +1314,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
         <x:v>10</x:v>
@@ -1450,10 +1450,10 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="F37" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G37" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H37" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -635,16 +635,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>291</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>353</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>383</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>130</x:v>
@@ -661,19 +661,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>432</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>585</x:v>
+        <x:v>586</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>1194</x:v>
+        <x:v>1195</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>1186</x:v>
+        <x:v>1191</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>490</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -771,10 +771,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>19</x:v>
@@ -823,10 +823,10 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>26</x:v>
@@ -852,7 +852,7 @@
         <x:v>239</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>297</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>70</x:v>
@@ -872,13 +872,13 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>608</x:v>
+        <x:v>607</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>684</x:v>
+        <x:v>687</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>256</x:v>
@@ -953,7 +953,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
         <x:v>64</x:v>
@@ -1164,7 +1164,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F26" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G26" s="1" t="n">
         <x:v>2</x:v>
@@ -1181,16 +1181,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
-        <x:v>184</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>429</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
-        <x:v>635</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
-        <x:v>734</x:v>
+        <x:v>738</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
         <x:v>264</x:v>
@@ -1210,16 +1210,16 @@
         <x:v>235</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>524</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>875</x:v>
+        <x:v>876</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>863</x:v>
+        <x:v>866</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>372</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>0</x:v>
@@ -1259,7 +1259,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
         <x:v>31</x:v>
@@ -1366,7 +1366,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E34" s="1" t="n">
         <x:v>17</x:v>
@@ -1441,10 +1441,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C37" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E37" s="1" t="n">
         <x:v>64</x:v>
@@ -1473,7 +1473,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
         <x:v>20</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -641,13 +641,13 @@
         <x:v>252</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>354</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>384</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -661,19 +661,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>433</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>586</x:v>
+        <x:v>588</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>1195</x:v>
+        <x:v>1199</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>1191</x:v>
+        <x:v>1194</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>489</x:v>
+        <x:v>490</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -693,10 +693,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>10</x:v>
@@ -719,13 +719,13 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>134</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -797,7 +797,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
         <x:v>38</x:v>
@@ -823,7 +823,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>116</x:v>
@@ -875,13 +875,13 @@
         <x:v>303</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>607</x:v>
+        <x:v>608</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>687</x:v>
+        <x:v>688</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>
@@ -950,10 +950,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
         <x:v>64</x:v>
@@ -982,7 +982,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>44</x:v>
@@ -1057,7 +1057,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
         <x:v>7</x:v>
@@ -1184,10 +1184,10 @@
         <x:v>189</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>430</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
-        <x:v>638</x:v>
+        <x:v>643</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
         <x:v>738</x:v>
@@ -1210,16 +1210,16 @@
         <x:v>235</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>525</x:v>
+        <x:v>528</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>876</x:v>
+        <x:v>882</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>866</x:v>
+        <x:v>868</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>391</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>0</x:v>
@@ -1369,7 +1369,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="E34" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F34" s="1" t="n">
         <x:v>1</x:v>
@@ -1392,13 +1392,13 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="D35" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E35" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F35" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G35" s="1" t="n">
         <x:v>4</x:v>
@@ -1502,7 +1502,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
         <x:v>26</x:v>
@@ -1548,10 +1548,10 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
         <x:v>136</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -638,16 +638,16 @@
         <x:v>292</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>252</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>356</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -661,19 +661,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>434</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>588</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>1199</x:v>
+        <x:v>1204</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>1194</x:v>
+        <x:v>1200</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>490</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -693,7 +693,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
         <x:v>48</x:v>
@@ -716,13 +716,13 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>154</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>134</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>52</x:v>
@@ -748,7 +748,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>5</x:v>
@@ -791,13 +791,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
         <x:v>34</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
         <x:v>38</x:v>
@@ -826,7 +826,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>26</x:v>
@@ -849,10 +849,10 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>298</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>70</x:v>
@@ -872,16 +872,16 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>303</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>608</x:v>
+        <x:v>612</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>688</x:v>
+        <x:v>692</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>257</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>
@@ -950,13 +950,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
         <x:v>19</x:v>
@@ -982,7 +982,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>44</x:v>
@@ -1184,16 +1184,16 @@
         <x:v>189</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>431</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
-        <x:v>643</x:v>
+        <x:v>646</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
-        <x:v>738</x:v>
+        <x:v>739</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
         <x:v>0</x:v>
@@ -1207,19 +1207,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
         <x:v>528</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>882</x:v>
+        <x:v>890</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>868</x:v>
+        <x:v>870</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>392</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>0</x:v>
@@ -1285,7 +1285,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>0</x:v>
@@ -1314,10 +1314,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
         <x:v>15</x:v>
@@ -1398,7 +1398,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="F35" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G35" s="1" t="n">
         <x:v>4</x:v>
@@ -1441,16 +1441,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C37" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E37" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F37" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G37" s="1" t="n">
         <x:v>49</x:v>
@@ -1470,7 +1470,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
         <x:v>44</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -540,10 +540,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -557,10 +557,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>6</x:v>
@@ -569,7 +569,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -592,10 +592,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
         <x:v>0</x:v>
@@ -612,16 +612,16 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F5" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G5" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H5" s="1" t="n">
         <x:v>0</x:v>
@@ -635,19 +635,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>292</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>254</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>358</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>385</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -661,19 +661,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>437</x:v>
+        <x:v>577</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>592</x:v>
+        <x:v>774</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>1204</x:v>
+        <x:v>1510</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>1200</x:v>
+        <x:v>1524</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>494</x:v>
+        <x:v>632</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -687,19 +687,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -713,19 +713,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>154</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -742,16 +742,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
         <x:v>0</x:v>
@@ -765,19 +765,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
         <x:v>0</x:v>
@@ -791,19 +791,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
         <x:v>0</x:v>
@@ -817,19 +817,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
         <x:v>0</x:v>
@@ -843,19 +843,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>240</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>299</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
         <x:v>0</x:v>
@@ -869,19 +869,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>305</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>612</x:v>
+        <x:v>760</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>692</x:v>
+        <x:v>837</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>261</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>
@@ -907,7 +907,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -930,10 +930,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
         <x:v>0</x:v>
@@ -947,19 +947,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
         <x:v>0</x:v>
@@ -973,19 +973,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>166</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>147</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
         <x:v>0</x:v>
@@ -1037,7 +1037,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
         <x:v>0</x:v>
@@ -1054,13 +1054,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>4</x:v>
@@ -1083,7 +1083,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
         <x:v>1</x:v>
@@ -1135,7 +1135,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F25" s="1" t="n">
         <x:v>0</x:v>
@@ -1158,13 +1158,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E26" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F26" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G26" s="1" t="n">
         <x:v>2</x:v>
@@ -1181,19 +1181,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
-        <x:v>189</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>432</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
-        <x:v>646</x:v>
+        <x:v>811</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
-        <x:v>739</x:v>
+        <x:v>899</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
-        <x:v>267</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
         <x:v>0</x:v>
@@ -1207,19 +1207,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>236</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>528</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>890</x:v>
+        <x:v>1077</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>870</x:v>
+        <x:v>1029</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>393</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>0</x:v>
@@ -1233,19 +1233,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F29" s="1" t="n">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="F29" s="1" t="n">
-        <x:v>16</x:v>
-      </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1259,19 +1259,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
         <x:v>0</x:v>
@@ -1288,7 +1288,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>1</x:v>
@@ -1311,16 +1311,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>10</x:v>
@@ -1363,16 +1363,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C34" s="1" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D34" s="1" t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E34" s="1" t="n">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F34" s="1" t="n">
         <x:v>5</x:v>
-      </x:c>
-      <x:c r="D34" s="1" t="n">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E34" s="1" t="n">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F34" s="1" t="n">
-        <x:v>1</x:v>
       </x:c>
       <x:c r="G34" s="1" t="n">
         <x:v>0</x:v>
@@ -1389,19 +1389,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C35" s="1" t="n">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D35" s="1" t="n">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E35" s="1" t="n">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="D35" s="1" t="n">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="E35" s="1" t="n">
-        <x:v>45</x:v>
-      </x:c>
       <x:c r="F35" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G35" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H35" s="1" t="n">
         <x:v>0</x:v>
@@ -1415,13 +1415,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C36" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E36" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F36" s="1" t="n">
         <x:v>3</x:v>
@@ -1441,19 +1441,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C37" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E37" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F37" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G37" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H37" s="1" t="n">
         <x:v>0</x:v>
@@ -1467,19 +1467,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C38" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G38" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H38" s="1" t="n">
         <x:v>0</x:v>
@@ -1493,19 +1493,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H39" s="1" t="n">
         <x:v>0</x:v>
@@ -1519,16 +1519,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G40" s="1" t="n">
         <x:v>5</x:v>
@@ -1545,19 +1545,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>84</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>166</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
-        <x:v>193</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -635,19 +635,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>370</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>295</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>459</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>479</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -661,19 +661,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>577</x:v>
+        <x:v>581</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>774</x:v>
+        <x:v>776</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>1510</x:v>
+        <x:v>1518</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>1524</x:v>
+        <x:v>1531</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>632</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -713,10 +713,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>193</x:v>
@@ -771,13 +771,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
         <x:v>0</x:v>
@@ -794,13 +794,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>42</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>10</x:v>
@@ -817,19 +817,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>167</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>142</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
         <x:v>0</x:v>
@@ -843,16 +843,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>363</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>87</x:v>
@@ -872,16 +872,16 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>366</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>760</x:v>
+        <x:v>762</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>837</x:v>
+        <x:v>838</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>318</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>
@@ -947,19 +947,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
-        <x:v>104</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
         <x:v>89</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
         <x:v>0</x:v>
@@ -976,16 +976,16 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>214</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
         <x:v>0</x:v>
@@ -1181,19 +1181,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>524</x:v>
+        <x:v>535</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
-        <x:v>811</x:v>
+        <x:v>816</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
-        <x:v>899</x:v>
+        <x:v>904</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
         <x:v>0</x:v>
@@ -1207,19 +1207,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>637</x:v>
+        <x:v>644</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>1077</x:v>
+        <x:v>1086</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>1029</x:v>
+        <x:v>1038</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>475</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>0</x:v>
@@ -1268,7 +1268,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
         <x:v>6</x:v>
@@ -1320,7 +1320,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>10</x:v>
@@ -1441,7 +1441,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C37" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
         <x:v>78</x:v>
@@ -1476,7 +1476,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G38" s="1" t="n">
         <x:v>3</x:v>
@@ -1502,10 +1502,10 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H39" s="1" t="n">
         <x:v>0</x:v>
@@ -1522,7 +1522,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
         <x:v>23</x:v>
@@ -1548,13 +1548,13 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
         <x:v>66</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -609,7 +609,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
         <x:v>5</x:v>
@@ -635,7 +635,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>373</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>298</x:v>
@@ -644,7 +644,7 @@
         <x:v>461</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>480</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>165</x:v>
@@ -661,19 +661,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>581</x:v>
+        <x:v>585</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>776</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>1518</x:v>
+        <x:v>1523</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>1531</x:v>
+        <x:v>1533</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>634</x:v>
+        <x:v>636</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -875,13 +875,13 @@
         <x:v>368</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>762</x:v>
+        <x:v>767</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>838</x:v>
+        <x:v>839</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>320</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>
@@ -956,7 +956,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
         <x:v>29</x:v>
@@ -979,13 +979,13 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
         <x:v>179</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
         <x:v>0</x:v>
@@ -1181,19 +1181,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
-        <x:v>247</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
         <x:v>535</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
-        <x:v>816</x:v>
+        <x:v>818</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
         <x:v>904</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
         <x:v>0</x:v>
@@ -1210,16 +1210,16 @@
         <x:v>316</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>644</x:v>
+        <x:v>647</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>1086</x:v>
+        <x:v>1089</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>1038</x:v>
+        <x:v>1040</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>480</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>0</x:v>
@@ -1453,7 +1453,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="G37" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H37" s="1" t="n">
         <x:v>0</x:v>
@@ -1473,7 +1473,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
         <x:v>35</x:v>
@@ -1531,7 +1531,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="G40" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H40" s="1" t="n">
         <x:v>0</x:v>
@@ -1548,7 +1548,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>199</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>235</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -661,16 +661,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>585</x:v>
+        <x:v>584</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>776</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>1523</x:v>
+        <x:v>1524</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>1533</x:v>
+        <x:v>1534</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>636</x:v>
@@ -693,7 +693,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
         <x:v>56</x:v>
@@ -855,7 +855,7 @@
         <x:v>364</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
         <x:v>0</x:v>
@@ -950,7 +950,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
         <x:v>106</x:v>
@@ -1054,7 +1054,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>12</x:v>
@@ -1181,19 +1181,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>535</x:v>
+        <x:v>536</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
-        <x:v>818</x:v>
+        <x:v>821</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
         <x:v>904</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
         <x:v>0</x:v>
@@ -1207,16 +1207,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>647</x:v>
+        <x:v>648</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
         <x:v>1089</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>1040</x:v>
+        <x:v>1039</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
         <x:v>481</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -635,13 +635,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>380</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>298</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>481</x:v>
@@ -664,13 +664,13 @@
         <x:v>584</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>776</x:v>
+        <x:v>777</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>1524</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>1534</x:v>
+        <x:v>1535</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>636</x:v>
@@ -852,7 +852,7 @@
         <x:v>302</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>364</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>88</x:v>
@@ -869,7 +869,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>368</x:v>
@@ -878,10 +878,10 @@
         <x:v>767</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>839</x:v>
+        <x:v>840</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>
@@ -959,7 +959,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
         <x:v>0</x:v>
@@ -1181,7 +1181,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
         <x:v>536</x:v>
@@ -1190,7 +1190,7 @@
         <x:v>821</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
-        <x:v>904</x:v>
+        <x:v>906</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
         <x:v>344</x:v>
@@ -1210,16 +1210,16 @@
         <x:v>317</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>648</x:v>
+        <x:v>649</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>1089</x:v>
+        <x:v>1091</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>1039</x:v>
+        <x:v>1040</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>481</x:v>
+        <x:v>484</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>0</x:v>
@@ -1239,7 +1239,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
         <x:v>18</x:v>
@@ -1499,7 +1499,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
         <x:v>122</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -638,13 +638,13 @@
         <x:v>381</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>298</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>462</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>481</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>165</x:v>
@@ -667,13 +667,13 @@
         <x:v>777</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>1524</x:v>
+        <x:v>1528</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>1535</x:v>
+        <x:v>1537</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>636</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -696,7 +696,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>13</x:v>
@@ -719,7 +719,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>157</x:v>
@@ -748,7 +748,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>6</x:v>
@@ -797,7 +797,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
         <x:v>42</x:v>
@@ -823,7 +823,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>142</x:v>
@@ -849,7 +849,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>365</x:v>
@@ -872,10 +872,10 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>368</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>767</x:v>
+        <x:v>768</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>840</x:v>
@@ -953,7 +953,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
         <x:v>90</x:v>
@@ -976,10 +976,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
         <x:v>179</x:v>
@@ -1051,7 +1051,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>15</x:v>
@@ -1184,16 +1184,16 @@
         <x:v>251</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>536</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
-        <x:v>821</x:v>
+        <x:v>822</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
         <x:v>906</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
         <x:v>0</x:v>
@@ -1207,16 +1207,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>649</x:v>
+        <x:v>652</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>1091</x:v>
+        <x:v>1092</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>1040</x:v>
+        <x:v>1043</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
         <x:v>484</x:v>
@@ -1392,7 +1392,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="D35" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E35" s="1" t="n">
         <x:v>58</x:v>
@@ -1453,7 +1453,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="G37" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H37" s="1" t="n">
         <x:v>0</x:v>
@@ -1496,10 +1496,10 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
         <x:v>122</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -667,13 +667,13 @@
         <x:v>777</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>1528</x:v>
+        <x:v>1529</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>1537</x:v>
+        <x:v>1538</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>637</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -719,7 +719,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>157</x:v>
@@ -852,7 +852,7 @@
         <x:v>303</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>365</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>88</x:v>
@@ -872,16 +872,16 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>369</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>768</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>840</x:v>
+        <x:v>841</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>
@@ -979,7 +979,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
         <x:v>179</x:v>
@@ -1190,7 +1190,7 @@
         <x:v>822</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
-        <x:v>906</x:v>
+        <x:v>907</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
         <x:v>345</x:v>
@@ -1210,10 +1210,10 @@
         <x:v>318</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>652</x:v>
+        <x:v>653</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>1092</x:v>
+        <x:v>1094</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
         <x:v>1043</x:v>
@@ -1259,7 +1259,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
         <x:v>37</x:v>
@@ -1268,7 +1268,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
         <x:v>6</x:v>
@@ -1444,7 +1444,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E37" s="1" t="n">
         <x:v>86</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -661,19 +661,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>584</x:v>
+        <x:v>586</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>777</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>1529</x:v>
+        <x:v>1530</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>1538</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>638</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -696,7 +696,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>13</x:v>
@@ -719,7 +719,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>157</x:v>
@@ -820,7 +820,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>131</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>168</x:v>
@@ -982,7 +982,7 @@
         <x:v>217</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>179</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>62</x:v>
@@ -1187,13 +1187,13 @@
         <x:v>539</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
-        <x:v>822</x:v>
+        <x:v>824</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
         <x:v>907</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
-        <x:v>345</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
         <x:v>0</x:v>
@@ -1213,7 +1213,7 @@
         <x:v>653</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>1094</x:v>
+        <x:v>1095</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
         <x:v>1043</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -667,7 +667,7 @@
         <x:v>777</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>1530</x:v>
+        <x:v>1531</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>1538</x:v>
@@ -771,7 +771,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>69</x:v>
@@ -823,7 +823,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>142</x:v>
@@ -1190,7 +1190,7 @@
         <x:v>824</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
-        <x:v>907</x:v>
+        <x:v>908</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
         <x:v>346</x:v>
@@ -1213,10 +1213,10 @@
         <x:v>653</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>1095</x:v>
+        <x:v>1096</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>1043</x:v>
+        <x:v>1046</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
         <x:v>484</x:v>
@@ -1499,7 +1499,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
         <x:v>122</x:v>
@@ -1551,7 +1551,7 @@
         <x:v>201</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
         <x:v>178</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -635,13 +635,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>381</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>299</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>482</x:v>
@@ -661,16 +661,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>586</x:v>
+        <x:v>591</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>777</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>1531</x:v>
+        <x:v>1537</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>1538</x:v>
+        <x:v>1541</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>639</x:v>
@@ -722,7 +722,7 @@
         <x:v>197</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>60</x:v>
@@ -745,7 +745,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>46</x:v>
@@ -800,10 +800,10 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
         <x:v>0</x:v>
@@ -820,13 +820,13 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>169</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>36</x:v>
@@ -849,10 +849,10 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>364</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>88</x:v>
@@ -872,16 +872,16 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>370</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>841</x:v>
+        <x:v>842</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>324</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>
@@ -947,19 +947,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>78</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
         <x:v>0</x:v>
@@ -979,10 +979,10 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>62</x:v>
@@ -1158,7 +1158,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E26" s="1" t="n">
         <x:v>11</x:v>
@@ -1181,16 +1181,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
-        <x:v>251</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>539</x:v>
+        <x:v>541</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
-        <x:v>824</x:v>
+        <x:v>831</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
-        <x:v>908</x:v>
+        <x:v>914</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
         <x:v>346</x:v>
@@ -1207,19 +1207,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>318</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>653</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>1096</x:v>
+        <x:v>1106</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>1046</x:v>
+        <x:v>1057</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>484</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>0</x:v>
@@ -1363,7 +1363,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C34" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
         <x:v>17</x:v>
@@ -1389,7 +1389,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C35" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D35" s="1" t="n">
         <x:v>52</x:v>
@@ -1441,7 +1441,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C37" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
         <x:v>79</x:v>
@@ -1502,7 +1502,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
         <x:v>34</x:v>
@@ -1545,7 +1545,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
         <x:v>201</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <x:si>
     <x:t>Offense Category</x:t>
   </x:si>
@@ -53,6 +53,9 @@
   </x:si>
   <x:si>
     <x:t>Assault Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bribery</x:t>
   </x:si>
   <x:si>
     <x:t>Burglary/Breaking &amp; Entering</x:t>
@@ -487,7 +490,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H41"/>
+  <x:dimension ref="A1:H42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -540,7 +543,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>2</x:v>
@@ -560,16 +563,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F3" s="1" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G3" s="1" t="n">
         <x:v>7</x:v>
-      </x:c>
-      <x:c r="E3" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="F3" s="1" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="G3" s="1" t="n">
-        <x:v>4</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -589,10 +592,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>3</x:v>
@@ -609,19 +612,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F5" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G5" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H5" s="1" t="n">
         <x:v>0</x:v>
@@ -635,19 +638,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>386</x:v>
+        <x:v>444</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>300</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>464</x:v>
+        <x:v>573</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>482</x:v>
+        <x:v>591</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>165</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -661,19 +664,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>591</x:v>
+        <x:v>670</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>777</x:v>
+        <x:v>923</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>1537</x:v>
+        <x:v>1825</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>1541</x:v>
+        <x:v>1863</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>639</x:v>
+        <x:v>772</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -687,19 +690,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -707,25 +710,25 @@
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="A9" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>197</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>158</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -736,22 +739,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
         <x:v>0</x:v>
@@ -759,25 +762,25 @@
     </x:row>
     <x:row r="11" spans="1:8">
       <x:c r="A11" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
         <x:v>0</x:v>
@@ -788,22 +791,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D12" s="1" t="n">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="D12" s="1" t="n">
-        <x:v>47</x:v>
-      </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
         <x:v>0</x:v>
@@ -811,25 +814,25 @@
     </x:row>
     <x:row r="13" spans="1:8">
       <x:c r="A13" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>131</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>173</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>144</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
         <x:v>0</x:v>
@@ -840,22 +843,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>304</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>365</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
         <x:v>0</x:v>
@@ -863,25 +866,25 @@
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>372</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>770</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>842</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>327</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>
@@ -892,22 +895,22 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>895</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1015</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -915,25 +918,25 @@
     </x:row>
     <x:row r="17" spans="1:8">
       <x:c r="A17" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
         <x:v>0</x:v>
@@ -944,22 +947,22 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
         <x:v>0</x:v>
@@ -967,25 +970,25 @@
     </x:row>
     <x:row r="19" spans="1:8">
       <x:c r="A19" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>218</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>179</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
         <x:v>0</x:v>
@@ -999,19 +1002,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
         <x:v>0</x:v>
@@ -1022,22 +1025,22 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
         <x:v>0</x:v>
@@ -1045,25 +1048,25 @@
     </x:row>
     <x:row r="22" spans="1:8">
       <x:c r="A22" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
         <x:v>0</x:v>
@@ -1074,22 +1077,22 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
         <x:v>0</x:v>
@@ -1097,25 +1100,25 @@
     </x:row>
     <x:row r="24" spans="1:8">
       <x:c r="A24" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
         <x:v>0</x:v>
@@ -1126,19 +1129,19 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F25" s="1" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="F25" s="1" t="n">
-        <x:v>0</x:v>
       </x:c>
       <x:c r="G25" s="1" t="n">
         <x:v>2</x:v>
@@ -1149,22 +1152,22 @@
     </x:row>
     <x:row r="26" spans="1:8">
       <x:c r="A26" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C26" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E26" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F26" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G26" s="1" t="n">
         <x:v>2</x:v>
@@ -1178,22 +1181,22 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
-        <x:v>263</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>541</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
-        <x:v>831</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
-        <x:v>914</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
-        <x:v>346</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
         <x:v>0</x:v>
@@ -1201,25 +1204,25 @@
     </x:row>
     <x:row r="28" spans="1:8">
       <x:c r="A28" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>321</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>654</x:v>
+        <x:v>649</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>1106</x:v>
+        <x:v>965</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>1057</x:v>
+        <x:v>1066</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>485</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>0</x:v>
@@ -1230,22 +1233,22 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>801</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>1305</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>1242</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>568</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1253,25 +1256,25 @@
     </x:row>
     <x:row r="30" spans="1:8">
       <x:c r="A30" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
         <x:v>0</x:v>
@@ -1282,22 +1285,22 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
         <x:v>0</x:v>
@@ -1305,25 +1308,25 @@
     </x:row>
     <x:row r="32" spans="1:8">
       <x:c r="A32" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
         <x:v>0</x:v>
@@ -1337,19 +1340,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F33" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G33" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H33" s="1" t="n">
         <x:v>0</x:v>
@@ -1360,22 +1363,22 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C34" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E34" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F34" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G34" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H34" s="1" t="n">
         <x:v>0</x:v>
@@ -1383,25 +1386,25 @@
     </x:row>
     <x:row r="35" spans="1:8">
       <x:c r="A35" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C35" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D35" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E35" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F35" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G35" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H35" s="1" t="n">
         <x:v>0</x:v>
@@ -1412,22 +1415,22 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C36" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E36" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F36" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G36" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H36" s="1" t="n">
         <x:v>0</x:v>
@@ -1435,25 +1438,25 @@
     </x:row>
     <x:row r="37" spans="1:8">
       <x:c r="A37" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C37" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E37" s="1" t="n">
-        <x:v>86</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F37" s="1" t="n">
-        <x:v>93</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G37" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H37" s="1" t="n">
         <x:v>0</x:v>
@@ -1464,22 +1467,22 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C38" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="G38" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H38" s="1" t="n">
         <x:v>0</x:v>
@@ -1487,25 +1490,25 @@
     </x:row>
     <x:row r="39" spans="1:8">
       <x:c r="A39" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
-        <x:v>134</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H39" s="1" t="n">
         <x:v>0</x:v>
@@ -1516,22 +1519,22 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="G40" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H40" s="1" t="n">
         <x:v>0</x:v>
@@ -1539,27 +1542,53 @@
     </x:row>
     <x:row r="41" spans="1:8">
       <x:c r="A41" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>201</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
-        <x:v>236</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:8">
+      <x:c r="A42" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C42" s="1" t="n">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="D42" s="1" t="n">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="E42" s="1" t="n">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="F42" s="1" t="n">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="G42" s="1" t="n">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="H42" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -638,10 +638,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>444</x:v>
+        <x:v>442</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>368</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
         <x:v>573</x:v>
@@ -664,16 +664,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>670</x:v>
+        <x:v>674</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>923</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>1825</x:v>
+        <x:v>1826</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>1863</x:v>
+        <x:v>1865</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>772</x:v>
@@ -725,7 +725,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>15</x:v>
@@ -826,7 +826,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>58</x:v>
@@ -846,7 +846,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>148</x:v>
@@ -875,16 +875,16 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>356</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>438</x:v>
+        <x:v>439</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>
@@ -904,13 +904,13 @@
         <x:v>430</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>895</x:v>
+        <x:v>897</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1015</x:v>
+        <x:v>1016</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>390</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -985,7 +985,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>41</x:v>
@@ -1005,13 +1005,13 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>67</x:v>
@@ -1213,13 +1213,13 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>649</x:v>
+        <x:v>650</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>965</x:v>
+        <x:v>967</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>1066</x:v>
+        <x:v>1068</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
         <x:v>396</x:v>
@@ -1239,16 +1239,16 @@
         <x:v>386</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>801</x:v>
+        <x:v>802</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1305</x:v>
+        <x:v>1308</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1242</x:v>
+        <x:v>1245</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>568</x:v>
+        <x:v>571</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1297,7 +1297,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
         <x:v>7</x:v>
@@ -1505,7 +1505,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
         <x:v>4</x:v>
@@ -1583,10 +1583,10 @@
         <x:v>274</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H42" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -638,16 +638,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>442</x:v>
+        <x:v>443</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>369</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>573</x:v>
+        <x:v>574</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>591</x:v>
+        <x:v>593</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>191</x:v>
@@ -664,19 +664,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>674</x:v>
+        <x:v>675</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>923</x:v>
+        <x:v>924</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>1826</x:v>
+        <x:v>1831</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>1865</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>772</x:v>
+        <x:v>774</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -751,7 +751,7 @@
         <x:v>226</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>185</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>70</x:v>
@@ -803,7 +803,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>26</x:v>
@@ -875,13 +875,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>358</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>439</x:v>
+        <x:v>441</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>109</x:v>
@@ -1005,7 +1005,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>257</x:v>
@@ -1213,16 +1213,16 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>650</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>967</x:v>
+        <x:v>971</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>1068</x:v>
+        <x:v>1070</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>396</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>0</x:v>
@@ -1236,19 +1236,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>386</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>802</x:v>
+        <x:v>803</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1308</x:v>
+        <x:v>1310</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1245</x:v>
+        <x:v>1247</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>571</x:v>
+        <x:v>573</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1418,7 +1418,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C36" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
         <x:v>61</x:v>
@@ -1476,7 +1476,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
         <x:v>109</x:v>
@@ -1574,7 +1574,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
         <x:v>244</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -644,10 +644,10 @@
         <x:v>369</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>574</x:v>
+        <x:v>575</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>593</x:v>
+        <x:v>594</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>191</x:v>
@@ -664,16 +664,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>675</x:v>
+        <x:v>677</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>924</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>1831</x:v>
+        <x:v>1834</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>1865</x:v>
+        <x:v>1867</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>774</x:v>
@@ -722,7 +722,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>71</x:v>
@@ -774,7 +774,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>55</x:v>
@@ -800,10 +800,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>26</x:v>
@@ -901,13 +901,13 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>430</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>897</x:v>
+        <x:v>898</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1016</x:v>
+        <x:v>1017</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>391</x:v>
@@ -985,7 +985,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>41</x:v>
@@ -1014,7 +1014,7 @@
         <x:v>217</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
         <x:v>0</x:v>
@@ -1236,10 +1236,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>388</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>803</x:v>
+        <x:v>805</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
         <x:v>1310</x:v>
@@ -1248,7 +1248,7 @@
         <x:v>1247</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>573</x:v>
+        <x:v>574</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1352,7 +1352,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G33" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H33" s="1" t="n">
         <x:v>0</x:v>
@@ -1580,7 +1580,7 @@
         <x:v>244</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
-        <x:v>274</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
         <x:v>212</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -543,10 +543,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -667,13 +667,13 @@
         <x:v>677</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>924</x:v>
+        <x:v>927</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>1834</x:v>
+        <x:v>1835</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>1867</x:v>
+        <x:v>1868</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>774</x:v>
@@ -849,7 +849,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>148</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>203</x:v>
@@ -901,13 +901,13 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>431</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>898</x:v>
+        <x:v>899</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1017</x:v>
+        <x:v>1016</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>391</x:v>
@@ -982,7 +982,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
         <x:v>121</x:v>
@@ -1008,7 +1008,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
         <x:v>217</x:v>
@@ -1086,7 +1086,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
         <x:v>8</x:v>
@@ -1213,10 +1213,10 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>651</x:v>
+        <x:v>650</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>971</x:v>
+        <x:v>973</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
         <x:v>1070</x:v>
@@ -1239,16 +1239,16 @@
         <x:v>389</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>805</x:v>
+        <x:v>806</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1310</x:v>
+        <x:v>1311</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1247</x:v>
+        <x:v>1246</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>574</x:v>
+        <x:v>575</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1271,7 +1271,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
         <x:v>2</x:v>
@@ -1418,10 +1418,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C36" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E36" s="1" t="n">
         <x:v>66</x:v>
@@ -1502,7 +1502,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
         <x:v>46</x:v>
@@ -1528,10 +1528,10 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="G40" s="1" t="n">
         <x:v>37</x:v>
@@ -1554,7 +1554,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
         <x:v>29</x:v>
@@ -1574,10 +1574,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
         <x:v>273</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -638,16 +638,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>443</x:v>
+        <x:v>444</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>369</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>575</x:v>
+        <x:v>577</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>594</x:v>
+        <x:v>593</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>191</x:v>
@@ -670,10 +670,10 @@
         <x:v>927</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>1835</x:v>
+        <x:v>1834</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>1868</x:v>
+        <x:v>1872</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>774</x:v>
@@ -754,7 +754,7 @@
         <x:v>188</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
         <x:v>0</x:v>
@@ -774,7 +774,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>55</x:v>
@@ -829,7 +829,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>16</x:v>
@@ -846,7 +846,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>151</x:v>
@@ -855,7 +855,7 @@
         <x:v>203</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>51</x:v>
@@ -875,10 +875,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>359</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>441</x:v>
@@ -898,13 +898,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>433</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>899</x:v>
+        <x:v>900</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>1016</x:v>
@@ -985,7 +985,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>41</x:v>
@@ -1011,7 +1011,7 @@
         <x:v>258</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>68</x:v>
@@ -1210,13 +1210,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>650</x:v>
+        <x:v>652</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>973</x:v>
+        <x:v>976</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
         <x:v>1070</x:v>
@@ -1239,13 +1239,13 @@
         <x:v>389</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>806</x:v>
+        <x:v>807</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1311</x:v>
+        <x:v>1312</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1246</x:v>
+        <x:v>1247</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
         <x:v>575</x:v>
@@ -1470,13 +1470,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C38" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
         <x:v>93</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
         <x:v>109</x:v>
@@ -1534,7 +1534,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="G40" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H40" s="1" t="n">
         <x:v>0</x:v>
@@ -1577,10 +1577,10 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>243</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
-        <x:v>273</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
         <x:v>212</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -647,10 +647,10 @@
         <x:v>577</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>593</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -664,19 +664,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>677</x:v>
+        <x:v>680</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>927</x:v>
+        <x:v>929</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>1834</x:v>
+        <x:v>1835</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>1872</x:v>
+        <x:v>1878</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>774</x:v>
+        <x:v>777</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -722,7 +722,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>71</x:v>
@@ -777,7 +777,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>9</x:v>
@@ -846,10 +846,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>203</x:v>
@@ -904,7 +904,7 @@
         <x:v>433</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>900</x:v>
+        <x:v>901</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>1016</x:v>
@@ -1008,13 +1008,13 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
         <x:v>218</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
         <x:v>0</x:v>
@@ -1086,7 +1086,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
         <x:v>8</x:v>
@@ -1210,13 +1210,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
         <x:v>652</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>976</x:v>
+        <x:v>980</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
         <x:v>1070</x:v>
@@ -1242,10 +1242,10 @@
         <x:v>807</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1312</x:v>
+        <x:v>1315</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1247</x:v>
+        <x:v>1248</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
         <x:v>575</x:v>
@@ -1288,7 +1288,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>47</x:v>
@@ -1479,7 +1479,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="G38" s="1" t="n">
         <x:v>77</x:v>
@@ -1502,7 +1502,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
         <x:v>46</x:v>
@@ -1525,10 +1525,10 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
         <x:v>142</x:v>
@@ -1554,7 +1554,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
         <x:v>29</x:v>
@@ -1580,10 +1580,10 @@
         <x:v>242</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
-        <x:v>274</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
         <x:v>77</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -638,7 +638,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>444</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>369</x:v>
@@ -647,7 +647,7 @@
         <x:v>577</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>595</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>192</x:v>
@@ -667,16 +667,16 @@
         <x:v>680</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>929</x:v>
+        <x:v>930</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>1835</x:v>
+        <x:v>1837</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>1878</x:v>
+        <x:v>1881</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>777</x:v>
+        <x:v>778</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -748,7 +748,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>188</x:v>
@@ -800,7 +800,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
         <x:v>84</x:v>
@@ -878,13 +878,13 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>360</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>441</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>
@@ -901,13 +901,13 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>433</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>901</x:v>
+        <x:v>903</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1016</x:v>
+        <x:v>1018</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>391</x:v>
@@ -988,7 +988,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
         <x:v>0</x:v>
@@ -1219,10 +1219,10 @@
         <x:v>980</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>1070</x:v>
+        <x:v>1071</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>398</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>0</x:v>
@@ -1236,16 +1236,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>389</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
         <x:v>807</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1315</x:v>
+        <x:v>1316</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1248</x:v>
+        <x:v>1250</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
         <x:v>575</x:v>
@@ -1473,13 +1473,13 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
         <x:v>107</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="G38" s="1" t="n">
         <x:v>77</x:v>
@@ -1496,7 +1496,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
         <x:v>25</x:v>
@@ -1525,7 +1525,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
         <x:v>173</x:v>
@@ -1577,10 +1577,10 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
-        <x:v>275</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
         <x:v>213</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -673,10 +673,10 @@
         <x:v>1837</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>1881</x:v>
+        <x:v>1880</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>778</x:v>
+        <x:v>779</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -852,10 +852,10 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>51</x:v>
@@ -901,13 +901,13 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>434</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>903</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1018</x:v>
+        <x:v>1019</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>391</x:v>
@@ -1216,13 +1216,13 @@
         <x:v>652</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>980</x:v>
+        <x:v>981</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>1071</x:v>
+        <x:v>1072</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>399</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>0</x:v>
@@ -1470,7 +1470,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C38" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
         <x:v>94</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -644,7 +644,7 @@
         <x:v>369</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>577</x:v>
+        <x:v>578</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>596</x:v>
@@ -673,7 +673,7 @@
         <x:v>1837</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>1880</x:v>
+        <x:v>1881</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>779</x:v>
@@ -823,7 +823,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>51</x:v>
@@ -904,10 +904,10 @@
         <x:v>435</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>903</x:v>
+        <x:v>904</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1019</x:v>
+        <x:v>1020</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>391</x:v>
@@ -985,7 +985,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>42</x:v>
@@ -1008,7 +1008,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
         <x:v>218</x:v>
@@ -1210,7 +1210,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
         <x:v>652</x:v>
@@ -1219,10 +1219,10 @@
         <x:v>981</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>1072</x:v>
+        <x:v>1073</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>400</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>0</x:v>
@@ -1245,10 +1245,10 @@
         <x:v>1316</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1250</x:v>
+        <x:v>1252</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>575</x:v>
+        <x:v>576</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1470,10 +1470,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C38" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
         <x:v>107</x:v>
@@ -1551,7 +1551,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>30</x:v>
@@ -1577,7 +1577,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
         <x:v>276</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -641,13 +641,13 @@
         <x:v>445</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>369</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>578</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>596</x:v>
+        <x:v>597</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>192</x:v>
@@ -664,19 +664,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>680</x:v>
+        <x:v>681</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>930</x:v>
+        <x:v>933</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>1837</x:v>
+        <x:v>1840</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>1881</x:v>
+        <x:v>1883</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>779</x:v>
+        <x:v>781</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -751,7 +751,7 @@
         <x:v>227</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>71</x:v>
@@ -771,7 +771,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>37</x:v>
@@ -852,10 +852,10 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>51</x:v>
@@ -881,7 +881,7 @@
         <x:v>363</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>441</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>110</x:v>
@@ -901,13 +901,13 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>435</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>904</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1020</x:v>
+        <x:v>1024</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>391</x:v>
@@ -979,10 +979,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
         <x:v>123</x:v>
@@ -1008,10 +1008,10 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>218</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>70</x:v>
@@ -1089,7 +1089,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
         <x:v>4</x:v>
@@ -1190,7 +1190,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
         <x:v>21</x:v>
@@ -1210,16 +1210,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>652</x:v>
+        <x:v>655</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
         <x:v>981</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>1073</x:v>
+        <x:v>1075</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
         <x:v>401</x:v>
@@ -1236,16 +1236,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>390</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>807</x:v>
+        <x:v>808</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1316</x:v>
+        <x:v>1318</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1252</x:v>
+        <x:v>1255</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
         <x:v>576</x:v>
@@ -1314,7 +1314,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
         <x:v>1</x:v>
@@ -1427,7 +1427,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="F36" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G36" s="1" t="n">
         <x:v>8</x:v>
@@ -1470,7 +1470,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C38" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
         <x:v>95</x:v>
@@ -1508,7 +1508,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H39" s="1" t="n">
         <x:v>0</x:v>
@@ -1580,7 +1580,7 @@
         <x:v>244</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
-        <x:v>276</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
         <x:v>213</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -667,10 +667,10 @@
         <x:v>681</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>933</x:v>
+        <x:v>934</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>1840</x:v>
+        <x:v>1842</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>1883</x:v>
@@ -745,7 +745,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>227</x:v>
@@ -855,7 +855,7 @@
         <x:v>205</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>51</x:v>
@@ -901,16 +901,16 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>436</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>904</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1024</x:v>
+        <x:v>1025</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>391</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -1008,10 +1008,10 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>261</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>70</x:v>
@@ -1245,7 +1245,7 @@
         <x:v>1318</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1255</x:v>
+        <x:v>1256</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
         <x:v>576</x:v>
@@ -1531,7 +1531,7 @@
         <x:v>173</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="G40" s="1" t="n">
         <x:v>38</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -638,7 +638,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>445</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>368</x:v>
@@ -647,7 +647,7 @@
         <x:v>579</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>597</x:v>
+        <x:v>598</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>192</x:v>
@@ -667,16 +667,16 @@
         <x:v>681</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>934</x:v>
+        <x:v>936</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>1842</x:v>
+        <x:v>1844</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>1883</x:v>
+        <x:v>1885</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>781</x:v>
+        <x:v>782</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -722,7 +722,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>71</x:v>
@@ -751,7 +751,7 @@
         <x:v>227</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>71</x:v>
@@ -875,13 +875,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>363</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>440</x:v>
+        <x:v>441</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>110</x:v>
@@ -901,16 +901,16 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>438</x:v>
+        <x:v>439</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>904</x:v>
+        <x:v>903</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1025</x:v>
+        <x:v>1026</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>390</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -982,7 +982,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
         <x:v>123</x:v>
@@ -1008,10 +1008,10 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>262</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>70</x:v>
@@ -1213,10 +1213,10 @@
         <x:v>325</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>655</x:v>
+        <x:v>657</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>981</x:v>
+        <x:v>984</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
         <x:v>1075</x:v>
@@ -1236,19 +1236,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>392</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
         <x:v>808</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1318</x:v>
+        <x:v>1321</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1256</x:v>
+        <x:v>1258</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>576</x:v>
+        <x:v>577</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1352,7 +1352,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G33" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H33" s="1" t="n">
         <x:v>0</x:v>
@@ -1473,7 +1473,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
         <x:v>107</x:v>
@@ -1482,7 +1482,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="G38" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H38" s="1" t="n">
         <x:v>0</x:v>
@@ -1574,13 +1574,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
-        <x:v>277</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
         <x:v>213</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -641,13 +641,13 @@
         <x:v>448</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>368</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>579</x:v>
+        <x:v>580</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>598</x:v>
+        <x:v>599</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>192</x:v>
@@ -667,16 +667,16 @@
         <x:v>681</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>936</x:v>
+        <x:v>939</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>1844</x:v>
+        <x:v>1848</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>1885</x:v>
+        <x:v>1888</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>782</x:v>
+        <x:v>783</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -748,7 +748,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>190</x:v>
@@ -829,7 +829,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>16</x:v>
@@ -846,7 +846,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>152</x:v>
@@ -878,13 +878,13 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>363</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>441</x:v>
+        <x:v>442</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>
@@ -901,16 +901,16 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>439</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>903</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1026</x:v>
+        <x:v>1027</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>391</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -982,7 +982,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
         <x:v>123</x:v>
@@ -1008,10 +1008,10 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>263</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>70</x:v>
@@ -1213,10 +1213,10 @@
         <x:v>325</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>657</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>984</x:v>
+        <x:v>985</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
         <x:v>1075</x:v>
@@ -1239,16 +1239,16 @@
         <x:v>393</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>808</x:v>
+        <x:v>809</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1321</x:v>
+        <x:v>1323</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1258</x:v>
+        <x:v>1261</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>577</x:v>
+        <x:v>576</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1268,7 +1268,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
         <x:v>23</x:v>
@@ -1294,7 +1294,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
         <x:v>82</x:v>
@@ -1346,7 +1346,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F33" s="1" t="n">
         <x:v>21</x:v>
@@ -1479,7 +1479,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="G38" s="1" t="n">
         <x:v>78</x:v>
@@ -1583,7 +1583,7 @@
         <x:v>278</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
         <x:v>77</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -641,16 +641,16 @@
         <x:v>448</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>372</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>580</x:v>
+        <x:v>581</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>599</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -664,16 +664,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>681</x:v>
+        <x:v>683</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>939</x:v>
+        <x:v>938</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>1848</x:v>
+        <x:v>1849</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>1888</x:v>
+        <x:v>1889</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>783</x:v>
@@ -754,7 +754,7 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
         <x:v>0</x:v>
@@ -777,7 +777,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>9</x:v>
@@ -820,7 +820,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>54</x:v>
@@ -855,7 +855,7 @@
         <x:v>205</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>51</x:v>
@@ -881,7 +881,7 @@
         <x:v>364</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>442</x:v>
+        <x:v>443</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>111</x:v>
@@ -898,7 +898,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>440</x:v>
@@ -907,7 +907,7 @@
         <x:v>903</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1027</x:v>
+        <x:v>1031</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>392</x:v>
@@ -1002,7 +1002,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>143</x:v>
@@ -1014,7 +1014,7 @@
         <x:v>224</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
         <x:v>0</x:v>
@@ -1089,7 +1089,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
         <x:v>4</x:v>
@@ -1213,16 +1213,16 @@
         <x:v>325</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>659</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>985</x:v>
+        <x:v>990</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>1075</x:v>
+        <x:v>1081</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>401</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>0</x:v>
@@ -1236,16 +1236,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>393</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>809</x:v>
+        <x:v>811</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1323</x:v>
+        <x:v>1327</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1261</x:v>
+        <x:v>1267</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
         <x:v>576</x:v>
@@ -1470,16 +1470,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C38" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G38" s="1" t="n">
         <x:v>78</x:v>
@@ -1502,7 +1502,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
         <x:v>46</x:v>
@@ -1580,7 +1580,7 @@
         <x:v>245</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
         <x:v>214</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -537,16 +537,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -566,13 +566,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F3" s="1" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G3" s="1" t="n">
         <x:v>8</x:v>
-      </x:c>
-      <x:c r="F3" s="1" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G3" s="1" t="n">
-        <x:v>7</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -595,7 +595,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>3</x:v>
@@ -618,13 +618,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F5" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G5" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H5" s="1" t="n">
         <x:v>0</x:v>
@@ -638,19 +638,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>448</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>373</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>581</x:v>
+        <x:v>680</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>600</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>193</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -664,19 +664,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>683</x:v>
+        <x:v>758</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>938</x:v>
+        <x:v>1141</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>1849</x:v>
+        <x:v>2154</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>1889</x:v>
+        <x:v>2230</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>783</x:v>
+        <x:v>933</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -696,7 +696,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
         <x:v>1</x:v>
@@ -716,19 +716,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -742,19 +742,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>226</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>190</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
         <x:v>0</x:v>
@@ -774,13 +774,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
         <x:v>0</x:v>
@@ -797,16 +797,16 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>84</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
         <x:v>0</x:v>
@@ -820,19 +820,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
         <x:v>0</x:v>
@@ -846,19 +846,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>146</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>152</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>205</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>180</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
         <x:v>0</x:v>
@@ -872,19 +872,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>181</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>364</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>443</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>
@@ -898,19 +898,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>440</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>903</x:v>
+        <x:v>1056</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1031</x:v>
+        <x:v>1205</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>392</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -930,7 +930,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
         <x:v>3</x:v>
@@ -956,7 +956,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
         <x:v>9</x:v>
@@ -976,19 +976,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>123</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
         <x:v>0</x:v>
@@ -1002,19 +1002,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>143</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>264</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>224</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
         <x:v>0</x:v>
@@ -1037,7 +1037,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
         <x:v>0</x:v>
@@ -1060,7 +1060,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
         <x:v>2</x:v>
@@ -1080,16 +1080,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F23" s="1" t="n">
         <x:v>13</x:v>
-      </x:c>
-      <x:c r="F23" s="1" t="n">
-        <x:v>10</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
         <x:v>4</x:v>
@@ -1164,10 +1164,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E26" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F26" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G26" s="1" t="n">
         <x:v>2</x:v>
@@ -1187,16 +1187,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E27" s="1" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F27" s="1" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G27" s="1" t="n">
         <x:v>8</x:v>
-      </x:c>
-      <x:c r="E27" s="1" t="n">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="F27" s="1" t="n">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G27" s="1" t="n">
-        <x:v>6</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
         <x:v>0</x:v>
@@ -1210,19 +1210,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>325</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>660</x:v>
+        <x:v>779</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>990</x:v>
+        <x:v>1180</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>1081</x:v>
+        <x:v>1290</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>402</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>0</x:v>
@@ -1236,19 +1236,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>395</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>811</x:v>
+        <x:v>949</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1327</x:v>
+        <x:v>1559</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1267</x:v>
+        <x:v>1511</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>576</x:v>
+        <x:v>672</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1262,16 +1262,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
         <x:v>2</x:v>
@@ -1288,19 +1288,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
         <x:v>0</x:v>
@@ -1314,10 +1314,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
         <x:v>1</x:v>
@@ -1346,10 +1346,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F33" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G33" s="1" t="n">
         <x:v>13</x:v>
@@ -1392,16 +1392,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C35" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D35" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E35" s="1" t="n">
         <x:v>23</x:v>
       </x:c>
       <x:c r="F35" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G35" s="1" t="n">
         <x:v>0</x:v>
@@ -1418,19 +1418,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C36" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E36" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F36" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G36" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H36" s="1" t="n">
         <x:v>0</x:v>
@@ -1447,7 +1447,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E37" s="1" t="n">
         <x:v>1</x:v>
@@ -1470,19 +1470,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C38" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G38" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H38" s="1" t="n">
         <x:v>0</x:v>
@@ -1496,19 +1496,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H39" s="1" t="n">
         <x:v>0</x:v>
@@ -1522,19 +1522,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
-        <x:v>173</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
-        <x:v>144</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="G40" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H40" s="1" t="n">
         <x:v>0</x:v>
@@ -1551,16 +1551,16 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
         <x:v>0</x:v>
@@ -1574,19 +1574,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>245</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
-        <x:v>279</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>214</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="H42" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -569,7 +569,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>8</x:v>
@@ -638,16 +638,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>504</x:v>
+        <x:v>507</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>428</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>680</x:v>
+        <x:v>681</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>714</x:v>
+        <x:v>715</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>223</x:v>
@@ -667,10 +667,10 @@
         <x:v>758</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1141</x:v>
+        <x:v>1143</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>2154</x:v>
+        <x:v>2156</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>2230</x:v>
@@ -846,7 +846,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>177</x:v>
@@ -904,10 +904,10 @@
         <x:v>500</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1056</x:v>
+        <x:v>1058</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1205</x:v>
+        <x:v>1207</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>462</x:v>
@@ -1008,7 +1008,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
         <x:v>266</x:v>
@@ -1213,16 +1213,16 @@
         <x:v>386</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>779</x:v>
+        <x:v>780</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>1180</x:v>
+        <x:v>1181</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
         <x:v>1290</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>485</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>0</x:v>
@@ -1239,16 +1239,16 @@
         <x:v>452</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>949</x:v>
+        <x:v>951</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1559</x:v>
+        <x:v>1561</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
         <x:v>1511</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>672</x:v>
+        <x:v>675</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1294,7 +1294,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
         <x:v>94</x:v>
@@ -1580,7 +1580,7 @@
         <x:v>302</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
         <x:v>265</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -644,10 +644,10 @@
         <x:v>428</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>681</x:v>
+        <x:v>682</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>715</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>223</x:v>
@@ -664,19 +664,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>758</x:v>
+        <x:v>760</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1143</x:v>
+        <x:v>1145</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>2156</x:v>
+        <x:v>2159</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>2230</x:v>
+        <x:v>2232</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>933</x:v>
+        <x:v>935</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -745,16 +745,16 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>277</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>231</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
         <x:v>0</x:v>
@@ -826,10 +826,10 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>22</x:v>
@@ -846,13 +846,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>166</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>177</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>238</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>214</x:v>
@@ -878,7 +878,7 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>410</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>512</x:v>
@@ -901,13 +901,13 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>500</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1058</x:v>
+        <x:v>1060</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1207</x:v>
+        <x:v>1208</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>462</x:v>
@@ -1008,13 +1008,13 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>304</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>266</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
         <x:v>0</x:v>
@@ -1213,16 +1213,16 @@
         <x:v>386</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>780</x:v>
+        <x:v>782</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
         <x:v>1181</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>1290</x:v>
+        <x:v>1301</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>487</x:v>
+        <x:v>488</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>0</x:v>
@@ -1236,19 +1236,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>452</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>951</x:v>
+        <x:v>953</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1561</x:v>
+        <x:v>1562</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1511</x:v>
+        <x:v>1514</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>675</x:v>
+        <x:v>676</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1343,7 +1343,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
         <x:v>23</x:v>
@@ -1479,7 +1479,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="G38" s="1" t="n">
         <x:v>87</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -650,7 +650,7 @@
         <x:v>714</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -670,13 +670,13 @@
         <x:v>1145</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>2159</x:v>
+        <x:v>2160</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>2232</x:v>
+        <x:v>2233</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>935</x:v>
+        <x:v>934</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -742,13 +742,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>131</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>278</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>231</x:v>
@@ -777,7 +777,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>12</x:v>
@@ -852,7 +852,7 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>214</x:v>
@@ -878,10 +878,10 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>411</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>512</x:v>
+        <x:v>514</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>136</x:v>
@@ -898,19 +898,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>501</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1060</x:v>
+        <x:v>1062</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1208</x:v>
+        <x:v>1210</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>462</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -956,7 +956,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
         <x:v>9</x:v>
@@ -985,7 +985,7 @@
         <x:v>156</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>46</x:v>
@@ -1008,13 +1008,13 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
         <x:v>268</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
         <x:v>0</x:v>
@@ -1210,16 +1210,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>386</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
         <x:v>782</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>1181</x:v>
+        <x:v>1183</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>1301</x:v>
+        <x:v>1303</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
         <x:v>488</x:v>
@@ -1236,19 +1236,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>453</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>953</x:v>
+        <x:v>957</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1562</x:v>
+        <x:v>1569</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1514</x:v>
+        <x:v>1517</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>676</x:v>
+        <x:v>677</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1294,10 +1294,10 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
         <x:v>10</x:v>
@@ -1401,7 +1401,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F35" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G35" s="1" t="n">
         <x:v>0</x:v>
@@ -1473,13 +1473,13 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
         <x:v>136</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G38" s="1" t="n">
         <x:v>87</x:v>
@@ -1577,7 +1577,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>302</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
         <x:v>325</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -641,13 +641,13 @@
         <x:v>507</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>428</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>682</x:v>
+        <x:v>683</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>714</x:v>
+        <x:v>716</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>224</x:v>
@@ -667,13 +667,13 @@
         <x:v>760</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1145</x:v>
+        <x:v>1146</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>2160</x:v>
+        <x:v>2163</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>2233</x:v>
+        <x:v>2234</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>934</x:v>
@@ -742,7 +742,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>131</x:v>
@@ -751,7 +751,7 @@
         <x:v>277</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>231</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>86</x:v>
@@ -881,7 +881,7 @@
         <x:v>413</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>514</x:v>
+        <x:v>515</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>136</x:v>
@@ -904,13 +904,13 @@
         <x:v>502</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1062</x:v>
+        <x:v>1064</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1210</x:v>
+        <x:v>1211</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -1005,13 +1005,13 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>268</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>90</x:v>
@@ -1083,7 +1083,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>16</x:v>
@@ -1213,16 +1213,16 @@
         <x:v>388</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>782</x:v>
+        <x:v>784</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>1183</x:v>
+        <x:v>1187</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>1303</x:v>
+        <x:v>1308</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>488</x:v>
+        <x:v>490</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>0</x:v>
@@ -1236,19 +1236,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>454</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>957</x:v>
+        <x:v>959</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1569</x:v>
+        <x:v>1573</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1517</x:v>
+        <x:v>1522</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>677</x:v>
+        <x:v>679</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1288,7 +1288,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>59</x:v>
@@ -1346,7 +1346,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F33" s="1" t="n">
         <x:v>24</x:v>
@@ -1470,7 +1470,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C38" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
         <x:v>114</x:v>
@@ -1531,7 +1531,7 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="G40" s="1" t="n">
         <x:v>47</x:v>
@@ -1580,7 +1580,7 @@
         <x:v>304</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
         <x:v>265</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -638,19 +638,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>507</x:v>
+        <x:v>508</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>431</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>683</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>716</x:v>
+        <x:v>717</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -670,13 +670,13 @@
         <x:v>1146</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>2163</x:v>
+        <x:v>2164</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>2234</x:v>
+        <x:v>2239</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>934</x:v>
+        <x:v>936</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -803,7 +803,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>29</x:v>
@@ -846,7 +846,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>177</x:v>
@@ -904,10 +904,10 @@
         <x:v>502</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1064</x:v>
+        <x:v>1065</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1211</x:v>
+        <x:v>1212</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>464</x:v>
@@ -979,13 +979,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>156</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>46</x:v>
@@ -1005,7 +1005,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>309</x:v>
@@ -1213,13 +1213,13 @@
         <x:v>388</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>784</x:v>
+        <x:v>785</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
         <x:v>1187</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>1308</x:v>
+        <x:v>1310</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
         <x:v>490</x:v>
@@ -1236,19 +1236,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>456</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>959</x:v>
+        <x:v>961</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1573</x:v>
+        <x:v>1572</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1522</x:v>
+        <x:v>1524</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>679</x:v>
+        <x:v>680</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1268,7 +1268,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
         <x:v>28</x:v>
@@ -1531,7 +1531,7 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="G40" s="1" t="n">
         <x:v>47</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -641,13 +641,13 @@
         <x:v>508</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>432</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
         <x:v>684</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>717</x:v>
+        <x:v>718</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>225</x:v>
@@ -664,19 +664,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>760</x:v>
+        <x:v>761</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1146</x:v>
+        <x:v>1148</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>2164</x:v>
+        <x:v>2167</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>2239</x:v>
+        <x:v>2242</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>936</x:v>
+        <x:v>939</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -774,7 +774,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>67</x:v>
@@ -820,7 +820,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>65</x:v>
@@ -829,7 +829,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>22</x:v>
@@ -849,7 +849,7 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>241</x:v>
@@ -881,7 +881,7 @@
         <x:v>413</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>515</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>136</x:v>
@@ -901,16 +901,16 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>502</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1065</x:v>
+        <x:v>1068</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1212</x:v>
+        <x:v>1215</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -1011,7 +1011,7 @@
         <x:v>309</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>269</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>90</x:v>
@@ -1083,13 +1083,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>16</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
         <x:v>4</x:v>
@@ -1167,7 +1167,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F26" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G26" s="1" t="n">
         <x:v>2</x:v>
@@ -1216,10 +1216,10 @@
         <x:v>785</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>1187</x:v>
+        <x:v>1190</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>1310</x:v>
+        <x:v>1312</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
         <x:v>490</x:v>
@@ -1236,7 +1236,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
         <x:v>961</x:v>
@@ -1245,10 +1245,10 @@
         <x:v>1572</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1524</x:v>
+        <x:v>1523</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>680</x:v>
+        <x:v>681</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1343,7 +1343,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
         <x:v>24</x:v>
@@ -1424,7 +1424,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E36" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F36" s="1" t="n">
         <x:v>59</x:v>
@@ -1479,7 +1479,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="G38" s="1" t="n">
         <x:v>87</x:v>
@@ -1580,7 +1580,7 @@
         <x:v>304</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
         <x:v>265</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -546,7 +546,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -638,13 +638,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>508</x:v>
+        <x:v>509</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>433</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>684</x:v>
+        <x:v>685</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>718</x:v>
@@ -774,10 +774,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>12</x:v>
@@ -800,10 +800,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>29</x:v>
@@ -846,7 +846,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>178</x:v>
@@ -901,7 +901,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>503</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>1068</x:v>
@@ -982,10 +982,10 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>46</x:v>
@@ -1138,7 +1138,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F25" s="1" t="n">
         <x:v>4</x:v>
@@ -1210,7 +1210,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>388</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
         <x:v>785</x:v>
@@ -1219,7 +1219,7 @@
         <x:v>1190</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>1312</x:v>
+        <x:v>1313</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
         <x:v>490</x:v>
@@ -1236,19 +1236,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>460</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
         <x:v>961</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1572</x:v>
+        <x:v>1573</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1523</x:v>
+        <x:v>1524</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>681</x:v>
+        <x:v>682</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1522,16 +1522,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
         <x:v>98</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="G40" s="1" t="n">
         <x:v>47</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -803,7 +803,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>29</x:v>
@@ -1005,7 +1005,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>159</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>309</x:v>
@@ -1213,7 +1213,7 @@
         <x:v>389</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>785</x:v>
+        <x:v>788</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
         <x:v>1190</x:v>
@@ -1239,10 +1239,10 @@
         <x:v>464</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>961</x:v>
+        <x:v>962</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1573</x:v>
+        <x:v>1575</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
         <x:v>1524</x:v>
@@ -1395,7 +1395,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D35" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E35" s="1" t="n">
         <x:v>23</x:v>
@@ -1580,7 +1580,7 @@
         <x:v>304</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
         <x:v>265</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -641,10 +641,10 @@
         <x:v>509</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>433</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>685</x:v>
+        <x:v>686</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>718</x:v>
@@ -667,16 +667,16 @@
         <x:v>761</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1148</x:v>
+        <x:v>1149</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>2167</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>2242</x:v>
+        <x:v>2243</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>939</x:v>
+        <x:v>940</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -855,7 +855,7 @@
         <x:v>241</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>59</x:v>
@@ -901,10 +901,10 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>504</x:v>
+        <x:v>505</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1068</x:v>
+        <x:v>1070</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>1215</x:v>
@@ -979,7 +979,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>157</x:v>
@@ -1083,10 +1083,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
         <x:v>14</x:v>
@@ -1528,7 +1528,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
         <x:v>180</x:v>
@@ -1583,7 +1583,7 @@
         <x:v>329</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>265</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
         <x:v>97</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -638,13 +638,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>509</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>434</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>686</x:v>
+        <x:v>688</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>718</x:v>
@@ -670,13 +670,13 @@
         <x:v>1149</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>2167</x:v>
+        <x:v>2168</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>2243</x:v>
+        <x:v>2244</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>940</x:v>
+        <x:v>942</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -751,7 +751,7 @@
         <x:v>277</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>86</x:v>
@@ -849,13 +849,13 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>59</x:v>
@@ -881,7 +881,7 @@
         <x:v>413</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>517</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>136</x:v>
@@ -904,13 +904,13 @@
         <x:v>505</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1070</x:v>
+        <x:v>1072</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1215</x:v>
+        <x:v>1216</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>465</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -982,7 +982,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
         <x:v>152</x:v>
@@ -1005,13 +1005,13 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>309</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>272</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>90</x:v>
@@ -1213,10 +1213,10 @@
         <x:v>389</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>788</x:v>
+        <x:v>789</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>1190</x:v>
+        <x:v>1191</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
         <x:v>1313</x:v>
@@ -1245,7 +1245,7 @@
         <x:v>1575</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1524</x:v>
+        <x:v>1526</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
         <x:v>682</x:v>
@@ -1291,7 +1291,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>76</x:v>
@@ -1473,7 +1473,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
         <x:v>136</x:v>
@@ -1482,7 +1482,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="G38" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H38" s="1" t="n">
         <x:v>0</x:v>
@@ -1528,7 +1528,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
         <x:v>180</x:v>
@@ -1586,7 +1586,7 @@
         <x:v>266</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H42" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -638,7 +638,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>510</x:v>
+        <x:v>513</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>435</x:v>
@@ -647,7 +647,7 @@
         <x:v>688</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>718</x:v>
+        <x:v>720</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>225</x:v>
@@ -667,7 +667,7 @@
         <x:v>761</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1149</x:v>
+        <x:v>1150</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>2168</x:v>
@@ -676,7 +676,7 @@
         <x:v>2244</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>942</x:v>
+        <x:v>945</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -846,10 +846,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>172</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>242</x:v>
@@ -875,7 +875,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>413</x:v>
@@ -907,7 +907,7 @@
         <x:v>1072</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1216</x:v>
+        <x:v>1217</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>467</x:v>
@@ -982,7 +982,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
         <x:v>152</x:v>
@@ -1014,7 +1014,7 @@
         <x:v>273</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
         <x:v>0</x:v>
@@ -1057,7 +1057,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>5</x:v>
@@ -1213,16 +1213,16 @@
         <x:v>389</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>789</x:v>
+        <x:v>794</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>1191</x:v>
+        <x:v>1196</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>1313</x:v>
+        <x:v>1314</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>490</x:v>
+        <x:v>491</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>0</x:v>
@@ -1236,19 +1236,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
         <x:v>962</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1575</x:v>
+        <x:v>1578</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1526</x:v>
+        <x:v>1528</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>682</x:v>
+        <x:v>683</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1268,7 +1268,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
         <x:v>28</x:v>
@@ -1398,7 +1398,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E35" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F35" s="1" t="n">
         <x:v>11</x:v>
@@ -1473,7 +1473,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
         <x:v>136</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -540,13 +540,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -563,13 +563,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>8</x:v>
@@ -592,7 +592,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
         <x:v>14</x:v>
@@ -618,13 +618,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F5" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G5" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H5" s="1" t="n">
         <x:v>0</x:v>
@@ -638,19 +638,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>513</x:v>
+        <x:v>552</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>435</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>688</x:v>
+        <x:v>807</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>720</x:v>
+        <x:v>800</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>225</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -664,19 +664,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>761</x:v>
+        <x:v>838</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1150</x:v>
+        <x:v>1314</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>2168</x:v>
+        <x:v>2481</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>2244</x:v>
+        <x:v>2562</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>945</x:v>
+        <x:v>1088</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -716,19 +716,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -742,19 +742,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>131</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>277</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>231</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>86</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
         <x:v>0</x:v>
@@ -768,19 +768,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
         <x:v>0</x:v>
@@ -797,13 +797,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>100</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>29</x:v>
@@ -820,19 +820,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
         <x:v>0</x:v>
@@ -846,19 +846,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>174</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>180</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>242</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>216</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
         <x:v>0</x:v>
@@ -872,19 +872,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>210</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>413</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>518</x:v>
+        <x:v>583</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>
@@ -898,19 +898,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>505</x:v>
+        <x:v>573</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1072</x:v>
+        <x:v>1212</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1217</x:v>
+        <x:v>1381</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>467</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -927,13 +927,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>3</x:v>
@@ -956,7 +956,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
         <x:v>9</x:v>
@@ -976,19 +976,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>100</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>160</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>152</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
         <x:v>0</x:v>
@@ -1002,19 +1002,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>163</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>310</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>273</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
         <x:v>0</x:v>
@@ -1057,16 +1057,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G22" s="1" t="n">
         <x:v>2</x:v>
-      </x:c>
-      <x:c r="G22" s="1" t="n">
-        <x:v>1</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
         <x:v>0</x:v>
@@ -1080,16 +1080,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
         <x:v>4</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G25" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H25" s="1" t="n">
         <x:v>0</x:v>
@@ -1164,10 +1164,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E26" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F26" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G26" s="1" t="n">
         <x:v>2</x:v>
@@ -1187,13 +1187,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
         <x:v>8</x:v>
@@ -1210,19 +1210,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>389</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>794</x:v>
+        <x:v>908</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>1196</x:v>
+        <x:v>1381</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>1314</x:v>
+        <x:v>1505</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>491</x:v>
+        <x:v>560</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>0</x:v>
@@ -1236,19 +1236,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>465</x:v>
+        <x:v>535</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>962</x:v>
+        <x:v>1099</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1578</x:v>
+        <x:v>1830</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1528</x:v>
+        <x:v>1746</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>683</x:v>
+        <x:v>775</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1262,19 +1262,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
         <x:v>0</x:v>
@@ -1288,19 +1288,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
         <x:v>0</x:v>
@@ -1340,19 +1340,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F33" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G33" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H33" s="1" t="n">
         <x:v>0</x:v>
@@ -1369,7 +1369,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E34" s="1" t="n">
         <x:v>4</x:v>
@@ -1392,16 +1392,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C35" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D35" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E35" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F35" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G35" s="1" t="n">
         <x:v>0</x:v>
@@ -1418,19 +1418,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C36" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
-        <x:v>86</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E36" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F36" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G36" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H36" s="1" t="n">
         <x:v>0</x:v>
@@ -1470,19 +1470,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C38" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="G38" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="H38" s="1" t="n">
         <x:v>0</x:v>
@@ -1496,16 +1496,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
         <x:v>6</x:v>
@@ -1522,19 +1522,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
-        <x:v>202</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
-        <x:v>180</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="G40" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H40" s="1" t="n">
         <x:v>0</x:v>
@@ -1548,19 +1548,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F41" s="1" t="n">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="F41" s="1" t="n">
-        <x:v>34</x:v>
-      </x:c>
       <x:c r="G41" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
         <x:v>0</x:v>
@@ -1574,19 +1574,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>160</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>304</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
-        <x:v>329</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>266</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H42" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -638,19 +638,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>552</x:v>
+        <x:v>554</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>494</x:v>
+        <x:v>496</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>807</x:v>
+        <x:v>813</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>800</x:v>
+        <x:v>804</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -667,16 +667,16 @@
         <x:v>838</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1314</x:v>
+        <x:v>1327</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>2481</x:v>
+        <x:v>2492</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>2562</x:v>
+        <x:v>2571</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1088</x:v>
+        <x:v>1094</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -748,13 +748,13 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>313</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>276</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
         <x:v>0</x:v>
@@ -806,7 +806,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
         <x:v>0</x:v>
@@ -846,13 +846,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>203</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>278</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>255</x:v>
@@ -878,13 +878,13 @@
         <x:v>232</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>476</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>583</x:v>
+        <x:v>582</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>
@@ -898,16 +898,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>573</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1212</x:v>
+        <x:v>1213</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1381</x:v>
+        <x:v>1380</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>534</x:v>
@@ -953,7 +953,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
         <x:v>7</x:v>
@@ -985,7 +985,7 @@
         <x:v>188</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>170</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>51</x:v>
@@ -1005,13 +1005,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>346</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>102</x:v>
@@ -1086,7 +1086,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
         <x:v>16</x:v>
@@ -1190,13 +1190,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
         <x:v>27</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
         <x:v>0</x:v>
@@ -1210,19 +1210,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>455</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>908</x:v>
+        <x:v>910</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>1381</x:v>
+        <x:v>1383</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>1505</x:v>
+        <x:v>1508</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>560</x:v>
+        <x:v>563</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>0</x:v>
@@ -1236,19 +1236,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>535</x:v>
+        <x:v>540</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>1099</x:v>
+        <x:v>1105</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1830</x:v>
+        <x:v>1834</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1746</x:v>
+        <x:v>1751</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>775</x:v>
+        <x:v>777</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1268,7 +1268,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
         <x:v>30</x:v>
@@ -1288,10 +1288,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>89</x:v>
@@ -1479,10 +1479,10 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="G38" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H38" s="1" t="n">
         <x:v>0</x:v>
@@ -1583,7 +1583,7 @@
         <x:v>362</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>307</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
         <x:v>117</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -612,7 +612,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
         <x:v>5</x:v>
@@ -638,19 +638,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>554</x:v>
+        <x:v>555</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>496</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>813</x:v>
+        <x:v>814</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>804</x:v>
+        <x:v>808</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -664,19 +664,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>838</x:v>
+        <x:v>843</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1327</x:v>
+        <x:v>1329</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>2492</x:v>
+        <x:v>2503</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>2571</x:v>
+        <x:v>2578</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1094</x:v>
+        <x:v>1098</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -722,7 +722,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>98</x:v>
@@ -751,10 +751,10 @@
         <x:v>316</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
         <x:v>0</x:v>
@@ -768,19 +768,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>45</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
         <x:v>0</x:v>
@@ -797,16 +797,16 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
         <x:v>113</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
         <x:v>0</x:v>
@@ -820,16 +820,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>70</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>27</x:v>
@@ -846,10 +846,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>280</x:v>
@@ -858,7 +858,7 @@
         <x:v>255</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
         <x:v>0</x:v>
@@ -875,16 +875,16 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>232</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>477</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>582</x:v>
+        <x:v>590</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>
@@ -901,16 +901,16 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>573</x:v>
+        <x:v>574</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1213</x:v>
+        <x:v>1225</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1380</x:v>
+        <x:v>1389</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>534</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -956,7 +956,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
         <x:v>9</x:v>
@@ -982,10 +982,10 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>188</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>51</x:v>
@@ -1005,10 +1005,10 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>346</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
         <x:v>317</x:v>
@@ -1210,19 +1210,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>457</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>910</x:v>
+        <x:v>915</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>1383</x:v>
+        <x:v>1388</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>1508</x:v>
+        <x:v>1519</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>563</x:v>
+        <x:v>566</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>0</x:v>
@@ -1236,19 +1236,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>540</x:v>
+        <x:v>554</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>1105</x:v>
+        <x:v>1114</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1834</x:v>
+        <x:v>1839</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1751</x:v>
+        <x:v>1761</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>777</x:v>
+        <x:v>780</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1288,16 +1288,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>70</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
         <x:v>13</x:v>
@@ -1418,7 +1418,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C36" s="1" t="n">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
         <x:v>100</x:v>
@@ -1476,10 +1476,10 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G38" s="1" t="n">
         <x:v>98</x:v>
@@ -1499,7 +1499,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
         <x:v>66</x:v>
@@ -1528,13 +1528,13 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
-        <x:v>235</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
         <x:v>225</x:v>
       </x:c>
       <x:c r="G40" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H40" s="1" t="n">
         <x:v>0</x:v>
@@ -1554,10 +1554,10 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
         <x:v>10</x:v>
@@ -1574,19 +1574,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
-        <x:v>362</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>309</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H42" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -667,16 +667,16 @@
         <x:v>843</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1329</x:v>
+        <x:v>1332</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>2503</x:v>
+        <x:v>2505</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>2578</x:v>
+        <x:v>2579</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1098</x:v>
+        <x:v>1100</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -722,7 +722,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>98</x:v>
@@ -878,7 +878,7 @@
         <x:v>235</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>481</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>590</x:v>
@@ -901,16 +901,16 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>574</x:v>
+        <x:v>575</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1225</x:v>
+        <x:v>1226</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1389</x:v>
+        <x:v>1390</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>538</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -982,7 +982,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
         <x:v>173</x:v>
@@ -1011,10 +1011,10 @@
         <x:v>348</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
         <x:v>0</x:v>
@@ -1210,16 +1210,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>462</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>915</x:v>
+        <x:v>917</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>1388</x:v>
+        <x:v>1391</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>1519</x:v>
+        <x:v>1521</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
         <x:v>566</x:v>
@@ -1236,19 +1236,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>554</x:v>
+        <x:v>555</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>1114</x:v>
+        <x:v>1115</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1839</x:v>
+        <x:v>1844</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1761</x:v>
+        <x:v>1763</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>780</x:v>
+        <x:v>782</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1343,10 +1343,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F33" s="1" t="n">
         <x:v>29</x:v>
@@ -1525,7 +1525,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
         <x:v>237</x:v>
@@ -1580,7 +1580,7 @@
         <x:v>349</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
         <x:v>310</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -667,10 +667,10 @@
         <x:v>843</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1332</x:v>
+        <x:v>1334</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>2505</x:v>
+        <x:v>2506</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>2579</x:v>
@@ -878,10 +878,10 @@
         <x:v>235</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>482</x:v>
+        <x:v>483</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>590</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>155</x:v>
@@ -907,7 +907,7 @@
         <x:v>1226</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1390</x:v>
+        <x:v>1394</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>539</x:v>
@@ -950,7 +950,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>2</x:v>
@@ -979,16 +979,16 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
         <x:v>0</x:v>
@@ -1005,13 +1005,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>348</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>318</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>103</x:v>
@@ -1210,19 +1210,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>917</x:v>
+        <x:v>920</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>1391</x:v>
+        <x:v>1393</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
         <x:v>1521</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>566</x:v>
+        <x:v>567</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>0</x:v>
@@ -1239,16 +1239,16 @@
         <x:v>555</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>1115</x:v>
+        <x:v>1116</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1844</x:v>
+        <x:v>1846</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1763</x:v>
+        <x:v>1765</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>782</x:v>
+        <x:v>783</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1340,7 +1340,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>23</x:v>
@@ -1418,7 +1418,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C36" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
         <x:v>100</x:v>
@@ -1476,7 +1476,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
-        <x:v>148</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
         <x:v>159</x:v>
@@ -1531,7 +1531,7 @@
         <x:v>237</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="G40" s="1" t="n">
         <x:v>61</x:v>
@@ -1551,7 +1551,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>43</x:v>
@@ -1577,7 +1577,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>349</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
         <x:v>366</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -638,10 +638,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>555</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>497</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
         <x:v>814</x:v>
@@ -667,13 +667,13 @@
         <x:v>843</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1334</x:v>
+        <x:v>1336</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>2506</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>2579</x:v>
+        <x:v>2581</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>1100</x:v>
@@ -722,7 +722,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>98</x:v>
@@ -803,10 +803,10 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
         <x:v>0</x:v>
@@ -820,7 +820,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>70</x:v>
@@ -846,16 +846,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>212</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>204</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>280</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>72</x:v>
@@ -878,10 +878,10 @@
         <x:v>235</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>483</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>592</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>155</x:v>
@@ -904,13 +904,13 @@
         <x:v>575</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1226</x:v>
+        <x:v>1227</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1394</x:v>
+        <x:v>1397</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>539</x:v>
+        <x:v>542</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -982,7 +982,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
         <x:v>174</x:v>
@@ -1213,16 +1213,16 @@
         <x:v>464</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>920</x:v>
+        <x:v>921</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>1393</x:v>
+        <x:v>1394</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>1521</x:v>
+        <x:v>1523</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>567</x:v>
+        <x:v>568</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>0</x:v>
@@ -1239,16 +1239,16 @@
         <x:v>555</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>1116</x:v>
+        <x:v>1117</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1846</x:v>
+        <x:v>1844</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1765</x:v>
+        <x:v>1768</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>783</x:v>
+        <x:v>787</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1479,7 +1479,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="G38" s="1" t="n">
         <x:v>98</x:v>
@@ -1531,7 +1531,7 @@
         <x:v>237</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="G40" s="1" t="n">
         <x:v>61</x:v>
@@ -1580,7 +1580,7 @@
         <x:v>350</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
         <x:v>310</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -638,13 +638,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>556</x:v>
+        <x:v>557</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>498</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>814</x:v>
+        <x:v>813</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>808</x:v>
@@ -667,13 +667,13 @@
         <x:v>843</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1336</x:v>
+        <x:v>1337</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>2506</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>2581</x:v>
+        <x:v>2582</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>1100</x:v>
@@ -725,7 +725,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>20</x:v>
@@ -774,7 +774,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>73</x:v>
@@ -875,16 +875,16 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>235</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>485</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>595</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>
@@ -898,16 +898,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>575</x:v>
+        <x:v>576</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1227</x:v>
+        <x:v>1228</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1397</x:v>
+        <x:v>1398</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>542</x:v>
@@ -1005,7 +1005,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>351</x:v>
@@ -1216,10 +1216,10 @@
         <x:v>921</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>1394</x:v>
+        <x:v>1395</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>1523</x:v>
+        <x:v>1524</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
         <x:v>568</x:v>
@@ -1236,19 +1236,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>555</x:v>
+        <x:v>557</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>1117</x:v>
+        <x:v>1118</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1844</x:v>
+        <x:v>1845</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
         <x:v>1768</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>787</x:v>
+        <x:v>788</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1476,7 +1476,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
         <x:v>160</x:v>
@@ -1531,7 +1531,7 @@
         <x:v>237</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="G40" s="1" t="n">
         <x:v>61</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -612,7 +612,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
         <x:v>5</x:v>
@@ -644,13 +644,13 @@
         <x:v>498</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>813</x:v>
+        <x:v>815</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>808</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -667,16 +667,16 @@
         <x:v>843</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1337</x:v>
+        <x:v>1338</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>2506</x:v>
+        <x:v>2507</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>2582</x:v>
+        <x:v>2583</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1100</x:v>
+        <x:v>1102</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -748,7 +748,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>279</x:v>
@@ -806,7 +806,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
         <x:v>0</x:v>
@@ -852,7 +852,7 @@
         <x:v>207</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>256</x:v>
@@ -875,13 +875,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>485</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>596</x:v>
+        <x:v>597</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>156</x:v>
@@ -904,10 +904,10 @@
         <x:v>576</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1228</x:v>
+        <x:v>1227</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1398</x:v>
+        <x:v>1399</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>542</x:v>
@@ -956,7 +956,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
         <x:v>9</x:v>
@@ -1040,7 +1040,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
         <x:v>0</x:v>
@@ -1210,19 +1210,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>464</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>921</x:v>
+        <x:v>923</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>1395</x:v>
+        <x:v>1398</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>1524</x:v>
+        <x:v>1525</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>568</x:v>
+        <x:v>571</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>0</x:v>
@@ -1236,19 +1236,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>557</x:v>
+        <x:v>561</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>1118</x:v>
+        <x:v>1123</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1845</x:v>
+        <x:v>1846</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
         <x:v>1768</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>788</x:v>
+        <x:v>790</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1473,7 +1473,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
         <x:v>153</x:v>
@@ -1482,7 +1482,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="G38" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H38" s="1" t="n">
         <x:v>0</x:v>
@@ -1531,7 +1531,7 @@
         <x:v>237</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="G40" s="1" t="n">
         <x:v>61</x:v>
@@ -1580,7 +1580,7 @@
         <x:v>350</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
-        <x:v>367</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
         <x:v>310</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -638,7 +638,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>557</x:v>
+        <x:v>559</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>498</x:v>
@@ -647,10 +647,10 @@
         <x:v>815</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>808</x:v>
+        <x:v>805</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -664,19 +664,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>843</x:v>
+        <x:v>847</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1338</x:v>
+        <x:v>1345</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>2507</x:v>
+        <x:v>2509</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>2583</x:v>
+        <x:v>2588</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1102</x:v>
+        <x:v>1103</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -725,7 +725,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>20</x:v>
@@ -745,13 +745,13 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>317</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>279</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>99</x:v>
@@ -826,13 +826,13 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>90</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
         <x:v>0</x:v>
@@ -849,10 +849,10 @@
         <x:v>214</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>281</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>256</x:v>
@@ -878,7 +878,7 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>485</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>597</x:v>
@@ -898,19 +898,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>576</x:v>
+        <x:v>577</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1227</x:v>
+        <x:v>1228</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1399</x:v>
+        <x:v>1400</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>542</x:v>
+        <x:v>541</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -982,13 +982,13 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
         <x:v>174</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
         <x:v>0</x:v>
@@ -1005,13 +1005,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>190</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>351</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>103</x:v>
@@ -1210,19 +1210,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>468</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>923</x:v>
+        <x:v>927</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>1398</x:v>
+        <x:v>1412</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>1525</x:v>
+        <x:v>1530</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>571</x:v>
+        <x:v>575</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>0</x:v>
@@ -1236,19 +1236,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>561</x:v>
+        <x:v>566</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>1123</x:v>
+        <x:v>1131</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1846</x:v>
+        <x:v>1859</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1768</x:v>
+        <x:v>1785</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>790</x:v>
+        <x:v>794</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1297,10 +1297,10 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
         <x:v>0</x:v>
@@ -1395,7 +1395,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D35" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E35" s="1" t="n">
         <x:v>28</x:v>
@@ -1424,7 +1424,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E36" s="1" t="n">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F36" s="1" t="n">
         <x:v>68</x:v>
@@ -1473,7 +1473,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
         <x:v>153</x:v>
@@ -1482,7 +1482,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="G38" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="H38" s="1" t="n">
         <x:v>0</x:v>
@@ -1528,7 +1528,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
         <x:v>225</x:v>
@@ -1574,13 +1574,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>175</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
         <x:v>350</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
-        <x:v>366</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
         <x:v>310</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -638,19 +638,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>559</x:v>
+        <x:v>561</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>498</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>815</x:v>
+        <x:v>817</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>805</x:v>
+        <x:v>806</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -664,19 +664,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>847</x:v>
+        <x:v>849</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1345</x:v>
+        <x:v>1349</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>2509</x:v>
+        <x:v>2513</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>2588</x:v>
+        <x:v>2591</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1103</x:v>
+        <x:v>1105</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -745,10 +745,10 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>282</x:v>
@@ -846,7 +846,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>208</x:v>
@@ -855,7 +855,7 @@
         <x:v>283</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>72</x:v>
@@ -878,10 +878,10 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>489</x:v>
+        <x:v>490</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>597</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>156</x:v>
@@ -901,16 +901,16 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>577</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1228</x:v>
+        <x:v>1232</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1400</x:v>
+        <x:v>1402</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>541</x:v>
+        <x:v>542</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -959,7 +959,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
         <x:v>2</x:v>
@@ -1011,7 +1011,7 @@
         <x:v>352</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>103</x:v>
@@ -1083,7 +1083,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>22</x:v>
@@ -1135,7 +1135,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>4</x:v>
@@ -1216,13 +1216,13 @@
         <x:v>927</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>1412</x:v>
+        <x:v>1413</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>1530</x:v>
+        <x:v>1531</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>575</x:v>
+        <x:v>576</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>0</x:v>
@@ -1236,16 +1236,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>566</x:v>
+        <x:v>567</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>1131</x:v>
+        <x:v>1137</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1859</x:v>
+        <x:v>1861</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1785</x:v>
+        <x:v>1787</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
         <x:v>794</x:v>
@@ -1291,10 +1291,10 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
         <x:v>109</x:v>
@@ -1479,10 +1479,10 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="G38" s="1" t="n">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H38" s="1" t="n">
         <x:v>0</x:v>
@@ -1580,7 +1580,7 @@
         <x:v>350</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
-        <x:v>369</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
         <x:v>310</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -638,19 +638,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>561</x:v>
+        <x:v>563</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>497</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>817</x:v>
+        <x:v>821</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>806</x:v>
+        <x:v>808</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>259</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -664,19 +664,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>849</x:v>
+        <x:v>850</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>1349</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>2513</x:v>
+        <x:v>2515</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>2591</x:v>
+        <x:v>2593</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1105</x:v>
+        <x:v>1106</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -797,7 +797,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>60</x:v>
@@ -806,7 +806,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
         <x:v>0</x:v>
@@ -852,10 +852,10 @@
         <x:v>208</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>283</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>72</x:v>
@@ -1083,7 +1083,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>22</x:v>
@@ -1213,13 +1213,13 @@
         <x:v>470</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>927</x:v>
+        <x:v>928</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>1413</x:v>
+        <x:v>1415</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>1531</x:v>
+        <x:v>1535</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
         <x:v>576</x:v>
@@ -1236,19 +1236,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>567</x:v>
+        <x:v>568</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
         <x:v>1137</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1861</x:v>
+        <x:v>1866</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1787</x:v>
+        <x:v>1789</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>794</x:v>
+        <x:v>796</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1479,10 +1479,10 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="G38" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H38" s="1" t="n">
         <x:v>0</x:v>
@@ -1577,7 +1577,7 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>350</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
         <x:v>372</x:v>
@@ -1586,7 +1586,7 @@
         <x:v>310</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H42" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -572,7 +572,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -641,10 +641,10 @@
         <x:v>563</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>497</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>821</x:v>
+        <x:v>825</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>808</x:v>
@@ -664,19 +664,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>850</x:v>
+        <x:v>851</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1349</x:v>
+        <x:v>1350</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>2515</x:v>
+        <x:v>2517</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>2593</x:v>
+        <x:v>2594</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1106</x:v>
+        <x:v>1110</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -742,7 +742,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>146</x:v>
@@ -846,10 +846,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>285</x:v>
@@ -872,7 +872,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>238</x:v>
@@ -907,7 +907,7 @@
         <x:v>1232</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1402</x:v>
+        <x:v>1403</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>542</x:v>
@@ -1008,7 +1008,7 @@
         <x:v>189</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>352</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
         <x:v>322</x:v>
@@ -1213,13 +1213,13 @@
         <x:v>470</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>928</x:v>
+        <x:v>929</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>1415</x:v>
+        <x:v>1416</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>1535</x:v>
+        <x:v>1537</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
         <x:v>576</x:v>
@@ -1239,13 +1239,13 @@
         <x:v>568</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>1137</x:v>
+        <x:v>1139</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1866</x:v>
+        <x:v>1869</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1789</x:v>
+        <x:v>1790</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
         <x:v>796</x:v>
@@ -1268,7 +1268,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
         <x:v>30</x:v>
@@ -1473,7 +1473,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
         <x:v>153</x:v>
@@ -1482,7 +1482,7 @@
         <x:v>162</x:v>
       </x:c>
       <x:c r="G38" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="H38" s="1" t="n">
         <x:v>0</x:v>
@@ -1525,7 +1525,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
         <x:v>238</x:v>
@@ -1586,7 +1586,7 @@
         <x:v>310</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="H42" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <x:si>
     <x:t>Offense Category</x:t>
   </x:si>
@@ -71,6 +71,9 @@
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Extortion/Blackmail</x:t>
   </x:si>
   <x:si>
     <x:t>Fraud Offenses</x:t>
@@ -490,7 +493,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H42"/>
+  <x:dimension ref="A1:H43"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -540,7 +543,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>14</x:v>
@@ -560,19 +563,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -595,7 +598,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>3</x:v>
@@ -615,16 +618,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F5" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G5" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H5" s="1" t="n">
         <x:v>0</x:v>
@@ -638,19 +641,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>563</x:v>
+        <x:v>611</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>499</x:v>
+        <x:v>557</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>825</x:v>
+        <x:v>931</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>808</x:v>
+        <x:v>910</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>261</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -664,19 +667,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>851</x:v>
+        <x:v>951</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1350</x:v>
+        <x:v>1502</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>2517</x:v>
+        <x:v>2826</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>2594</x:v>
+        <x:v>2980</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1110</x:v>
+        <x:v>1257</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -716,19 +719,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -742,19 +745,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>146</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>320</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>282</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
         <x:v>0</x:v>
@@ -771,16 +774,16 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
         <x:v>0</x:v>
@@ -794,19 +797,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
         <x:v>0</x:v>
@@ -820,19 +823,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
         <x:v>0</x:v>
@@ -846,19 +849,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>216</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>209</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>285</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>258</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
         <x:v>0</x:v>
@@ -872,19 +875,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>238</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>490</x:v>
+        <x:v>547</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>596</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>156</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>
@@ -898,19 +901,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>579</x:v>
+        <x:v>636</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1232</x:v>
+        <x:v>1358</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1403</x:v>
+        <x:v>1571</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>542</x:v>
+        <x:v>620</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -924,19 +927,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E17" s="1" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F17" s="1" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G17" s="1" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="E17" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="F17" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G17" s="1" t="n">
-        <x:v>3</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
         <x:v>0</x:v>
@@ -950,16 +953,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
         <x:v>2</x:v>
@@ -973,22 +976,22 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>195</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>174</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
         <x:v>0</x:v>
@@ -996,25 +999,25 @@
     </x:row>
     <x:row r="20" spans="1:8">
       <x:c r="A20" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>189</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>353</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>322</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
         <x:v>0</x:v>
@@ -1028,19 +1031,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
         <x:v>0</x:v>
@@ -1051,22 +1054,22 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
         <x:v>0</x:v>
@@ -1074,25 +1077,25 @@
     </x:row>
     <x:row r="23" spans="1:8">
       <x:c r="A23" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
         <x:v>0</x:v>
@@ -1103,22 +1106,22 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
         <x:v>0</x:v>
@@ -1126,25 +1129,25 @@
     </x:row>
     <x:row r="25" spans="1:8">
       <x:c r="A25" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F25" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G25" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H25" s="1" t="n">
         <x:v>0</x:v>
@@ -1155,22 +1158,22 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C26" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E26" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F26" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G26" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H26" s="1" t="n">
         <x:v>0</x:v>
@@ -1178,25 +1181,25 @@
     </x:row>
     <x:row r="27" spans="1:8">
       <x:c r="A27" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
         <x:v>0</x:v>
@@ -1207,22 +1210,22 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>470</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>929</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>1416</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>1537</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>576</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>0</x:v>
@@ -1230,25 +1233,25 @@
     </x:row>
     <x:row r="29" spans="1:8">
       <x:c r="A29" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>568</x:v>
+        <x:v>535</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>1139</x:v>
+        <x:v>1033</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1869</x:v>
+        <x:v>1601</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1790</x:v>
+        <x:v>1696</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>796</x:v>
+        <x:v>666</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1259,22 +1262,22 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>641</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>1277</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>2087</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>2019</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>881</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
         <x:v>0</x:v>
@@ -1282,25 +1285,25 @@
     </x:row>
     <x:row r="31" spans="1:8">
       <x:c r="A31" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>109</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
         <x:v>0</x:v>
@@ -1311,22 +1314,22 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
         <x:v>0</x:v>
@@ -1334,25 +1337,25 @@
     </x:row>
     <x:row r="33" spans="1:8">
       <x:c r="A33" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F33" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G33" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H33" s="1" t="n">
         <x:v>0</x:v>
@@ -1366,19 +1369,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C34" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E34" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F34" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G34" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H34" s="1" t="n">
         <x:v>0</x:v>
@@ -1389,22 +1392,22 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C35" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D35" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E35" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F35" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G35" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H35" s="1" t="n">
         <x:v>0</x:v>
@@ -1412,25 +1415,25 @@
     </x:row>
     <x:row r="36" spans="1:8">
       <x:c r="A36" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C36" s="1" t="n">
-        <x:v>125</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
-        <x:v>100</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E36" s="1" t="n">
-        <x:v>94</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F36" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G36" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="1" t="n">
         <x:v>0</x:v>
@@ -1441,22 +1444,22 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C37" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E37" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F37" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="G37" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H37" s="1" t="n">
         <x:v>0</x:v>
@@ -1464,25 +1467,25 @@
     </x:row>
     <x:row r="38" spans="1:8">
       <x:c r="A38" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C38" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
-        <x:v>130</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
-        <x:v>153</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
-        <x:v>162</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G38" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H38" s="1" t="n">
         <x:v>0</x:v>
@@ -1493,22 +1496,22 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="H39" s="1" t="n">
         <x:v>0</x:v>
@@ -1516,25 +1519,25 @@
     </x:row>
     <x:row r="40" spans="1:8">
       <x:c r="A40" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
-        <x:v>238</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
-        <x:v>225</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G40" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H40" s="1" t="n">
         <x:v>0</x:v>
@@ -1545,22 +1548,22 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
         <x:v>0</x:v>
@@ -1568,27 +1571,53 @@
     </x:row>
     <x:row r="42" spans="1:8">
       <x:c r="A42" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>177</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>352</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
-        <x:v>372</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>310</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
-        <x:v>120</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H42" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:8">
+      <x:c r="A43" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C43" s="1" t="n">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="D43" s="1" t="n">
+        <x:v>421</x:v>
+      </x:c>
+      <x:c r="E43" s="1" t="n">
+        <x:v>423</x:v>
+      </x:c>
+      <x:c r="F43" s="1" t="n">
+        <x:v>360</x:v>
+      </x:c>
+      <x:c r="G43" s="1" t="n">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="H43" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -572,7 +572,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>10</x:v>
@@ -641,7 +641,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>611</x:v>
+        <x:v>613</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>557</x:v>
@@ -650,10 +650,10 @@
         <x:v>931</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>910</x:v>
+        <x:v>913</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -667,19 +667,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>951</x:v>
+        <x:v>953</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1502</x:v>
+        <x:v>1505</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>2826</x:v>
+        <x:v>2828</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>2980</x:v>
+        <x:v>2984</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1257</x:v>
+        <x:v>1259</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -754,7 +754,7 @@
         <x:v>358</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>108</x:v>
@@ -774,13 +774,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>13</x:v>
@@ -797,10 +797,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>70</x:v>
@@ -823,7 +823,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>80</x:v>
@@ -855,10 +855,10 @@
         <x:v>232</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>304</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>83</x:v>
@@ -881,10 +881,10 @@
         <x:v>262</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>547</x:v>
+        <x:v>551</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>663</x:v>
+        <x:v>666</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>177</x:v>
@@ -904,16 +904,16 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>636</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1358</x:v>
+        <x:v>1360</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1571</x:v>
+        <x:v>1577</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>620</x:v>
+        <x:v>623</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -1008,16 +1008,16 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>128</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
         <x:v>191</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
         <x:v>0</x:v>
@@ -1031,16 +1031,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>207</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
-        <x:v>390</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>355</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
         <x:v>119</x:v>
@@ -1239,19 +1239,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>535</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>1033</x:v>
+        <x:v>1040</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1601</x:v>
+        <x:v>1606</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1696</x:v>
+        <x:v>1706</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>666</x:v>
+        <x:v>672</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1265,19 +1265,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>641</x:v>
+        <x:v>645</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>1277</x:v>
+        <x:v>1281</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>2087</x:v>
+        <x:v>2100</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>2019</x:v>
+        <x:v>2032</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
-        <x:v>881</x:v>
+        <x:v>888</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
         <x:v>0</x:v>
@@ -1320,16 +1320,16 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
         <x:v>0</x:v>
@@ -1369,7 +1369,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C34" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
         <x:v>24</x:v>
@@ -1424,7 +1424,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E36" s="1" t="n">
         <x:v>31</x:v>
@@ -1505,7 +1505,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
         <x:v>184</x:v>
@@ -1534,7 +1534,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G40" s="1" t="n">
         <x:v>6</x:v>
@@ -1586,7 +1586,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
         <x:v>11</x:v>
@@ -1603,16 +1603,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
         <x:v>421</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
-        <x:v>423</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>360</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
         <x:v>139</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -644,16 +644,16 @@
         <x:v>613</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>557</x:v>
+        <x:v>558</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>931</x:v>
+        <x:v>930</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>913</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -670,16 +670,16 @@
         <x:v>953</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1505</x:v>
+        <x:v>1503</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>2828</x:v>
+        <x:v>2830</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>2984</x:v>
+        <x:v>2986</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1259</x:v>
+        <x:v>1260</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -849,7 +849,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>232</x:v>
@@ -884,10 +884,10 @@
         <x:v>551</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>666</x:v>
+        <x:v>668</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>
@@ -904,7 +904,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>637</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>1360</x:v>
@@ -913,7 +913,7 @@
         <x:v>1577</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>623</x:v>
+        <x:v>624</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -1043,7 +1043,7 @@
         <x:v>356</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
         <x:v>0</x:v>
@@ -1239,7 +1239,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>534</x:v>
+        <x:v>535</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
         <x:v>1040</x:v>
@@ -1248,7 +1248,7 @@
         <x:v>1606</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1706</x:v>
+        <x:v>1707</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
         <x:v>672</x:v>
@@ -1268,16 +1268,16 @@
         <x:v>645</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>1281</x:v>
+        <x:v>1280</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>2100</x:v>
+        <x:v>2103</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>2032</x:v>
+        <x:v>2034</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
-        <x:v>888</x:v>
+        <x:v>889</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
         <x:v>0</x:v>
@@ -1320,7 +1320,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
         <x:v>102</x:v>
@@ -1375,7 +1375,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E34" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F34" s="1" t="n">
         <x:v>32</x:v>
@@ -1499,10 +1499,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
         <x:v>172</x:v>
@@ -1511,7 +1511,7 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="H39" s="1" t="n">
         <x:v>0</x:v>
@@ -1557,10 +1557,10 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
-        <x:v>276</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
         <x:v>66</x:v>
@@ -1612,7 +1612,7 @@
         <x:v>424</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>361</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
         <x:v>139</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -641,19 +641,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>613</x:v>
+        <x:v>615</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>558</x:v>
+        <x:v>559</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>930</x:v>
+        <x:v>931</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>913</x:v>
+        <x:v>917</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>306</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -667,19 +667,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>953</x:v>
+        <x:v>955</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1503</x:v>
+        <x:v>1508</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>2830</x:v>
+        <x:v>2834</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>2986</x:v>
+        <x:v>2989</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1260</x:v>
+        <x:v>1263</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -751,7 +751,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>358</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>313</x:v>
@@ -780,7 +780,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>13</x:v>
@@ -852,13 +852,13 @@
         <x:v>231</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>306</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>291</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>83</x:v>
@@ -881,7 +881,7 @@
         <x:v>262</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>551</x:v>
+        <x:v>552</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>668</x:v>
@@ -901,19 +901,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>639</x:v>
+        <x:v>640</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1360</x:v>
+        <x:v>1363</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>1577</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>624</x:v>
+        <x:v>623</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -953,7 +953,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>2</x:v>
@@ -1034,16 +1034,16 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
-        <x:v>392</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>356</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
         <x:v>0</x:v>
@@ -1239,16 +1239,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>535</x:v>
+        <x:v>536</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>1040</x:v>
+        <x:v>1042</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1606</x:v>
+        <x:v>1608</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1707</x:v>
+        <x:v>1704</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
         <x:v>672</x:v>
@@ -1271,13 +1271,13 @@
         <x:v>1280</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>2103</x:v>
+        <x:v>2104</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
         <x:v>2034</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
-        <x:v>889</x:v>
+        <x:v>890</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
         <x:v>0</x:v>
@@ -1323,7 +1323,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
         <x:v>123</x:v>
@@ -1424,7 +1424,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E36" s="1" t="n">
         <x:v>31</x:v>
@@ -1450,7 +1450,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E37" s="1" t="n">
         <x:v>103</x:v>
@@ -1505,7 +1505,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
-        <x:v>172</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
         <x:v>184</x:v>
@@ -1551,7 +1551,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
         <x:v>139</x:v>
@@ -1603,10 +1603,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>208</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>421</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>424</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -650,7 +650,7 @@
         <x:v>931</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>917</x:v>
+        <x:v>918</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>307</x:v>
@@ -673,7 +673,7 @@
         <x:v>1508</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>2834</x:v>
+        <x:v>2833</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>2989</x:v>
@@ -754,7 +754,7 @@
         <x:v>360</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>108</x:v>
@@ -855,7 +855,7 @@
         <x:v>233</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>292</x:v>
@@ -907,10 +907,10 @@
         <x:v>640</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1363</x:v>
+        <x:v>1364</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1577</x:v>
+        <x:v>1578</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>623</x:v>
@@ -1011,7 +1011,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>215</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
         <x:v>191</x:v>
@@ -1034,7 +1034,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>393</x:v>
@@ -1095,7 +1095,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
         <x:v>0</x:v>
@@ -1248,7 +1248,7 @@
         <x:v>1608</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1704</x:v>
+        <x:v>1705</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
         <x:v>672</x:v>
@@ -1271,13 +1271,13 @@
         <x:v>1280</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>2104</x:v>
+        <x:v>2106</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
         <x:v>2034</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
-        <x:v>890</x:v>
+        <x:v>892</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
         <x:v>0</x:v>
@@ -1560,7 +1560,7 @@
         <x:v>277</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
         <x:v>66</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -546,7 +546,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>6</x:v>
@@ -641,16 +641,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>615</x:v>
+        <x:v>616</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>559</x:v>
+        <x:v>561</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>931</x:v>
+        <x:v>934</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>918</x:v>
+        <x:v>923</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>307</x:v>
@@ -667,19 +667,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>955</x:v>
+        <x:v>957</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1508</x:v>
+        <x:v>1515</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>2833</x:v>
+        <x:v>2837</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>2989</x:v>
+        <x:v>3000</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1263</x:v>
+        <x:v>1266</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -722,13 +722,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>86</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>23</x:v>
@@ -745,19 +745,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>360</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
         <x:v>0</x:v>
@@ -783,7 +783,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
         <x:v>0</x:v>
@@ -803,10 +803,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>35</x:v>
@@ -826,7 +826,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>89</x:v>
@@ -849,19 +849,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>309</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>292</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
         <x:v>0</x:v>
@@ -878,16 +878,16 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>262</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>552</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>668</x:v>
+        <x:v>671</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>
@@ -904,16 +904,16 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>640</x:v>
+        <x:v>643</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1364</x:v>
+        <x:v>1366</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1578</x:v>
+        <x:v>1585</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>623</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -1008,13 +1008,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>214</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>58</x:v>
@@ -1034,16 +1034,16 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>211</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
-        <x:v>393</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
         <x:v>357</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
         <x:v>0</x:v>
@@ -1216,7 +1216,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
         <x:v>27</x:v>
@@ -1239,19 +1239,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>536</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>1042</x:v>
+        <x:v>1048</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1608</x:v>
+        <x:v>1621</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1705</x:v>
+        <x:v>1719</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>672</x:v>
+        <x:v>679</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1265,19 +1265,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>645</x:v>
+        <x:v>646</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>1280</x:v>
+        <x:v>1284</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>2106</x:v>
+        <x:v>2120</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>2034</x:v>
+        <x:v>2046</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
-        <x:v>892</x:v>
+        <x:v>900</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
         <x:v>0</x:v>
@@ -1326,7 +1326,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>123</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>18</x:v>
@@ -1372,13 +1372,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E34" s="1" t="n">
         <x:v>34</x:v>
       </x:c>
       <x:c r="F34" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G34" s="1" t="n">
         <x:v>15</x:v>
@@ -1447,7 +1447,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C37" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
         <x:v>107</x:v>
@@ -1499,7 +1499,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
         <x:v>142</x:v>
@@ -1508,10 +1508,10 @@
         <x:v>174</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
-        <x:v>184</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H39" s="1" t="n">
         <x:v>0</x:v>
@@ -1560,10 +1560,10 @@
         <x:v>277</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
         <x:v>0</x:v>
@@ -1603,16 +1603,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>210</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
         <x:v>422</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
-        <x:v>424</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>362</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
         <x:v>139</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -641,7 +641,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>616</x:v>
+        <x:v>617</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>561</x:v>
@@ -667,13 +667,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>957</x:v>
+        <x:v>958</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1515</x:v>
+        <x:v>1516</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>2837</x:v>
+        <x:v>2838</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>3000</x:v>
@@ -754,7 +754,7 @@
         <x:v>362</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>109</x:v>
@@ -806,7 +806,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>35</x:v>
@@ -829,7 +829,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>96</x:v>
@@ -878,7 +878,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>264</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>552</x:v>
@@ -907,10 +907,10 @@
         <x:v>643</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1366</x:v>
+        <x:v>1365</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1585</x:v>
+        <x:v>1586</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>626</x:v>
@@ -1034,7 +1034,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>394</x:v>
@@ -1043,7 +1043,7 @@
         <x:v>357</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
         <x:v>0</x:v>
@@ -1248,7 +1248,7 @@
         <x:v>1621</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1719</x:v>
+        <x:v>1722</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
         <x:v>679</x:v>
@@ -1265,16 +1265,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>646</x:v>
+        <x:v>645</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>1284</x:v>
+        <x:v>1285</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
         <x:v>2120</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>2046</x:v>
+        <x:v>2048</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
         <x:v>900</x:v>
@@ -1557,10 +1557,10 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
-        <x:v>277</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
         <x:v>67</x:v>
@@ -1612,7 +1612,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>363</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
         <x:v>139</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -650,7 +650,7 @@
         <x:v>934</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>923</x:v>
+        <x:v>924</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>307</x:v>
@@ -667,13 +667,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>958</x:v>
+        <x:v>959</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>1516</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>2838</x:v>
+        <x:v>2839</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>3000</x:v>
@@ -754,7 +754,7 @@
         <x:v>362</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>109</x:v>
@@ -780,7 +780,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>14</x:v>
@@ -878,7 +878,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>263</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>552</x:v>
@@ -904,13 +904,13 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>643</x:v>
+        <x:v>645</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1365</x:v>
+        <x:v>1364</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1586</x:v>
+        <x:v>1587</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>626</x:v>
@@ -1037,10 +1037,10 @@
         <x:v>214</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
-        <x:v>394</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>357</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
         <x:v>123</x:v>
@@ -1242,16 +1242,16 @@
         <x:v>538</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>1048</x:v>
+        <x:v>1050</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1621</x:v>
+        <x:v>1626</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1722</x:v>
+        <x:v>1732</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>679</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1268,13 +1268,13 @@
         <x:v>645</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>1285</x:v>
+        <x:v>1288</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>2120</x:v>
+        <x:v>2123</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>2048</x:v>
+        <x:v>2053</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
         <x:v>900</x:v>
@@ -1505,10 +1505,10 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
         <x:v>116</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -543,10 +543,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>6</x:v>
@@ -572,10 +572,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -592,16 +592,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
         <x:v>0</x:v>
@@ -615,19 +615,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
         <x:v>16</x:v>
       </x:c>
       <x:c r="F5" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G5" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H5" s="1" t="n">
         <x:v>0</x:v>
@@ -641,19 +641,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>617</x:v>
+        <x:v>689</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>561</x:v>
+        <x:v>613</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>934</x:v>
+        <x:v>1030</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>924</x:v>
+        <x:v>1014</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>307</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -667,19 +667,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>959</x:v>
+        <x:v>1086</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1516</x:v>
+        <x:v>1681</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>2839</x:v>
+        <x:v>3125</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3000</x:v>
+        <x:v>3350</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1266</x:v>
+        <x:v>1390</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -722,16 +722,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>86</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -745,19 +745,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>164</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>362</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>317</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>109</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
         <x:v>0</x:v>
@@ -771,16 +771,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>54</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>14</x:v>
@@ -797,19 +797,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>123</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
         <x:v>0</x:v>
@@ -823,19 +823,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
         <x:v>0</x:v>
@@ -849,19 +849,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>232</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>234</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>308</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>292</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
-        <x:v>84</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
         <x:v>0</x:v>
@@ -875,19 +875,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>264</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>552</x:v>
+        <x:v>615</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>671</x:v>
+        <x:v>734</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>180</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>
@@ -901,19 +901,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>645</x:v>
+        <x:v>707</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1364</x:v>
+        <x:v>1502</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1587</x:v>
+        <x:v>1747</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>626</x:v>
+        <x:v>689</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -936,10 +936,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G17" s="1" t="n">
         <x:v>5</x:v>
-      </x:c>
-      <x:c r="G17" s="1" t="n">
-        <x:v>4</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
         <x:v>0</x:v>
@@ -956,7 +956,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
         <x:v>13</x:v>
@@ -988,7 +988,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>0</x:v>
@@ -1008,16 +1008,16 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>217</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>192</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
         <x:v>0</x:v>
@@ -1031,19 +1031,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>214</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
-        <x:v>395</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>358</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
-        <x:v>123</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
         <x:v>0</x:v>
@@ -1086,7 +1086,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>9</x:v>
@@ -1109,19 +1109,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
         <x:v>0</x:v>
@@ -1164,16 +1164,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E26" s="1" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F26" s="1" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G26" s="1" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="E26" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F26" s="1" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G26" s="1" t="n">
-        <x:v>3</x:v>
       </x:c>
       <x:c r="H26" s="1" t="n">
         <x:v>0</x:v>
@@ -1193,7 +1193,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
         <x:v>2</x:v>
@@ -1216,13 +1216,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
         <x:v>8</x:v>
@@ -1239,19 +1239,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>538</x:v>
+        <x:v>603</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>1050</x:v>
+        <x:v>1145</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1626</x:v>
+        <x:v>1786</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1732</x:v>
+        <x:v>1912</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>684</x:v>
+        <x:v>763</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1265,19 +1265,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>645</x:v>
+        <x:v>722</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>1288</x:v>
+        <x:v>1423</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>2123</x:v>
+        <x:v>2356</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>2053</x:v>
+        <x:v>2271</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
-        <x:v>900</x:v>
+        <x:v>994</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
         <x:v>0</x:v>
@@ -1291,16 +1291,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>27</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
         <x:v>4</x:v>
@@ -1317,19 +1317,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>127</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
         <x:v>0</x:v>
@@ -1346,13 +1346,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F33" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G33" s="1" t="n">
         <x:v>0</x:v>
@@ -1369,19 +1369,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C34" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E34" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F34" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G34" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H34" s="1" t="n">
         <x:v>0</x:v>
@@ -1421,19 +1421,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C36" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E36" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F36" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G36" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H36" s="1" t="n">
         <x:v>0</x:v>
@@ -1447,19 +1447,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C37" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E37" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F37" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G37" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H37" s="1" t="n">
         <x:v>0</x:v>
@@ -1499,19 +1499,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>100</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
-        <x:v>175</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
-        <x:v>187</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="H39" s="1" t="n">
         <x:v>0</x:v>
@@ -1525,16 +1525,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="G40" s="1" t="n">
         <x:v>6</x:v>
@@ -1551,19 +1551,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>139</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
-        <x:v>278</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>258</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
         <x:v>0</x:v>
@@ -1577,19 +1577,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H42" s="1" t="n">
         <x:v>0</x:v>
@@ -1603,19 +1603,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>212</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>422</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
-        <x:v>425</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>364</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
-        <x:v>139</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -624,7 +624,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F5" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G5" s="1" t="n">
         <x:v>14</x:v>
@@ -641,19 +641,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>689</x:v>
+        <x:v>691</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>613</x:v>
+        <x:v>616</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>1030</x:v>
+        <x:v>1033</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>1014</x:v>
+        <x:v>1015</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>350</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -667,19 +667,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1086</x:v>
+        <x:v>1089</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1681</x:v>
+        <x:v>1684</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>3125</x:v>
+        <x:v>3131</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3350</x:v>
+        <x:v>3353</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1390</x:v>
+        <x:v>1391</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -731,7 +731,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -751,10 +751,10 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>408</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>345</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>120</x:v>
@@ -823,7 +823,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>94</x:v>
@@ -849,16 +849,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>265</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>349</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>328</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>96</x:v>
@@ -878,13 +878,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>615</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>734</x:v>
+        <x:v>735</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>202</x:v>
@@ -907,10 +907,10 @@
         <x:v>707</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1502</x:v>
+        <x:v>1503</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1747</x:v>
+        <x:v>1751</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>689</x:v>
@@ -953,7 +953,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>7</x:v>
@@ -1011,7 +1011,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
         <x:v>199</x:v>
@@ -1034,16 +1034,16 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>435</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>388</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
         <x:v>0</x:v>
@@ -1115,7 +1115,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
         <x:v>20</x:v>
@@ -1239,19 +1239,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>603</x:v>
+        <x:v>606</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>1145</x:v>
+        <x:v>1148</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1786</x:v>
+        <x:v>1792</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1912</x:v>
+        <x:v>1919</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>763</x:v>
+        <x:v>765</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1265,19 +1265,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>722</x:v>
+        <x:v>724</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>1423</x:v>
+        <x:v>1428</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>2356</x:v>
+        <x:v>2364</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>2271</x:v>
+        <x:v>2276</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
-        <x:v>994</x:v>
+        <x:v>997</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
         <x:v>0</x:v>
@@ -1303,7 +1303,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
         <x:v>0</x:v>
@@ -1499,10 +1499,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>153</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
         <x:v>191</x:v>
@@ -1511,7 +1511,7 @@
         <x:v>206</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="H39" s="1" t="n">
         <x:v>0</x:v>
@@ -1586,7 +1586,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
         <x:v>12</x:v>
@@ -1606,16 +1606,16 @@
         <x:v>232</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>477</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
-        <x:v>487</x:v>
+        <x:v>488</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>414</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -543,7 +543,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>17</x:v>
@@ -641,10 +641,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>691</x:v>
+        <x:v>694</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>616</x:v>
+        <x:v>617</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
         <x:v>1033</x:v>
@@ -667,19 +667,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1089</x:v>
+        <x:v>1092</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1684</x:v>
+        <x:v>1691</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>3131</x:v>
+        <x:v>3147</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3353</x:v>
+        <x:v>3358</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1391</x:v>
+        <x:v>1394</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -722,7 +722,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>97</x:v>
@@ -751,10 +751,10 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>411</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>346</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>120</x:v>
@@ -806,7 +806,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>36</x:v>
@@ -823,7 +823,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>94</x:v>
@@ -852,10 +852,10 @@
         <x:v>271</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>261</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>349</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>326</x:v>
@@ -878,16 +878,16 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>615</x:v>
+        <x:v>618</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>735</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>
@@ -904,16 +904,16 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>707</x:v>
+        <x:v>711</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1503</x:v>
+        <x:v>1505</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1751</x:v>
+        <x:v>1752</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>689</x:v>
+        <x:v>690</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -936,7 +936,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>5</x:v>
@@ -956,7 +956,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
         <x:v>13</x:v>
@@ -1008,13 +1008,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>249</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>62</x:v>
@@ -1031,16 +1031,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>435</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>390</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
         <x:v>137</x:v>
@@ -1239,19 +1239,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>606</x:v>
+        <x:v>603</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>1148</x:v>
+        <x:v>1151</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1792</x:v>
+        <x:v>1804</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1919</x:v>
+        <x:v>1926</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>765</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1265,19 +1265,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>724</x:v>
+        <x:v>727</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>1428</x:v>
+        <x:v>1433</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>2364</x:v>
+        <x:v>2375</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>2276</x:v>
+        <x:v>2280</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
-        <x:v>997</x:v>
+        <x:v>1003</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
         <x:v>0</x:v>
@@ -1317,7 +1317,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
         <x:v>82</x:v>
@@ -1372,7 +1372,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E34" s="1" t="n">
         <x:v>36</x:v>
@@ -1447,13 +1447,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C37" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E37" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F37" s="1" t="n">
         <x:v>89</x:v>
@@ -1499,19 +1499,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="H39" s="1" t="n">
         <x:v>0</x:v>
@@ -1537,7 +1537,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="G40" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H40" s="1" t="n">
         <x:v>0</x:v>
@@ -1551,10 +1551,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>314</x:v>
@@ -1577,7 +1577,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
         <x:v>52</x:v>
@@ -1606,7 +1606,7 @@
         <x:v>232</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>478</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>488</x:v>
@@ -1615,7 +1615,7 @@
         <x:v>415</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -644,16 +644,16 @@
         <x:v>694</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>617</x:v>
+        <x:v>618</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>1033</x:v>
+        <x:v>1034</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>1015</x:v>
+        <x:v>1016</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>352</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -676,10 +676,10 @@
         <x:v>3147</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3358</x:v>
+        <x:v>3360</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1394</x:v>
+        <x:v>1395</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -722,7 +722,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>97</x:v>
@@ -754,7 +754,7 @@
         <x:v>413</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>347</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>120</x:v>
@@ -878,10 +878,10 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>618</x:v>
+        <x:v>619</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>735</x:v>
@@ -904,13 +904,13 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>711</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1505</x:v>
+        <x:v>1506</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1752</x:v>
+        <x:v>1754</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>690</x:v>
@@ -1008,16 +1008,16 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>251</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>200</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
         <x:v>0</x:v>
@@ -1040,7 +1040,7 @@
         <x:v>435</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>391</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
         <x:v>137</x:v>
@@ -1115,10 +1115,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
         <x:v>8</x:v>
@@ -1239,10 +1239,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>603</x:v>
+        <x:v>605</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>1151</x:v>
+        <x:v>1154</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
         <x:v>1804</x:v>
@@ -1251,7 +1251,7 @@
         <x:v>1926</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>771</x:v>
+        <x:v>772</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1265,19 +1265,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>727</x:v>
+        <x:v>729</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>1433</x:v>
+        <x:v>1434</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>2375</x:v>
+        <x:v>2378</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>2280</x:v>
+        <x:v>2285</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
-        <x:v>1003</x:v>
+        <x:v>1005</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
         <x:v>0</x:v>
@@ -1323,7 +1323,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
         <x:v>136</x:v>
@@ -1502,16 +1502,16 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
         <x:v>192</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="H39" s="1" t="n">
         <x:v>0</x:v>
@@ -1612,7 +1612,7 @@
         <x:v>488</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>415</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
         <x:v>170</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -641,13 +641,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>694</x:v>
+        <x:v>697</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>618</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>1034</x:v>
+        <x:v>1035</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>1016</x:v>
@@ -679,7 +679,7 @@
         <x:v>3360</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1395</x:v>
+        <x:v>1397</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -728,7 +728,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>25</x:v>
@@ -748,16 +748,16 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>413</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>349</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
         <x:v>0</x:v>
@@ -858,7 +858,7 @@
         <x:v>350</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>326</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>96</x:v>
@@ -881,10 +881,10 @@
         <x:v>290</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>619</x:v>
+        <x:v>620</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>735</x:v>
+        <x:v>736</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>203</x:v>
@@ -907,10 +907,10 @@
         <x:v>712</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1506</x:v>
+        <x:v>1505</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1754</x:v>
+        <x:v>1755</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>690</x:v>
@@ -1011,10 +1011,10 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>251</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>63</x:v>
@@ -1034,13 +1034,13 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>435</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>392</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
         <x:v>137</x:v>
@@ -1109,7 +1109,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>37</x:v>
@@ -1242,16 +1242,16 @@
         <x:v>605</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>1154</x:v>
+        <x:v>1156</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1804</x:v>
+        <x:v>1803</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
         <x:v>1926</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>772</x:v>
+        <x:v>774</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1265,19 +1265,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>729</x:v>
+        <x:v>730</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
         <x:v>1434</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>2378</x:v>
+        <x:v>2381</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
         <x:v>2285</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
-        <x:v>1005</x:v>
+        <x:v>1006</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
         <x:v>0</x:v>
@@ -1326,7 +1326,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>20</x:v>
@@ -1343,7 +1343,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>3</x:v>
@@ -1369,16 +1369,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C34" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E34" s="1" t="n">
         <x:v>36</x:v>
       </x:c>
       <x:c r="F34" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G34" s="1" t="n">
         <x:v>16</x:v>
@@ -1557,7 +1557,7 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
-        <x:v>314</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
         <x:v>293</x:v>
@@ -1606,7 +1606,7 @@
         <x:v>232</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>479</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>488</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -641,16 +641,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>697</x:v>
+        <x:v>701</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>618</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>1035</x:v>
+        <x:v>1036</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>1016</x:v>
+        <x:v>1018</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>353</x:v>
@@ -667,19 +667,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1092</x:v>
+        <x:v>1096</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1691</x:v>
+        <x:v>1693</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>3147</x:v>
+        <x:v>3153</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3360</x:v>
+        <x:v>3366</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1397</x:v>
+        <x:v>1402</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -722,7 +722,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>97</x:v>
@@ -745,7 +745,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>181</x:v>
@@ -757,7 +757,7 @@
         <x:v>349</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
         <x:v>0</x:v>
@@ -780,7 +780,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>14</x:v>
@@ -829,10 +829,10 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>36</x:v>
@@ -849,16 +849,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>271</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>265</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>350</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>96</x:v>
@@ -878,16 +878,16 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>290</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>620</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>736</x:v>
+        <x:v>737</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>
@@ -904,16 +904,16 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>712</x:v>
+        <x:v>713</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1505</x:v>
+        <x:v>1507</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1755</x:v>
+        <x:v>1762</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>690</x:v>
+        <x:v>692</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -939,7 +939,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
         <x:v>0</x:v>
@@ -953,7 +953,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>8</x:v>
@@ -1008,13 +1008,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>63</x:v>
@@ -1037,10 +1037,10 @@
         <x:v>237</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
-        <x:v>435</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>393</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
         <x:v>137</x:v>
@@ -1109,7 +1109,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>37</x:v>
@@ -1118,7 +1118,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
         <x:v>8</x:v>
@@ -1222,7 +1222,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
         <x:v>8</x:v>
@@ -1239,19 +1239,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>605</x:v>
+        <x:v>607</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>1156</x:v>
+        <x:v>1157</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1803</x:v>
+        <x:v>1811</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1926</x:v>
+        <x:v>1932</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>774</x:v>
+        <x:v>776</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1265,19 +1265,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>730</x:v>
+        <x:v>731</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>1434</x:v>
+        <x:v>1437</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>2381</x:v>
+        <x:v>2393</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>2285</x:v>
+        <x:v>2293</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
-        <x:v>1006</x:v>
+        <x:v>1010</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
         <x:v>0</x:v>
@@ -1291,7 +1291,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>27</x:v>
@@ -1300,7 +1300,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
         <x:v>5</x:v>
@@ -1326,7 +1326,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>20</x:v>
@@ -1502,10 +1502,10 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>158</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
         <x:v>208</x:v>
@@ -1557,10 +1557,10 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>293</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
         <x:v>74</x:v>
@@ -1586,7 +1586,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
         <x:v>12</x:v>
@@ -1606,13 +1606,13 @@
         <x:v>232</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>481</x:v>
+        <x:v>483</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>488</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>416</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
         <x:v>170</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -549,7 +549,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -572,10 +572,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -592,16 +592,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
         <x:v>0</x:v>
@@ -624,10 +624,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F5" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G5" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H5" s="1" t="n">
         <x:v>0</x:v>
@@ -641,19 +641,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>701</x:v>
+        <x:v>744</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>618</x:v>
+        <x:v>664</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>1036</x:v>
+        <x:v>1134</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>1018</x:v>
+        <x:v>1105</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>353</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -667,19 +667,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1096</x:v>
+        <x:v>1193</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1693</x:v>
+        <x:v>1838</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>3153</x:v>
+        <x:v>3403</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3366</x:v>
+        <x:v>3649</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1402</x:v>
+        <x:v>1515</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -719,19 +719,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -745,19 +745,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>125</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>181</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>412</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>349</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
         <x:v>0</x:v>
@@ -771,16 +771,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>14</x:v>
@@ -800,16 +800,16 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
         <x:v>0</x:v>
@@ -823,19 +823,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>94</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
         <x:v>0</x:v>
@@ -849,19 +849,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>275</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>265</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>351</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>330</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
         <x:v>0</x:v>
@@ -875,19 +875,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>292</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>620</x:v>
+        <x:v>680</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>737</x:v>
+        <x:v>784</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>205</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>
@@ -901,19 +901,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>713</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1507</x:v>
+        <x:v>1629</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1762</x:v>
+        <x:v>1924</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>692</x:v>
+        <x:v>749</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -927,7 +927,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>5</x:v>
@@ -936,10 +936,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="G17" s="1" t="n">
         <x:v>7</x:v>
-      </x:c>
-      <x:c r="G17" s="1" t="n">
-        <x:v>6</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
         <x:v>0</x:v>
@@ -953,10 +953,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
         <x:v>13</x:v>
@@ -1005,19 +1005,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>149</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>257</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>206</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
         <x:v>0</x:v>
@@ -1031,19 +1031,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>237</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
-        <x:v>436</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>395</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
         <x:v>0</x:v>
@@ -1109,19 +1109,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
         <x:v>0</x:v>
@@ -1141,7 +1141,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F25" s="1" t="n">
         <x:v>1</x:v>
@@ -1167,10 +1167,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="E26" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F26" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G26" s="1" t="n">
         <x:v>4</x:v>
@@ -1199,7 +1199,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
         <x:v>0</x:v>
@@ -1216,13 +1216,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
         <x:v>8</x:v>
@@ -1239,19 +1239,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>607</x:v>
+        <x:v>667</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>1157</x:v>
+        <x:v>1251</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1811</x:v>
+        <x:v>1962</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1932</x:v>
+        <x:v>2102</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>776</x:v>
+        <x:v>851</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>0</x:v>
@@ -1265,19 +1265,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>731</x:v>
+        <x:v>794</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>1437</x:v>
+        <x:v>1578</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>2393</x:v>
+        <x:v>2588</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>2293</x:v>
+        <x:v>2484</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
-        <x:v>1010</x:v>
+        <x:v>1101</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
         <x:v>0</x:v>
@@ -1291,7 +1291,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>27</x:v>
@@ -1300,7 +1300,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
         <x:v>5</x:v>
@@ -1317,19 +1317,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>128</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>120</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>138</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
         <x:v>0</x:v>
@@ -1372,16 +1372,16 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E34" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F34" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G34" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H34" s="1" t="n">
         <x:v>0</x:v>
@@ -1421,16 +1421,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C36" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E36" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F36" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G36" s="1" t="n">
         <x:v>2</x:v>
@@ -1447,19 +1447,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C37" s="1" t="n">
-        <x:v>144</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
-        <x:v>124</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E37" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F37" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G37" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H37" s="1" t="n">
         <x:v>0</x:v>
@@ -1499,19 +1499,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>160</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
-        <x:v>193</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
-        <x:v>208</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
-        <x:v>128</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="H39" s="1" t="n">
         <x:v>0</x:v>
@@ -1525,16 +1525,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G40" s="1" t="n">
         <x:v>7</x:v>
@@ -1551,19 +1551,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>129</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>155</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
-        <x:v>314</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>295</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
         <x:v>0</x:v>
@@ -1577,19 +1577,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H42" s="1" t="n">
         <x:v>0</x:v>
@@ -1603,19 +1603,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>232</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>483</x:v>
+        <x:v>546</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
-        <x:v>488</x:v>
+        <x:v>558</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>418</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
-        <x:v>170</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -106,10 +106,10 @@
     <x:t>667</x:t>
   </x:si>
   <x:si>
-    <x:t>1140</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1111</x:t>
+    <x:t>1142</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1114</x:t>
   </x:si>
   <x:si>
     <x:t>381</x:t>
@@ -118,10 +118,10 @@
     <x:t>1211</x:t>
   </x:si>
   <x:si>
-    <x:t>1853</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3413</x:t>
+    <x:t>1854</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3415</x:t>
   </x:si>
   <x:si>
     <x:t>3675</x:t>
@@ -142,340 +142,346 @@
     <x:t>60</x:t>
   </x:si>
   <x:si>
-    <x:t>107</x:t>
+    <x:t>109</x:t>
   </x:si>
   <x:si>
     <x:t>139</x:t>
   </x:si>
   <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>205</x:t>
+  </x:si>
+  <x:si>
+    <x:t>458</x:t>
+  </x:si>
+  <x:si>
+    <x:t>385</x:t>
+  </x:si>
+  <x:si>
+    <x:t>133</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Counterfeiting/Forgery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>97</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Destruction/Damage/Vandalism of Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>127</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>282</x:t>
+  </x:si>
+  <x:si>
+    <x:t>395</x:t>
+  </x:si>
+  <x:si>
+    <x:t>376</x:t>
+  </x:si>
+  <x:si>
+    <x:t>104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drug/Narcotic Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>321</x:t>
+  </x:si>
+  <x:si>
+    <x:t>689</x:t>
+  </x:si>
+  <x:si>
+    <x:t>789</x:t>
+  </x:si>
+  <x:si>
+    <x:t>218</x:t>
+  </x:si>
+  <x:si>
+    <x:t>119</x:t>
+  </x:si>
+  <x:si>
+    <x:t>776</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1637</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1942</x:t>
+  </x:si>
+  <x:si>
+    <x:t>754</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Embezzlement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Extortion/Blackmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fraud Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>165</x:t>
+  </x:si>
+  <x:si>
+    <x:t>288</x:t>
+  </x:si>
+  <x:si>
+    <x:t>226</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>258</x:t>
+  </x:si>
+  <x:si>
+    <x:t>481</x:t>
+  </x:si>
+  <x:si>
+    <x:t>436</x:t>
+  </x:si>
+  <x:si>
+    <x:t>158</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gambling Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Homicide Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Human Trafficking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kidnapping/Abduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Larceny/Theft Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>677</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1271</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1988</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2126</x:t>
+  </x:si>
+  <x:si>
+    <x:t>858</x:t>
+  </x:si>
+  <x:si>
+    <x:t>804</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1596</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2617</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2514</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motor Vehicle Theft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>126</x:t>
+  </x:si>
+  <x:si>
+    <x:t>151</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pornography/Obscene Material</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prostitution Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robbery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>95</x:t>
+  </x:si>
+  <x:si>
     <x:t>26</x:t>
   </x:si>
   <x:si>
-    <x:t>130</x:t>
-  </x:si>
-  <x:si>
-    <x:t>205</x:t>
-  </x:si>
-  <x:si>
-    <x:t>458</x:t>
-  </x:si>
-  <x:si>
-    <x:t>384</x:t>
-  </x:si>
-  <x:si>
-    <x:t>133</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Counterfeiting/Forgery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>97</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Destruction/Damage/Vandalism of Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>99</x:t>
-  </x:si>
-  <x:si>
-    <x:t>103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>127</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>281</x:t>
-  </x:si>
-  <x:si>
-    <x:t>395</x:t>
-  </x:si>
-  <x:si>
-    <x:t>376</x:t>
-  </x:si>
-  <x:si>
-    <x:t>104</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drug/Narcotic Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>321</x:t>
-  </x:si>
-  <x:si>
-    <x:t>687</x:t>
-  </x:si>
-  <x:si>
-    <x:t>788</x:t>
-  </x:si>
-  <x:si>
-    <x:t>218</x:t>
-  </x:si>
-  <x:si>
-    <x:t>119</x:t>
-  </x:si>
-  <x:si>
-    <x:t>775</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1638</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1939</x:t>
-  </x:si>
-  <x:si>
-    <x:t>753</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Embezzlement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Extortion/Blackmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fraud Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>164</x:t>
-  </x:si>
-  <x:si>
-    <x:t>287</x:t>
+    <x:t>Sex Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>175</x:t>
+  </x:si>
+  <x:si>
+    <x:t>206</x:t>
+  </x:si>
+  <x:si>
+    <x:t>145</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stolen Property Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>173</x:t>
+  </x:si>
+  <x:si>
+    <x:t>341</x:t>
+  </x:si>
+  <x:si>
+    <x:t>311</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weapon Law Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61</x:t>
+  </x:si>
+  <x:si>
+    <x:t>247</x:t>
+  </x:si>
+  <x:si>
+    <x:t>551</x:t>
+  </x:si>
+  <x:si>
+    <x:t>560</x:t>
+  </x:si>
+  <x:si>
+    <x:t>489</x:t>
   </x:si>
   <x:si>
     <x:t>227</x:t>
-  </x:si>
-  <x:si>
-    <x:t>70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>258</x:t>
-  </x:si>
-  <x:si>
-    <x:t>478</x:t>
-  </x:si>
-  <x:si>
-    <x:t>433</x:t>
-  </x:si>
-  <x:si>
-    <x:t>158</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gambling Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Homicide Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Human Trafficking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kidnapping/Abduction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Larceny/Theft Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>673</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1268</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1985</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2124</x:t>
-  </x:si>
-  <x:si>
-    <x:t>856</x:t>
-  </x:si>
-  <x:si>
-    <x:t>804</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1595</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2610</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2512</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motor Vehicle Theft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>140</x:t>
-  </x:si>
-  <x:si>
-    <x:t>90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>126</x:t>
-  </x:si>
-  <x:si>
-    <x:t>151</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pornography/Obscene Material</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prostitution Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robbery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>122</x:t>
-  </x:si>
-  <x:si>
-    <x:t>95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sex Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>121</x:t>
-  </x:si>
-  <x:si>
-    <x:t>175</x:t>
-  </x:si>
-  <x:si>
-    <x:t>204</x:t>
-  </x:si>
-  <x:si>
-    <x:t>226</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stolen Property Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>92</x:t>
-  </x:si>
-  <x:si>
-    <x:t>141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>173</x:t>
-  </x:si>
-  <x:si>
-    <x:t>341</x:t>
-  </x:si>
-  <x:si>
-    <x:t>310</x:t>
-  </x:si>
-  <x:si>
-    <x:t>77</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weapon Law Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61</x:t>
-  </x:si>
-  <x:si>
-    <x:t>247</x:t>
-  </x:si>
-  <x:si>
-    <x:t>550</x:t>
-  </x:si>
-  <x:si>
-    <x:t>560</x:t>
-  </x:si>
-  <x:si>
-    <x:t>487</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1146,7 +1152,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="G11" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H11" s="1" t="s">
         <x:v>10</x:v>
@@ -1290,7 +1296,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
         <x:v>11</x:v>
@@ -1640,7 +1646,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="G30" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
         <x:v>10</x:v>
@@ -1648,19 +1654,19 @@
     </x:row>
     <x:row r="31" spans="1:8">
       <x:c r="A31" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
         <x:v>97</x:v>
       </x:c>
       <x:c r="E31" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F31" s="1" t="s">
         <x:v>62</x:v>
@@ -1674,25 +1680,25 @@
     </x:row>
     <x:row r="32" spans="1:8">
       <x:c r="A32" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E32" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F32" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G32" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
         <x:v>10</x:v>
@@ -1700,7 +1706,7 @@
     </x:row>
     <x:row r="33" spans="1:8">
       <x:c r="A33" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>9</x:v>
@@ -1726,22 +1732,22 @@
     </x:row>
     <x:row r="34" spans="1:8">
       <x:c r="A34" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C34" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D34" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E34" s="1" t="s">
         <x:v>62</x:v>
       </x:c>
       <x:c r="F34" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="G34" s="1" t="s">
         <x:v>13</x:v>
@@ -1752,7 +1758,7 @@
     </x:row>
     <x:row r="35" spans="1:8">
       <x:c r="A35" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>15</x:v>
@@ -1778,13 +1784,13 @@
     </x:row>
     <x:row r="36" spans="1:8">
       <x:c r="A36" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D36" s="1" t="s">
         <x:v>56</x:v>
@@ -1804,25 +1810,25 @@
     </x:row>
     <x:row r="37" spans="1:8">
       <x:c r="A37" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C37" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E37" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F37" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G37" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="H37" s="1" t="s">
         <x:v>10</x:v>
@@ -1830,7 +1836,7 @@
     </x:row>
     <x:row r="38" spans="1:8">
       <x:c r="A38" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>9</x:v>
@@ -1856,25 +1862,25 @@
     </x:row>
     <x:row r="39" spans="1:8">
       <x:c r="A39" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C39" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F39" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G39" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="H39" s="1" t="s">
         <x:v>10</x:v>
@@ -1882,22 +1888,22 @@
     </x:row>
     <x:row r="40" spans="1:8">
       <x:c r="A40" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C40" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F40" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="G40" s="1" t="s">
         <x:v>103</x:v>
@@ -1908,25 +1914,25 @@
     </x:row>
     <x:row r="41" spans="1:8">
       <x:c r="A41" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="F41" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G41" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="H41" s="1" t="s">
         <x:v>10</x:v>
@@ -1934,22 +1940,22 @@
     </x:row>
     <x:row r="42" spans="1:8">
       <x:c r="A42" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F42" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="G42" s="1" t="s">
         <x:v>17</x:v>
@@ -1960,25 +1966,25 @@
     </x:row>
     <x:row r="43" spans="1:8">
       <x:c r="A43" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D43" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="E43" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F43" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="H43" s="1" t="s">
         <x:v>10</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -100,31 +100,31 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>764</x:t>
+    <x:t>766</x:t>
   </x:si>
   <x:si>
     <x:t>667</x:t>
   </x:si>
   <x:si>
-    <x:t>1142</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1114</x:t>
+    <x:t>1143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1112</x:t>
   </x:si>
   <x:si>
     <x:t>381</x:t>
   </x:si>
   <x:si>
-    <x:t>1211</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1854</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3415</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3675</x:t>
+    <x:t>1217</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1856</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3418</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3685</x:t>
   </x:si>
   <x:si>
     <x:t>1524</x:t>
@@ -136,126 +136,129 @@
     <x:t>Burglary/Breaking &amp; Entering</x:t>
   </x:si>
   <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>109</x:t>
+  </x:si>
+  <x:si>
+    <x:t>139</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>130</x:t>
+  </x:si>
+  <x:si>
+    <x:t>207</x:t>
+  </x:si>
+  <x:si>
+    <x:t>458</x:t>
+  </x:si>
+  <x:si>
+    <x:t>385</x:t>
+  </x:si>
+  <x:si>
+    <x:t>133</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Counterfeiting/Forgery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>97</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Destruction/Damage/Vandalism of Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>127</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>315</x:t>
+  </x:si>
+  <x:si>
+    <x:t>284</x:t>
+  </x:si>
+  <x:si>
+    <x:t>398</x:t>
+  </x:si>
+  <x:si>
+    <x:t>380</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drug/Narcotic Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>321</x:t>
+  </x:si>
+  <x:si>
+    <x:t>690</x:t>
+  </x:si>
+  <x:si>
+    <x:t>790</x:t>
+  </x:si>
+  <x:si>
+    <x:t>218</x:t>
+  </x:si>
+  <x:si>
+    <x:t>119</x:t>
+  </x:si>
+  <x:si>
+    <x:t>776</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1638</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1945</x:t>
+  </x:si>
+  <x:si>
+    <x:t>757</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Embezzlement</x:t>
+  </x:si>
+  <x:si>
     <x:t>11</x:t>
   </x:si>
   <x:si>
-    <x:t>60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>109</x:t>
-  </x:si>
-  <x:si>
-    <x:t>139</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>129</x:t>
-  </x:si>
-  <x:si>
-    <x:t>205</x:t>
-  </x:si>
-  <x:si>
-    <x:t>458</x:t>
-  </x:si>
-  <x:si>
-    <x:t>385</x:t>
-  </x:si>
-  <x:si>
-    <x:t>133</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Counterfeiting/Forgery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>97</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Destruction/Damage/Vandalism of Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>99</x:t>
-  </x:si>
-  <x:si>
-    <x:t>103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>127</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>282</x:t>
-  </x:si>
-  <x:si>
-    <x:t>395</x:t>
-  </x:si>
-  <x:si>
-    <x:t>376</x:t>
-  </x:si>
-  <x:si>
-    <x:t>104</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drug/Narcotic Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>321</x:t>
-  </x:si>
-  <x:si>
-    <x:t>689</x:t>
-  </x:si>
-  <x:si>
-    <x:t>789</x:t>
-  </x:si>
-  <x:si>
-    <x:t>218</x:t>
-  </x:si>
-  <x:si>
-    <x:t>119</x:t>
-  </x:si>
-  <x:si>
-    <x:t>776</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1637</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1942</x:t>
-  </x:si>
-  <x:si>
-    <x:t>754</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Embezzlement</x:t>
-  </x:si>
-  <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
@@ -268,220 +271,220 @@
     <x:t>25</x:t>
   </x:si>
   <x:si>
-    <x:t>165</x:t>
+    <x:t>166</x:t>
   </x:si>
   <x:si>
     <x:t>288</x:t>
   </x:si>
   <x:si>
+    <x:t>227</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>261</x:t>
+  </x:si>
+  <x:si>
+    <x:t>482</x:t>
+  </x:si>
+  <x:si>
+    <x:t>436</x:t>
+  </x:si>
+  <x:si>
+    <x:t>158</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gambling Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Homicide Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Human Trafficking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kidnapping/Abduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Larceny/Theft Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>677</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1271</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1991</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2130</x:t>
+  </x:si>
+  <x:si>
+    <x:t>858</x:t>
+  </x:si>
+  <x:si>
+    <x:t>805</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1601</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2621</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2518</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1113</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motor Vehicle Theft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>126</x:t>
+  </x:si>
+  <x:si>
+    <x:t>151</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pornography/Obscene Material</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prostitution Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robbery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>155</x:t>
+  </x:si>
+  <x:si>
+    <x:t>144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sex Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>175</x:t>
+  </x:si>
+  <x:si>
+    <x:t>206</x:t>
+  </x:si>
+  <x:si>
     <x:t>226</x:t>
   </x:si>
   <x:si>
-    <x:t>70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>258</x:t>
-  </x:si>
-  <x:si>
-    <x:t>481</x:t>
-  </x:si>
-  <x:si>
-    <x:t>436</x:t>
-  </x:si>
-  <x:si>
-    <x:t>158</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gambling Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Homicide Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Human Trafficking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kidnapping/Abduction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Larceny/Theft Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>677</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1271</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1988</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2126</x:t>
-  </x:si>
-  <x:si>
-    <x:t>858</x:t>
-  </x:si>
-  <x:si>
-    <x:t>804</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1596</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2617</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2514</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motor Vehicle Theft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>140</x:t>
-  </x:si>
-  <x:si>
-    <x:t>90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>126</x:t>
-  </x:si>
-  <x:si>
-    <x:t>151</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pornography/Obscene Material</x:t>
+    <x:t>146</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stolen Property Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>173</x:t>
+  </x:si>
+  <x:si>
+    <x:t>341</x:t>
+  </x:si>
+  <x:si>
+    <x:t>311</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weapon Law Violations</x:t>
   </x:si>
   <x:si>
     <x:t>21</x:t>
   </x:si>
   <x:si>
-    <x:t>41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prostitution Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robbery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>122</x:t>
-  </x:si>
-  <x:si>
-    <x:t>95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sex Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>175</x:t>
-  </x:si>
-  <x:si>
-    <x:t>206</x:t>
-  </x:si>
-  <x:si>
-    <x:t>145</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stolen Property Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>92</x:t>
-  </x:si>
-  <x:si>
-    <x:t>141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>173</x:t>
-  </x:si>
-  <x:si>
-    <x:t>341</x:t>
-  </x:si>
-  <x:si>
-    <x:t>311</x:t>
-  </x:si>
-  <x:si>
-    <x:t>77</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weapon Law Violations</x:t>
-  </x:si>
-  <x:si>
     <x:t>54</x:t>
   </x:si>
   <x:si>
     <x:t>61</x:t>
   </x:si>
   <x:si>
-    <x:t>247</x:t>
-  </x:si>
-  <x:si>
-    <x:t>551</x:t>
+    <x:t>246</x:t>
+  </x:si>
+  <x:si>
+    <x:t>550</x:t>
   </x:si>
   <x:si>
     <x:t>560</x:t>
   </x:si>
   <x:si>
-    <x:t>489</x:t>
-  </x:si>
-  <x:si>
-    <x:t>227</x:t>
+    <x:t>490</x:t>
+  </x:si>
+  <x:si>
+    <x:t>228</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1331,10 +1334,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G18" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
         <x:v>10</x:v>
@@ -1342,7 +1345,7 @@
     </x:row>
     <x:row r="19" spans="1:8">
       <x:c r="A19" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>15</x:v>
@@ -1368,25 +1371,25 @@
     </x:row>
     <x:row r="20" spans="1:8">
       <x:c r="A20" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
         <x:v>10</x:v>
@@ -1394,25 +1397,25 @@
     </x:row>
     <x:row r="21" spans="1:8">
       <x:c r="A21" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G21" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
         <x:v>10</x:v>
@@ -1420,7 +1423,7 @@
     </x:row>
     <x:row r="22" spans="1:8">
       <x:c r="A22" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>15</x:v>
@@ -1435,7 +1438,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F22" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
         <x:v>22</x:v>
@@ -1446,7 +1449,7 @@
     </x:row>
     <x:row r="23" spans="1:8">
       <x:c r="A23" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>9</x:v>
@@ -1472,7 +1475,7 @@
     </x:row>
     <x:row r="24" spans="1:8">
       <x:c r="A24" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>15</x:v>
@@ -1481,13 +1484,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D24" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E24" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F24" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G24" s="1" t="s">
         <x:v>12</x:v>
@@ -1498,7 +1501,7 @@
     </x:row>
     <x:row r="25" spans="1:8">
       <x:c r="A25" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>9</x:v>
@@ -1510,7 +1513,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E25" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F25" s="1" t="s">
         <x:v>22</x:v>
@@ -1524,7 +1527,7 @@
     </x:row>
     <x:row r="26" spans="1:8">
       <x:c r="A26" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>15</x:v>
@@ -1539,7 +1542,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F26" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G26" s="1" t="s">
         <x:v>16</x:v>
@@ -1565,7 +1568,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F27" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G27" s="1" t="s">
         <x:v>23</x:v>
@@ -1588,7 +1591,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E28" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F28" s="1" t="s">
         <x:v>102</x:v>
@@ -1663,7 +1666,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E31" s="1" t="s">
         <x:v>117</x:v>
@@ -1741,7 +1744,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="D34" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E34" s="1" t="s">
         <x:v>62</x:v>
@@ -1802,7 +1805,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G36" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H36" s="1" t="s">
         <x:v>10</x:v>
@@ -1845,10 +1848,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D38" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F38" s="1" t="s">
         <x:v>16</x:v>
@@ -1877,10 +1880,10 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="F39" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="G39" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="H39" s="1" t="s">
         <x:v>10</x:v>
@@ -1888,22 +1891,22 @@
     </x:row>
     <x:row r="40" spans="1:8">
       <x:c r="A40" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C40" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="F40" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="G40" s="1" t="s">
         <x:v>103</x:v>
@@ -1914,13 +1917,13 @@
     </x:row>
     <x:row r="41" spans="1:8">
       <x:c r="A41" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
         <x:v>144</x:v>
@@ -1946,16 +1949,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="F42" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="G42" s="1" t="s">
         <x:v>17</x:v>
@@ -1972,19 +1975,19 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D43" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E43" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F43" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="H43" s="1" t="s">
         <x:v>10</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -100,13 +100,13 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>766</x:t>
-  </x:si>
-  <x:si>
-    <x:t>667</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1143</x:t>
+    <x:t>768</x:t>
+  </x:si>
+  <x:si>
+    <x:t>668</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1142</x:t>
   </x:si>
   <x:si>
     <x:t>1112</x:t>
@@ -115,7 +115,7 @@
     <x:t>381</x:t>
   </x:si>
   <x:si>
-    <x:t>1217</x:t>
+    <x:t>1219</x:t>
   </x:si>
   <x:si>
     <x:t>1856</x:t>
@@ -124,7 +124,7 @@
     <x:t>3418</x:t>
   </x:si>
   <x:si>
-    <x:t>3685</x:t>
+    <x:t>3686</x:t>
   </x:si>
   <x:si>
     <x:t>1524</x:t>
@@ -160,7 +160,7 @@
     <x:t>458</x:t>
   </x:si>
   <x:si>
-    <x:t>385</x:t>
+    <x:t>386</x:t>
   </x:si>
   <x:si>
     <x:t>133</x:t>
@@ -175,7 +175,7 @@
     <x:t>59</x:t>
   </x:si>
   <x:si>
-    <x:t>97</x:t>
+    <x:t>98</x:t>
   </x:si>
   <x:si>
     <x:t>36</x:t>
@@ -205,10 +205,10 @@
     <x:t>37</x:t>
   </x:si>
   <x:si>
-    <x:t>315</x:t>
-  </x:si>
-  <x:si>
-    <x:t>284</x:t>
+    <x:t>314</x:t>
+  </x:si>
+  <x:si>
+    <x:t>285</x:t>
   </x:si>
   <x:si>
     <x:t>398</x:t>
@@ -232,7 +232,7 @@
     <x:t>690</x:t>
   </x:si>
   <x:si>
-    <x:t>790</x:t>
+    <x:t>791</x:t>
   </x:si>
   <x:si>
     <x:t>218</x:t>
@@ -244,10 +244,10 @@
     <x:t>776</x:t>
   </x:si>
   <x:si>
-    <x:t>1638</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1945</x:t>
+    <x:t>1639</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1947</x:t>
   </x:si>
   <x:si>
     <x:t>757</x:t>
@@ -277,7 +277,7 @@
     <x:t>288</x:t>
   </x:si>
   <x:si>
-    <x:t>227</x:t>
+    <x:t>228</x:t>
   </x:si>
   <x:si>
     <x:t>70</x:t>
@@ -289,7 +289,7 @@
     <x:t>261</x:t>
   </x:si>
   <x:si>
-    <x:t>482</x:t>
+    <x:t>481</x:t>
   </x:si>
   <x:si>
     <x:t>436</x:t>
@@ -307,24 +307,24 @@
     <x:t>38</x:t>
   </x:si>
   <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Human Trafficking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kidnapping/Abduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
     <x:t>32</x:t>
   </x:si>
   <x:si>
-    <x:t>28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Human Trafficking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kidnapping/Abduction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
     <x:t>8</x:t>
   </x:si>
   <x:si>
@@ -346,10 +346,10 @@
     <x:t>858</x:t>
   </x:si>
   <x:si>
-    <x:t>805</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1601</x:t>
+    <x:t>806</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1602</x:t>
   </x:si>
   <x:si>
     <x:t>2621</x:t>
@@ -379,7 +379,7 @@
     <x:t>126</x:t>
   </x:si>
   <x:si>
-    <x:t>151</x:t>
+    <x:t>152</x:t>
   </x:si>
   <x:si>
     <x:t>23</x:t>
@@ -445,13 +445,13 @@
     <x:t>101</x:t>
   </x:si>
   <x:si>
-    <x:t>92</x:t>
+    <x:t>93</x:t>
   </x:si>
   <x:si>
     <x:t>173</x:t>
   </x:si>
   <x:si>
-    <x:t>341</x:t>
+    <x:t>342</x:t>
   </x:si>
   <x:si>
     <x:t>311</x:t>
@@ -481,10 +481,7 @@
     <x:t>560</x:t>
   </x:si>
   <x:si>
-    <x:t>490</x:t>
-  </x:si>
-  <x:si>
-    <x:t>228</x:t>
+    <x:t>489</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1591,10 +1588,10 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E28" s="1" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="F28" s="1" t="s">
         <x:v>97</x:v>
-      </x:c>
-      <x:c r="F28" s="1" t="s">
-        <x:v>102</x:v>
       </x:c>
       <x:c r="G28" s="1" t="s">
         <x:v>103</x:v>
@@ -1796,7 +1793,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="D36" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
         <x:v>54</x:v>
@@ -1987,7 +1984,7 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H43" s="1" t="s">
         <x:v>10</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -106,28 +106,28 @@
     <x:t>668</x:t>
   </x:si>
   <x:si>
-    <x:t>1142</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1112</x:t>
+    <x:t>1144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1113</x:t>
   </x:si>
   <x:si>
     <x:t>381</x:t>
   </x:si>
   <x:si>
-    <x:t>1219</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1856</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3418</x:t>
+    <x:t>1220</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1858</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3419</x:t>
   </x:si>
   <x:si>
     <x:t>3686</x:t>
   </x:si>
   <x:si>
-    <x:t>1524</x:t>
+    <x:t>1525</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>
@@ -139,7 +139,7 @@
     <x:t>12</x:t>
   </x:si>
   <x:si>
-    <x:t>60</x:t>
+    <x:t>59</x:t>
   </x:si>
   <x:si>
     <x:t>109</x:t>
@@ -157,7 +157,7 @@
     <x:t>207</x:t>
   </x:si>
   <x:si>
-    <x:t>458</x:t>
+    <x:t>459</x:t>
   </x:si>
   <x:si>
     <x:t>386</x:t>
@@ -172,9 +172,6 @@
     <x:t>6</x:t>
   </x:si>
   <x:si>
-    <x:t>59</x:t>
-  </x:si>
-  <x:si>
     <x:t>98</x:t>
   </x:si>
   <x:si>
@@ -205,7 +202,7 @@
     <x:t>37</x:t>
   </x:si>
   <x:si>
-    <x:t>314</x:t>
+    <x:t>315</x:t>
   </x:si>
   <x:si>
     <x:t>285</x:t>
@@ -244,13 +241,13 @@
     <x:t>776</x:t>
   </x:si>
   <x:si>
-    <x:t>1639</x:t>
+    <x:t>1640</x:t>
   </x:si>
   <x:si>
     <x:t>1947</x:t>
   </x:si>
   <x:si>
-    <x:t>757</x:t>
+    <x:t>758</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -343,10 +340,10 @@
     <x:t>2130</x:t>
   </x:si>
   <x:si>
-    <x:t>858</x:t>
-  </x:si>
-  <x:si>
-    <x:t>806</x:t>
+    <x:t>859</x:t>
+  </x:si>
+  <x:si>
+    <x:t>807</x:t>
   </x:si>
   <x:si>
     <x:t>1602</x:t>
@@ -355,10 +352,7 @@
     <x:t>2621</x:t>
   </x:si>
   <x:si>
-    <x:t>2518</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1113</x:t>
+    <x:t>2519</x:t>
   </x:si>
   <x:si>
     <x:t>Motor Vehicle Theft</x:t>
@@ -472,7 +466,7 @@
     <x:t>61</x:t>
   </x:si>
   <x:si>
-    <x:t>246</x:t>
+    <x:t>247</x:t>
   </x:si>
   <x:si>
     <x:t>550</x:t>
@@ -481,7 +475,7 @@
     <x:t>560</x:t>
   </x:si>
   <x:si>
-    <x:t>489</x:t>
+    <x:t>490</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1146,10 +1140,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="E11" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F11" s="1" t="s">
         <x:v>52</x:v>
-      </x:c>
-      <x:c r="F11" s="1" t="s">
-        <x:v>53</x:v>
       </x:c>
       <x:c r="G11" s="1" t="s">
         <x:v>24</x:v>
@@ -1169,16 +1163,16 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E12" s="1" t="s">
         <x:v>54</x:v>
-      </x:c>
-      <x:c r="E12" s="1" t="s">
-        <x:v>55</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
         <x:v>43</x:v>
       </x:c>
       <x:c r="G12" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H12" s="1" t="s">
         <x:v>10</x:v>
@@ -1186,25 +1180,25 @@
     </x:row>
     <x:row r="13" spans="1:8">
       <x:c r="A13" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D13" s="1" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="D13" s="1" t="s">
+      <x:c r="E13" s="1" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="E13" s="1" t="s">
+      <x:c r="F13" s="1" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="F13" s="1" t="s">
+      <x:c r="G13" s="1" t="s">
         <x:v>61</x:v>
-      </x:c>
-      <x:c r="G13" s="1" t="s">
-        <x:v>62</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
         <x:v>10</x:v>
@@ -1212,25 +1206,25 @@
     </x:row>
     <x:row r="14" spans="1:8">
       <x:c r="A14" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D14" s="1" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D14" s="1" t="s">
+      <x:c r="E14" s="1" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="E14" s="1" t="s">
+      <x:c r="F14" s="1" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="F14" s="1" t="s">
+      <x:c r="G14" s="1" t="s">
         <x:v>66</x:v>
-      </x:c>
-      <x:c r="G14" s="1" t="s">
-        <x:v>67</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
         <x:v>10</x:v>
@@ -1238,25 +1232,25 @@
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D15" s="1" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D15" s="1" t="s">
+      <x:c r="E15" s="1" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="E15" s="1" t="s">
+      <x:c r="F15" s="1" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="F15" s="1" t="s">
+      <x:c r="G15" s="1" t="s">
         <x:v>72</x:v>
-      </x:c>
-      <x:c r="G15" s="1" t="s">
-        <x:v>73</x:v>
       </x:c>
       <x:c r="H15" s="1" t="s">
         <x:v>10</x:v>
@@ -1264,25 +1258,25 @@
     </x:row>
     <x:row r="16" spans="1:8">
       <x:c r="A16" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D16" s="1" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="D16" s="1" t="s">
+      <x:c r="E16" s="1" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="E16" s="1" t="s">
+      <x:c r="F16" s="1" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="F16" s="1" t="s">
+      <x:c r="G16" s="1" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="G16" s="1" t="s">
-        <x:v>78</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
         <x:v>10</x:v>
@@ -1290,7 +1284,7 @@
     </x:row>
     <x:row r="17" spans="1:8">
       <x:c r="A17" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>9</x:v>
@@ -1316,7 +1310,7 @@
     </x:row>
     <x:row r="18" spans="1:8">
       <x:c r="A18" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>15</x:v>
@@ -1331,10 +1325,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="G18" s="1" t="s">
         <x:v>80</x:v>
-      </x:c>
-      <x:c r="G18" s="1" t="s">
-        <x:v>81</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
         <x:v>10</x:v>
@@ -1342,7 +1336,7 @@
     </x:row>
     <x:row r="19" spans="1:8">
       <x:c r="A19" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>15</x:v>
@@ -1368,25 +1362,25 @@
     </x:row>
     <x:row r="20" spans="1:8">
       <x:c r="A20" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D20" s="1" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="D20" s="1" t="s">
+      <x:c r="E20" s="1" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="E20" s="1" t="s">
+      <x:c r="F20" s="1" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="F20" s="1" t="s">
+      <x:c r="G20" s="1" t="s">
         <x:v>87</x:v>
-      </x:c>
-      <x:c r="G20" s="1" t="s">
-        <x:v>88</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
         <x:v>10</x:v>
@@ -1394,25 +1388,25 @@
     </x:row>
     <x:row r="21" spans="1:8">
       <x:c r="A21" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="D21" s="1" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="D21" s="1" t="s">
+      <x:c r="E21" s="1" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="E21" s="1" t="s">
+      <x:c r="F21" s="1" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="F21" s="1" t="s">
+      <x:c r="G21" s="1" t="s">
         <x:v>92</x:v>
-      </x:c>
-      <x:c r="G21" s="1" t="s">
-        <x:v>93</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
         <x:v>10</x:v>
@@ -1420,7 +1414,7 @@
     </x:row>
     <x:row r="22" spans="1:8">
       <x:c r="A22" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>15</x:v>
@@ -1435,7 +1429,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F22" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
         <x:v>22</x:v>
@@ -1446,7 +1440,7 @@
     </x:row>
     <x:row r="23" spans="1:8">
       <x:c r="A23" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>9</x:v>
@@ -1472,7 +1466,7 @@
     </x:row>
     <x:row r="24" spans="1:8">
       <x:c r="A24" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>15</x:v>
@@ -1481,13 +1475,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D24" s="1" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="E24" s="1" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="E24" s="1" t="s">
+      <x:c r="F24" s="1" t="s">
         <x:v>97</x:v>
-      </x:c>
-      <x:c r="F24" s="1" t="s">
-        <x:v>98</x:v>
       </x:c>
       <x:c r="G24" s="1" t="s">
         <x:v>12</x:v>
@@ -1498,7 +1492,7 @@
     </x:row>
     <x:row r="25" spans="1:8">
       <x:c r="A25" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>9</x:v>
@@ -1510,7 +1504,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E25" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F25" s="1" t="s">
         <x:v>22</x:v>
@@ -1524,7 +1518,7 @@
     </x:row>
     <x:row r="26" spans="1:8">
       <x:c r="A26" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>15</x:v>
@@ -1550,7 +1544,7 @@
     </x:row>
     <x:row r="27" spans="1:8">
       <x:c r="A27" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>9</x:v>
@@ -1565,7 +1559,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F27" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G27" s="1" t="s">
         <x:v>23</x:v>
@@ -1576,25 +1570,25 @@
     </x:row>
     <x:row r="28" spans="1:8">
       <x:c r="A28" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C28" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D28" s="1" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="B28" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C28" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D28" s="1" t="s">
+      <x:c r="E28" s="1" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="E28" s="1" t="s">
+      <x:c r="F28" s="1" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="G28" s="1" t="s">
         <x:v>102</x:v>
-      </x:c>
-      <x:c r="F28" s="1" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="G28" s="1" t="s">
-        <x:v>103</x:v>
       </x:c>
       <x:c r="H28" s="1" t="s">
         <x:v>10</x:v>
@@ -1602,25 +1596,25 @@
     </x:row>
     <x:row r="29" spans="1:8">
       <x:c r="A29" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C29" s="1" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D29" s="1" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="D29" s="1" t="s">
+      <x:c r="E29" s="1" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="E29" s="1" t="s">
+      <x:c r="F29" s="1" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="F29" s="1" t="s">
+      <x:c r="G29" s="1" t="s">
         <x:v>108</x:v>
-      </x:c>
-      <x:c r="G29" s="1" t="s">
-        <x:v>109</x:v>
       </x:c>
       <x:c r="H29" s="1" t="s">
         <x:v>10</x:v>
@@ -1628,25 +1622,25 @@
     </x:row>
     <x:row r="30" spans="1:8">
       <x:c r="A30" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="D30" s="1" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="D30" s="1" t="s">
+      <x:c r="E30" s="1" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="E30" s="1" t="s">
+      <x:c r="F30" s="1" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="F30" s="1" t="s">
-        <x:v>113</x:v>
-      </x:c>
       <x:c r="G30" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
         <x:v>10</x:v>
@@ -1654,22 +1648,22 @@
     </x:row>
     <x:row r="31" spans="1:8">
       <x:c r="A31" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E31" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F31" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G31" s="1" t="s">
         <x:v>11</x:v>
@@ -1680,25 +1674,25 @@
     </x:row>
     <x:row r="32" spans="1:8">
       <x:c r="A32" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="D32" s="1" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="E32" s="1" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="D32" s="1" t="s">
+      <x:c r="F32" s="1" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="E32" s="1" t="s">
+      <x:c r="G32" s="1" t="s">
         <x:v>120</x:v>
-      </x:c>
-      <x:c r="F32" s="1" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="G32" s="1" t="s">
-        <x:v>122</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
         <x:v>10</x:v>
@@ -1706,7 +1700,7 @@
     </x:row>
     <x:row r="33" spans="1:8">
       <x:c r="A33" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>9</x:v>
@@ -1732,22 +1726,22 @@
     </x:row>
     <x:row r="34" spans="1:8">
       <x:c r="A34" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C34" s="1" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D34" s="1" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="E34" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="F34" s="1" t="s">
         <x:v>123</x:v>
-      </x:c>
-      <x:c r="B34" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C34" s="1" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="D34" s="1" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="E34" s="1" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="F34" s="1" t="s">
-        <x:v>125</x:v>
       </x:c>
       <x:c r="G34" s="1" t="s">
         <x:v>13</x:v>
@@ -1758,7 +1752,7 @@
     </x:row>
     <x:row r="35" spans="1:8">
       <x:c r="A35" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>15</x:v>
@@ -1784,25 +1778,25 @@
     </x:row>
     <x:row r="36" spans="1:8">
       <x:c r="A36" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D36" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F36" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="G36" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H36" s="1" t="s">
         <x:v>10</x:v>
@@ -1810,25 +1804,25 @@
     </x:row>
     <x:row r="37" spans="1:8">
       <x:c r="A37" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C37" s="1" t="s">
         <x:v>127</x:v>
       </x:c>
-      <x:c r="B37" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C37" s="1" t="s">
+      <x:c r="D37" s="1" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E37" s="1" t="s">
         <x:v>129</x:v>
       </x:c>
-      <x:c r="D37" s="1" t="s">
+      <x:c r="F37" s="1" t="s">
         <x:v>130</x:v>
       </x:c>
-      <x:c r="E37" s="1" t="s">
+      <x:c r="G37" s="1" t="s">
         <x:v>131</x:v>
-      </x:c>
-      <x:c r="F37" s="1" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="G37" s="1" t="s">
-        <x:v>133</x:v>
       </x:c>
       <x:c r="H37" s="1" t="s">
         <x:v>10</x:v>
@@ -1836,7 +1830,7 @@
     </x:row>
     <x:row r="38" spans="1:8">
       <x:c r="A38" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>9</x:v>
@@ -1845,10 +1839,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D38" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F38" s="1" t="s">
         <x:v>16</x:v>
@@ -1862,25 +1856,25 @@
     </x:row>
     <x:row r="39" spans="1:8">
       <x:c r="A39" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C39" s="1" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="D39" s="1" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="B39" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C39" s="1" t="s">
+      <x:c r="E39" s="1" t="s">
         <x:v>135</x:v>
       </x:c>
-      <x:c r="D39" s="1" t="s">
+      <x:c r="F39" s="1" t="s">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="E39" s="1" t="s">
+      <x:c r="G39" s="1" t="s">
         <x:v>137</x:v>
-      </x:c>
-      <x:c r="F39" s="1" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="G39" s="1" t="s">
-        <x:v>139</x:v>
       </x:c>
       <x:c r="H39" s="1" t="s">
         <x:v>10</x:v>
@@ -1888,25 +1882,25 @@
     </x:row>
     <x:row r="40" spans="1:8">
       <x:c r="A40" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C40" s="1" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="D40" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E40" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="F40" s="1" t="s">
         <x:v>141</x:v>
       </x:c>
-      <x:c r="D40" s="1" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="E40" s="1" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="F40" s="1" t="s">
-        <x:v>143</x:v>
-      </x:c>
       <x:c r="G40" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H40" s="1" t="s">
         <x:v>10</x:v>
@@ -1914,25 +1908,25 @@
     </x:row>
     <x:row r="41" spans="1:8">
       <x:c r="A41" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="E41" s="1" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="F41" s="1" t="s">
         <x:v>144</x:v>
       </x:c>
-      <x:c r="E41" s="1" t="s">
+      <x:c r="G41" s="1" t="s">
         <x:v>145</x:v>
-      </x:c>
-      <x:c r="F41" s="1" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="G41" s="1" t="s">
-        <x:v>147</x:v>
       </x:c>
       <x:c r="H41" s="1" t="s">
         <x:v>10</x:v>
@@ -1940,22 +1934,22 @@
     </x:row>
     <x:row r="42" spans="1:8">
       <x:c r="A42" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="D42" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="E42" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F42" s="1" t="s">
         <x:v>149</x:v>
-      </x:c>
-      <x:c r="D42" s="1" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="E42" s="1" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="F42" s="1" t="s">
-        <x:v>151</x:v>
       </x:c>
       <x:c r="G42" s="1" t="s">
         <x:v>17</x:v>
@@ -1966,25 +1960,25 @@
     </x:row>
     <x:row r="43" spans="1:8">
       <x:c r="A43" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="D43" s="1" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="E43" s="1" t="s">
         <x:v>152</x:v>
       </x:c>
-      <x:c r="D43" s="1" t="s">
+      <x:c r="F43" s="1" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="E43" s="1" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="F43" s="1" t="s">
-        <x:v>155</x:v>
-      </x:c>
       <x:c r="G43" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H43" s="1" t="s">
         <x:v>10</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -49,433 +49,436 @@
     <x:t>0</x:t>
   </x:si>
   <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Male</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Arson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assault Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>824</x:t>
+  </x:si>
+  <x:si>
+    <x:t>723</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1215</x:t>
+  </x:si>
+  <x:si>
+    <x:t>417</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1313</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3725</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3995</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1649</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bribery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Burglary/Breaking &amp; Entering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>119</x:t>
+  </x:si>
+  <x:si>
+    <x:t>147</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>133</x:t>
+  </x:si>
+  <x:si>
+    <x:t>230</x:t>
+  </x:si>
+  <x:si>
+    <x:t>499</x:t>
+  </x:si>
+  <x:si>
+    <x:t>420</x:t>
+  </x:si>
+  <x:si>
+    <x:t>149</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Counterfeiting/Forgery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Destruction/Damage/Vandalism of Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>134</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>333</x:t>
+  </x:si>
+  <x:si>
+    <x:t>301</x:t>
+  </x:si>
+  <x:si>
+    <x:t>422</x:t>
+  </x:si>
+  <x:si>
+    <x:t>404</x:t>
+  </x:si>
+  <x:si>
+    <x:t>113</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drug/Narcotic Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>338</x:t>
+  </x:si>
+  <x:si>
+    <x:t>737</x:t>
+  </x:si>
+  <x:si>
+    <x:t>859</x:t>
+  </x:si>
+  <x:si>
+    <x:t>130</x:t>
+  </x:si>
+  <x:si>
+    <x:t>823</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1762</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>809</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Embezzlement</x:t>
+  </x:si>
+  <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Male</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Arson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16</x:t>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Extortion/Blackmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fraud Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>316</x:t>
+  </x:si>
+  <x:si>
+    <x:t>243</x:t>
+  </x:si>
+  <x:si>
+    <x:t>76</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>280</x:t>
+  </x:si>
+  <x:si>
+    <x:t>515</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476</x:t>
+  </x:si>
+  <x:si>
+    <x:t>170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gambling Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Homicide Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
   </x:si>
   <x:si>
     <x:t>35</x:t>
   </x:si>
   <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Assault Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>768</x:t>
-  </x:si>
-  <x:si>
-    <x:t>668</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1113</x:t>
-  </x:si>
-  <x:si>
-    <x:t>381</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1858</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3419</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3686</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1525</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bribery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Burglary/Breaking &amp; Entering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>109</x:t>
-  </x:si>
-  <x:si>
-    <x:t>139</x:t>
+    <x:t>Human Trafficking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kidnapping/Abduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Larceny/Theft Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>718</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1380</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2324</x:t>
+  </x:si>
+  <x:si>
+    <x:t>936</x:t>
+  </x:si>
+  <x:si>
+    <x:t>860</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1713</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2831</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2737</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motor Vehicle Theft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>138</x:t>
+  </x:si>
+  <x:si>
+    <x:t>159</x:t>
   </x:si>
   <x:si>
     <x:t>27</x:t>
   </x:si>
   <x:si>
-    <x:t>130</x:t>
-  </x:si>
-  <x:si>
-    <x:t>207</x:t>
-  </x:si>
-  <x:si>
-    <x:t>459</x:t>
-  </x:si>
-  <x:si>
-    <x:t>386</x:t>
-  </x:si>
-  <x:si>
-    <x:t>133</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Counterfeiting/Forgery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
+    <x:t>Pornography/Obscene Material</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prostitution Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robbery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>164</x:t>
+  </x:si>
+  <x:si>
+    <x:t>162</x:t>
   </x:si>
   <x:si>
     <x:t>98</x:t>
   </x:si>
   <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Destruction/Damage/Vandalism of Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50</x:t>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sex Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>187</x:t>
+  </x:si>
+  <x:si>
+    <x:t>222</x:t>
+  </x:si>
+  <x:si>
+    <x:t>242</x:t>
+  </x:si>
+  <x:si>
+    <x:t>155</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stolen Property Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>107</x:t>
   </x:si>
   <x:si>
     <x:t>100</x:t>
   </x:si>
   <x:si>
-    <x:t>103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>127</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>315</x:t>
-  </x:si>
-  <x:si>
-    <x:t>285</x:t>
-  </x:si>
-  <x:si>
-    <x:t>398</x:t>
-  </x:si>
-  <x:si>
-    <x:t>380</x:t>
-  </x:si>
-  <x:si>
-    <x:t>105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drug/Narcotic Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>321</x:t>
-  </x:si>
-  <x:si>
-    <x:t>690</x:t>
-  </x:si>
-  <x:si>
-    <x:t>791</x:t>
-  </x:si>
-  <x:si>
-    <x:t>218</x:t>
-  </x:si>
-  <x:si>
-    <x:t>119</x:t>
-  </x:si>
-  <x:si>
-    <x:t>776</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1640</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1947</x:t>
-  </x:si>
-  <x:si>
-    <x:t>758</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Embezzlement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Extortion/Blackmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fraud Offenses</x:t>
+    <x:t>144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>186</x:t>
+  </x:si>
+  <x:si>
+    <x:t>369</x:t>
+  </x:si>
+  <x:si>
+    <x:t>83</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weapon Law Violations</x:t>
   </x:si>
   <x:si>
     <x:t>25</x:t>
   </x:si>
   <x:si>
-    <x:t>166</x:t>
-  </x:si>
-  <x:si>
-    <x:t>288</x:t>
-  </x:si>
-  <x:si>
-    <x:t>228</x:t>
-  </x:si>
-  <x:si>
-    <x:t>70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>261</x:t>
-  </x:si>
-  <x:si>
-    <x:t>481</x:t>
-  </x:si>
-  <x:si>
-    <x:t>436</x:t>
-  </x:si>
-  <x:si>
-    <x:t>158</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gambling Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Homicide Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Human Trafficking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kidnapping/Abduction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Larceny/Theft Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>677</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1271</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1991</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2130</x:t>
-  </x:si>
-  <x:si>
-    <x:t>859</x:t>
-  </x:si>
-  <x:si>
-    <x:t>807</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1602</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2621</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2519</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motor Vehicle Theft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>126</x:t>
-  </x:si>
-  <x:si>
-    <x:t>152</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pornography/Obscene Material</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prostitution Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robbery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>155</x:t>
-  </x:si>
-  <x:si>
-    <x:t>144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>122</x:t>
-  </x:si>
-  <x:si>
-    <x:t>94</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sex Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>175</x:t>
-  </x:si>
-  <x:si>
-    <x:t>206</x:t>
-  </x:si>
-  <x:si>
-    <x:t>226</x:t>
-  </x:si>
-  <x:si>
-    <x:t>146</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stolen Property Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>93</x:t>
-  </x:si>
-  <x:si>
-    <x:t>173</x:t>
-  </x:si>
-  <x:si>
-    <x:t>342</x:t>
-  </x:si>
-  <x:si>
-    <x:t>311</x:t>
-  </x:si>
-  <x:si>
-    <x:t>77</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weapon Law Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61</x:t>
-  </x:si>
-  <x:si>
-    <x:t>247</x:t>
-  </x:si>
-  <x:si>
-    <x:t>550</x:t>
-  </x:si>
-  <x:si>
-    <x:t>560</x:t>
-  </x:si>
-  <x:si>
-    <x:t>490</x:t>
+    <x:t>55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>254</x:t>
+  </x:si>
+  <x:si>
+    <x:t>583</x:t>
+  </x:si>
+  <x:si>
+    <x:t>590</x:t>
+  </x:si>
+  <x:si>
+    <x:t>526</x:t>
+  </x:si>
+  <x:si>
+    <x:t>252</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -856,7 +859,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H43"/>
+  <x:dimension ref="A1:H44"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -958,13 +961,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F4" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="G4" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H4" s="1" t="s">
         <x:v>10</x:v>
@@ -981,16 +984,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F5" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G5" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H5" s="1" t="s">
         <x:v>10</x:v>
@@ -998,25 +1001,25 @@
     </x:row>
     <x:row r="6" spans="1:8">
       <x:c r="A6" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E6" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F6" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G6" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H6" s="1" t="s">
         <x:v>10</x:v>
@@ -1024,25 +1027,25 @@
     </x:row>
     <x:row r="7" spans="1:8">
       <x:c r="A7" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E7" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F7" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G7" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H7" s="1" t="s">
         <x:v>10</x:v>
@@ -1050,7 +1053,7 @@
     </x:row>
     <x:row r="8" spans="1:8">
       <x:c r="A8" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>9</x:v>
@@ -1076,13 +1079,13 @@
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="A9" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
         <x:v>41</x:v>
@@ -1102,7 +1105,7 @@
     </x:row>
     <x:row r="10" spans="1:8">
       <x:c r="A10" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>15</x:v>
@@ -1134,19 +1137,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D11" s="1" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="D11" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
       <x:c r="E11" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F11" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G11" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H11" s="1" t="s">
         <x:v>10</x:v>
@@ -1160,19 +1163,19 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E12" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
         <x:v>43</x:v>
       </x:c>
       <x:c r="G12" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H12" s="1" t="s">
         <x:v>10</x:v>
@@ -1180,25 +1183,25 @@
     </x:row>
     <x:row r="13" spans="1:8">
       <x:c r="A13" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E13" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F13" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G13" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
         <x:v>10</x:v>
@@ -1206,25 +1209,25 @@
     </x:row>
     <x:row r="14" spans="1:8">
       <x:c r="A14" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G14" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
         <x:v>10</x:v>
@@ -1232,25 +1235,25 @@
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D15" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E15" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F15" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G15" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H15" s="1" t="s">
         <x:v>10</x:v>
@@ -1258,7 +1261,7 @@
     </x:row>
     <x:row r="16" spans="1:8">
       <x:c r="A16" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>15</x:v>
@@ -1293,16 +1296,16 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F17" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G17" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H17" s="1" t="s">
         <x:v>10</x:v>
@@ -1319,16 +1322,16 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E18" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G18" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
         <x:v>10</x:v>
@@ -1336,7 +1339,7 @@
     </x:row>
     <x:row r="19" spans="1:8">
       <x:c r="A19" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>15</x:v>
@@ -1362,25 +1365,25 @@
     </x:row>
     <x:row r="20" spans="1:8">
       <x:c r="A20" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
         <x:v>10</x:v>
@@ -1388,25 +1391,25 @@
     </x:row>
     <x:row r="21" spans="1:8">
       <x:c r="A21" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G21" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
         <x:v>10</x:v>
@@ -1414,10 +1417,10 @@
     </x:row>
     <x:row r="22" spans="1:8">
       <x:c r="A22" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
         <x:v>22</x:v>
@@ -1429,10 +1432,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F22" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
         <x:v>10</x:v>
@@ -1443,22 +1446,22 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F23" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G23" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H23" s="1" t="s">
         <x:v>10</x:v>
@@ -1466,25 +1469,25 @@
     </x:row>
     <x:row r="24" spans="1:8">
       <x:c r="A24" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D24" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E24" s="1" t="s">
         <x:v>96</x:v>
       </x:c>
       <x:c r="F24" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G24" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H24" s="1" t="s">
         <x:v>10</x:v>
@@ -1492,25 +1495,25 @@
     </x:row>
     <x:row r="25" spans="1:8">
       <x:c r="A25" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C25" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D25" s="1" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E25" s="1" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="B25" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C25" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D25" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E25" s="1" t="s">
-        <x:v>80</x:v>
-      </x:c>
       <x:c r="F25" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G25" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H25" s="1" t="s">
         <x:v>10</x:v>
@@ -1518,25 +1521,25 @@
     </x:row>
     <x:row r="26" spans="1:8">
       <x:c r="A26" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C26" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D26" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E26" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F26" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G26" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H26" s="1" t="s">
         <x:v>10</x:v>
@@ -1547,22 +1550,22 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C27" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D27" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E27" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F27" s="1" t="s">
         <x:v>80</x:v>
       </x:c>
       <x:c r="G27" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H27" s="1" t="s">
         <x:v>10</x:v>
@@ -1570,25 +1573,25 @@
     </x:row>
     <x:row r="28" spans="1:8">
       <x:c r="A28" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C28" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D28" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E28" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F28" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G28" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H28" s="1" t="s">
         <x:v>10</x:v>
@@ -1596,25 +1599,25 @@
     </x:row>
     <x:row r="29" spans="1:8">
       <x:c r="A29" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C29" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D29" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E29" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F29" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G29" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H29" s="1" t="s">
         <x:v>10</x:v>
@@ -1622,25 +1625,25 @@
     </x:row>
     <x:row r="30" spans="1:8">
       <x:c r="A30" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C30" s="1" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="B30" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C30" s="1" t="s">
-        <x:v>109</x:v>
-      </x:c>
       <x:c r="D30" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E30" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F30" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G30" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
         <x:v>10</x:v>
@@ -1648,25 +1651,25 @@
     </x:row>
     <x:row r="31" spans="1:8">
       <x:c r="A31" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E31" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F31" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="G31" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H31" s="1" t="s">
         <x:v>10</x:v>
@@ -1677,22 +1680,22 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E32" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F32" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G32" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
         <x:v>10</x:v>
@@ -1700,25 +1703,25 @@
     </x:row>
     <x:row r="33" spans="1:8">
       <x:c r="A33" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C33" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D33" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E33" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F33" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G33" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H33" s="1" t="s">
         <x:v>10</x:v>
@@ -1726,25 +1729,25 @@
     </x:row>
     <x:row r="34" spans="1:8">
       <x:c r="A34" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C34" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D34" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E34" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F34" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G34" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H34" s="1" t="s">
         <x:v>10</x:v>
@@ -1752,25 +1755,25 @@
     </x:row>
     <x:row r="35" spans="1:8">
       <x:c r="A35" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C35" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D35" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E35" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F35" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G35" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H35" s="1" t="s">
         <x:v>10</x:v>
@@ -1778,25 +1781,25 @@
     </x:row>
     <x:row r="36" spans="1:8">
       <x:c r="A36" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D36" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F36" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G36" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H36" s="1" t="s">
         <x:v>10</x:v>
@@ -1807,22 +1810,22 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C37" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D37" s="1" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="E37" s="1" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="F37" s="1" t="s">
         <x:v>127</x:v>
       </x:c>
-      <x:c r="D37" s="1" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="E37" s="1" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="F37" s="1" t="s">
-        <x:v>130</x:v>
-      </x:c>
       <x:c r="G37" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H37" s="1" t="s">
         <x:v>10</x:v>
@@ -1830,25 +1833,25 @@
     </x:row>
     <x:row r="38" spans="1:8">
       <x:c r="A38" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D38" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F38" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="G38" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="H38" s="1" t="s">
         <x:v>10</x:v>
@@ -1859,22 +1862,22 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C39" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F39" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G39" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H39" s="1" t="s">
         <x:v>10</x:v>
@@ -1882,25 +1885,25 @@
     </x:row>
     <x:row r="40" spans="1:8">
       <x:c r="A40" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C40" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F40" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G40" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="H40" s="1" t="s">
         <x:v>10</x:v>
@@ -1908,25 +1911,25 @@
     </x:row>
     <x:row r="41" spans="1:8">
       <x:c r="A41" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C41" s="1" t="s">
         <x:v>138</x:v>
       </x:c>
-      <x:c r="B41" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C41" s="1" t="s">
-        <x:v>116</x:v>
-      </x:c>
       <x:c r="D41" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="F41" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="G41" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H41" s="1" t="s">
         <x:v>10</x:v>
@@ -1934,25 +1937,25 @@
     </x:row>
     <x:row r="42" spans="1:8">
       <x:c r="A42" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="F42" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G42" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="H42" s="1" t="s">
         <x:v>10</x:v>
@@ -1960,27 +1963,53 @@
     </x:row>
     <x:row r="43" spans="1:8">
       <x:c r="A43" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C43" s="1" t="s">
         <x:v>146</x:v>
       </x:c>
-      <x:c r="B43" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C43" s="1" t="s">
+      <x:c r="D43" s="1" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="E43" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="F43" s="1" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="G43" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H43" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:8">
+      <x:c r="A44" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C44" s="1" t="s">
         <x:v>150</x:v>
       </x:c>
-      <x:c r="D43" s="1" t="s">
+      <x:c r="D44" s="1" t="s">
         <x:v>151</x:v>
       </x:c>
-      <x:c r="E43" s="1" t="s">
+      <x:c r="E44" s="1" t="s">
         <x:v>152</x:v>
       </x:c>
-      <x:c r="F43" s="1" t="s">
+      <x:c r="F44" s="1" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="G43" s="1" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="H43" s="1" t="s">
+      <x:c r="G44" s="1" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="H44" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
     </x:row>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -106,10 +106,10 @@
     <x:t>824</x:t>
   </x:si>
   <x:si>
-    <x:t>723</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1234</x:t>
+    <x:t>722</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1235</x:t>
   </x:si>
   <x:si>
     <x:t>1215</x:t>
@@ -121,16 +121,16 @@
     <x:t>1313</x:t>
   </x:si>
   <x:si>
-    <x:t>2009</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3725</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3995</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1649</x:t>
+    <x:t>2011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3727</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3997</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1650</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>
@@ -142,7 +142,7 @@
     <x:t>65</x:t>
   </x:si>
   <x:si>
-    <x:t>119</x:t>
+    <x:t>120</x:t>
   </x:si>
   <x:si>
     <x:t>147</x:t>
@@ -193,7 +193,7 @@
     <x:t>54</x:t>
   </x:si>
   <x:si>
-    <x:t>104</x:t>
+    <x:t>105</x:t>
   </x:si>
   <x:si>
     <x:t>111</x:t>
@@ -226,7 +226,7 @@
     <x:t>47</x:t>
   </x:si>
   <x:si>
-    <x:t>338</x:t>
+    <x:t>337</x:t>
   </x:si>
   <x:si>
     <x:t>737</x:t>
@@ -241,10 +241,10 @@
     <x:t>823</x:t>
   </x:si>
   <x:si>
-    <x:t>1762</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2100</x:t>
+    <x:t>1763</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2101</x:t>
   </x:si>
   <x:si>
     <x:t>809</x:t>
@@ -277,7 +277,7 @@
     <x:t>316</x:t>
   </x:si>
   <x:si>
-    <x:t>243</x:t>
+    <x:t>242</x:t>
   </x:si>
   <x:si>
     <x:t>76</x:t>
@@ -289,7 +289,7 @@
     <x:t>280</x:t>
   </x:si>
   <x:si>
-    <x:t>515</x:t>
+    <x:t>514</x:t>
   </x:si>
   <x:si>
     <x:t>476</x:t>
@@ -328,28 +328,28 @@
     <x:t>718</x:t>
   </x:si>
   <x:si>
-    <x:t>1380</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2324</x:t>
-  </x:si>
-  <x:si>
-    <x:t>936</x:t>
+    <x:t>1382</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2156</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2326</x:t>
+  </x:si>
+  <x:si>
+    <x:t>939</x:t>
   </x:si>
   <x:si>
     <x:t>860</x:t>
   </x:si>
   <x:si>
-    <x:t>1713</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2831</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2737</x:t>
+    <x:t>1716</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2837</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2739</x:t>
   </x:si>
   <x:si>
     <x:t>1211</x:t>
@@ -379,7 +379,7 @@
     <x:t>Pornography/Obscene Material</x:t>
   </x:si>
   <x:si>
-    <x:t>22</x:t>
+    <x:t>23</x:t>
   </x:si>
   <x:si>
     <x:t>41</x:t>
@@ -394,9 +394,6 @@
     <x:t>Robbery</x:t>
   </x:si>
   <x:si>
-    <x:t>40</x:t>
-  </x:si>
-  <x:si>
     <x:t>18</x:t>
   </x:si>
   <x:si>
@@ -421,9 +418,6 @@
     <x:t>222</x:t>
   </x:si>
   <x:si>
-    <x:t>242</x:t>
-  </x:si>
-  <x:si>
     <x:t>155</x:t>
   </x:si>
   <x:si>
@@ -457,7 +451,7 @@
     <x:t>25</x:t>
   </x:si>
   <x:si>
-    <x:t>55</x:t>
+    <x:t>56</x:t>
   </x:si>
   <x:si>
     <x:t>62</x:t>
@@ -466,13 +460,13 @@
     <x:t>66</x:t>
   </x:si>
   <x:si>
-    <x:t>254</x:t>
+    <x:t>255</x:t>
   </x:si>
   <x:si>
     <x:t>583</x:t>
   </x:si>
   <x:si>
-    <x:t>590</x:t>
+    <x:t>591</x:t>
   </x:si>
   <x:si>
     <x:t>526</x:t>
@@ -1816,13 +1810,13 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E37" s="1" t="s">
         <x:v>122</x:v>
       </x:c>
       <x:c r="F37" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="G37" s="1" t="s">
         <x:v>81</x:v>
@@ -1839,19 +1833,19 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D38" s="1" t="s">
         <x:v>128</x:v>
-      </x:c>
-      <x:c r="D38" s="1" t="s">
-        <x:v>129</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
         <x:v>73</x:v>
       </x:c>
       <x:c r="F38" s="1" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="G38" s="1" t="s">
         <x:v>130</x:v>
-      </x:c>
-      <x:c r="G38" s="1" t="s">
-        <x:v>131</x:v>
       </x:c>
       <x:c r="H38" s="1" t="s">
         <x:v>10</x:v>
@@ -1859,7 +1853,7 @@
     </x:row>
     <x:row r="39" spans="1:8">
       <x:c r="A39" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>9</x:v>
@@ -1885,7 +1879,7 @@
     </x:row>
     <x:row r="40" spans="1:8">
       <x:c r="A40" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>15</x:v>
@@ -1894,16 +1888,16 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="E40" s="1" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="E40" s="1" t="s">
+      <x:c r="F40" s="1" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="G40" s="1" t="s">
         <x:v>134</x:v>
-      </x:c>
-      <x:c r="F40" s="1" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="G40" s="1" t="s">
-        <x:v>136</x:v>
       </x:c>
       <x:c r="H40" s="1" t="s">
         <x:v>10</x:v>
@@ -1911,22 +1905,22 @@
     </x:row>
     <x:row r="41" spans="1:8">
       <x:c r="A41" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
         <x:v>41</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F41" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="G41" s="1" t="s">
         <x:v>18</x:v>
@@ -1937,25 +1931,25 @@
     </x:row>
     <x:row r="42" spans="1:8">
       <x:c r="A42" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="D42" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="E42" s="1" t="s">
         <x:v>141</x:v>
-      </x:c>
-      <x:c r="D42" s="1" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="E42" s="1" t="s">
-        <x:v>143</x:v>
       </x:c>
       <x:c r="F42" s="1" t="s">
         <x:v>63</x:v>
       </x:c>
       <x:c r="G42" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="H42" s="1" t="s">
         <x:v>10</x:v>
@@ -1963,22 +1957,22 @@
     </x:row>
     <x:row r="43" spans="1:8">
       <x:c r="A43" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D43" s="1" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="E43" s="1" t="s">
         <x:v>146</x:v>
       </x:c>
-      <x:c r="D43" s="1" t="s">
+      <x:c r="F43" s="1" t="s">
         <x:v>147</x:v>
-      </x:c>
-      <x:c r="E43" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="F43" s="1" t="s">
-        <x:v>149</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
         <x:v>17</x:v>
@@ -1989,25 +1983,25 @@
     </x:row>
     <x:row r="44" spans="1:8">
       <x:c r="A44" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D44" s="1" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="E44" s="1" t="s">
         <x:v>150</x:v>
       </x:c>
-      <x:c r="D44" s="1" t="s">
+      <x:c r="F44" s="1" t="s">
         <x:v>151</x:v>
       </x:c>
-      <x:c r="E44" s="1" t="s">
+      <x:c r="G44" s="1" t="s">
         <x:v>152</x:v>
-      </x:c>
-      <x:c r="F44" s="1" t="s">
-        <x:v>153</x:v>
-      </x:c>
-      <x:c r="G44" s="1" t="s">
-        <x:v>154</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
         <x:v>10</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -244,7 +244,7 @@
     <x:t>1763</x:t>
   </x:si>
   <x:si>
-    <x:t>2101</x:t>
+    <x:t>2102</x:t>
   </x:si>
   <x:si>
     <x:t>809</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -91,6 +91,9 @@
     <x:t>7</x:t>
   </x:si>
   <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
     <x:t>19</x:t>
   </x:si>
   <x:si>
@@ -103,322 +106,328 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>824</x:t>
-  </x:si>
-  <x:si>
-    <x:t>722</x:t>
+    <x:t>828</x:t>
+  </x:si>
+  <x:si>
+    <x:t>724</x:t>
   </x:si>
   <x:si>
     <x:t>1235</x:t>
   </x:si>
   <x:si>
+    <x:t>1217</x:t>
+  </x:si>
+  <x:si>
+    <x:t>417</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1313</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3734</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1652</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bribery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Burglary/Breaking &amp; Entering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>147</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>133</x:t>
+  </x:si>
+  <x:si>
+    <x:t>230</x:t>
+  </x:si>
+  <x:si>
+    <x:t>501</x:t>
+  </x:si>
+  <x:si>
+    <x:t>420</x:t>
+  </x:si>
+  <x:si>
+    <x:t>149</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Counterfeiting/Forgery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>148</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Destruction/Damage/Vandalism of Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>134</x:t>
+  </x:si>
+  <x:si>
+    <x:t>333</x:t>
+  </x:si>
+  <x:si>
+    <x:t>301</x:t>
+  </x:si>
+  <x:si>
+    <x:t>423</x:t>
+  </x:si>
+  <x:si>
+    <x:t>406</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drug/Narcotic Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>339</x:t>
+  </x:si>
+  <x:si>
+    <x:t>740</x:t>
+  </x:si>
+  <x:si>
+    <x:t>863</x:t>
+  </x:si>
+  <x:si>
+    <x:t>231</x:t>
+  </x:si>
+  <x:si>
+    <x:t>130</x:t>
+  </x:si>
+  <x:si>
+    <x:t>823</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1771</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2109</x:t>
+  </x:si>
+  <x:si>
+    <x:t>812</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Embezzlement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Extortion/Blackmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fraud Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>316</x:t>
+  </x:si>
+  <x:si>
+    <x:t>243</x:t>
+  </x:si>
+  <x:si>
+    <x:t>76</x:t>
+  </x:si>
+  <x:si>
+    <x:t>281</x:t>
+  </x:si>
+  <x:si>
+    <x:t>515</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476</x:t>
+  </x:si>
+  <x:si>
+    <x:t>170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gambling Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Homicide Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Human Trafficking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kidnapping/Abduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Larceny/Theft Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>717</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1383</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2157</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2332</x:t>
+  </x:si>
+  <x:si>
+    <x:t>939</x:t>
+  </x:si>
+  <x:si>
+    <x:t>861</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1718</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2841</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2746</x:t>
+  </x:si>
+  <x:si>
     <x:t>1215</x:t>
   </x:si>
   <x:si>
-    <x:t>417</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1313</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2011</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3727</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3997</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1650</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bribery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Burglary/Breaking &amp; Entering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>147</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>133</x:t>
-  </x:si>
-  <x:si>
-    <x:t>230</x:t>
-  </x:si>
-  <x:si>
-    <x:t>499</x:t>
-  </x:si>
-  <x:si>
-    <x:t>420</x:t>
-  </x:si>
-  <x:si>
-    <x:t>149</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Counterfeiting/Forgery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>101</x:t>
+    <x:t>Motor Vehicle Theft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>139</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pornography/Obscene Material</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prostitution Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robbery</x:t>
   </x:si>
   <x:si>
     <x:t>38</x:t>
   </x:si>
   <x:si>
-    <x:t>93</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Destruction/Damage/Vandalism of Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>134</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>333</x:t>
-  </x:si>
-  <x:si>
-    <x:t>301</x:t>
-  </x:si>
-  <x:si>
-    <x:t>422</x:t>
-  </x:si>
-  <x:si>
-    <x:t>404</x:t>
-  </x:si>
-  <x:si>
-    <x:t>113</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drug/Narcotic Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>337</x:t>
-  </x:si>
-  <x:si>
-    <x:t>737</x:t>
-  </x:si>
-  <x:si>
-    <x:t>859</x:t>
-  </x:si>
-  <x:si>
-    <x:t>130</x:t>
-  </x:si>
-  <x:si>
-    <x:t>823</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1763</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>809</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Embezzlement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Extortion/Blackmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fraud Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>180</x:t>
-  </x:si>
-  <x:si>
-    <x:t>316</x:t>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>165</x:t>
+  </x:si>
+  <x:si>
+    <x:t>162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>98</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sex Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>188</x:t>
+  </x:si>
+  <x:si>
+    <x:t>222</x:t>
   </x:si>
   <x:si>
     <x:t>242</x:t>
   </x:si>
   <x:si>
-    <x:t>76</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>280</x:t>
-  </x:si>
-  <x:si>
-    <x:t>514</x:t>
-  </x:si>
-  <x:si>
-    <x:t>476</x:t>
-  </x:si>
-  <x:si>
-    <x:t>170</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gambling Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Homicide Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Human Trafficking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kidnapping/Abduction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Larceny/Theft Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>718</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1382</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2156</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2326</x:t>
-  </x:si>
-  <x:si>
-    <x:t>939</x:t>
-  </x:si>
-  <x:si>
-    <x:t>860</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1716</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2837</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2739</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1211</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motor Vehicle Theft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96</x:t>
-  </x:si>
-  <x:si>
-    <x:t>138</x:t>
-  </x:si>
-  <x:si>
-    <x:t>159</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pornography/Obscene Material</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prostitution Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robbery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>164</x:t>
-  </x:si>
-  <x:si>
-    <x:t>162</x:t>
-  </x:si>
-  <x:si>
-    <x:t>98</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sex Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>187</x:t>
-  </x:si>
-  <x:si>
-    <x:t>222</x:t>
-  </x:si>
-  <x:si>
-    <x:t>155</x:t>
+    <x:t>156</x:t>
   </x:si>
   <x:si>
     <x:t>Stolen Property Offenses</x:t>
@@ -430,7 +439,7 @@
     <x:t>107</x:t>
   </x:si>
   <x:si>
-    <x:t>100</x:t>
+    <x:t>102</x:t>
   </x:si>
   <x:si>
     <x:t>144</x:t>
@@ -439,7 +448,10 @@
     <x:t>186</x:t>
   </x:si>
   <x:si>
-    <x:t>369</x:t>
+    <x:t>370</x:t>
+  </x:si>
+  <x:si>
+    <x:t>335</x:t>
   </x:si>
   <x:si>
     <x:t>83</x:t>
@@ -451,10 +463,10 @@
     <x:t>25</x:t>
   </x:si>
   <x:si>
-    <x:t>56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62</x:t>
+    <x:t>57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
   </x:si>
   <x:si>
     <x:t>66</x:t>
@@ -463,7 +475,7 @@
     <x:t>255</x:t>
   </x:si>
   <x:si>
-    <x:t>583</x:t>
+    <x:t>582</x:t>
   </x:si>
   <x:si>
     <x:t>591</x:t>
@@ -472,7 +484,7 @@
     <x:t>526</x:t>
   </x:si>
   <x:si>
-    <x:t>252</x:t>
+    <x:t>253</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -978,16 +990,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F5" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G5" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H5" s="1" t="s">
         <x:v>10</x:v>
@@ -995,25 +1007,25 @@
     </x:row>
     <x:row r="6" spans="1:8">
       <x:c r="A6" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E6" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F6" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G6" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H6" s="1" t="s">
         <x:v>10</x:v>
@@ -1021,25 +1033,25 @@
     </x:row>
     <x:row r="7" spans="1:8">
       <x:c r="A7" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E7" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F7" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G7" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H7" s="1" t="s">
         <x:v>10</x:v>
@@ -1047,7 +1059,7 @@
     </x:row>
     <x:row r="8" spans="1:8">
       <x:c r="A8" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>9</x:v>
@@ -1073,7 +1085,7 @@
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="A9" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>9</x:v>
@@ -1082,16 +1094,16 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E9" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F9" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G9" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H9" s="1" t="s">
         <x:v>10</x:v>
@@ -1099,25 +1111,25 @@
     </x:row>
     <x:row r="10" spans="1:8">
       <x:c r="A10" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E10" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F10" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G10" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H10" s="1" t="s">
         <x:v>10</x:v>
@@ -1125,25 +1137,25 @@
     </x:row>
     <x:row r="11" spans="1:8">
       <x:c r="A11" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E11" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F11" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G11" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H11" s="1" t="s">
         <x:v>10</x:v>
@@ -1151,7 +1163,7 @@
     </x:row>
     <x:row r="12" spans="1:8">
       <x:c r="A12" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>15</x:v>
@@ -1160,16 +1172,16 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E12" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G12" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H12" s="1" t="s">
         <x:v>10</x:v>
@@ -1177,25 +1189,25 @@
     </x:row>
     <x:row r="13" spans="1:8">
       <x:c r="A13" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E13" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F13" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G13" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
         <x:v>10</x:v>
@@ -1203,25 +1215,25 @@
     </x:row>
     <x:row r="14" spans="1:8">
       <x:c r="A14" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G14" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
         <x:v>10</x:v>
@@ -1229,25 +1241,25 @@
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D15" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E15" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F15" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G15" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H15" s="1" t="s">
         <x:v>10</x:v>
@@ -1255,25 +1267,25 @@
     </x:row>
     <x:row r="16" spans="1:8">
       <x:c r="A16" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F16" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G16" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
         <x:v>10</x:v>
@@ -1281,7 +1293,7 @@
     </x:row>
     <x:row r="17" spans="1:8">
       <x:c r="A17" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>9</x:v>
@@ -1290,7 +1302,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
         <x:v>12</x:v>
@@ -1307,7 +1319,7 @@
     </x:row>
     <x:row r="18" spans="1:8">
       <x:c r="A18" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>15</x:v>
@@ -1322,10 +1334,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G18" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
         <x:v>10</x:v>
@@ -1333,7 +1345,7 @@
     </x:row>
     <x:row r="19" spans="1:8">
       <x:c r="A19" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>15</x:v>
@@ -1359,25 +1371,25 @@
     </x:row>
     <x:row r="20" spans="1:8">
       <x:c r="A20" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
         <x:v>10</x:v>
@@ -1385,25 +1397,25 @@
     </x:row>
     <x:row r="21" spans="1:8">
       <x:c r="A21" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G21" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
         <x:v>10</x:v>
@@ -1411,7 +1423,7 @@
     </x:row>
     <x:row r="22" spans="1:8">
       <x:c r="A22" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>9</x:v>
@@ -1437,7 +1449,7 @@
     </x:row>
     <x:row r="23" spans="1:8">
       <x:c r="A23" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>15</x:v>
@@ -1452,7 +1464,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F23" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="G23" s="1" t="s">
         <x:v>22</x:v>
@@ -1463,7 +1475,7 @@
     </x:row>
     <x:row r="24" spans="1:8">
       <x:c r="A24" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>9</x:v>
@@ -1475,7 +1487,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E24" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F24" s="1" t="s">
         <x:v>16</x:v>
@@ -1489,7 +1501,7 @@
     </x:row>
     <x:row r="25" spans="1:8">
       <x:c r="A25" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>15</x:v>
@@ -1504,7 +1516,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="F25" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G25" s="1" t="s">
         <x:v>12</x:v>
@@ -1527,7 +1539,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E26" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F26" s="1" t="s">
         <x:v>22</x:v>
@@ -1556,10 +1568,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F27" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G27" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H27" s="1" t="s">
         <x:v>10</x:v>
@@ -1585,7 +1597,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G28" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H28" s="1" t="s">
         <x:v>10</x:v>
@@ -1611,7 +1623,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="G29" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H29" s="1" t="s">
         <x:v>10</x:v>
@@ -1677,16 +1689,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
         <x:v>114</x:v>
       </x:c>
       <x:c r="E32" s="1" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F32" s="1" t="s">
         <x:v>58</x:v>
-      </x:c>
-      <x:c r="F32" s="1" t="s">
-        <x:v>56</x:v>
       </x:c>
       <x:c r="G32" s="1" t="s">
         <x:v>11</x:v>
@@ -1767,7 +1779,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="G35" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H35" s="1" t="s">
         <x:v>10</x:v>
@@ -1807,7 +1819,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C37" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
         <x:v>122</x:v>
@@ -1816,10 +1828,10 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="F37" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="G37" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H37" s="1" t="s">
         <x:v>10</x:v>
@@ -1833,19 +1845,19 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D38" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F38" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G38" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="H38" s="1" t="s">
         <x:v>10</x:v>
@@ -1853,7 +1865,7 @@
     </x:row>
     <x:row r="39" spans="1:8">
       <x:c r="A39" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>9</x:v>
@@ -1865,7 +1877,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F39" s="1" t="s">
         <x:v>16</x:v>
@@ -1879,25 +1891,25 @@
     </x:row>
     <x:row r="40" spans="1:8">
       <x:c r="A40" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C40" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F40" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="G40" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="H40" s="1" t="s">
         <x:v>10</x:v>
@@ -1905,22 +1917,22 @@
     </x:row>
     <x:row r="41" spans="1:8">
       <x:c r="A41" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="F41" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="G41" s="1" t="s">
         <x:v>18</x:v>
@@ -1931,25 +1943,25 @@
     </x:row>
     <x:row r="42" spans="1:8">
       <x:c r="A42" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="F42" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G42" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="H42" s="1" t="s">
         <x:v>10</x:v>
@@ -1957,22 +1969,22 @@
     </x:row>
     <x:row r="43" spans="1:8">
       <x:c r="A43" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D43" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E43" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="F43" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
         <x:v>17</x:v>
@@ -1983,25 +1995,25 @@
     </x:row>
     <x:row r="44" spans="1:8">
       <x:c r="A44" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F44" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="G44" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
         <x:v>10</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -124,16 +124,16 @@
     <x:t>1313</x:t>
   </x:si>
   <x:si>
-    <x:t>2015</x:t>
+    <x:t>2017</x:t>
   </x:si>
   <x:si>
     <x:t>3734</x:t>
   </x:si>
   <x:si>
-    <x:t>4004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1652</x:t>
+    <x:t>4005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1654</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>
@@ -154,270 +154,273 @@
     <x:t>31</x:t>
   </x:si>
   <x:si>
+    <x:t>134</x:t>
+  </x:si>
+  <x:si>
+    <x:t>230</x:t>
+  </x:si>
+  <x:si>
+    <x:t>501</x:t>
+  </x:si>
+  <x:si>
+    <x:t>420</x:t>
+  </x:si>
+  <x:si>
+    <x:t>149</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Counterfeiting/Forgery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>148</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Destruction/Damage/Vandalism of Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>135</x:t>
+  </x:si>
+  <x:si>
+    <x:t>334</x:t>
+  </x:si>
+  <x:si>
+    <x:t>301</x:t>
+  </x:si>
+  <x:si>
+    <x:t>423</x:t>
+  </x:si>
+  <x:si>
+    <x:t>406</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drug/Narcotic Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>339</x:t>
+  </x:si>
+  <x:si>
+    <x:t>740</x:t>
+  </x:si>
+  <x:si>
+    <x:t>863</x:t>
+  </x:si>
+  <x:si>
+    <x:t>231</x:t>
+  </x:si>
+  <x:si>
+    <x:t>130</x:t>
+  </x:si>
+  <x:si>
+    <x:t>824</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1771</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>812</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Embezzlement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Extortion/Blackmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fraud Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>316</x:t>
+  </x:si>
+  <x:si>
+    <x:t>244</x:t>
+  </x:si>
+  <x:si>
+    <x:t>76</x:t>
+  </x:si>
+  <x:si>
+    <x:t>281</x:t>
+  </x:si>
+  <x:si>
+    <x:t>516</x:t>
+  </x:si>
+  <x:si>
+    <x:t>478</x:t>
+  </x:si>
+  <x:si>
+    <x:t>170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gambling Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Homicide Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Human Trafficking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kidnapping/Abduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Larceny/Theft Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>717</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1383</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2158</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2333</x:t>
+  </x:si>
+  <x:si>
+    <x:t>940</x:t>
+  </x:si>
+  <x:si>
+    <x:t>861</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1718</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2841</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2746</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motor Vehicle Theft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pornography/Obscene Material</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prostitution Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robbery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>165</x:t>
+  </x:si>
+  <x:si>
+    <x:t>162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>98</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sex Offenses</x:t>
+  </x:si>
+  <x:si>
     <x:t>133</x:t>
   </x:si>
   <x:si>
-    <x:t>230</x:t>
-  </x:si>
-  <x:si>
-    <x:t>501</x:t>
-  </x:si>
-  <x:si>
-    <x:t>420</x:t>
-  </x:si>
-  <x:si>
-    <x:t>149</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Counterfeiting/Forgery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>93</x:t>
-  </x:si>
-  <x:si>
-    <x:t>148</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Destruction/Damage/Vandalism of Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>134</x:t>
-  </x:si>
-  <x:si>
-    <x:t>333</x:t>
-  </x:si>
-  <x:si>
-    <x:t>301</x:t>
-  </x:si>
-  <x:si>
-    <x:t>423</x:t>
-  </x:si>
-  <x:si>
-    <x:t>406</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drug/Narcotic Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>339</x:t>
-  </x:si>
-  <x:si>
-    <x:t>740</x:t>
-  </x:si>
-  <x:si>
-    <x:t>863</x:t>
-  </x:si>
-  <x:si>
-    <x:t>231</x:t>
-  </x:si>
-  <x:si>
-    <x:t>130</x:t>
-  </x:si>
-  <x:si>
-    <x:t>823</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1771</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2109</x:t>
-  </x:si>
-  <x:si>
-    <x:t>812</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Embezzlement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Extortion/Blackmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fraud Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>180</x:t>
-  </x:si>
-  <x:si>
-    <x:t>316</x:t>
-  </x:si>
-  <x:si>
-    <x:t>243</x:t>
-  </x:si>
-  <x:si>
-    <x:t>76</x:t>
-  </x:si>
-  <x:si>
-    <x:t>281</x:t>
-  </x:si>
-  <x:si>
-    <x:t>515</x:t>
-  </x:si>
-  <x:si>
-    <x:t>476</x:t>
-  </x:si>
-  <x:si>
-    <x:t>170</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gambling Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Homicide Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Human Trafficking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kidnapping/Abduction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Larceny/Theft Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>717</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1383</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2157</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2332</x:t>
-  </x:si>
-  <x:si>
-    <x:t>939</x:t>
-  </x:si>
-  <x:si>
-    <x:t>861</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1718</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2841</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2746</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1215</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motor Vehicle Theft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96</x:t>
-  </x:si>
-  <x:si>
-    <x:t>139</x:t>
-  </x:si>
-  <x:si>
-    <x:t>160</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pornography/Obscene Material</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prostitution Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robbery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>165</x:t>
-  </x:si>
-  <x:si>
-    <x:t>162</x:t>
-  </x:si>
-  <x:si>
-    <x:t>131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>98</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sex Offenses</x:t>
-  </x:si>
-  <x:si>
     <x:t>188</x:t>
   </x:si>
   <x:si>
@@ -442,7 +445,7 @@
     <x:t>102</x:t>
   </x:si>
   <x:si>
-    <x:t>144</x:t>
+    <x:t>145</x:t>
   </x:si>
   <x:si>
     <x:t>186</x:t>
@@ -1675,7 +1678,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="G31" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H31" s="1" t="s">
         <x:v>10</x:v>
@@ -1683,7 +1686,7 @@
     </x:row>
     <x:row r="32" spans="1:8">
       <x:c r="A32" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>9</x:v>
@@ -1692,10 +1695,10 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="E32" s="1" t="s">
         <x:v>114</x:v>
-      </x:c>
-      <x:c r="E32" s="1" t="s">
-        <x:v>60</x:v>
       </x:c>
       <x:c r="F32" s="1" t="s">
         <x:v>58</x:v>
@@ -1709,7 +1712,7 @@
     </x:row>
     <x:row r="33" spans="1:8">
       <x:c r="A33" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>15</x:v>
@@ -1880,7 +1883,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="F39" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G39" s="1" t="s">
         <x:v>22</x:v>
@@ -1897,19 +1900,19 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C40" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="F40" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="G40" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="H40" s="1" t="s">
         <x:v>10</x:v>
@@ -1917,22 +1920,22 @@
     </x:row>
     <x:row r="41" spans="1:8">
       <x:c r="A41" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
         <x:v>42</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F41" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="G41" s="1" t="s">
         <x:v>18</x:v>
@@ -1943,25 +1946,25 @@
     </x:row>
     <x:row r="42" spans="1:8">
       <x:c r="A42" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="F42" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G42" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="H42" s="1" t="s">
         <x:v>10</x:v>
@@ -1969,22 +1972,22 @@
     </x:row>
     <x:row r="43" spans="1:8">
       <x:c r="A43" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D43" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E43" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="F43" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
         <x:v>17</x:v>
@@ -1995,25 +1998,25 @@
     </x:row>
     <x:row r="44" spans="1:8">
       <x:c r="A44" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="F44" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="G44" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
         <x:v>10</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -106,16 +106,16 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>828</x:t>
+    <x:t>831</x:t>
   </x:si>
   <x:si>
     <x:t>724</x:t>
   </x:si>
   <x:si>
-    <x:t>1235</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1217</x:t>
+    <x:t>1236</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1218</x:t>
   </x:si>
   <x:si>
     <x:t>417</x:t>
@@ -124,16 +124,16 @@
     <x:t>1313</x:t>
   </x:si>
   <x:si>
-    <x:t>2017</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3734</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1654</x:t>
+    <x:t>2018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3739</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1653</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>
@@ -157,7 +157,7 @@
     <x:t>134</x:t>
   </x:si>
   <x:si>
-    <x:t>230</x:t>
+    <x:t>231</x:t>
   </x:si>
   <x:si>
     <x:t>501</x:t>
@@ -181,6 +181,9 @@
     <x:t>101</x:t>
   </x:si>
   <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
     <x:t>39</x:t>
   </x:si>
   <x:si>
@@ -235,22 +238,19 @@
     <x:t>740</x:t>
   </x:si>
   <x:si>
-    <x:t>863</x:t>
-  </x:si>
-  <x:si>
-    <x:t>231</x:t>
+    <x:t>862</x:t>
   </x:si>
   <x:si>
     <x:t>130</x:t>
   </x:si>
   <x:si>
-    <x:t>824</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1771</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2110</x:t>
+    <x:t>825</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1772</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2113</x:t>
   </x:si>
   <x:si>
     <x:t>812</x:t>
@@ -259,63 +259,63 @@
     <x:t>Embezzlement</x:t>
   </x:si>
   <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Extortion/Blackmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fraud Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>317</x:t>
+  </x:si>
+  <x:si>
+    <x:t>245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>76</x:t>
+  </x:si>
+  <x:si>
+    <x:t>281</x:t>
+  </x:si>
+  <x:si>
+    <x:t>516</x:t>
+  </x:si>
+  <x:si>
+    <x:t>478</x:t>
+  </x:si>
+  <x:si>
+    <x:t>172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gambling Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Homicide Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Human Trafficking</x:t>
+  </x:si>
+  <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Extortion/Blackmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fraud Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>180</x:t>
-  </x:si>
-  <x:si>
-    <x:t>316</x:t>
-  </x:si>
-  <x:si>
-    <x:t>244</x:t>
-  </x:si>
-  <x:si>
-    <x:t>76</x:t>
-  </x:si>
-  <x:si>
-    <x:t>281</x:t>
-  </x:si>
-  <x:si>
-    <x:t>516</x:t>
-  </x:si>
-  <x:si>
-    <x:t>478</x:t>
-  </x:si>
-  <x:si>
-    <x:t>170</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gambling Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Homicide Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Human Trafficking</x:t>
-  </x:si>
-  <x:si>
     <x:t>Kidnapping/Abduction</x:t>
   </x:si>
   <x:si>
@@ -331,25 +331,25 @@
     <x:t>1383</x:t>
   </x:si>
   <x:si>
-    <x:t>2158</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2333</x:t>
-  </x:si>
-  <x:si>
-    <x:t>940</x:t>
+    <x:t>2160</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2334</x:t>
+  </x:si>
+  <x:si>
+    <x:t>942</x:t>
   </x:si>
   <x:si>
     <x:t>861</x:t>
   </x:si>
   <x:si>
-    <x:t>1718</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2841</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2746</x:t>
+    <x:t>1719</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2845</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2749</x:t>
   </x:si>
   <x:si>
     <x:t>Motor Vehicle Theft</x:t>
@@ -1158,7 +1158,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="G11" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H11" s="1" t="s">
         <x:v>10</x:v>
@@ -1175,16 +1175,16 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E12" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G12" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H12" s="1" t="s">
         <x:v>10</x:v>
@@ -1192,25 +1192,25 @@
     </x:row>
     <x:row r="13" spans="1:8">
       <x:c r="A13" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E13" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F13" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G13" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
         <x:v>10</x:v>
@@ -1218,25 +1218,25 @@
     </x:row>
     <x:row r="14" spans="1:8">
       <x:c r="A14" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G14" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
         <x:v>10</x:v>
@@ -1244,25 +1244,25 @@
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D15" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E15" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F15" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G15" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H15" s="1" t="s">
         <x:v>10</x:v>
@@ -1270,7 +1270,7 @@
     </x:row>
     <x:row r="16" spans="1:8">
       <x:c r="A16" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>15</x:v>
@@ -1305,7 +1305,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
         <x:v>12</x:v>
@@ -1328,7 +1328,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
         <x:v>18</x:v>
@@ -1337,10 +1337,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G18" s="1" t="s">
         <x:v>82</x:v>
-      </x:c>
-      <x:c r="G18" s="1" t="s">
-        <x:v>83</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
         <x:v>10</x:v>
@@ -1348,7 +1348,7 @@
     </x:row>
     <x:row r="19" spans="1:8">
       <x:c r="A19" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>15</x:v>
@@ -1374,25 +1374,25 @@
     </x:row>
     <x:row r="20" spans="1:8">
       <x:c r="A20" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D20" s="1" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="D20" s="1" t="s">
+      <x:c r="E20" s="1" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="E20" s="1" t="s">
+      <x:c r="F20" s="1" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="F20" s="1" t="s">
+      <x:c r="G20" s="1" t="s">
         <x:v>89</x:v>
-      </x:c>
-      <x:c r="G20" s="1" t="s">
-        <x:v>90</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
         <x:v>10</x:v>
@@ -1400,7 +1400,7 @@
     </x:row>
     <x:row r="21" spans="1:8">
       <x:c r="A21" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>15</x:v>
@@ -1409,16 +1409,16 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E21" s="1" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="E21" s="1" t="s">
+      <x:c r="F21" s="1" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="F21" s="1" t="s">
+      <x:c r="G21" s="1" t="s">
         <x:v>93</x:v>
-      </x:c>
-      <x:c r="G21" s="1" t="s">
-        <x:v>94</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
         <x:v>10</x:v>
@@ -1426,7 +1426,7 @@
     </x:row>
     <x:row r="22" spans="1:8">
       <x:c r="A22" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>9</x:v>
@@ -1452,7 +1452,7 @@
     </x:row>
     <x:row r="23" spans="1:8">
       <x:c r="A23" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>15</x:v>
@@ -1467,7 +1467,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F23" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G23" s="1" t="s">
         <x:v>22</x:v>
@@ -1478,7 +1478,7 @@
     </x:row>
     <x:row r="24" spans="1:8">
       <x:c r="A24" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>9</x:v>
@@ -1504,7 +1504,7 @@
     </x:row>
     <x:row r="25" spans="1:8">
       <x:c r="A25" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>15</x:v>
@@ -1513,10 +1513,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D25" s="1" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="E25" s="1" t="s">
         <x:v>97</x:v>
-      </x:c>
-      <x:c r="E25" s="1" t="s">
-        <x:v>98</x:v>
       </x:c>
       <x:c r="F25" s="1" t="s">
         <x:v>45</x:v>
@@ -1530,7 +1530,7 @@
     </x:row>
     <x:row r="26" spans="1:8">
       <x:c r="A26" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>9</x:v>
@@ -1542,7 +1542,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E26" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F26" s="1" t="s">
         <x:v>22</x:v>
@@ -1556,7 +1556,7 @@
     </x:row>
     <x:row r="27" spans="1:8">
       <x:c r="A27" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>15</x:v>
@@ -1571,10 +1571,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F27" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G27" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H27" s="1" t="s">
         <x:v>10</x:v>
@@ -1600,7 +1600,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G28" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H28" s="1" t="s">
         <x:v>10</x:v>
@@ -1620,7 +1620,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E29" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F29" s="1" t="s">
         <x:v>101</x:v>
@@ -1701,7 +1701,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="F32" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G32" s="1" t="s">
         <x:v>11</x:v>
@@ -1773,7 +1773,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="D35" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E35" s="1" t="s">
         <x:v>122</x:v>
@@ -1834,7 +1834,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="G37" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H37" s="1" t="s">
         <x:v>10</x:v>
@@ -1880,10 +1880,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F39" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G39" s="1" t="s">
         <x:v>22</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -106,10 +106,10 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>831</x:t>
-  </x:si>
-  <x:si>
-    <x:t>724</x:t>
+    <x:t>834</x:t>
+  </x:si>
+  <x:si>
+    <x:t>725</x:t>
   </x:si>
   <x:si>
     <x:t>1236</x:t>
@@ -118,22 +118,22 @@
     <x:t>1218</x:t>
   </x:si>
   <x:si>
-    <x:t>417</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1313</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3739</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4008</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1653</x:t>
+    <x:t>418</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1316</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3741</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1656</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>
@@ -148,7 +148,7 @@
     <x:t>120</x:t>
   </x:si>
   <x:si>
-    <x:t>147</x:t>
+    <x:t>148</x:t>
   </x:si>
   <x:si>
     <x:t>31</x:t>
@@ -160,10 +160,10 @@
     <x:t>231</x:t>
   </x:si>
   <x:si>
-    <x:t>501</x:t>
-  </x:si>
-  <x:si>
-    <x:t>420</x:t>
+    <x:t>504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>422</x:t>
   </x:si>
   <x:si>
     <x:t>149</x:t>
@@ -190,9 +190,6 @@
     <x:t>93</x:t>
   </x:si>
   <x:si>
-    <x:t>148</x:t>
-  </x:si>
-  <x:si>
     <x:t>43</x:t>
   </x:si>
   <x:si>
@@ -202,16 +199,16 @@
     <x:t>54</x:t>
   </x:si>
   <x:si>
-    <x:t>105</x:t>
+    <x:t>106</x:t>
   </x:si>
   <x:si>
     <x:t>111</x:t>
   </x:si>
   <x:si>
-    <x:t>135</x:t>
-  </x:si>
-  <x:si>
-    <x:t>334</x:t>
+    <x:t>137</x:t>
+  </x:si>
+  <x:si>
+    <x:t>336</x:t>
   </x:si>
   <x:si>
     <x:t>301</x:t>
@@ -223,9 +220,6 @@
     <x:t>406</x:t>
   </x:si>
   <x:si>
-    <x:t>112</x:t>
-  </x:si>
-  <x:si>
     <x:t>Drug/Narcotic Violations</x:t>
   </x:si>
   <x:si>
@@ -235,10 +229,10 @@
     <x:t>339</x:t>
   </x:si>
   <x:si>
-    <x:t>740</x:t>
-  </x:si>
-  <x:si>
-    <x:t>862</x:t>
+    <x:t>742</x:t>
+  </x:si>
+  <x:si>
+    <x:t>865</x:t>
   </x:si>
   <x:si>
     <x:t>130</x:t>
@@ -247,13 +241,13 @@
     <x:t>825</x:t>
   </x:si>
   <x:si>
-    <x:t>1772</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2113</x:t>
-  </x:si>
-  <x:si>
-    <x:t>812</x:t>
+    <x:t>1777</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2114</x:t>
+  </x:si>
+  <x:si>
+    <x:t>815</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -277,10 +271,10 @@
     <x:t>180</x:t>
   </x:si>
   <x:si>
-    <x:t>317</x:t>
-  </x:si>
-  <x:si>
-    <x:t>245</x:t>
+    <x:t>318</x:t>
+  </x:si>
+  <x:si>
+    <x:t>247</x:t>
   </x:si>
   <x:si>
     <x:t>76</x:t>
@@ -295,7 +289,7 @@
     <x:t>478</x:t>
   </x:si>
   <x:si>
-    <x:t>172</x:t>
+    <x:t>173</x:t>
   </x:si>
   <x:si>
     <x:t>Gambling Offenses</x:t>
@@ -319,22 +313,25 @@
     <x:t>Kidnapping/Abduction</x:t>
   </x:si>
   <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
     <x:t>33</x:t>
   </x:si>
   <x:si>
     <x:t>Larceny/Theft Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>717</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1383</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2160</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2334</x:t>
+    <x:t>719</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1386</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2164</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2337</x:t>
   </x:si>
   <x:si>
     <x:t>942</x:t>
@@ -343,13 +340,16 @@
     <x:t>861</x:t>
   </x:si>
   <x:si>
-    <x:t>1719</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2845</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2749</x:t>
+    <x:t>1722</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2846</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2752</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1222</x:t>
   </x:si>
   <x:si>
     <x:t>Motor Vehicle Theft</x:t>
@@ -379,7 +379,7 @@
     <x:t>Pornography/Obscene Material</x:t>
   </x:si>
   <x:si>
-    <x:t>23</x:t>
+    <x:t>24</x:t>
   </x:si>
   <x:si>
     <x:t>41</x:t>
@@ -409,7 +409,7 @@
     <x:t>131</x:t>
   </x:si>
   <x:si>
-    <x:t>98</x:t>
+    <x:t>97</x:t>
   </x:si>
   <x:si>
     <x:t>29</x:t>
@@ -418,10 +418,7 @@
     <x:t>Sex Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>133</x:t>
-  </x:si>
-  <x:si>
-    <x:t>188</x:t>
+    <x:t>189</x:t>
   </x:si>
   <x:si>
     <x:t>222</x:t>
@@ -430,7 +427,7 @@
     <x:t>242</x:t>
   </x:si>
   <x:si>
-    <x:t>156</x:t>
+    <x:t>157</x:t>
   </x:si>
   <x:si>
     <x:t>Stolen Property Offenses</x:t>
@@ -439,9 +436,6 @@
     <x:t>45</x:t>
   </x:si>
   <x:si>
-    <x:t>107</x:t>
-  </x:si>
-  <x:si>
     <x:t>102</x:t>
   </x:si>
   <x:si>
@@ -475,7 +469,7 @@
     <x:t>66</x:t>
   </x:si>
   <x:si>
-    <x:t>255</x:t>
+    <x:t>256</x:t>
   </x:si>
   <x:si>
     <x:t>582</x:t>
@@ -484,7 +478,7 @@
     <x:t>591</x:t>
   </x:si>
   <x:si>
-    <x:t>526</x:t>
+    <x:t>527</x:t>
   </x:si>
   <x:si>
     <x:t>253</x:t>
@@ -1181,10 +1175,10 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="G12" s="1" t="s">
         <x:v>58</x:v>
-      </x:c>
-      <x:c r="G12" s="1" t="s">
-        <x:v>59</x:v>
       </x:c>
       <x:c r="H12" s="1" t="s">
         <x:v>10</x:v>
@@ -1192,22 +1186,22 @@
     </x:row>
     <x:row r="13" spans="1:8">
       <x:c r="A13" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D13" s="1" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="D13" s="1" t="s">
+      <x:c r="E13" s="1" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="E13" s="1" t="s">
+      <x:c r="F13" s="1" t="s">
         <x:v>63</x:v>
-      </x:c>
-      <x:c r="F13" s="1" t="s">
-        <x:v>64</x:v>
       </x:c>
       <x:c r="G13" s="1" t="s">
         <x:v>56</x:v>
@@ -1218,25 +1212,25 @@
     </x:row>
     <x:row r="14" spans="1:8">
       <x:c r="A14" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D14" s="1" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="D14" s="1" t="s">
+      <x:c r="E14" s="1" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="E14" s="1" t="s">
+      <x:c r="F14" s="1" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="F14" s="1" t="s">
-        <x:v>68</x:v>
-      </x:c>
       <x:c r="G14" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
         <x:v>10</x:v>
@@ -1244,22 +1238,22 @@
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D15" s="1" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E15" s="1" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="D15" s="1" t="s">
+      <x:c r="F15" s="1" t="s">
         <x:v>72</x:v>
-      </x:c>
-      <x:c r="E15" s="1" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="F15" s="1" t="s">
-        <x:v>74</x:v>
       </x:c>
       <x:c r="G15" s="1" t="s">
         <x:v>47</x:v>
@@ -1270,25 +1264,25 @@
     </x:row>
     <x:row r="16" spans="1:8">
       <x:c r="A16" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D16" s="1" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="E16" s="1" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="D16" s="1" t="s">
+      <x:c r="F16" s="1" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="E16" s="1" t="s">
+      <x:c r="G16" s="1" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="F16" s="1" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="G16" s="1" t="s">
-        <x:v>79</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
         <x:v>10</x:v>
@@ -1296,7 +1290,7 @@
     </x:row>
     <x:row r="17" spans="1:8">
       <x:c r="A17" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>9</x:v>
@@ -1322,7 +1316,7 @@
     </x:row>
     <x:row r="18" spans="1:8">
       <x:c r="A18" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>15</x:v>
@@ -1337,10 +1331,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G18" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
         <x:v>10</x:v>
@@ -1348,7 +1342,7 @@
     </x:row>
     <x:row r="19" spans="1:8">
       <x:c r="A19" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>15</x:v>
@@ -1374,25 +1368,25 @@
     </x:row>
     <x:row r="20" spans="1:8">
       <x:c r="A20" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D20" s="1" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E20" s="1" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="D20" s="1" t="s">
+      <x:c r="F20" s="1" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="E20" s="1" t="s">
+      <x:c r="G20" s="1" t="s">
         <x:v>87</x:v>
-      </x:c>
-      <x:c r="F20" s="1" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="G20" s="1" t="s">
-        <x:v>89</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
         <x:v>10</x:v>
@@ -1400,7 +1394,7 @@
     </x:row>
     <x:row r="21" spans="1:8">
       <x:c r="A21" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>15</x:v>
@@ -1409,16 +1403,16 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E21" s="1" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="F21" s="1" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="E21" s="1" t="s">
+      <x:c r="G21" s="1" t="s">
         <x:v>91</x:v>
-      </x:c>
-      <x:c r="F21" s="1" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="G21" s="1" t="s">
-        <x:v>93</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
         <x:v>10</x:v>
@@ -1426,7 +1420,7 @@
     </x:row>
     <x:row r="22" spans="1:8">
       <x:c r="A22" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>9</x:v>
@@ -1452,7 +1446,7 @@
     </x:row>
     <x:row r="23" spans="1:8">
       <x:c r="A23" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>15</x:v>
@@ -1467,7 +1461,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F23" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G23" s="1" t="s">
         <x:v>22</x:v>
@@ -1478,7 +1472,7 @@
     </x:row>
     <x:row r="24" spans="1:8">
       <x:c r="A24" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>9</x:v>
@@ -1496,7 +1490,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G24" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H24" s="1" t="s">
         <x:v>10</x:v>
@@ -1504,7 +1498,7 @@
     </x:row>
     <x:row r="25" spans="1:8">
       <x:c r="A25" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>15</x:v>
@@ -1513,10 +1507,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D25" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E25" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F25" s="1" t="s">
         <x:v>45</x:v>
@@ -1530,7 +1524,7 @@
     </x:row>
     <x:row r="26" spans="1:8">
       <x:c r="A26" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>9</x:v>
@@ -1542,7 +1536,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E26" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F26" s="1" t="s">
         <x:v>22</x:v>
@@ -1556,7 +1550,7 @@
     </x:row>
     <x:row r="27" spans="1:8">
       <x:c r="A27" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>15</x:v>
@@ -1571,10 +1565,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F27" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G27" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="H27" s="1" t="s">
         <x:v>10</x:v>
@@ -1582,7 +1576,7 @@
     </x:row>
     <x:row r="28" spans="1:8">
       <x:c r="A28" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>9</x:v>
@@ -1600,7 +1594,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G28" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="H28" s="1" t="s">
         <x:v>10</x:v>
@@ -1608,25 +1602,25 @@
     </x:row>
     <x:row r="29" spans="1:8">
       <x:c r="A29" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C29" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D29" s="1" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E29" s="1" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="F29" s="1" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="B29" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C29" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D29" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E29" s="1" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="F29" s="1" t="s">
-        <x:v>101</x:v>
-      </x:c>
       <x:c r="G29" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H29" s="1" t="s">
         <x:v>10</x:v>
@@ -1634,25 +1628,25 @@
     </x:row>
     <x:row r="30" spans="1:8">
       <x:c r="A30" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D30" s="1" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="D30" s="1" t="s">
+      <x:c r="E30" s="1" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="E30" s="1" t="s">
+      <x:c r="F30" s="1" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="F30" s="1" t="s">
+      <x:c r="G30" s="1" t="s">
         <x:v>106</x:v>
-      </x:c>
-      <x:c r="G30" s="1" t="s">
-        <x:v>107</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
         <x:v>10</x:v>
@@ -1660,25 +1654,25 @@
     </x:row>
     <x:row r="31" spans="1:8">
       <x:c r="A31" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D31" s="1" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="D31" s="1" t="s">
+      <x:c r="E31" s="1" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="E31" s="1" t="s">
+      <x:c r="F31" s="1" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="F31" s="1" t="s">
+      <x:c r="G31" s="1" t="s">
         <x:v>111</x:v>
-      </x:c>
-      <x:c r="G31" s="1" t="s">
-        <x:v>33</x:v>
       </x:c>
       <x:c r="H31" s="1" t="s">
         <x:v>10</x:v>
@@ -1701,7 +1695,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="F32" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G32" s="1" t="s">
         <x:v>11</x:v>
@@ -1773,7 +1767,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="D35" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E35" s="1" t="s">
         <x:v>122</x:v>
@@ -1834,7 +1828,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="G37" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H37" s="1" t="s">
         <x:v>10</x:v>
@@ -1877,13 +1871,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F39" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G39" s="1" t="s">
         <x:v>22</x:v>
@@ -1900,19 +1894,19 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C40" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D40" s="1" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="D40" s="1" t="s">
+      <x:c r="E40" s="1" t="s">
         <x:v>135</x:v>
       </x:c>
-      <x:c r="E40" s="1" t="s">
+      <x:c r="F40" s="1" t="s">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="F40" s="1" t="s">
+      <x:c r="G40" s="1" t="s">
         <x:v>137</x:v>
-      </x:c>
-      <x:c r="G40" s="1" t="s">
-        <x:v>138</x:v>
       </x:c>
       <x:c r="H40" s="1" t="s">
         <x:v>10</x:v>
@@ -1920,22 +1914,22 @@
     </x:row>
     <x:row r="41" spans="1:8">
       <x:c r="A41" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
         <x:v>42</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F41" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="G41" s="1" t="s">
         <x:v>18</x:v>
@@ -1946,25 +1940,25 @@
     </x:row>
     <x:row r="42" spans="1:8">
       <x:c r="A42" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="D42" s="1" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="E42" s="1" t="s">
         <x:v>143</x:v>
       </x:c>
-      <x:c r="D42" s="1" t="s">
+      <x:c r="F42" s="1" t="s">
         <x:v>144</x:v>
       </x:c>
-      <x:c r="E42" s="1" t="s">
+      <x:c r="G42" s="1" t="s">
         <x:v>145</x:v>
-      </x:c>
-      <x:c r="F42" s="1" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="G42" s="1" t="s">
-        <x:v>147</x:v>
       </x:c>
       <x:c r="H42" s="1" t="s">
         <x:v>10</x:v>
@@ -1972,22 +1966,22 @@
     </x:row>
     <x:row r="43" spans="1:8">
       <x:c r="A43" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="D43" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="E43" s="1" t="s">
         <x:v>149</x:v>
       </x:c>
-      <x:c r="D43" s="1" t="s">
+      <x:c r="F43" s="1" t="s">
         <x:v>150</x:v>
-      </x:c>
-      <x:c r="E43" s="1" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="F43" s="1" t="s">
-        <x:v>152</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
         <x:v>17</x:v>
@@ -1998,25 +1992,25 @@
     </x:row>
     <x:row r="44" spans="1:8">
       <x:c r="A44" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="D44" s="1" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="E44" s="1" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="D44" s="1" t="s">
+      <x:c r="F44" s="1" t="s">
         <x:v>154</x:v>
       </x:c>
-      <x:c r="E44" s="1" t="s">
+      <x:c r="G44" s="1" t="s">
         <x:v>155</x:v>
-      </x:c>
-      <x:c r="F44" s="1" t="s">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="G44" s="1" t="s">
-        <x:v>157</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
         <x:v>10</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -106,7 +106,7 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>834</x:t>
+    <x:t>837</x:t>
   </x:si>
   <x:si>
     <x:t>725</x:t>
@@ -124,10 +124,10 @@
     <x:t>1316</x:t>
   </x:si>
   <x:si>
-    <x:t>2020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3741</x:t>
+    <x:t>2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3740</x:t>
   </x:si>
   <x:si>
     <x:t>4014</x:t>
@@ -208,10 +208,10 @@
     <x:t>137</x:t>
   </x:si>
   <x:si>
-    <x:t>336</x:t>
-  </x:si>
-  <x:si>
-    <x:t>301</x:t>
+    <x:t>337</x:t>
+  </x:si>
+  <x:si>
+    <x:t>302</x:t>
   </x:si>
   <x:si>
     <x:t>423</x:t>
@@ -235,13 +235,13 @@
     <x:t>865</x:t>
   </x:si>
   <x:si>
-    <x:t>130</x:t>
+    <x:t>131</x:t>
   </x:si>
   <x:si>
     <x:t>825</x:t>
   </x:si>
   <x:si>
-    <x:t>1777</x:t>
+    <x:t>1778</x:t>
   </x:si>
   <x:si>
     <x:t>2114</x:t>
@@ -274,10 +274,13 @@
     <x:t>318</x:t>
   </x:si>
   <x:si>
-    <x:t>247</x:t>
-  </x:si>
-  <x:si>
-    <x:t>76</x:t>
+    <x:t>248</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62</x:t>
   </x:si>
   <x:si>
     <x:t>281</x:t>
@@ -322,13 +325,13 @@
     <x:t>Larceny/Theft Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>719</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1386</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2164</x:t>
+    <x:t>722</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1388</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2166</x:t>
   </x:si>
   <x:si>
     <x:t>2337</x:t>
@@ -337,19 +340,19 @@
     <x:t>942</x:t>
   </x:si>
   <x:si>
-    <x:t>861</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1722</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2846</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2752</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1222</x:t>
+    <x:t>862</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1723</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2848</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2751</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1223</x:t>
   </x:si>
   <x:si>
     <x:t>Motor Vehicle Theft</x:t>
@@ -370,7 +373,7 @@
     <x:t>141</x:t>
   </x:si>
   <x:si>
-    <x:t>160</x:t>
+    <x:t>161</x:t>
   </x:si>
   <x:si>
     <x:t>27</x:t>
@@ -406,9 +409,6 @@
     <x:t>162</x:t>
   </x:si>
   <x:si>
-    <x:t>131</x:t>
-  </x:si>
-  <x:si>
     <x:t>97</x:t>
   </x:si>
   <x:si>
@@ -418,7 +418,7 @@
     <x:t>Sex Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>189</x:t>
+    <x:t>190</x:t>
   </x:si>
   <x:si>
     <x:t>222</x:t>
@@ -434,6 +434,9 @@
   </x:si>
   <x:si>
     <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>107</x:t>
   </x:si>
   <x:si>
     <x:t>102</x:t>
@@ -1400,19 +1403,19 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G21" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
         <x:v>10</x:v>
@@ -1420,7 +1423,7 @@
     </x:row>
     <x:row r="22" spans="1:8">
       <x:c r="A22" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>9</x:v>
@@ -1446,7 +1449,7 @@
     </x:row>
     <x:row r="23" spans="1:8">
       <x:c r="A23" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>15</x:v>
@@ -1472,7 +1475,7 @@
     </x:row>
     <x:row r="24" spans="1:8">
       <x:c r="A24" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>9</x:v>
@@ -1498,7 +1501,7 @@
     </x:row>
     <x:row r="25" spans="1:8">
       <x:c r="A25" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>15</x:v>
@@ -1507,10 +1510,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D25" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E25" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F25" s="1" t="s">
         <x:v>45</x:v>
@@ -1524,7 +1527,7 @@
     </x:row>
     <x:row r="26" spans="1:8">
       <x:c r="A26" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>9</x:v>
@@ -1550,7 +1553,7 @@
     </x:row>
     <x:row r="27" spans="1:8">
       <x:c r="A27" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>15</x:v>
@@ -1568,7 +1571,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="G27" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H27" s="1" t="s">
         <x:v>10</x:v>
@@ -1576,7 +1579,7 @@
     </x:row>
     <x:row r="28" spans="1:8">
       <x:c r="A28" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>9</x:v>
@@ -1594,7 +1597,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G28" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H28" s="1" t="s">
         <x:v>10</x:v>
@@ -1602,7 +1605,7 @@
     </x:row>
     <x:row r="29" spans="1:8">
       <x:c r="A29" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>15</x:v>
@@ -1611,13 +1614,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D29" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E29" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F29" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G29" s="1" t="s">
         <x:v>79</x:v>
@@ -1628,25 +1631,25 @@
     </x:row>
     <x:row r="30" spans="1:8">
       <x:c r="A30" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D30" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E30" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F30" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G30" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
         <x:v>10</x:v>
@@ -1654,25 +1657,25 @@
     </x:row>
     <x:row r="31" spans="1:8">
       <x:c r="A31" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E31" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F31" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="G31" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H31" s="1" t="s">
         <x:v>10</x:v>
@@ -1680,7 +1683,7 @@
     </x:row>
     <x:row r="32" spans="1:8">
       <x:c r="A32" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>9</x:v>
@@ -1689,10 +1692,10 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E32" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F32" s="1" t="s">
         <x:v>58</x:v>
@@ -1706,25 +1709,25 @@
     </x:row>
     <x:row r="33" spans="1:8">
       <x:c r="A33" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C33" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D33" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E33" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="F33" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="G33" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="H33" s="1" t="s">
         <x:v>10</x:v>
@@ -1732,7 +1735,7 @@
     </x:row>
     <x:row r="34" spans="1:8">
       <x:c r="A34" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>9</x:v>
@@ -1758,22 +1761,22 @@
     </x:row>
     <x:row r="35" spans="1:8">
       <x:c r="A35" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C35" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D35" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E35" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F35" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="G35" s="1" t="s">
         <x:v>26</x:v>
@@ -1784,7 +1787,7 @@
     </x:row>
     <x:row r="36" spans="1:8">
       <x:c r="A36" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>15</x:v>
@@ -1810,22 +1813,22 @@
     </x:row>
     <x:row r="37" spans="1:8">
       <x:c r="A37" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C37" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E37" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F37" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="G37" s="1" t="s">
         <x:v>80</x:v>
@@ -1836,19 +1839,19 @@
     </x:row>
     <x:row r="38" spans="1:8">
       <x:c r="A38" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D38" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F38" s="1" t="s">
         <x:v>131</x:v>
@@ -1877,7 +1880,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="F39" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G39" s="1" t="s">
         <x:v>22</x:v>
@@ -1926,10 +1929,10 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="F41" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="G41" s="1" t="s">
         <x:v>18</x:v>
@@ -1946,19 +1949,19 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="F42" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G42" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="H42" s="1" t="s">
         <x:v>10</x:v>
@@ -1966,22 +1969,22 @@
     </x:row>
     <x:row r="43" spans="1:8">
       <x:c r="A43" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D43" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E43" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="F43" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
         <x:v>17</x:v>
@@ -1992,25 +1995,25 @@
     </x:row>
     <x:row r="44" spans="1:8">
       <x:c r="A44" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F44" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="G44" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
         <x:v>10</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -49,210 +49,210 @@
     <x:t>0</x:t>
   </x:si>
   <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Male</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Arson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assault Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>840</x:t>
+  </x:si>
+  <x:si>
+    <x:t>725</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1236</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220</x:t>
+  </x:si>
+  <x:si>
+    <x:t>418</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1320</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2027</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3740</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1657</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bribery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Burglary/Breaking &amp; Entering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>149</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>134</x:t>
+  </x:si>
+  <x:si>
+    <x:t>231</x:t>
+  </x:si>
+  <x:si>
+    <x:t>504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>422</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Counterfeiting/Forgery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>148</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Destruction/Damage/Vandalism of Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>106</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>137</x:t>
+  </x:si>
+  <x:si>
+    <x:t>337</x:t>
+  </x:si>
+  <x:si>
+    <x:t>302</x:t>
+  </x:si>
+  <x:si>
+    <x:t>423</x:t>
+  </x:si>
+  <x:si>
+    <x:t>406</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drug/Narcotic Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>339</x:t>
+  </x:si>
+  <x:si>
+    <x:t>741</x:t>
+  </x:si>
+  <x:si>
+    <x:t>866</x:t>
+  </x:si>
+  <x:si>
+    <x:t>131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>826</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1780</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2114</x:t>
+  </x:si>
+  <x:si>
+    <x:t>817</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Embezzlement</x:t>
+  </x:si>
+  <x:si>
     <x:t>6</x:t>
   </x:si>
   <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Male</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Arson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Assault Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>837</x:t>
-  </x:si>
-  <x:si>
-    <x:t>725</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1236</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1218</x:t>
-  </x:si>
-  <x:si>
-    <x:t>418</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1316</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2019</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3740</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4014</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1656</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bribery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Burglary/Breaking &amp; Entering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>148</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>134</x:t>
-  </x:si>
-  <x:si>
-    <x:t>231</x:t>
-  </x:si>
-  <x:si>
-    <x:t>504</x:t>
-  </x:si>
-  <x:si>
-    <x:t>422</x:t>
-  </x:si>
-  <x:si>
-    <x:t>149</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Counterfeiting/Forgery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>93</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Destruction/Damage/Vandalism of Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>106</x:t>
-  </x:si>
-  <x:si>
-    <x:t>111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>137</x:t>
-  </x:si>
-  <x:si>
-    <x:t>337</x:t>
-  </x:si>
-  <x:si>
-    <x:t>302</x:t>
-  </x:si>
-  <x:si>
-    <x:t>423</x:t>
-  </x:si>
-  <x:si>
-    <x:t>406</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drug/Narcotic Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>339</x:t>
-  </x:si>
-  <x:si>
-    <x:t>742</x:t>
-  </x:si>
-  <x:si>
-    <x:t>865</x:t>
-  </x:si>
-  <x:si>
-    <x:t>131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>825</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1778</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2114</x:t>
-  </x:si>
-  <x:si>
-    <x:t>815</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Embezzlement</x:t>
-  </x:si>
-  <x:si>
     <x:t>12</x:t>
   </x:si>
   <x:si>
@@ -271,7 +271,7 @@
     <x:t>180</x:t>
   </x:si>
   <x:si>
-    <x:t>318</x:t>
+    <x:t>319</x:t>
   </x:si>
   <x:si>
     <x:t>248</x:t>
@@ -283,7 +283,7 @@
     <x:t>62</x:t>
   </x:si>
   <x:si>
-    <x:t>281</x:t>
+    <x:t>282</x:t>
   </x:si>
   <x:si>
     <x:t>516</x:t>
@@ -331,7 +331,7 @@
     <x:t>1388</x:t>
   </x:si>
   <x:si>
-    <x:t>2166</x:t>
+    <x:t>2168</x:t>
   </x:si>
   <x:si>
     <x:t>2337</x:t>
@@ -346,13 +346,13 @@
     <x:t>1723</x:t>
   </x:si>
   <x:si>
-    <x:t>2848</x:t>
+    <x:t>2849</x:t>
   </x:si>
   <x:si>
     <x:t>2751</x:t>
   </x:si>
   <x:si>
-    <x:t>1223</x:t>
+    <x:t>1224</x:t>
   </x:si>
   <x:si>
     <x:t>Motor Vehicle Theft</x:t>
@@ -388,9 +388,6 @@
     <x:t>41</x:t>
   </x:si>
   <x:si>
-    <x:t>46</x:t>
-  </x:si>
-  <x:si>
     <x:t>Prostitution Offenses</x:t>
   </x:si>
   <x:si>
@@ -424,7 +421,7 @@
     <x:t>222</x:t>
   </x:si>
   <x:si>
-    <x:t>242</x:t>
+    <x:t>244</x:t>
   </x:si>
   <x:si>
     <x:t>157</x:t>
@@ -442,7 +439,7 @@
     <x:t>102</x:t>
   </x:si>
   <x:si>
-    <x:t>145</x:t>
+    <x:t>146</x:t>
   </x:si>
   <x:si>
     <x:t>186</x:t>
@@ -478,10 +475,10 @@
     <x:t>582</x:t>
   </x:si>
   <x:si>
-    <x:t>591</x:t>
-  </x:si>
-  <x:si>
-    <x:t>527</x:t>
+    <x:t>592</x:t>
+  </x:si>
+  <x:si>
+    <x:t>526</x:t>
   </x:si>
   <x:si>
     <x:t>253</x:t>
@@ -967,13 +964,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F4" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="G4" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H4" s="1" t="s">
         <x:v>10</x:v>
@@ -990,16 +987,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E5" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="E5" s="1" t="s">
+      <x:c r="F5" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F5" s="1" t="s">
+      <x:c r="G5" s="1" t="s">
         <x:v>27</x:v>
-      </x:c>
-      <x:c r="G5" s="1" t="s">
-        <x:v>28</x:v>
       </x:c>
       <x:c r="H5" s="1" t="s">
         <x:v>10</x:v>
@@ -1007,25 +1004,25 @@
     </x:row>
     <x:row r="6" spans="1:8">
       <x:c r="A6" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D6" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="D6" s="1" t="s">
+      <x:c r="E6" s="1" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="E6" s="1" t="s">
+      <x:c r="F6" s="1" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="F6" s="1" t="s">
+      <x:c r="G6" s="1" t="s">
         <x:v>33</x:v>
-      </x:c>
-      <x:c r="G6" s="1" t="s">
-        <x:v>34</x:v>
       </x:c>
       <x:c r="H6" s="1" t="s">
         <x:v>10</x:v>
@@ -1033,25 +1030,25 @@
     </x:row>
     <x:row r="7" spans="1:8">
       <x:c r="A7" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D7" s="1" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="D7" s="1" t="s">
+      <x:c r="E7" s="1" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="E7" s="1" t="s">
+      <x:c r="F7" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="F7" s="1" t="s">
+      <x:c r="G7" s="1" t="s">
         <x:v>38</x:v>
-      </x:c>
-      <x:c r="G7" s="1" t="s">
-        <x:v>39</x:v>
       </x:c>
       <x:c r="H7" s="1" t="s">
         <x:v>10</x:v>
@@ -1059,7 +1056,7 @@
     </x:row>
     <x:row r="8" spans="1:8">
       <x:c r="A8" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>9</x:v>
@@ -1085,7 +1082,7 @@
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="A9" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>9</x:v>
@@ -1094,16 +1091,16 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E9" s="1" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="E9" s="1" t="s">
+      <x:c r="F9" s="1" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="F9" s="1" t="s">
+      <x:c r="G9" s="1" t="s">
         <x:v>44</x:v>
-      </x:c>
-      <x:c r="G9" s="1" t="s">
-        <x:v>45</x:v>
       </x:c>
       <x:c r="H9" s="1" t="s">
         <x:v>10</x:v>
@@ -1111,25 +1108,25 @@
     </x:row>
     <x:row r="10" spans="1:8">
       <x:c r="A10" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D10" s="1" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="D10" s="1" t="s">
+      <x:c r="E10" s="1" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="E10" s="1" t="s">
+      <x:c r="F10" s="1" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="F10" s="1" t="s">
-        <x:v>49</x:v>
-      </x:c>
       <x:c r="G10" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H10" s="1" t="s">
         <x:v>10</x:v>
@@ -1137,7 +1134,7 @@
     </x:row>
     <x:row r="11" spans="1:8">
       <x:c r="A11" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>9</x:v>
@@ -1146,16 +1143,16 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E11" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F11" s="1" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="E11" s="1" t="s">
+      <x:c r="G11" s="1" t="s">
         <x:v>53</x:v>
-      </x:c>
-      <x:c r="F11" s="1" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="G11" s="1" t="s">
-        <x:v>55</x:v>
       </x:c>
       <x:c r="H11" s="1" t="s">
         <x:v>10</x:v>
@@ -1163,25 +1160,25 @@
     </x:row>
     <x:row r="12" spans="1:8">
       <x:c r="A12" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E12" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F12" s="1" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="E12" s="1" t="s">
+      <x:c r="G12" s="1" t="s">
         <x:v>57</x:v>
-      </x:c>
-      <x:c r="F12" s="1" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="G12" s="1" t="s">
-        <x:v>58</x:v>
       </x:c>
       <x:c r="H12" s="1" t="s">
         <x:v>10</x:v>
@@ -1189,25 +1186,25 @@
     </x:row>
     <x:row r="13" spans="1:8">
       <x:c r="A13" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D13" s="1" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="D13" s="1" t="s">
+      <x:c r="E13" s="1" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="E13" s="1" t="s">
+      <x:c r="F13" s="1" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="F13" s="1" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="G13" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
         <x:v>10</x:v>
@@ -1215,25 +1212,25 @@
     </x:row>
     <x:row r="14" spans="1:8">
       <x:c r="A14" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D14" s="1" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="D14" s="1" t="s">
+      <x:c r="E14" s="1" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="E14" s="1" t="s">
+      <x:c r="F14" s="1" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="F14" s="1" t="s">
-        <x:v>67</x:v>
-      </x:c>
       <x:c r="G14" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
         <x:v>10</x:v>
@@ -1241,25 +1238,25 @@
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D15" s="1" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D15" s="1" t="s">
+      <x:c r="E15" s="1" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="E15" s="1" t="s">
+      <x:c r="F15" s="1" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="F15" s="1" t="s">
-        <x:v>72</x:v>
-      </x:c>
       <x:c r="G15" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H15" s="1" t="s">
         <x:v>10</x:v>
@@ -1267,25 +1264,25 @@
     </x:row>
     <x:row r="16" spans="1:8">
       <x:c r="A16" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D16" s="1" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="D16" s="1" t="s">
+      <x:c r="E16" s="1" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="E16" s="1" t="s">
+      <x:c r="F16" s="1" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="F16" s="1" t="s">
+      <x:c r="G16" s="1" t="s">
         <x:v>76</x:v>
-      </x:c>
-      <x:c r="G16" s="1" t="s">
-        <x:v>77</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
         <x:v>10</x:v>
@@ -1293,7 +1290,7 @@
     </x:row>
     <x:row r="17" spans="1:8">
       <x:c r="A17" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>9</x:v>
@@ -1302,7 +1299,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
         <x:v>12</x:v>
@@ -1311,7 +1308,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G17" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H17" s="1" t="s">
         <x:v>10</x:v>
@@ -1319,13 +1316,13 @@
     </x:row>
     <x:row r="18" spans="1:8">
       <x:c r="A18" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
         <x:v>18</x:v>
@@ -1487,7 +1484,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E24" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F24" s="1" t="s">
         <x:v>16</x:v>
@@ -1516,7 +1513,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="F25" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G25" s="1" t="s">
         <x:v>12</x:v>
@@ -1562,7 +1559,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D27" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E27" s="1" t="s">
         <x:v>12</x:v>
@@ -1689,7 +1686,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
         <x:v>114</x:v>
@@ -1698,10 +1695,10 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="F32" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G32" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
         <x:v>10</x:v>
@@ -1741,7 +1738,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C34" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D34" s="1" t="s">
         <x:v>23</x:v>
@@ -1776,10 +1773,10 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="F35" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G35" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H35" s="1" t="s">
         <x:v>10</x:v>
@@ -1787,7 +1784,7 @@
     </x:row>
     <x:row r="36" spans="1:8">
       <x:c r="A36" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>15</x:v>
@@ -1805,7 +1802,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G36" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H36" s="1" t="s">
         <x:v>10</x:v>
@@ -1813,13 +1810,13 @@
     </x:row>
     <x:row r="37" spans="1:8">
       <x:c r="A37" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C37" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
         <x:v>123</x:v>
@@ -1828,7 +1825,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="F37" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="G37" s="1" t="s">
         <x:v>80</x:v>
@@ -1839,25 +1836,25 @@
     </x:row>
     <x:row r="38" spans="1:8">
       <x:c r="A38" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D38" s="1" t="s">
         <x:v>129</x:v>
       </x:c>
-      <x:c r="D38" s="1" t="s">
+      <x:c r="E38" s="1" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="F38" s="1" t="s">
         <x:v>130</x:v>
       </x:c>
-      <x:c r="E38" s="1" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="F38" s="1" t="s">
+      <x:c r="G38" s="1" t="s">
         <x:v>131</x:v>
-      </x:c>
-      <x:c r="G38" s="1" t="s">
-        <x:v>132</x:v>
       </x:c>
       <x:c r="H38" s="1" t="s">
         <x:v>10</x:v>
@@ -1865,7 +1862,7 @@
     </x:row>
     <x:row r="39" spans="1:8">
       <x:c r="A39" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>9</x:v>
@@ -1891,25 +1888,25 @@
     </x:row>
     <x:row r="40" spans="1:8">
       <x:c r="A40" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C40" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D40" s="1" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="B40" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C40" s="1" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="D40" s="1" t="s">
+      <x:c r="E40" s="1" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="E40" s="1" t="s">
+      <x:c r="F40" s="1" t="s">
         <x:v>135</x:v>
       </x:c>
-      <x:c r="F40" s="1" t="s">
+      <x:c r="G40" s="1" t="s">
         <x:v>136</x:v>
-      </x:c>
-      <x:c r="G40" s="1" t="s">
-        <x:v>137</x:v>
       </x:c>
       <x:c r="H40" s="1" t="s">
         <x:v>10</x:v>
@@ -1917,22 +1914,22 @@
     </x:row>
     <x:row r="41" spans="1:8">
       <x:c r="A41" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="D41" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E41" s="1" t="s">
         <x:v>139</x:v>
       </x:c>
-      <x:c r="D41" s="1" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="E41" s="1" t="s">
+      <x:c r="F41" s="1" t="s">
         <x:v>140</x:v>
-      </x:c>
-      <x:c r="F41" s="1" t="s">
-        <x:v>141</x:v>
       </x:c>
       <x:c r="G41" s="1" t="s">
         <x:v>18</x:v>
@@ -1943,25 +1940,25 @@
     </x:row>
     <x:row r="42" spans="1:8">
       <x:c r="A42" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="D42" s="1" t="s">
         <x:v>142</x:v>
       </x:c>
-      <x:c r="D42" s="1" t="s">
+      <x:c r="E42" s="1" t="s">
         <x:v>143</x:v>
       </x:c>
-      <x:c r="E42" s="1" t="s">
+      <x:c r="F42" s="1" t="s">
         <x:v>144</x:v>
       </x:c>
-      <x:c r="F42" s="1" t="s">
+      <x:c r="G42" s="1" t="s">
         <x:v>145</x:v>
-      </x:c>
-      <x:c r="G42" s="1" t="s">
-        <x:v>146</x:v>
       </x:c>
       <x:c r="H42" s="1" t="s">
         <x:v>10</x:v>
@@ -1969,22 +1966,22 @@
     </x:row>
     <x:row r="43" spans="1:8">
       <x:c r="A43" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="D43" s="1" t="s">
         <x:v>148</x:v>
       </x:c>
-      <x:c r="D43" s="1" t="s">
+      <x:c r="E43" s="1" t="s">
         <x:v>149</x:v>
       </x:c>
-      <x:c r="E43" s="1" t="s">
+      <x:c r="F43" s="1" t="s">
         <x:v>150</x:v>
-      </x:c>
-      <x:c r="F43" s="1" t="s">
-        <x:v>151</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
         <x:v>17</x:v>
@@ -1995,25 +1992,25 @@
     </x:row>
     <x:row r="44" spans="1:8">
       <x:c r="A44" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="D44" s="1" t="s">
         <x:v>152</x:v>
       </x:c>
-      <x:c r="D44" s="1" t="s">
+      <x:c r="E44" s="1" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="E44" s="1" t="s">
+      <x:c r="F44" s="1" t="s">
         <x:v>154</x:v>
       </x:c>
-      <x:c r="F44" s="1" t="s">
+      <x:c r="G44" s="1" t="s">
         <x:v>155</x:v>
-      </x:c>
-      <x:c r="G44" s="1" t="s">
-        <x:v>156</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
         <x:v>10</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -103,13 +103,13 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>840</x:t>
+    <x:t>841</x:t>
   </x:si>
   <x:si>
     <x:t>725</x:t>
   </x:si>
   <x:si>
-    <x:t>1236</x:t>
+    <x:t>1237</x:t>
   </x:si>
   <x:si>
     <x:t>1220</x:t>
@@ -124,13 +124,13 @@
     <x:t>2027</x:t>
   </x:si>
   <x:si>
-    <x:t>3740</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4018</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1657</x:t>
+    <x:t>3743</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1659</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>
@@ -139,304 +139,304 @@
     <x:t>Burglary/Breaking &amp; Entering</x:t>
   </x:si>
   <x:si>
+    <x:t>66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>149</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>134</x:t>
+  </x:si>
+  <x:si>
+    <x:t>231</x:t>
+  </x:si>
+  <x:si>
+    <x:t>504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>422</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Counterfeiting/Forgery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Destruction/Damage/Vandalism of Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>106</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>138</x:t>
+  </x:si>
+  <x:si>
+    <x:t>337</x:t>
+  </x:si>
+  <x:si>
+    <x:t>302</x:t>
+  </x:si>
+  <x:si>
+    <x:t>423</x:t>
+  </x:si>
+  <x:si>
+    <x:t>406</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drug/Narcotic Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>744</x:t>
+  </x:si>
+  <x:si>
+    <x:t>867</x:t>
+  </x:si>
+  <x:si>
+    <x:t>132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>829</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1781</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2116</x:t>
+  </x:si>
+  <x:si>
+    <x:t>819</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Embezzlement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Extortion/Blackmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fraud Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>320</x:t>
+  </x:si>
+  <x:si>
+    <x:t>248</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>283</x:t>
+  </x:si>
+  <x:si>
+    <x:t>516</x:t>
+  </x:si>
+  <x:si>
+    <x:t>478</x:t>
+  </x:si>
+  <x:si>
+    <x:t>172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gambling Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Homicide Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Human Trafficking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kidnapping/Abduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Larceny/Theft Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>722</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1387</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2338</x:t>
+  </x:si>
+  <x:si>
+    <x:t>943</x:t>
+  </x:si>
+  <x:si>
+    <x:t>862</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1721</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2849</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2752</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1224</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motor Vehicle Theft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>97</x:t>
+  </x:si>
+  <x:si>
+    <x:t>141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pornography/Obscene Material</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prostitution Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robbery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>167</x:t>
+  </x:si>
+  <x:si>
+    <x:t>164</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sex Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>136</x:t>
+  </x:si>
+  <x:si>
+    <x:t>191</x:t>
+  </x:si>
+  <x:si>
+    <x:t>222</x:t>
+  </x:si>
+  <x:si>
+    <x:t>245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>157</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stolen Property Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
     <x:t>65</x:t>
   </x:si>
   <x:si>
-    <x:t>120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>149</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>134</x:t>
-  </x:si>
-  <x:si>
-    <x:t>231</x:t>
-  </x:si>
-  <x:si>
-    <x:t>504</x:t>
-  </x:si>
-  <x:si>
-    <x:t>422</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Counterfeiting/Forgery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>94</x:t>
-  </x:si>
-  <x:si>
-    <x:t>148</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Destruction/Damage/Vandalism of Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>106</x:t>
-  </x:si>
-  <x:si>
-    <x:t>111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>137</x:t>
-  </x:si>
-  <x:si>
-    <x:t>337</x:t>
-  </x:si>
-  <x:si>
-    <x:t>302</x:t>
-  </x:si>
-  <x:si>
-    <x:t>423</x:t>
-  </x:si>
-  <x:si>
-    <x:t>406</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drug/Narcotic Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>339</x:t>
-  </x:si>
-  <x:si>
-    <x:t>741</x:t>
-  </x:si>
-  <x:si>
-    <x:t>866</x:t>
-  </x:si>
-  <x:si>
-    <x:t>131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>826</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1780</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2114</x:t>
-  </x:si>
-  <x:si>
-    <x:t>817</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Embezzlement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Extortion/Blackmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fraud Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>180</x:t>
-  </x:si>
-  <x:si>
-    <x:t>319</x:t>
-  </x:si>
-  <x:si>
-    <x:t>248</x:t>
-  </x:si>
-  <x:si>
-    <x:t>77</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62</x:t>
-  </x:si>
-  <x:si>
-    <x:t>282</x:t>
-  </x:si>
-  <x:si>
-    <x:t>516</x:t>
-  </x:si>
-  <x:si>
-    <x:t>478</x:t>
-  </x:si>
-  <x:si>
-    <x:t>173</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gambling Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Homicide Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Human Trafficking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kidnapping/Abduction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Larceny/Theft Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>722</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1388</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2168</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2337</x:t>
-  </x:si>
-  <x:si>
-    <x:t>942</x:t>
-  </x:si>
-  <x:si>
-    <x:t>862</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1723</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2849</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2751</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1224</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motor Vehicle Theft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96</x:t>
-  </x:si>
-  <x:si>
-    <x:t>141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>161</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pornography/Obscene Material</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prostitution Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robbery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>165</x:t>
-  </x:si>
-  <x:si>
-    <x:t>162</x:t>
-  </x:si>
-  <x:si>
-    <x:t>97</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sex Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>190</x:t>
-  </x:si>
-  <x:si>
-    <x:t>222</x:t>
-  </x:si>
-  <x:si>
-    <x:t>244</x:t>
-  </x:si>
-  <x:si>
-    <x:t>157</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stolen Property Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45</x:t>
-  </x:si>
-  <x:si>
     <x:t>107</x:t>
   </x:si>
   <x:si>
-    <x:t>102</x:t>
+    <x:t>103</x:t>
   </x:si>
   <x:si>
     <x:t>146</x:t>
@@ -445,7 +445,7 @@
     <x:t>186</x:t>
   </x:si>
   <x:si>
-    <x:t>370</x:t>
+    <x:t>371</x:t>
   </x:si>
   <x:si>
     <x:t>335</x:t>
@@ -460,19 +460,16 @@
     <x:t>25</x:t>
   </x:si>
   <x:si>
-    <x:t>57</x:t>
+    <x:t>61</x:t>
   </x:si>
   <x:si>
     <x:t>63</x:t>
   </x:si>
   <x:si>
-    <x:t>66</x:t>
-  </x:si>
-  <x:si>
     <x:t>256</x:t>
   </x:si>
   <x:si>
-    <x:t>582</x:t>
+    <x:t>583</x:t>
   </x:si>
   <x:si>
     <x:t>592</x:t>
@@ -1175,10 +1172,10 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G12" s="1" t="s">
         <x:v>56</x:v>
-      </x:c>
-      <x:c r="G12" s="1" t="s">
-        <x:v>57</x:v>
       </x:c>
       <x:c r="H12" s="1" t="s">
         <x:v>10</x:v>
@@ -1186,22 +1183,22 @@
     </x:row>
     <x:row r="13" spans="1:8">
       <x:c r="A13" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D13" s="1" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="D13" s="1" t="s">
+      <x:c r="E13" s="1" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="E13" s="1" t="s">
+      <x:c r="F13" s="1" t="s">
         <x:v>61</x:v>
-      </x:c>
-      <x:c r="F13" s="1" t="s">
-        <x:v>62</x:v>
       </x:c>
       <x:c r="G13" s="1" t="s">
         <x:v>54</x:v>
@@ -1212,25 +1209,25 @@
     </x:row>
     <x:row r="14" spans="1:8">
       <x:c r="A14" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D14" s="1" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D14" s="1" t="s">
+      <x:c r="E14" s="1" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="E14" s="1" t="s">
+      <x:c r="F14" s="1" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="F14" s="1" t="s">
-        <x:v>66</x:v>
-      </x:c>
       <x:c r="G14" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
         <x:v>10</x:v>
@@ -1238,22 +1235,22 @@
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D15" s="1" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="D15" s="1" t="s">
+      <x:c r="E15" s="1" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="E15" s="1" t="s">
+      <x:c r="F15" s="1" t="s">
         <x:v>70</x:v>
-      </x:c>
-      <x:c r="F15" s="1" t="s">
-        <x:v>71</x:v>
       </x:c>
       <x:c r="G15" s="1" t="s">
         <x:v>46</x:v>
@@ -1264,25 +1261,25 @@
     </x:row>
     <x:row r="16" spans="1:8">
       <x:c r="A16" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D16" s="1" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="D16" s="1" t="s">
+      <x:c r="E16" s="1" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="E16" s="1" t="s">
+      <x:c r="F16" s="1" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="F16" s="1" t="s">
+      <x:c r="G16" s="1" t="s">
         <x:v>75</x:v>
-      </x:c>
-      <x:c r="G16" s="1" t="s">
-        <x:v>76</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
         <x:v>10</x:v>
@@ -1290,7 +1287,7 @@
     </x:row>
     <x:row r="17" spans="1:8">
       <x:c r="A17" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>9</x:v>
@@ -1299,7 +1296,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
         <x:v>12</x:v>
@@ -1316,7 +1313,7 @@
     </x:row>
     <x:row r="18" spans="1:8">
       <x:c r="A18" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>15</x:v>
@@ -1331,10 +1328,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="G18" s="1" t="s">
         <x:v>79</x:v>
-      </x:c>
-      <x:c r="G18" s="1" t="s">
-        <x:v>80</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
         <x:v>10</x:v>
@@ -1342,7 +1339,7 @@
     </x:row>
     <x:row r="19" spans="1:8">
       <x:c r="A19" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>15</x:v>
@@ -1368,25 +1365,25 @@
     </x:row>
     <x:row r="20" spans="1:8">
       <x:c r="A20" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D20" s="1" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="D20" s="1" t="s">
+      <x:c r="E20" s="1" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="E20" s="1" t="s">
+      <x:c r="F20" s="1" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="F20" s="1" t="s">
+      <x:c r="G20" s="1" t="s">
         <x:v>86</x:v>
-      </x:c>
-      <x:c r="G20" s="1" t="s">
-        <x:v>87</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
         <x:v>10</x:v>
@@ -1394,25 +1391,25 @@
     </x:row>
     <x:row r="21" spans="1:8">
       <x:c r="A21" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D21" s="1" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="D21" s="1" t="s">
+      <x:c r="E21" s="1" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="E21" s="1" t="s">
+      <x:c r="F21" s="1" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="F21" s="1" t="s">
+      <x:c r="G21" s="1" t="s">
         <x:v>91</x:v>
-      </x:c>
-      <x:c r="G21" s="1" t="s">
-        <x:v>92</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
         <x:v>10</x:v>
@@ -1420,7 +1417,7 @@
     </x:row>
     <x:row r="22" spans="1:8">
       <x:c r="A22" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>9</x:v>
@@ -1446,7 +1443,7 @@
     </x:row>
     <x:row r="23" spans="1:8">
       <x:c r="A23" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>15</x:v>
@@ -1461,7 +1458,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F23" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G23" s="1" t="s">
         <x:v>22</x:v>
@@ -1472,7 +1469,7 @@
     </x:row>
     <x:row r="24" spans="1:8">
       <x:c r="A24" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>9</x:v>
@@ -1490,7 +1487,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G24" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H24" s="1" t="s">
         <x:v>10</x:v>
@@ -1498,7 +1495,7 @@
     </x:row>
     <x:row r="25" spans="1:8">
       <x:c r="A25" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>15</x:v>
@@ -1507,10 +1504,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D25" s="1" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E25" s="1" t="s">
         <x:v>95</x:v>
-      </x:c>
-      <x:c r="E25" s="1" t="s">
-        <x:v>96</x:v>
       </x:c>
       <x:c r="F25" s="1" t="s">
         <x:v>44</x:v>
@@ -1524,7 +1521,7 @@
     </x:row>
     <x:row r="26" spans="1:8">
       <x:c r="A26" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>9</x:v>
@@ -1536,7 +1533,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E26" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F26" s="1" t="s">
         <x:v>22</x:v>
@@ -1550,7 +1547,7 @@
     </x:row>
     <x:row r="27" spans="1:8">
       <x:c r="A27" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>15</x:v>
@@ -1559,16 +1556,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D27" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E27" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F27" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G27" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="H27" s="1" t="s">
         <x:v>10</x:v>
@@ -1576,7 +1573,7 @@
     </x:row>
     <x:row r="28" spans="1:8">
       <x:c r="A28" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>9</x:v>
@@ -1594,7 +1591,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G28" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="H28" s="1" t="s">
         <x:v>10</x:v>
@@ -1602,25 +1599,25 @@
     </x:row>
     <x:row r="29" spans="1:8">
       <x:c r="A29" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C29" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D29" s="1" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="B29" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C29" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D29" s="1" t="s">
+      <x:c r="E29" s="1" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="F29" s="1" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="E29" s="1" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="F29" s="1" t="s">
-        <x:v>101</x:v>
-      </x:c>
       <x:c r="G29" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H29" s="1" t="s">
         <x:v>10</x:v>
@@ -1628,25 +1625,25 @@
     </x:row>
     <x:row r="30" spans="1:8">
       <x:c r="A30" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D30" s="1" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="D30" s="1" t="s">
+      <x:c r="E30" s="1" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="E30" s="1" t="s">
+      <x:c r="F30" s="1" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="F30" s="1" t="s">
+      <x:c r="G30" s="1" t="s">
         <x:v>106</x:v>
-      </x:c>
-      <x:c r="G30" s="1" t="s">
-        <x:v>107</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
         <x:v>10</x:v>
@@ -1654,25 +1651,25 @@
     </x:row>
     <x:row r="31" spans="1:8">
       <x:c r="A31" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D31" s="1" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="D31" s="1" t="s">
+      <x:c r="E31" s="1" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="E31" s="1" t="s">
+      <x:c r="F31" s="1" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="F31" s="1" t="s">
+      <x:c r="G31" s="1" t="s">
         <x:v>111</x:v>
-      </x:c>
-      <x:c r="G31" s="1" t="s">
-        <x:v>112</x:v>
       </x:c>
       <x:c r="H31" s="1" t="s">
         <x:v>10</x:v>
@@ -1680,7 +1677,7 @@
     </x:row>
     <x:row r="32" spans="1:8">
       <x:c r="A32" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>9</x:v>
@@ -1689,16 +1686,16 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="E32" s="1" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="E32" s="1" t="s">
-        <x:v>115</x:v>
-      </x:c>
       <x:c r="F32" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G32" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
         <x:v>10</x:v>
@@ -1706,25 +1703,25 @@
     </x:row>
     <x:row r="33" spans="1:8">
       <x:c r="A33" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C33" s="1" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="D33" s="1" t="s">
         <x:v>116</x:v>
       </x:c>
-      <x:c r="D33" s="1" t="s">
+      <x:c r="E33" s="1" t="s">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="E33" s="1" t="s">
+      <x:c r="F33" s="1" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="F33" s="1" t="s">
+      <x:c r="G33" s="1" t="s">
         <x:v>119</x:v>
-      </x:c>
-      <x:c r="G33" s="1" t="s">
-        <x:v>120</x:v>
       </x:c>
       <x:c r="H33" s="1" t="s">
         <x:v>10</x:v>
@@ -1732,7 +1729,7 @@
     </x:row>
     <x:row r="34" spans="1:8">
       <x:c r="A34" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>9</x:v>
@@ -1758,22 +1755,22 @@
     </x:row>
     <x:row r="35" spans="1:8">
       <x:c r="A35" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C35" s="1" t="s">
         <x:v>121</x:v>
       </x:c>
-      <x:c r="B35" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C35" s="1" t="s">
+      <x:c r="D35" s="1" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E35" s="1" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="D35" s="1" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="E35" s="1" t="s">
-        <x:v>123</x:v>
-      </x:c>
       <x:c r="F35" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G35" s="1" t="s">
         <x:v>25</x:v>
@@ -1784,7 +1781,7 @@
     </x:row>
     <x:row r="36" spans="1:8">
       <x:c r="A36" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>15</x:v>
@@ -1802,7 +1799,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G36" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H36" s="1" t="s">
         <x:v>10</x:v>
@@ -1810,25 +1807,25 @@
     </x:row>
     <x:row r="37" spans="1:8">
       <x:c r="A37" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C37" s="1" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="D37" s="1" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="E37" s="1" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="F37" s="1" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="D37" s="1" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="E37" s="1" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="F37" s="1" t="s">
-        <x:v>127</x:v>
-      </x:c>
       <x:c r="G37" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H37" s="1" t="s">
         <x:v>10</x:v>
@@ -1836,25 +1833,25 @@
     </x:row>
     <x:row r="38" spans="1:8">
       <x:c r="A38" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D38" s="1" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="D38" s="1" t="s">
+      <x:c r="E38" s="1" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="F38" s="1" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="G38" s="1" t="s">
         <x:v>129</x:v>
-      </x:c>
-      <x:c r="E38" s="1" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="F38" s="1" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="G38" s="1" t="s">
-        <x:v>131</x:v>
       </x:c>
       <x:c r="H38" s="1" t="s">
         <x:v>10</x:v>
@@ -1862,7 +1859,7 @@
     </x:row>
     <x:row r="39" spans="1:8">
       <x:c r="A39" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>9</x:v>
@@ -1874,10 +1871,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F39" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G39" s="1" t="s">
         <x:v>22</x:v>
@@ -1888,25 +1885,25 @@
     </x:row>
     <x:row r="40" spans="1:8">
       <x:c r="A40" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C40" s="1" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="D40" s="1" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="B40" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C40" s="1" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="D40" s="1" t="s">
+      <x:c r="E40" s="1" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="E40" s="1" t="s">
+      <x:c r="F40" s="1" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="F40" s="1" t="s">
+      <x:c r="G40" s="1" t="s">
         <x:v>135</x:v>
-      </x:c>
-      <x:c r="G40" s="1" t="s">
-        <x:v>136</x:v>
       </x:c>
       <x:c r="H40" s="1" t="s">
         <x:v>10</x:v>
@@ -1914,16 +1911,16 @@
     </x:row>
     <x:row r="41" spans="1:8">
       <x:c r="A41" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="D41" s="1" t="s">
         <x:v>138</x:v>
-      </x:c>
-      <x:c r="D41" s="1" t="s">
-        <x:v>41</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
         <x:v>139</x:v>
@@ -1940,7 +1937,7 @@
     </x:row>
     <x:row r="42" spans="1:8">
       <x:c r="A42" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>15</x:v>
@@ -1981,7 +1978,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="F43" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
         <x:v>17</x:v>
@@ -1998,19 +1995,19 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="D44" s="1" t="s">
         <x:v>151</x:v>
       </x:c>
-      <x:c r="D44" s="1" t="s">
+      <x:c r="E44" s="1" t="s">
         <x:v>152</x:v>
       </x:c>
-      <x:c r="E44" s="1" t="s">
+      <x:c r="F44" s="1" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="F44" s="1" t="s">
+      <x:c r="G44" s="1" t="s">
         <x:v>154</x:v>
-      </x:c>
-      <x:c r="G44" s="1" t="s">
-        <x:v>155</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
         <x:v>10</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -70,27 +70,27 @@
     <x:t>13</x:t>
   </x:si>
   <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Arson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Arson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
     <x:t>19</x:t>
   </x:si>
   <x:si>
@@ -103,7 +103,7 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>841</x:t>
+    <x:t>842</x:t>
   </x:si>
   <x:si>
     <x:t>725</x:t>
@@ -112,22 +112,22 @@
     <x:t>1237</x:t>
   </x:si>
   <x:si>
-    <x:t>1220</x:t>
-  </x:si>
-  <x:si>
-    <x:t>418</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1320</x:t>
+    <x:t>1221</x:t>
+  </x:si>
+  <x:si>
+    <x:t>419</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1322</x:t>
   </x:si>
   <x:si>
     <x:t>2027</x:t>
   </x:si>
   <x:si>
-    <x:t>3743</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4021</x:t>
+    <x:t>3742</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4025</x:t>
   </x:si>
   <x:si>
     <x:t>1659</x:t>
@@ -151,94 +151,97 @@
     <x:t>31</x:t>
   </x:si>
   <x:si>
-    <x:t>134</x:t>
+    <x:t>135</x:t>
+  </x:si>
+  <x:si>
+    <x:t>232</x:t>
+  </x:si>
+  <x:si>
+    <x:t>505</x:t>
+  </x:si>
+  <x:si>
+    <x:t>422</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Counterfeiting/Forgery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Destruction/Damage/Vandalism of Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>138</x:t>
+  </x:si>
+  <x:si>
+    <x:t>338</x:t>
+  </x:si>
+  <x:si>
+    <x:t>303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>423</x:t>
+  </x:si>
+  <x:si>
+    <x:t>406</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drug/Narcotic Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>744</x:t>
+  </x:si>
+  <x:si>
+    <x:t>869</x:t>
   </x:si>
   <x:si>
     <x:t>231</x:t>
   </x:si>
   <x:si>
-    <x:t>504</x:t>
-  </x:si>
-  <x:si>
-    <x:t>422</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Counterfeiting/Forgery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>94</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Destruction/Damage/Vandalism of Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>106</x:t>
-  </x:si>
-  <x:si>
-    <x:t>111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>138</x:t>
-  </x:si>
-  <x:si>
-    <x:t>337</x:t>
-  </x:si>
-  <x:si>
-    <x:t>302</x:t>
-  </x:si>
-  <x:si>
-    <x:t>423</x:t>
-  </x:si>
-  <x:si>
-    <x:t>406</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drug/Narcotic Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>340</x:t>
-  </x:si>
-  <x:si>
-    <x:t>744</x:t>
-  </x:si>
-  <x:si>
-    <x:t>867</x:t>
-  </x:si>
-  <x:si>
     <x:t>132</x:t>
   </x:si>
   <x:si>
-    <x:t>829</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1781</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2116</x:t>
+    <x:t>832</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1785</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2120</x:t>
   </x:si>
   <x:si>
     <x:t>819</x:t>
@@ -271,7 +274,7 @@
     <x:t>320</x:t>
   </x:si>
   <x:si>
-    <x:t>248</x:t>
+    <x:t>249</x:t>
   </x:si>
   <x:si>
     <x:t>77</x:t>
@@ -280,16 +283,16 @@
     <x:t>62</x:t>
   </x:si>
   <x:si>
-    <x:t>283</x:t>
+    <x:t>284</x:t>
   </x:si>
   <x:si>
     <x:t>516</x:t>
   </x:si>
   <x:si>
-    <x:t>478</x:t>
-  </x:si>
-  <x:si>
-    <x:t>172</x:t>
+    <x:t>479</x:t>
+  </x:si>
+  <x:si>
+    <x:t>174</x:t>
   </x:si>
   <x:si>
     <x:t>Gambling Offenses</x:t>
@@ -328,28 +331,28 @@
     <x:t>1387</x:t>
   </x:si>
   <x:si>
-    <x:t>2172</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2338</x:t>
-  </x:si>
-  <x:si>
-    <x:t>943</x:t>
+    <x:t>2174</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2339</x:t>
+  </x:si>
+  <x:si>
+    <x:t>944</x:t>
   </x:si>
   <x:si>
     <x:t>862</x:t>
   </x:si>
   <x:si>
-    <x:t>1721</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2849</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2752</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1224</x:t>
+    <x:t>1723</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2850</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2756</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1226</x:t>
   </x:si>
   <x:si>
     <x:t>Motor Vehicle Theft</x:t>
@@ -400,7 +403,10 @@
     <x:t>167</x:t>
   </x:si>
   <x:si>
-    <x:t>164</x:t>
+    <x:t>165</x:t>
+  </x:si>
+  <x:si>
+    <x:t>133</x:t>
   </x:si>
   <x:si>
     <x:t>29</x:t>
@@ -412,7 +418,7 @@
     <x:t>136</x:t>
   </x:si>
   <x:si>
-    <x:t>191</x:t>
+    <x:t>192</x:t>
   </x:si>
   <x:si>
     <x:t>222</x:t>
@@ -433,9 +439,6 @@
     <x:t>65</x:t>
   </x:si>
   <x:si>
-    <x:t>107</x:t>
-  </x:si>
-  <x:si>
     <x:t>103</x:t>
   </x:si>
   <x:si>
@@ -466,10 +469,13 @@
     <x:t>63</x:t>
   </x:si>
   <x:si>
+    <x:t>67</x:t>
+  </x:si>
+  <x:si>
     <x:t>256</x:t>
   </x:si>
   <x:si>
-    <x:t>583</x:t>
+    <x:t>584</x:t>
   </x:si>
   <x:si>
     <x:t>592</x:t>
@@ -981,10 +987,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
         <x:v>25</x:v>
@@ -1253,7 +1259,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="G15" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H15" s="1" t="s">
         <x:v>10</x:v>
@@ -1267,19 +1273,19 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F16" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G16" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
         <x:v>10</x:v>
@@ -1287,7 +1293,7 @@
     </x:row>
     <x:row r="17" spans="1:8">
       <x:c r="A17" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>9</x:v>
@@ -1296,13 +1302,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F17" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G17" s="1" t="s">
         <x:v>11</x:v>
@@ -1313,7 +1319,7 @@
     </x:row>
     <x:row r="18" spans="1:8">
       <x:c r="A18" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>15</x:v>
@@ -1322,16 +1328,16 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E18" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G18" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
         <x:v>10</x:v>
@@ -1339,7 +1345,7 @@
     </x:row>
     <x:row r="19" spans="1:8">
       <x:c r="A19" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>15</x:v>
@@ -1365,25 +1371,25 @@
     </x:row>
     <x:row r="20" spans="1:8">
       <x:c r="A20" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
         <x:v>10</x:v>
@@ -1391,25 +1397,25 @@
     </x:row>
     <x:row r="21" spans="1:8">
       <x:c r="A21" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G21" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
         <x:v>10</x:v>
@@ -1417,7 +1423,7 @@
     </x:row>
     <x:row r="22" spans="1:8">
       <x:c r="A22" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>9</x:v>
@@ -1443,7 +1449,7 @@
     </x:row>
     <x:row r="23" spans="1:8">
       <x:c r="A23" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>15</x:v>
@@ -1458,7 +1464,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F23" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G23" s="1" t="s">
         <x:v>22</x:v>
@@ -1469,7 +1475,7 @@
     </x:row>
     <x:row r="24" spans="1:8">
       <x:c r="A24" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>9</x:v>
@@ -1478,16 +1484,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D24" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E24" s="1" t="s">
         <x:v>18</x:v>
-      </x:c>
-      <x:c r="E24" s="1" t="s">
-        <x:v>24</x:v>
       </x:c>
       <x:c r="F24" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="G24" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H24" s="1" t="s">
         <x:v>10</x:v>
@@ -1495,7 +1501,7 @@
     </x:row>
     <x:row r="25" spans="1:8">
       <x:c r="A25" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>15</x:v>
@@ -1504,10 +1510,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D25" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E25" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F25" s="1" t="s">
         <x:v>44</x:v>
@@ -1521,7 +1527,7 @@
     </x:row>
     <x:row r="26" spans="1:8">
       <x:c r="A26" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>9</x:v>
@@ -1533,7 +1539,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E26" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F26" s="1" t="s">
         <x:v>22</x:v>
@@ -1547,7 +1553,7 @@
     </x:row>
     <x:row r="27" spans="1:8">
       <x:c r="A27" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>15</x:v>
@@ -1556,16 +1562,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D27" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E27" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F27" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G27" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H27" s="1" t="s">
         <x:v>10</x:v>
@@ -1573,7 +1579,7 @@
     </x:row>
     <x:row r="28" spans="1:8">
       <x:c r="A28" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>9</x:v>
@@ -1585,13 +1591,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E28" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F28" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="G28" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H28" s="1" t="s">
         <x:v>10</x:v>
@@ -1599,7 +1605,7 @@
     </x:row>
     <x:row r="29" spans="1:8">
       <x:c r="A29" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>15</x:v>
@@ -1608,16 +1614,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D29" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E29" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F29" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G29" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H29" s="1" t="s">
         <x:v>10</x:v>
@@ -1625,25 +1631,25 @@
     </x:row>
     <x:row r="30" spans="1:8">
       <x:c r="A30" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D30" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E30" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F30" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G30" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
         <x:v>10</x:v>
@@ -1651,25 +1657,25 @@
     </x:row>
     <x:row r="31" spans="1:8">
       <x:c r="A31" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E31" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F31" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="G31" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H31" s="1" t="s">
         <x:v>10</x:v>
@@ -1677,7 +1683,7 @@
     </x:row>
     <x:row r="32" spans="1:8">
       <x:c r="A32" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>9</x:v>
@@ -1686,16 +1692,16 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E32" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F32" s="1" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="G32" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
         <x:v>10</x:v>
@@ -1703,25 +1709,25 @@
     </x:row>
     <x:row r="33" spans="1:8">
       <x:c r="A33" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C33" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D33" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E33" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="F33" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="G33" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="H33" s="1" t="s">
         <x:v>10</x:v>
@@ -1729,7 +1735,7 @@
     </x:row>
     <x:row r="34" spans="1:8">
       <x:c r="A34" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>9</x:v>
@@ -1755,19 +1761,19 @@
     </x:row>
     <x:row r="35" spans="1:8">
       <x:c r="A35" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C35" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D35" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E35" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F35" s="1" t="s">
         <x:v>67</x:v>
@@ -1781,7 +1787,7 @@
     </x:row>
     <x:row r="36" spans="1:8">
       <x:c r="A36" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>15</x:v>
@@ -1799,7 +1805,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G36" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H36" s="1" t="s">
         <x:v>10</x:v>
@@ -1807,25 +1813,25 @@
     </x:row>
     <x:row r="37" spans="1:8">
       <x:c r="A37" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C37" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E37" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F37" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="G37" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H37" s="1" t="s">
         <x:v>10</x:v>
@@ -1833,25 +1839,25 @@
     </x:row>
     <x:row r="38" spans="1:8">
       <x:c r="A38" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D38" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F38" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G38" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="H38" s="1" t="s">
         <x:v>10</x:v>
@@ -1859,7 +1865,7 @@
     </x:row>
     <x:row r="39" spans="1:8">
       <x:c r="A39" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>9</x:v>
@@ -1871,10 +1877,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F39" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G39" s="1" t="s">
         <x:v>22</x:v>
@@ -1885,25 +1891,25 @@
     </x:row>
     <x:row r="40" spans="1:8">
       <x:c r="A40" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C40" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F40" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="G40" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="H40" s="1" t="s">
         <x:v>10</x:v>
@@ -1911,25 +1917,25 @@
     </x:row>
     <x:row r="41" spans="1:8">
       <x:c r="A41" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F41" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="G41" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H41" s="1" t="s">
         <x:v>10</x:v>
@@ -1937,25 +1943,25 @@
     </x:row>
     <x:row r="42" spans="1:8">
       <x:c r="A42" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="F42" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G42" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="H42" s="1" t="s">
         <x:v>10</x:v>
@@ -1963,22 +1969,22 @@
     </x:row>
     <x:row r="43" spans="1:8">
       <x:c r="A43" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D43" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E43" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="F43" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
         <x:v>17</x:v>
@@ -1989,25 +1995,25 @@
     </x:row>
     <x:row r="44" spans="1:8">
       <x:c r="A44" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F44" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="G44" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
         <x:v>10</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -52,264 +52,273 @@
     <x:t>7</x:t>
   </x:si>
   <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Male</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Arson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assault Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>844</x:t>
+  </x:si>
+  <x:si>
+    <x:t>725</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1237</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1223</x:t>
+  </x:si>
+  <x:si>
+    <x:t>420</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1323</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2032</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3745</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4026</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1661</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bribery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Burglary/Breaking &amp; Entering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>149</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>135</x:t>
+  </x:si>
+  <x:si>
+    <x:t>232</x:t>
+  </x:si>
+  <x:si>
+    <x:t>505</x:t>
+  </x:si>
+  <x:si>
+    <x:t>423</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Counterfeiting/Forgery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Destruction/Damage/Vandalism of Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>138</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>339</x:t>
+  </x:si>
+  <x:si>
+    <x:t>303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>424</x:t>
+  </x:si>
+  <x:si>
+    <x:t>409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drug/Narcotic Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>342</x:t>
+  </x:si>
+  <x:si>
+    <x:t>745</x:t>
+  </x:si>
+  <x:si>
+    <x:t>871</x:t>
+  </x:si>
+  <x:si>
+    <x:t>231</x:t>
+  </x:si>
+  <x:si>
+    <x:t>132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>833</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1789</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2124</x:t>
+  </x:si>
+  <x:si>
+    <x:t>821</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Embezzlement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
     <x:t>9</x:t>
   </x:si>
   <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Male</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Arson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Assault Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>842</x:t>
-  </x:si>
-  <x:si>
-    <x:t>725</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1237</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1221</x:t>
-  </x:si>
-  <x:si>
-    <x:t>419</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1322</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2027</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3742</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1659</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bribery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Burglary/Breaking &amp; Entering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>66</x:t>
-  </x:si>
-  <x:si>
-    <x:t>120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>149</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>135</x:t>
-  </x:si>
-  <x:si>
-    <x:t>232</x:t>
-  </x:si>
-  <x:si>
-    <x:t>505</x:t>
-  </x:si>
-  <x:si>
-    <x:t>422</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Counterfeiting/Forgery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Destruction/Damage/Vandalism of Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>107</x:t>
-  </x:si>
-  <x:si>
-    <x:t>111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>138</x:t>
-  </x:si>
-  <x:si>
-    <x:t>338</x:t>
-  </x:si>
-  <x:si>
-    <x:t>303</x:t>
-  </x:si>
-  <x:si>
-    <x:t>423</x:t>
-  </x:si>
-  <x:si>
-    <x:t>406</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drug/Narcotic Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>340</x:t>
-  </x:si>
-  <x:si>
-    <x:t>744</x:t>
-  </x:si>
-  <x:si>
-    <x:t>869</x:t>
-  </x:si>
-  <x:si>
-    <x:t>231</x:t>
-  </x:si>
-  <x:si>
-    <x:t>132</x:t>
-  </x:si>
-  <x:si>
-    <x:t>832</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1785</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>819</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Embezzlement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Extortion/Blackmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fraud Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>182</x:t>
+  </x:si>
+  <x:si>
+    <x:t>322</x:t>
+  </x:si>
+  <x:si>
+    <x:t>250</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>286</x:t>
+  </x:si>
+  <x:si>
+    <x:t>517</x:t>
+  </x:si>
+  <x:si>
+    <x:t>482</x:t>
+  </x:si>
+  <x:si>
+    <x:t>175</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gambling Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Homicide Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Human Trafficking</x:t>
   </x:si>
   <x:si>
     <x:t>12</x:t>
   </x:si>
   <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Extortion/Blackmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fraud Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>180</x:t>
-  </x:si>
-  <x:si>
-    <x:t>320</x:t>
-  </x:si>
-  <x:si>
-    <x:t>249</x:t>
-  </x:si>
-  <x:si>
-    <x:t>77</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62</x:t>
-  </x:si>
-  <x:si>
-    <x:t>284</x:t>
-  </x:si>
-  <x:si>
-    <x:t>516</x:t>
-  </x:si>
-  <x:si>
-    <x:t>479</x:t>
-  </x:si>
-  <x:si>
-    <x:t>174</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gambling Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Homicide Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Human Trafficking</x:t>
-  </x:si>
-  <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
@@ -325,34 +334,31 @@
     <x:t>Larceny/Theft Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>722</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1387</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2174</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2339</x:t>
-  </x:si>
-  <x:si>
-    <x:t>944</x:t>
-  </x:si>
-  <x:si>
-    <x:t>862</x:t>
+    <x:t>1391</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2341</x:t>
+  </x:si>
+  <x:si>
+    <x:t>947</x:t>
+  </x:si>
+  <x:si>
+    <x:t>863</x:t>
   </x:si>
   <x:si>
     <x:t>1723</x:t>
   </x:si>
   <x:si>
-    <x:t>2850</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2756</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1226</x:t>
+    <x:t>2848</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2760</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1228</x:t>
   </x:si>
   <x:si>
     <x:t>Motor Vehicle Theft</x:t>
@@ -361,16 +367,13 @@
     <x:t>30</x:t>
   </x:si>
   <x:si>
-    <x:t>55</x:t>
-  </x:si>
-  <x:si>
     <x:t>153</x:t>
   </x:si>
   <x:si>
     <x:t>97</x:t>
   </x:si>
   <x:si>
-    <x:t>141</x:t>
+    <x:t>142</x:t>
   </x:si>
   <x:si>
     <x:t>161</x:t>
@@ -415,19 +418,19 @@
     <x:t>Sex Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>136</x:t>
+    <x:t>137</x:t>
   </x:si>
   <x:si>
     <x:t>192</x:t>
   </x:si>
   <x:si>
-    <x:t>222</x:t>
+    <x:t>223</x:t>
   </x:si>
   <x:si>
     <x:t>245</x:t>
   </x:si>
   <x:si>
-    <x:t>157</x:t>
+    <x:t>158</x:t>
   </x:si>
   <x:si>
     <x:t>Stolen Property Offenses</x:t>
@@ -463,16 +466,13 @@
     <x:t>25</x:t>
   </x:si>
   <x:si>
-    <x:t>61</x:t>
-  </x:si>
-  <x:si>
     <x:t>63</x:t>
   </x:si>
   <x:si>
     <x:t>67</x:t>
   </x:si>
   <x:si>
-    <x:t>256</x:t>
+    <x:t>257</x:t>
   </x:si>
   <x:si>
     <x:t>584</x:t>
@@ -987,19 +987,19 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F5" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="F5" s="1" t="s">
+      <x:c r="G5" s="1" t="s">
         <x:v>26</x:v>
-      </x:c>
-      <x:c r="G5" s="1" t="s">
-        <x:v>27</x:v>
       </x:c>
       <x:c r="H5" s="1" t="s">
         <x:v>10</x:v>
@@ -1007,25 +1007,25 @@
     </x:row>
     <x:row r="6" spans="1:8">
       <x:c r="A6" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D6" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="D6" s="1" t="s">
+      <x:c r="E6" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="E6" s="1" t="s">
+      <x:c r="F6" s="1" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="F6" s="1" t="s">
+      <x:c r="G6" s="1" t="s">
         <x:v>32</x:v>
-      </x:c>
-      <x:c r="G6" s="1" t="s">
-        <x:v>33</x:v>
       </x:c>
       <x:c r="H6" s="1" t="s">
         <x:v>10</x:v>
@@ -1033,25 +1033,25 @@
     </x:row>
     <x:row r="7" spans="1:8">
       <x:c r="A7" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D7" s="1" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="D7" s="1" t="s">
+      <x:c r="E7" s="1" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="E7" s="1" t="s">
+      <x:c r="F7" s="1" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="F7" s="1" t="s">
+      <x:c r="G7" s="1" t="s">
         <x:v>37</x:v>
-      </x:c>
-      <x:c r="G7" s="1" t="s">
-        <x:v>38</x:v>
       </x:c>
       <x:c r="H7" s="1" t="s">
         <x:v>10</x:v>
@@ -1059,7 +1059,7 @@
     </x:row>
     <x:row r="8" spans="1:8">
       <x:c r="A8" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>9</x:v>
@@ -1085,7 +1085,7 @@
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="A9" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>9</x:v>
@@ -1094,16 +1094,16 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E9" s="1" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="E9" s="1" t="s">
+      <x:c r="F9" s="1" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="F9" s="1" t="s">
+      <x:c r="G9" s="1" t="s">
         <x:v>43</x:v>
-      </x:c>
-      <x:c r="G9" s="1" t="s">
-        <x:v>44</x:v>
       </x:c>
       <x:c r="H9" s="1" t="s">
         <x:v>10</x:v>
@@ -1111,25 +1111,25 @@
     </x:row>
     <x:row r="10" spans="1:8">
       <x:c r="A10" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D10" s="1" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D10" s="1" t="s">
+      <x:c r="E10" s="1" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="E10" s="1" t="s">
+      <x:c r="F10" s="1" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="F10" s="1" t="s">
+      <x:c r="G10" s="1" t="s">
         <x:v>48</x:v>
-      </x:c>
-      <x:c r="G10" s="1" t="s">
-        <x:v>43</x:v>
       </x:c>
       <x:c r="H10" s="1" t="s">
         <x:v>10</x:v>
@@ -1178,7 +1178,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G12" s="1" t="s">
         <x:v>56</x:v>
@@ -1207,7 +1207,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="G13" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
         <x:v>10</x:v>
@@ -1221,19 +1221,19 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G14" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
         <x:v>10</x:v>
@@ -1241,25 +1241,25 @@
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D15" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E15" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F15" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G15" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H15" s="1" t="s">
         <x:v>10</x:v>
@@ -1267,25 +1267,25 @@
     </x:row>
     <x:row r="16" spans="1:8">
       <x:c r="A16" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F16" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G16" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
         <x:v>10</x:v>
@@ -1293,7 +1293,7 @@
     </x:row>
     <x:row r="17" spans="1:8">
       <x:c r="A17" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>9</x:v>
@@ -1302,13 +1302,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F17" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G17" s="1" t="s">
         <x:v>11</x:v>
@@ -1319,7 +1319,7 @@
     </x:row>
     <x:row r="18" spans="1:8">
       <x:c r="A18" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>15</x:v>
@@ -1328,16 +1328,16 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E18" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G18" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
         <x:v>10</x:v>
@@ -1345,7 +1345,7 @@
     </x:row>
     <x:row r="19" spans="1:8">
       <x:c r="A19" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>15</x:v>
@@ -1371,25 +1371,25 @@
     </x:row>
     <x:row r="20" spans="1:8">
       <x:c r="A20" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
         <x:v>10</x:v>
@@ -1397,25 +1397,25 @@
     </x:row>
     <x:row r="21" spans="1:8">
       <x:c r="A21" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G21" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
         <x:v>10</x:v>
@@ -1423,7 +1423,7 @@
     </x:row>
     <x:row r="22" spans="1:8">
       <x:c r="A22" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>9</x:v>
@@ -1449,7 +1449,7 @@
     </x:row>
     <x:row r="23" spans="1:8">
       <x:c r="A23" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>15</x:v>
@@ -1464,7 +1464,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F23" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G23" s="1" t="s">
         <x:v>22</x:v>
@@ -1475,7 +1475,7 @@
     </x:row>
     <x:row r="24" spans="1:8">
       <x:c r="A24" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>9</x:v>
@@ -1484,7 +1484,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D24" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E24" s="1" t="s">
         <x:v>18</x:v>
@@ -1493,7 +1493,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G24" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H24" s="1" t="s">
         <x:v>10</x:v>
@@ -1501,7 +1501,7 @@
     </x:row>
     <x:row r="25" spans="1:8">
       <x:c r="A25" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>15</x:v>
@@ -1510,16 +1510,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D25" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E25" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F25" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G25" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H25" s="1" t="s">
         <x:v>10</x:v>
@@ -1527,7 +1527,7 @@
     </x:row>
     <x:row r="26" spans="1:8">
       <x:c r="A26" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>9</x:v>
@@ -1539,7 +1539,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E26" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F26" s="1" t="s">
         <x:v>22</x:v>
@@ -1553,7 +1553,7 @@
     </x:row>
     <x:row r="27" spans="1:8">
       <x:c r="A27" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>15</x:v>
@@ -1562,16 +1562,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D27" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F27" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="G27" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H27" s="1" t="s">
         <x:v>10</x:v>
@@ -1579,7 +1579,7 @@
     </x:row>
     <x:row r="28" spans="1:8">
       <x:c r="A28" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>9</x:v>
@@ -1591,13 +1591,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E28" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F28" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="G28" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H28" s="1" t="s">
         <x:v>10</x:v>
@@ -1605,7 +1605,7 @@
     </x:row>
     <x:row r="29" spans="1:8">
       <x:c r="A29" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>15</x:v>
@@ -1614,16 +1614,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D29" s="1" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E29" s="1" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="F29" s="1" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="G29" s="1" t="s">
         <x:v>100</x:v>
-      </x:c>
-      <x:c r="E29" s="1" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="F29" s="1" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="G29" s="1" t="s">
-        <x:v>79</x:v>
       </x:c>
       <x:c r="H29" s="1" t="s">
         <x:v>10</x:v>
@@ -1631,25 +1631,25 @@
     </x:row>
     <x:row r="30" spans="1:8">
       <x:c r="A30" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D30" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E30" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F30" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G30" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
         <x:v>10</x:v>
@@ -1657,25 +1657,25 @@
     </x:row>
     <x:row r="31" spans="1:8">
       <x:c r="A31" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E31" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F31" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="G31" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H31" s="1" t="s">
         <x:v>10</x:v>
@@ -1683,25 +1683,25 @@
     </x:row>
     <x:row r="32" spans="1:8">
       <x:c r="A32" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E32" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F32" s="1" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="G32" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
         <x:v>10</x:v>
@@ -1709,25 +1709,25 @@
     </x:row>
     <x:row r="33" spans="1:8">
       <x:c r="A33" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C33" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D33" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E33" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F33" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G33" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H33" s="1" t="s">
         <x:v>10</x:v>
@@ -1735,7 +1735,7 @@
     </x:row>
     <x:row r="34" spans="1:8">
       <x:c r="A34" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>9</x:v>
@@ -1761,25 +1761,25 @@
     </x:row>
     <x:row r="35" spans="1:8">
       <x:c r="A35" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C35" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D35" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E35" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F35" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G35" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H35" s="1" t="s">
         <x:v>10</x:v>
@@ -1787,7 +1787,7 @@
     </x:row>
     <x:row r="36" spans="1:8">
       <x:c r="A36" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>15</x:v>
@@ -1805,7 +1805,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G36" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H36" s="1" t="s">
         <x:v>10</x:v>
@@ -1813,25 +1813,25 @@
     </x:row>
     <x:row r="37" spans="1:8">
       <x:c r="A37" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C37" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E37" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F37" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="G37" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H37" s="1" t="s">
         <x:v>10</x:v>
@@ -1839,25 +1839,25 @@
     </x:row>
     <x:row r="38" spans="1:8">
       <x:c r="A38" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D38" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F38" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G38" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="H38" s="1" t="s">
         <x:v>10</x:v>
@@ -1865,7 +1865,7 @@
     </x:row>
     <x:row r="39" spans="1:8">
       <x:c r="A39" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>9</x:v>
@@ -1877,10 +1877,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F39" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G39" s="1" t="s">
         <x:v>22</x:v>
@@ -1891,25 +1891,25 @@
     </x:row>
     <x:row r="40" spans="1:8">
       <x:c r="A40" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C40" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="F40" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="G40" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="H40" s="1" t="s">
         <x:v>10</x:v>
@@ -1917,25 +1917,25 @@
     </x:row>
     <x:row r="41" spans="1:8">
       <x:c r="A41" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="F41" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="G41" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H41" s="1" t="s">
         <x:v>10</x:v>
@@ -1943,25 +1943,25 @@
     </x:row>
     <x:row r="42" spans="1:8">
       <x:c r="A42" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="F42" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G42" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="H42" s="1" t="s">
         <x:v>10</x:v>
@@ -1969,16 +1969,16 @@
     </x:row>
     <x:row r="43" spans="1:8">
       <x:c r="A43" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D43" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E43" s="1" t="s">
         <x:v>150</x:v>
@@ -1995,7 +1995,7 @@
     </x:row>
     <x:row r="44" spans="1:8">
       <x:c r="A44" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>15</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -100,7 +100,7 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>844</x:t>
+    <x:t>845</x:t>
   </x:si>
   <x:si>
     <x:t>725</x:t>
@@ -115,19 +115,19 @@
     <x:t>420</x:t>
   </x:si>
   <x:si>
-    <x:t>1323</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2032</x:t>
+    <x:t>1324</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2031</x:t>
   </x:si>
   <x:si>
     <x:t>3745</x:t>
   </x:si>
   <x:si>
-    <x:t>4026</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1661</x:t>
+    <x:t>4030</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1660</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>
@@ -211,13 +211,13 @@
     <x:t>303</x:t>
   </x:si>
   <x:si>
-    <x:t>424</x:t>
+    <x:t>425</x:t>
   </x:si>
   <x:si>
     <x:t>409</x:t>
   </x:si>
   <x:si>
-    <x:t>111</x:t>
+    <x:t>110</x:t>
   </x:si>
   <x:si>
     <x:t>Drug/Narcotic Violations</x:t>
@@ -229,10 +229,10 @@
     <x:t>342</x:t>
   </x:si>
   <x:si>
-    <x:t>745</x:t>
-  </x:si>
-  <x:si>
-    <x:t>871</x:t>
+    <x:t>746</x:t>
+  </x:si>
+  <x:si>
+    <x:t>872</x:t>
   </x:si>
   <x:si>
     <x:t>231</x:t>
@@ -241,16 +241,16 @@
     <x:t>132</x:t>
   </x:si>
   <x:si>
-    <x:t>833</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1789</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2124</x:t>
-  </x:si>
-  <x:si>
-    <x:t>821</x:t>
+    <x:t>835</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1792</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2126</x:t>
+  </x:si>
+  <x:si>
+    <x:t>822</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -274,10 +274,10 @@
     <x:t>26</x:t>
   </x:si>
   <x:si>
-    <x:t>182</x:t>
-  </x:si>
-  <x:si>
-    <x:t>322</x:t>
+    <x:t>181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>323</x:t>
   </x:si>
   <x:si>
     <x:t>250</x:t>
@@ -334,13 +334,16 @@
     <x:t>Larceny/Theft Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>1391</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2178</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2341</x:t>
+    <x:t>726</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1393</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2342</x:t>
   </x:si>
   <x:si>
     <x:t>947</x:t>
@@ -349,16 +352,16 @@
     <x:t>863</x:t>
   </x:si>
   <x:si>
-    <x:t>1723</x:t>
+    <x:t>1733</x:t>
   </x:si>
   <x:si>
     <x:t>2848</x:t>
   </x:si>
   <x:si>
-    <x:t>2760</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1228</x:t>
+    <x:t>2762</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230</x:t>
   </x:si>
   <x:si>
     <x:t>Motor Vehicle Theft</x:t>
@@ -418,13 +421,10 @@
     <x:t>Sex Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>137</x:t>
-  </x:si>
-  <x:si>
     <x:t>192</x:t>
   </x:si>
   <x:si>
-    <x:t>223</x:t>
+    <x:t>225</x:t>
   </x:si>
   <x:si>
     <x:t>245</x:t>
@@ -481,7 +481,7 @@
     <x:t>592</x:t>
   </x:si>
   <x:si>
-    <x:t>526</x:t>
+    <x:t>527</x:t>
   </x:si>
   <x:si>
     <x:t>253</x:t>
@@ -1542,7 +1542,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="F26" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G26" s="1" t="s">
         <x:v>10</x:v>
@@ -1637,19 +1637,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D30" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E30" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F30" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="G30" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
         <x:v>10</x:v>
@@ -1663,19 +1663,19 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E31" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F31" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G31" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H31" s="1" t="s">
         <x:v>10</x:v>
@@ -1683,7 +1683,7 @@
     </x:row>
     <x:row r="32" spans="1:8">
       <x:c r="A32" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>9</x:v>
@@ -1692,7 +1692,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E32" s="1" t="s">
         <x:v>58</x:v>
@@ -1709,25 +1709,25 @@
     </x:row>
     <x:row r="33" spans="1:8">
       <x:c r="A33" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C33" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D33" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E33" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F33" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G33" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="H33" s="1" t="s">
         <x:v>10</x:v>
@@ -1735,7 +1735,7 @@
     </x:row>
     <x:row r="34" spans="1:8">
       <x:c r="A34" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>9</x:v>
@@ -1761,19 +1761,19 @@
     </x:row>
     <x:row r="35" spans="1:8">
       <x:c r="A35" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C35" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D35" s="1" t="s">
         <x:v>97</x:v>
       </x:c>
       <x:c r="E35" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F35" s="1" t="s">
         <x:v>69</x:v>
@@ -1787,7 +1787,7 @@
     </x:row>
     <x:row r="36" spans="1:8">
       <x:c r="A36" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>15</x:v>
@@ -1813,22 +1813,22 @@
     </x:row>
     <x:row r="37" spans="1:8">
       <x:c r="A37" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C37" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E37" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F37" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G37" s="1" t="s">
         <x:v>82</x:v>
@@ -1839,25 +1839,25 @@
     </x:row>
     <x:row r="38" spans="1:8">
       <x:c r="A38" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D38" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F38" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="G38" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="H38" s="1" t="s">
         <x:v>10</x:v>
@@ -1865,7 +1865,7 @@
     </x:row>
     <x:row r="39" spans="1:8">
       <x:c r="A39" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>9</x:v>
@@ -1891,13 +1891,13 @@
     </x:row>
     <x:row r="40" spans="1:8">
       <x:c r="A40" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C40" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
         <x:v>135</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -103,28 +103,28 @@
     <x:t>845</x:t>
   </x:si>
   <x:si>
-    <x:t>725</x:t>
+    <x:t>726</x:t>
   </x:si>
   <x:si>
     <x:t>1237</x:t>
   </x:si>
   <x:si>
-    <x:t>1223</x:t>
-  </x:si>
-  <x:si>
-    <x:t>420</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1324</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2031</x:t>
+    <x:t>1224</x:t>
+  </x:si>
+  <x:si>
+    <x:t>422</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1326</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2032</x:t>
   </x:si>
   <x:si>
     <x:t>3745</x:t>
   </x:si>
   <x:si>
-    <x:t>4030</x:t>
+    <x:t>4031</x:t>
   </x:si>
   <x:si>
     <x:t>1660</x:t>
@@ -160,7 +160,7 @@
     <x:t>423</x:t>
   </x:si>
   <x:si>
-    <x:t>150</x:t>
+    <x:t>152</x:t>
   </x:si>
   <x:si>
     <x:t>Counterfeiting/Forgery</x:t>
@@ -208,7 +208,7 @@
     <x:t>339</x:t>
   </x:si>
   <x:si>
-    <x:t>303</x:t>
+    <x:t>305</x:t>
   </x:si>
   <x:si>
     <x:t>425</x:t>
@@ -217,7 +217,7 @@
     <x:t>409</x:t>
   </x:si>
   <x:si>
-    <x:t>110</x:t>
+    <x:t>111</x:t>
   </x:si>
   <x:si>
     <x:t>Drug/Narcotic Violations</x:t>
@@ -226,13 +226,13 @@
     <x:t>47</x:t>
   </x:si>
   <x:si>
-    <x:t>342</x:t>
+    <x:t>344</x:t>
   </x:si>
   <x:si>
     <x:t>746</x:t>
   </x:si>
   <x:si>
-    <x:t>872</x:t>
+    <x:t>873</x:t>
   </x:si>
   <x:si>
     <x:t>231</x:t>
@@ -241,16 +241,16 @@
     <x:t>132</x:t>
   </x:si>
   <x:si>
-    <x:t>835</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1792</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2126</x:t>
-  </x:si>
-  <x:si>
-    <x:t>822</x:t>
+    <x:t>834</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1793</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2127</x:t>
+  </x:si>
+  <x:si>
+    <x:t>826</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -289,7 +289,7 @@
     <x:t>62</x:t>
   </x:si>
   <x:si>
-    <x:t>286</x:t>
+    <x:t>287</x:t>
   </x:si>
   <x:si>
     <x:t>517</x:t>
@@ -334,16 +334,13 @@
     <x:t>Larceny/Theft Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>726</x:t>
-  </x:si>
-  <x:si>
     <x:t>1393</x:t>
   </x:si>
   <x:si>
     <x:t>2180</x:t>
   </x:si>
   <x:si>
-    <x:t>2342</x:t>
+    <x:t>2345</x:t>
   </x:si>
   <x:si>
     <x:t>947</x:t>
@@ -352,7 +349,7 @@
     <x:t>863</x:t>
   </x:si>
   <x:si>
-    <x:t>1733</x:t>
+    <x:t>1734</x:t>
   </x:si>
   <x:si>
     <x:t>2848</x:t>
@@ -421,7 +418,7 @@
     <x:t>Sex Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>192</x:t>
+    <x:t>193</x:t>
   </x:si>
   <x:si>
     <x:t>225</x:t>
@@ -448,7 +445,7 @@
     <x:t>146</x:t>
   </x:si>
   <x:si>
-    <x:t>186</x:t>
+    <x:t>187</x:t>
   </x:si>
   <x:si>
     <x:t>371</x:t>
@@ -1178,7 +1175,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G12" s="1" t="s">
         <x:v>56</x:v>
@@ -1637,19 +1634,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D30" s="1" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="D30" s="1" t="s">
+      <x:c r="E30" s="1" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="E30" s="1" t="s">
+      <x:c r="F30" s="1" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="F30" s="1" t="s">
+      <x:c r="G30" s="1" t="s">
         <x:v>109</x:v>
-      </x:c>
-      <x:c r="G30" s="1" t="s">
-        <x:v>110</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
         <x:v>10</x:v>
@@ -1663,19 +1660,19 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D31" s="1" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="D31" s="1" t="s">
+      <x:c r="E31" s="1" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="E31" s="1" t="s">
+      <x:c r="F31" s="1" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="F31" s="1" t="s">
+      <x:c r="G31" s="1" t="s">
         <x:v>114</x:v>
-      </x:c>
-      <x:c r="G31" s="1" t="s">
-        <x:v>115</x:v>
       </x:c>
       <x:c r="H31" s="1" t="s">
         <x:v>10</x:v>
@@ -1683,7 +1680,7 @@
     </x:row>
     <x:row r="32" spans="1:8">
       <x:c r="A32" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>9</x:v>
@@ -1692,7 +1689,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E32" s="1" t="s">
         <x:v>58</x:v>
@@ -1709,25 +1706,25 @@
     </x:row>
     <x:row r="33" spans="1:8">
       <x:c r="A33" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C33" s="1" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D33" s="1" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="D33" s="1" t="s">
+      <x:c r="E33" s="1" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="E33" s="1" t="s">
+      <x:c r="F33" s="1" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="F33" s="1" t="s">
+      <x:c r="G33" s="1" t="s">
         <x:v>121</x:v>
-      </x:c>
-      <x:c r="G33" s="1" t="s">
-        <x:v>122</x:v>
       </x:c>
       <x:c r="H33" s="1" t="s">
         <x:v>10</x:v>
@@ -1735,7 +1732,7 @@
     </x:row>
     <x:row r="34" spans="1:8">
       <x:c r="A34" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>9</x:v>
@@ -1761,19 +1758,19 @@
     </x:row>
     <x:row r="35" spans="1:8">
       <x:c r="A35" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C35" s="1" t="s">
         <x:v>123</x:v>
       </x:c>
-      <x:c r="B35" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C35" s="1" t="s">
+      <x:c r="D35" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E35" s="1" t="s">
         <x:v>124</x:v>
-      </x:c>
-      <x:c r="D35" s="1" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="E35" s="1" t="s">
-        <x:v>125</x:v>
       </x:c>
       <x:c r="F35" s="1" t="s">
         <x:v>69</x:v>
@@ -1787,7 +1784,7 @@
     </x:row>
     <x:row r="36" spans="1:8">
       <x:c r="A36" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>15</x:v>
@@ -1813,22 +1810,22 @@
     </x:row>
     <x:row r="37" spans="1:8">
       <x:c r="A37" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C37" s="1" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D37" s="1" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="E37" s="1" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="F37" s="1" t="s">
         <x:v>128</x:v>
-      </x:c>
-      <x:c r="D37" s="1" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="E37" s="1" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="F37" s="1" t="s">
-        <x:v>129</x:v>
       </x:c>
       <x:c r="G37" s="1" t="s">
         <x:v>82</x:v>
@@ -1839,25 +1836,25 @@
     </x:row>
     <x:row r="38" spans="1:8">
       <x:c r="A38" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="D38" s="1" t="s">
         <x:v>130</x:v>
       </x:c>
-      <x:c r="D38" s="1" t="s">
+      <x:c r="E38" s="1" t="s">
         <x:v>131</x:v>
       </x:c>
-      <x:c r="E38" s="1" t="s">
+      <x:c r="F38" s="1" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="G38" s="1" t="s">
         <x:v>132</x:v>
-      </x:c>
-      <x:c r="F38" s="1" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="G38" s="1" t="s">
-        <x:v>133</x:v>
       </x:c>
       <x:c r="H38" s="1" t="s">
         <x:v>10</x:v>
@@ -1865,7 +1862,7 @@
     </x:row>
     <x:row r="39" spans="1:8">
       <x:c r="A39" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>9</x:v>
@@ -1891,7 +1888,7 @@
     </x:row>
     <x:row r="40" spans="1:8">
       <x:c r="A40" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>15</x:v>
@@ -1900,16 +1897,16 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="E40" s="1" t="s">
         <x:v>135</x:v>
       </x:c>
-      <x:c r="E40" s="1" t="s">
+      <x:c r="F40" s="1" t="s">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="F40" s="1" t="s">
+      <x:c r="G40" s="1" t="s">
         <x:v>137</x:v>
-      </x:c>
-      <x:c r="G40" s="1" t="s">
-        <x:v>138</x:v>
       </x:c>
       <x:c r="H40" s="1" t="s">
         <x:v>10</x:v>
@@ -1917,22 +1914,22 @@
     </x:row>
     <x:row r="41" spans="1:8">
       <x:c r="A41" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="D41" s="1" t="s">
         <x:v>140</x:v>
-      </x:c>
-      <x:c r="D41" s="1" t="s">
-        <x:v>141</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="F41" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="G41" s="1" t="s">
         <x:v>12</x:v>
@@ -1943,25 +1940,25 @@
     </x:row>
     <x:row r="42" spans="1:8">
       <x:c r="A42" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="D42" s="1" t="s">
         <x:v>143</x:v>
       </x:c>
-      <x:c r="D42" s="1" t="s">
+      <x:c r="E42" s="1" t="s">
         <x:v>144</x:v>
       </x:c>
-      <x:c r="E42" s="1" t="s">
+      <x:c r="F42" s="1" t="s">
         <x:v>145</x:v>
       </x:c>
-      <x:c r="F42" s="1" t="s">
+      <x:c r="G42" s="1" t="s">
         <x:v>146</x:v>
-      </x:c>
-      <x:c r="G42" s="1" t="s">
-        <x:v>147</x:v>
       </x:c>
       <x:c r="H42" s="1" t="s">
         <x:v>10</x:v>
@@ -1969,22 +1966,22 @@
     </x:row>
     <x:row r="43" spans="1:8">
       <x:c r="A43" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D43" s="1" t="s">
         <x:v>51</x:v>
       </x:c>
       <x:c r="E43" s="1" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="F43" s="1" t="s">
         <x:v>150</x:v>
-      </x:c>
-      <x:c r="F43" s="1" t="s">
-        <x:v>151</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
         <x:v>17</x:v>
@@ -1995,25 +1992,25 @@
     </x:row>
     <x:row r="44" spans="1:8">
       <x:c r="A44" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="D44" s="1" t="s">
         <x:v>152</x:v>
       </x:c>
-      <x:c r="D44" s="1" t="s">
+      <x:c r="E44" s="1" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="E44" s="1" t="s">
+      <x:c r="F44" s="1" t="s">
         <x:v>154</x:v>
       </x:c>
-      <x:c r="F44" s="1" t="s">
+      <x:c r="G44" s="1" t="s">
         <x:v>155</x:v>
-      </x:c>
-      <x:c r="G44" s="1" t="s">
-        <x:v>156</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
         <x:v>10</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -244,7 +244,7 @@
     <x:t>834</x:t>
   </x:si>
   <x:si>
-    <x:t>1793</x:t>
+    <x:t>1792</x:t>
   </x:si>
   <x:si>
     <x:t>2127</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -106,7 +106,7 @@
     <x:t>726</x:t>
   </x:si>
   <x:si>
-    <x:t>1237</x:t>
+    <x:t>1239</x:t>
   </x:si>
   <x:si>
     <x:t>1224</x:t>
@@ -118,10 +118,10 @@
     <x:t>1326</x:t>
   </x:si>
   <x:si>
-    <x:t>2032</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3745</x:t>
+    <x:t>2035</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3746</x:t>
   </x:si>
   <x:si>
     <x:t>4031</x:t>
@@ -148,7 +148,7 @@
     <x:t>31</x:t>
   </x:si>
   <x:si>
-    <x:t>135</x:t>
+    <x:t>134</x:t>
   </x:si>
   <x:si>
     <x:t>232</x:t>
@@ -160,30 +160,33 @@
     <x:t>423</x:t>
   </x:si>
   <x:si>
+    <x:t>153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Counterfeiting/Forgery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>95</x:t>
+  </x:si>
+  <x:si>
     <x:t>152</x:t>
   </x:si>
   <x:si>
-    <x:t>Counterfeiting/Forgery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>95</x:t>
-  </x:si>
-  <x:si>
     <x:t>43</x:t>
   </x:si>
   <x:si>
@@ -205,7 +208,7 @@
     <x:t>39</x:t>
   </x:si>
   <x:si>
-    <x:t>339</x:t>
+    <x:t>338</x:t>
   </x:si>
   <x:si>
     <x:t>305</x:t>
@@ -226,10 +229,10 @@
     <x:t>47</x:t>
   </x:si>
   <x:si>
-    <x:t>344</x:t>
-  </x:si>
-  <x:si>
-    <x:t>746</x:t>
+    <x:t>342</x:t>
+  </x:si>
+  <x:si>
+    <x:t>747</x:t>
   </x:si>
   <x:si>
     <x:t>873</x:t>
@@ -295,7 +298,7 @@
     <x:t>517</x:t>
   </x:si>
   <x:si>
-    <x:t>482</x:t>
+    <x:t>483</x:t>
   </x:si>
   <x:si>
     <x:t>175</x:t>
@@ -334,13 +337,16 @@
     <x:t>Larceny/Theft Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>1393</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2180</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2345</x:t>
+    <x:t>728</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1395</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2349</x:t>
   </x:si>
   <x:si>
     <x:t>947</x:t>
@@ -349,7 +355,7 @@
     <x:t>863</x:t>
   </x:si>
   <x:si>
-    <x:t>1734</x:t>
+    <x:t>1733</x:t>
   </x:si>
   <x:si>
     <x:t>2848</x:t>
@@ -358,7 +364,7 @@
     <x:t>2762</x:t>
   </x:si>
   <x:si>
-    <x:t>1230</x:t>
+    <x:t>1229</x:t>
   </x:si>
   <x:si>
     <x:t>Motor Vehicle Theft</x:t>
@@ -367,9 +373,6 @@
     <x:t>30</x:t>
   </x:si>
   <x:si>
-    <x:t>153</x:t>
-  </x:si>
-  <x:si>
     <x:t>97</x:t>
   </x:si>
   <x:si>
@@ -412,6 +415,9 @@
     <x:t>133</x:t>
   </x:si>
   <x:si>
+    <x:t>98</x:t>
+  </x:si>
+  <x:si>
     <x:t>29</x:t>
   </x:si>
   <x:si>
@@ -448,7 +454,7 @@
     <x:t>187</x:t>
   </x:si>
   <x:si>
-    <x:t>371</x:t>
+    <x:t>372</x:t>
   </x:si>
   <x:si>
     <x:t>335</x:t>
@@ -475,13 +481,13 @@
     <x:t>584</x:t>
   </x:si>
   <x:si>
-    <x:t>592</x:t>
-  </x:si>
-  <x:si>
-    <x:t>527</x:t>
-  </x:si>
-  <x:si>
-    <x:t>253</x:t>
+    <x:t>593</x:t>
+  </x:si>
+  <x:si>
+    <x:t>528</x:t>
+  </x:si>
+  <x:si>
+    <x:t>254</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1175,10 +1181,10 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G12" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H12" s="1" t="s">
         <x:v>10</x:v>
@@ -1186,25 +1192,25 @@
     </x:row>
     <x:row r="13" spans="1:8">
       <x:c r="A13" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E13" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F13" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G13" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
         <x:v>10</x:v>
@@ -1212,25 +1218,25 @@
     </x:row>
     <x:row r="14" spans="1:8">
       <x:c r="A14" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G14" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
         <x:v>10</x:v>
@@ -1238,25 +1244,25 @@
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D15" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E15" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F15" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G15" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H15" s="1" t="s">
         <x:v>10</x:v>
@@ -1264,25 +1270,25 @@
     </x:row>
     <x:row r="16" spans="1:8">
       <x:c r="A16" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F16" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G16" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
         <x:v>10</x:v>
@@ -1290,7 +1296,7 @@
     </x:row>
     <x:row r="17" spans="1:8">
       <x:c r="A17" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>9</x:v>
@@ -1299,10 +1305,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F17" s="1" t="s">
         <x:v>18</x:v>
@@ -1316,7 +1322,7 @@
     </x:row>
     <x:row r="18" spans="1:8">
       <x:c r="A18" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>15</x:v>
@@ -1334,7 +1340,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G18" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
         <x:v>10</x:v>
@@ -1342,7 +1348,7 @@
     </x:row>
     <x:row r="19" spans="1:8">
       <x:c r="A19" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>15</x:v>
@@ -1368,25 +1374,25 @@
     </x:row>
     <x:row r="20" spans="1:8">
       <x:c r="A20" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
         <x:v>10</x:v>
@@ -1394,25 +1400,25 @@
     </x:row>
     <x:row r="21" spans="1:8">
       <x:c r="A21" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="G21" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
         <x:v>10</x:v>
@@ -1420,7 +1426,7 @@
     </x:row>
     <x:row r="22" spans="1:8">
       <x:c r="A22" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>9</x:v>
@@ -1446,7 +1452,7 @@
     </x:row>
     <x:row r="23" spans="1:8">
       <x:c r="A23" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>15</x:v>
@@ -1461,7 +1467,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F23" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="G23" s="1" t="s">
         <x:v>22</x:v>
@@ -1472,7 +1478,7 @@
     </x:row>
     <x:row r="24" spans="1:8">
       <x:c r="A24" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>9</x:v>
@@ -1490,7 +1496,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G24" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H24" s="1" t="s">
         <x:v>10</x:v>
@@ -1498,7 +1504,7 @@
     </x:row>
     <x:row r="25" spans="1:8">
       <x:c r="A25" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>15</x:v>
@@ -1507,16 +1513,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D25" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E25" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F25" s="1" t="s">
         <x:v>43</x:v>
       </x:c>
       <x:c r="G25" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H25" s="1" t="s">
         <x:v>10</x:v>
@@ -1524,7 +1530,7 @@
     </x:row>
     <x:row r="26" spans="1:8">
       <x:c r="A26" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>9</x:v>
@@ -1536,10 +1542,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E26" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F26" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="G26" s="1" t="s">
         <x:v>10</x:v>
@@ -1550,7 +1556,7 @@
     </x:row>
     <x:row r="27" spans="1:8">
       <x:c r="A27" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>15</x:v>
@@ -1559,16 +1565,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D27" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F27" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G27" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H27" s="1" t="s">
         <x:v>10</x:v>
@@ -1576,7 +1582,7 @@
     </x:row>
     <x:row r="28" spans="1:8">
       <x:c r="A28" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>9</x:v>
@@ -1594,7 +1600,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G28" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H28" s="1" t="s">
         <x:v>10</x:v>
@@ -1602,7 +1608,7 @@
     </x:row>
     <x:row r="29" spans="1:8">
       <x:c r="A29" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>15</x:v>
@@ -1611,16 +1617,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D29" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E29" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F29" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="G29" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H29" s="1" t="s">
         <x:v>10</x:v>
@@ -1628,25 +1634,25 @@
     </x:row>
     <x:row r="30" spans="1:8">
       <x:c r="A30" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D30" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E30" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F30" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="G30" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
         <x:v>10</x:v>
@@ -1654,25 +1660,25 @@
     </x:row>
     <x:row r="31" spans="1:8">
       <x:c r="A31" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E31" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F31" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G31" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H31" s="1" t="s">
         <x:v>10</x:v>
@@ -1680,7 +1686,7 @@
     </x:row>
     <x:row r="32" spans="1:8">
       <x:c r="A32" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>9</x:v>
@@ -1689,16 +1695,16 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E32" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F32" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G32" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
         <x:v>10</x:v>
@@ -1706,25 +1712,25 @@
     </x:row>
     <x:row r="33" spans="1:8">
       <x:c r="A33" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C33" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D33" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E33" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F33" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G33" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="H33" s="1" t="s">
         <x:v>10</x:v>
@@ -1732,7 +1738,7 @@
     </x:row>
     <x:row r="34" spans="1:8">
       <x:c r="A34" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>9</x:v>
@@ -1758,22 +1764,22 @@
     </x:row>
     <x:row r="35" spans="1:8">
       <x:c r="A35" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C35" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D35" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E35" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F35" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G35" s="1" t="s">
         <x:v>24</x:v>
@@ -1784,7 +1790,7 @@
     </x:row>
     <x:row r="36" spans="1:8">
       <x:c r="A36" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>15</x:v>
@@ -1802,7 +1808,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G36" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H36" s="1" t="s">
         <x:v>10</x:v>
@@ -1810,25 +1816,25 @@
     </x:row>
     <x:row r="37" spans="1:8">
       <x:c r="A37" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C37" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E37" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F37" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G37" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H37" s="1" t="s">
         <x:v>10</x:v>
@@ -1836,25 +1842,25 @@
     </x:row>
     <x:row r="38" spans="1:8">
       <x:c r="A38" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D38" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F38" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="G38" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H38" s="1" t="s">
         <x:v>10</x:v>
@@ -1862,7 +1868,7 @@
     </x:row>
     <x:row r="39" spans="1:8">
       <x:c r="A39" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>9</x:v>
@@ -1877,7 +1883,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F39" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G39" s="1" t="s">
         <x:v>22</x:v>
@@ -1888,25 +1894,25 @@
     </x:row>
     <x:row r="40" spans="1:8">
       <x:c r="A40" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C40" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F40" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="G40" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="H40" s="1" t="s">
         <x:v>10</x:v>
@@ -1914,22 +1920,22 @@
     </x:row>
     <x:row r="41" spans="1:8">
       <x:c r="A41" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F41" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="G41" s="1" t="s">
         <x:v>12</x:v>
@@ -1940,25 +1946,25 @@
     </x:row>
     <x:row r="42" spans="1:8">
       <x:c r="A42" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="F42" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="G42" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="H42" s="1" t="s">
         <x:v>10</x:v>
@@ -1966,22 +1972,22 @@
     </x:row>
     <x:row r="43" spans="1:8">
       <x:c r="A43" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D43" s="1" t="s">
         <x:v>51</x:v>
       </x:c>
       <x:c r="E43" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="F43" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
         <x:v>17</x:v>
@@ -1992,25 +1998,25 @@
     </x:row>
     <x:row r="44" spans="1:8">
       <x:c r="A44" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="F44" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="G44" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
         <x:v>10</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -106,16 +106,16 @@
     <x:t>726</x:t>
   </x:si>
   <x:si>
-    <x:t>1239</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1224</x:t>
+    <x:t>1240</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1223</x:t>
   </x:si>
   <x:si>
     <x:t>422</x:t>
   </x:si>
   <x:si>
-    <x:t>1326</x:t>
+    <x:t>1327</x:t>
   </x:si>
   <x:si>
     <x:t>2035</x:t>
@@ -187,192 +187,198 @@
     <x:t>152</x:t>
   </x:si>
   <x:si>
+    <x:t>44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Destruction/Damage/Vandalism of Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>138</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>338</x:t>
+  </x:si>
+  <x:si>
+    <x:t>305</x:t>
+  </x:si>
+  <x:si>
+    <x:t>425</x:t>
+  </x:si>
+  <x:si>
+    <x:t>409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drug/Narcotic Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>342</x:t>
+  </x:si>
+  <x:si>
+    <x:t>747</x:t>
+  </x:si>
+  <x:si>
+    <x:t>873</x:t>
+  </x:si>
+  <x:si>
+    <x:t>231</x:t>
+  </x:si>
+  <x:si>
+    <x:t>132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>834</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1792</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>826</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Embezzlement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Extortion/Blackmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fraud Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>323</x:t>
+  </x:si>
+  <x:si>
+    <x:t>250</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>289</x:t>
+  </x:si>
+  <x:si>
+    <x:t>517</x:t>
+  </x:si>
+  <x:si>
+    <x:t>483</x:t>
+  </x:si>
+  <x:si>
+    <x:t>175</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gambling Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Homicide Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Human Trafficking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kidnapping/Abduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Larceny/Theft Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>728</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1395</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2182</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2350</x:t>
+  </x:si>
+  <x:si>
+    <x:t>948</x:t>
+  </x:si>
+  <x:si>
+    <x:t>863</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1732</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2849</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2763</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motor Vehicle Theft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55</x:t>
+  </x:si>
+  <x:si>
     <x:t>43</x:t>
   </x:si>
   <x:si>
-    <x:t>Destruction/Damage/Vandalism of Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>107</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>138</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>338</x:t>
-  </x:si>
-  <x:si>
-    <x:t>305</x:t>
-  </x:si>
-  <x:si>
-    <x:t>425</x:t>
-  </x:si>
-  <x:si>
-    <x:t>409</x:t>
-  </x:si>
-  <x:si>
-    <x:t>111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drug/Narcotic Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>342</x:t>
-  </x:si>
-  <x:si>
-    <x:t>747</x:t>
-  </x:si>
-  <x:si>
-    <x:t>873</x:t>
-  </x:si>
-  <x:si>
-    <x:t>231</x:t>
-  </x:si>
-  <x:si>
-    <x:t>132</x:t>
-  </x:si>
-  <x:si>
-    <x:t>834</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1792</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2127</x:t>
-  </x:si>
-  <x:si>
-    <x:t>826</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Embezzlement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Extortion/Blackmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fraud Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>181</x:t>
-  </x:si>
-  <x:si>
-    <x:t>323</x:t>
-  </x:si>
-  <x:si>
-    <x:t>250</x:t>
-  </x:si>
-  <x:si>
-    <x:t>77</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62</x:t>
-  </x:si>
-  <x:si>
-    <x:t>287</x:t>
-  </x:si>
-  <x:si>
-    <x:t>517</x:t>
-  </x:si>
-  <x:si>
-    <x:t>483</x:t>
-  </x:si>
-  <x:si>
-    <x:t>175</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gambling Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Homicide Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Human Trafficking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kidnapping/Abduction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Larceny/Theft Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>728</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1395</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2181</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2349</x:t>
-  </x:si>
-  <x:si>
-    <x:t>947</x:t>
-  </x:si>
-  <x:si>
-    <x:t>863</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1733</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2848</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2762</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1229</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motor Vehicle Theft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
     <x:t>97</x:t>
   </x:si>
   <x:si>
@@ -457,7 +463,7 @@
     <x:t>372</x:t>
   </x:si>
   <x:si>
-    <x:t>335</x:t>
+    <x:t>336</x:t>
   </x:si>
   <x:si>
     <x:t>83</x:t>
@@ -1698,10 +1704,10 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E32" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F32" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G32" s="1" t="s">
         <x:v>81</x:v>
@@ -1721,16 +1727,16 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="D33" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E33" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F33" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G33" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="H33" s="1" t="s">
         <x:v>10</x:v>
@@ -1738,7 +1744,7 @@
     </x:row>
     <x:row r="34" spans="1:8">
       <x:c r="A34" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>9</x:v>
@@ -1764,19 +1770,19 @@
     </x:row>
     <x:row r="35" spans="1:8">
       <x:c r="A35" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C35" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D35" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E35" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F35" s="1" t="s">
         <x:v>70</x:v>
@@ -1790,7 +1796,7 @@
     </x:row>
     <x:row r="36" spans="1:8">
       <x:c r="A36" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>15</x:v>
@@ -1816,22 +1822,22 @@
     </x:row>
     <x:row r="37" spans="1:8">
       <x:c r="A37" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C37" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E37" s="1" t="s">
         <x:v>54</x:v>
       </x:c>
       <x:c r="F37" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G37" s="1" t="s">
         <x:v>83</x:v>
@@ -1842,25 +1848,25 @@
     </x:row>
     <x:row r="38" spans="1:8">
       <x:c r="A38" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D38" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F38" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G38" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="H38" s="1" t="s">
         <x:v>10</x:v>
@@ -1868,7 +1874,7 @@
     </x:row>
     <x:row r="39" spans="1:8">
       <x:c r="A39" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>9</x:v>
@@ -1894,7 +1900,7 @@
     </x:row>
     <x:row r="40" spans="1:8">
       <x:c r="A40" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>15</x:v>
@@ -1903,16 +1909,16 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="F40" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="G40" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="H40" s="1" t="s">
         <x:v>10</x:v>
@@ -1920,22 +1926,22 @@
     </x:row>
     <x:row r="41" spans="1:8">
       <x:c r="A41" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
         <x:v>60</x:v>
       </x:c>
       <x:c r="F41" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G41" s="1" t="s">
         <x:v>12</x:v>
@@ -1946,25 +1952,25 @@
     </x:row>
     <x:row r="42" spans="1:8">
       <x:c r="A42" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F42" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="G42" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="H42" s="1" t="s">
         <x:v>10</x:v>
@@ -1972,22 +1978,22 @@
     </x:row>
     <x:row r="43" spans="1:8">
       <x:c r="A43" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D43" s="1" t="s">
         <x:v>51</x:v>
       </x:c>
       <x:c r="E43" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F43" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
         <x:v>17</x:v>
@@ -1998,25 +2004,25 @@
     </x:row>
     <x:row r="44" spans="1:8">
       <x:c r="A44" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F44" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="G44" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
         <x:v>10</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -103,31 +103,31 @@
     <x:t>845</x:t>
   </x:si>
   <x:si>
-    <x:t>726</x:t>
+    <x:t>728</x:t>
   </x:si>
   <x:si>
     <x:t>1240</x:t>
   </x:si>
   <x:si>
-    <x:t>1223</x:t>
+    <x:t>1224</x:t>
   </x:si>
   <x:si>
     <x:t>422</x:t>
   </x:si>
   <x:si>
-    <x:t>1327</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2035</x:t>
+    <x:t>1329</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2040</x:t>
   </x:si>
   <x:si>
     <x:t>3746</x:t>
   </x:si>
   <x:si>
-    <x:t>4031</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1660</x:t>
+    <x:t>4034</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1664</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>
@@ -148,279 +148,273 @@
     <x:t>31</x:t>
   </x:si>
   <x:si>
+    <x:t>135</x:t>
+  </x:si>
+  <x:si>
+    <x:t>233</x:t>
+  </x:si>
+  <x:si>
+    <x:t>505</x:t>
+  </x:si>
+  <x:si>
+    <x:t>423</x:t>
+  </x:si>
+  <x:si>
+    <x:t>153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Counterfeiting/Forgery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Destruction/Damage/Vandalism of Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>138</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>338</x:t>
+  </x:si>
+  <x:si>
+    <x:t>305</x:t>
+  </x:si>
+  <x:si>
+    <x:t>425</x:t>
+  </x:si>
+  <x:si>
+    <x:t>409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drug/Narcotic Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>342</x:t>
+  </x:si>
+  <x:si>
+    <x:t>747</x:t>
+  </x:si>
+  <x:si>
+    <x:t>874</x:t>
+  </x:si>
+  <x:si>
+    <x:t>231</x:t>
+  </x:si>
+  <x:si>
+    <x:t>132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>833</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1792</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2130</x:t>
+  </x:si>
+  <x:si>
+    <x:t>830</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Embezzlement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Extortion/Blackmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fraud Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>323</x:t>
+  </x:si>
+  <x:si>
+    <x:t>251</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>289</x:t>
+  </x:si>
+  <x:si>
+    <x:t>517</x:t>
+  </x:si>
+  <x:si>
+    <x:t>482</x:t>
+  </x:si>
+  <x:si>
+    <x:t>175</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gambling Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Homicide Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Human Trafficking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kidnapping/Abduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Larceny/Theft Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1398</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2355</x:t>
+  </x:si>
+  <x:si>
+    <x:t>949</x:t>
+  </x:si>
+  <x:si>
+    <x:t>860</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1732</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2850</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2765</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motor Vehicle Theft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>97</x:t>
+  </x:si>
+  <x:si>
+    <x:t>142</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pornography/Obscene Material</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prostitution Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robbery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>167</x:t>
+  </x:si>
+  <x:si>
+    <x:t>165</x:t>
+  </x:si>
+  <x:si>
     <x:t>134</x:t>
   </x:si>
   <x:si>
-    <x:t>232</x:t>
-  </x:si>
-  <x:si>
-    <x:t>505</x:t>
-  </x:si>
-  <x:si>
-    <x:t>423</x:t>
-  </x:si>
-  <x:si>
-    <x:t>153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Counterfeiting/Forgery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>152</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Destruction/Damage/Vandalism of Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57</x:t>
-  </x:si>
-  <x:si>
-    <x:t>107</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>138</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>338</x:t>
-  </x:si>
-  <x:si>
-    <x:t>305</x:t>
-  </x:si>
-  <x:si>
-    <x:t>425</x:t>
-  </x:si>
-  <x:si>
-    <x:t>409</x:t>
-  </x:si>
-  <x:si>
-    <x:t>111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drug/Narcotic Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>342</x:t>
-  </x:si>
-  <x:si>
-    <x:t>747</x:t>
-  </x:si>
-  <x:si>
-    <x:t>873</x:t>
-  </x:si>
-  <x:si>
-    <x:t>231</x:t>
-  </x:si>
-  <x:si>
-    <x:t>132</x:t>
-  </x:si>
-  <x:si>
-    <x:t>834</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1792</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2129</x:t>
-  </x:si>
-  <x:si>
-    <x:t>826</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Embezzlement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Extortion/Blackmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fraud Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>181</x:t>
-  </x:si>
-  <x:si>
-    <x:t>323</x:t>
-  </x:si>
-  <x:si>
-    <x:t>250</x:t>
-  </x:si>
-  <x:si>
-    <x:t>77</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62</x:t>
-  </x:si>
-  <x:si>
-    <x:t>289</x:t>
-  </x:si>
-  <x:si>
-    <x:t>517</x:t>
-  </x:si>
-  <x:si>
-    <x:t>483</x:t>
-  </x:si>
-  <x:si>
-    <x:t>175</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gambling Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Homicide Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Human Trafficking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kidnapping/Abduction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Larceny/Theft Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>728</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1395</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2182</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2350</x:t>
-  </x:si>
-  <x:si>
-    <x:t>948</x:t>
-  </x:si>
-  <x:si>
-    <x:t>863</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1732</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2849</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2763</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motor Vehicle Theft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>97</x:t>
-  </x:si>
-  <x:si>
-    <x:t>142</x:t>
-  </x:si>
-  <x:si>
-    <x:t>161</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pornography/Obscene Material</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prostitution Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robbery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>167</x:t>
-  </x:si>
-  <x:si>
-    <x:t>165</x:t>
-  </x:si>
-  <x:si>
-    <x:t>133</x:t>
-  </x:si>
-  <x:si>
     <x:t>98</x:t>
   </x:si>
   <x:si>
@@ -436,10 +430,10 @@
     <x:t>225</x:t>
   </x:si>
   <x:si>
-    <x:t>245</x:t>
-  </x:si>
-  <x:si>
-    <x:t>158</x:t>
+    <x:t>247</x:t>
+  </x:si>
+  <x:si>
+    <x:t>159</x:t>
   </x:si>
   <x:si>
     <x:t>Stolen Property Offenses</x:t>
@@ -457,13 +451,13 @@
     <x:t>146</x:t>
   </x:si>
   <x:si>
-    <x:t>187</x:t>
+    <x:t>186</x:t>
   </x:si>
   <x:si>
     <x:t>372</x:t>
   </x:si>
   <x:si>
-    <x:t>336</x:t>
+    <x:t>337</x:t>
   </x:si>
   <x:si>
     <x:t>83</x:t>
@@ -473,6 +467,9 @@
   </x:si>
   <x:si>
     <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61</x:t>
   </x:si>
   <x:si>
     <x:t>63</x:t>
@@ -1187,10 +1184,10 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G12" s="1" t="s">
         <x:v>56</x:v>
-      </x:c>
-      <x:c r="G12" s="1" t="s">
-        <x:v>57</x:v>
       </x:c>
       <x:c r="H12" s="1" t="s">
         <x:v>10</x:v>
@@ -1198,25 +1195,25 @@
     </x:row>
     <x:row r="13" spans="1:8">
       <x:c r="A13" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D13" s="1" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="D13" s="1" t="s">
+      <x:c r="E13" s="1" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="E13" s="1" t="s">
+      <x:c r="F13" s="1" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="F13" s="1" t="s">
+      <x:c r="G13" s="1" t="s">
         <x:v>62</x:v>
-      </x:c>
-      <x:c r="G13" s="1" t="s">
-        <x:v>63</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
         <x:v>10</x:v>
@@ -1224,25 +1221,25 @@
     </x:row>
     <x:row r="14" spans="1:8">
       <x:c r="A14" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D14" s="1" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="D14" s="1" t="s">
+      <x:c r="E14" s="1" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="E14" s="1" t="s">
+      <x:c r="F14" s="1" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="F14" s="1" t="s">
+      <x:c r="G14" s="1" t="s">
         <x:v>67</x:v>
-      </x:c>
-      <x:c r="G14" s="1" t="s">
-        <x:v>68</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
         <x:v>10</x:v>
@@ -1250,25 +1247,25 @@
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D15" s="1" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="D15" s="1" t="s">
+      <x:c r="E15" s="1" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="E15" s="1" t="s">
+      <x:c r="F15" s="1" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="F15" s="1" t="s">
+      <x:c r="G15" s="1" t="s">
         <x:v>73</x:v>
-      </x:c>
-      <x:c r="G15" s="1" t="s">
-        <x:v>74</x:v>
       </x:c>
       <x:c r="H15" s="1" t="s">
         <x:v>10</x:v>
@@ -1276,25 +1273,25 @@
     </x:row>
     <x:row r="16" spans="1:8">
       <x:c r="A16" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D16" s="1" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="D16" s="1" t="s">
+      <x:c r="E16" s="1" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="E16" s="1" t="s">
+      <x:c r="F16" s="1" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="F16" s="1" t="s">
+      <x:c r="G16" s="1" t="s">
         <x:v>78</x:v>
-      </x:c>
-      <x:c r="G16" s="1" t="s">
-        <x:v>79</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
         <x:v>10</x:v>
@@ -1302,7 +1299,7 @@
     </x:row>
     <x:row r="17" spans="1:8">
       <x:c r="A17" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>9</x:v>
@@ -1311,10 +1308,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E17" s="1" t="s">
         <x:v>81</x:v>
-      </x:c>
-      <x:c r="E17" s="1" t="s">
-        <x:v>82</x:v>
       </x:c>
       <x:c r="F17" s="1" t="s">
         <x:v>18</x:v>
@@ -1328,7 +1325,7 @@
     </x:row>
     <x:row r="18" spans="1:8">
       <x:c r="A18" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>15</x:v>
@@ -1346,7 +1343,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G18" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
         <x:v>10</x:v>
@@ -1354,7 +1351,7 @@
     </x:row>
     <x:row r="19" spans="1:8">
       <x:c r="A19" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>15</x:v>
@@ -1380,25 +1377,25 @@
     </x:row>
     <x:row r="20" spans="1:8">
       <x:c r="A20" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D20" s="1" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="D20" s="1" t="s">
+      <x:c r="E20" s="1" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="E20" s="1" t="s">
+      <x:c r="F20" s="1" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="F20" s="1" t="s">
+      <x:c r="G20" s="1" t="s">
         <x:v>89</x:v>
-      </x:c>
-      <x:c r="G20" s="1" t="s">
-        <x:v>90</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
         <x:v>10</x:v>
@@ -1406,25 +1403,25 @@
     </x:row>
     <x:row r="21" spans="1:8">
       <x:c r="A21" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D21" s="1" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="D21" s="1" t="s">
+      <x:c r="E21" s="1" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="E21" s="1" t="s">
+      <x:c r="F21" s="1" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="F21" s="1" t="s">
+      <x:c r="G21" s="1" t="s">
         <x:v>94</x:v>
-      </x:c>
-      <x:c r="G21" s="1" t="s">
-        <x:v>95</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
         <x:v>10</x:v>
@@ -1432,7 +1429,7 @@
     </x:row>
     <x:row r="22" spans="1:8">
       <x:c r="A22" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>9</x:v>
@@ -1458,7 +1455,7 @@
     </x:row>
     <x:row r="23" spans="1:8">
       <x:c r="A23" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>15</x:v>
@@ -1473,7 +1470,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F23" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G23" s="1" t="s">
         <x:v>22</x:v>
@@ -1484,7 +1481,7 @@
     </x:row>
     <x:row r="24" spans="1:8">
       <x:c r="A24" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>9</x:v>
@@ -1502,7 +1499,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G24" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H24" s="1" t="s">
         <x:v>10</x:v>
@@ -1510,7 +1507,7 @@
     </x:row>
     <x:row r="25" spans="1:8">
       <x:c r="A25" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>15</x:v>
@@ -1519,16 +1516,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D25" s="1" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E25" s="1" t="s">
         <x:v>98</x:v>
-      </x:c>
-      <x:c r="E25" s="1" t="s">
-        <x:v>99</x:v>
       </x:c>
       <x:c r="F25" s="1" t="s">
         <x:v>43</x:v>
       </x:c>
       <x:c r="G25" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H25" s="1" t="s">
         <x:v>10</x:v>
@@ -1536,7 +1533,7 @@
     </x:row>
     <x:row r="26" spans="1:8">
       <x:c r="A26" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>9</x:v>
@@ -1548,10 +1545,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E26" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F26" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G26" s="1" t="s">
         <x:v>10</x:v>
@@ -1562,25 +1559,25 @@
     </x:row>
     <x:row r="27" spans="1:8">
       <x:c r="A27" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C27" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D27" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E27" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="F27" s="1" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="B27" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C27" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D27" s="1" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="E27" s="1" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="F27" s="1" t="s">
+      <x:c r="G27" s="1" t="s">
         <x:v>101</x:v>
-      </x:c>
-      <x:c r="G27" s="1" t="s">
-        <x:v>102</x:v>
       </x:c>
       <x:c r="H27" s="1" t="s">
         <x:v>10</x:v>
@@ -1588,7 +1585,7 @@
     </x:row>
     <x:row r="28" spans="1:8">
       <x:c r="A28" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>9</x:v>
@@ -1606,7 +1603,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G28" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H28" s="1" t="s">
         <x:v>10</x:v>
@@ -1614,25 +1611,25 @@
     </x:row>
     <x:row r="29" spans="1:8">
       <x:c r="A29" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C29" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D29" s="1" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="B29" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C29" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D29" s="1" t="s">
+      <x:c r="E29" s="1" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="F29" s="1" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="E29" s="1" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="F29" s="1" t="s">
-        <x:v>105</x:v>
-      </x:c>
       <x:c r="G29" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="H29" s="1" t="s">
         <x:v>10</x:v>
@@ -1640,25 +1637,25 @@
     </x:row>
     <x:row r="30" spans="1:8">
       <x:c r="A30" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D30" s="1" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E30" s="1" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="D30" s="1" t="s">
+      <x:c r="F30" s="1" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="E30" s="1" t="s">
+      <x:c r="G30" s="1" t="s">
         <x:v>109</x:v>
-      </x:c>
-      <x:c r="F30" s="1" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="G30" s="1" t="s">
-        <x:v>111</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
         <x:v>10</x:v>
@@ -1666,25 +1663,25 @@
     </x:row>
     <x:row r="31" spans="1:8">
       <x:c r="A31" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D31" s="1" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="E31" s="1" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="D31" s="1" t="s">
+      <x:c r="F31" s="1" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="E31" s="1" t="s">
+      <x:c r="G31" s="1" t="s">
         <x:v>114</x:v>
-      </x:c>
-      <x:c r="F31" s="1" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="G31" s="1" t="s">
-        <x:v>116</x:v>
       </x:c>
       <x:c r="H31" s="1" t="s">
         <x:v>10</x:v>
@@ -1692,7 +1689,7 @@
     </x:row>
     <x:row r="32" spans="1:8">
       <x:c r="A32" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>9</x:v>
@@ -1701,16 +1698,16 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="E32" s="1" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="F32" s="1" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="E32" s="1" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="F32" s="1" t="s">
-        <x:v>120</x:v>
-      </x:c>
       <x:c r="G32" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
         <x:v>10</x:v>
@@ -1718,7 +1715,7 @@
     </x:row>
     <x:row r="33" spans="1:8">
       <x:c r="A33" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>15</x:v>
@@ -1727,16 +1724,16 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="D33" s="1" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="E33" s="1" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="F33" s="1" t="s">
         <x:v>121</x:v>
       </x:c>
-      <x:c r="E33" s="1" t="s">
+      <x:c r="G33" s="1" t="s">
         <x:v>122</x:v>
-      </x:c>
-      <x:c r="F33" s="1" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="G33" s="1" t="s">
-        <x:v>124</x:v>
       </x:c>
       <x:c r="H33" s="1" t="s">
         <x:v>10</x:v>
@@ -1744,7 +1741,7 @@
     </x:row>
     <x:row r="34" spans="1:8">
       <x:c r="A34" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>9</x:v>
@@ -1770,22 +1767,22 @@
     </x:row>
     <x:row r="35" spans="1:8">
       <x:c r="A35" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C35" s="1" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="D35" s="1" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E35" s="1" t="s">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="B35" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C35" s="1" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="D35" s="1" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="E35" s="1" t="s">
-        <x:v>127</x:v>
-      </x:c>
       <x:c r="F35" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G35" s="1" t="s">
         <x:v>24</x:v>
@@ -1796,7 +1793,7 @@
     </x:row>
     <x:row r="36" spans="1:8">
       <x:c r="A36" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>15</x:v>
@@ -1814,7 +1811,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G36" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H36" s="1" t="s">
         <x:v>10</x:v>
@@ -1822,25 +1819,25 @@
     </x:row>
     <x:row r="37" spans="1:8">
       <x:c r="A37" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C37" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E37" s="1" t="s">
         <x:v>54</x:v>
       </x:c>
       <x:c r="F37" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G37" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H37" s="1" t="s">
         <x:v>10</x:v>
@@ -1848,25 +1845,25 @@
     </x:row>
     <x:row r="38" spans="1:8">
       <x:c r="A38" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="D38" s="1" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E38" s="1" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="D38" s="1" t="s">
+      <x:c r="F38" s="1" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="E38" s="1" t="s">
+      <x:c r="G38" s="1" t="s">
         <x:v>134</x:v>
-      </x:c>
-      <x:c r="F38" s="1" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="G38" s="1" t="s">
-        <x:v>136</x:v>
       </x:c>
       <x:c r="H38" s="1" t="s">
         <x:v>10</x:v>
@@ -1874,7 +1871,7 @@
     </x:row>
     <x:row r="39" spans="1:8">
       <x:c r="A39" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>9</x:v>
@@ -1889,7 +1886,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F39" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G39" s="1" t="s">
         <x:v>22</x:v>
@@ -1900,25 +1897,25 @@
     </x:row>
     <x:row r="40" spans="1:8">
       <x:c r="A40" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C40" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D40" s="1" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E40" s="1" t="s">
         <x:v>137</x:v>
       </x:c>
-      <x:c r="B40" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C40" s="1" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D40" s="1" t="s">
+      <x:c r="F40" s="1" t="s">
         <x:v>138</x:v>
       </x:c>
-      <x:c r="E40" s="1" t="s">
+      <x:c r="G40" s="1" t="s">
         <x:v>139</x:v>
-      </x:c>
-      <x:c r="F40" s="1" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="G40" s="1" t="s">
-        <x:v>141</x:v>
       </x:c>
       <x:c r="H40" s="1" t="s">
         <x:v>10</x:v>
@@ -1926,22 +1923,22 @@
     </x:row>
     <x:row r="41" spans="1:8">
       <x:c r="A41" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="D41" s="1" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="E41" s="1" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F41" s="1" t="s">
         <x:v>143</x:v>
-      </x:c>
-      <x:c r="D41" s="1" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="E41" s="1" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F41" s="1" t="s">
-        <x:v>145</x:v>
       </x:c>
       <x:c r="G41" s="1" t="s">
         <x:v>12</x:v>
@@ -1952,25 +1949,25 @@
     </x:row>
     <x:row r="42" spans="1:8">
       <x:c r="A42" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D42" s="1" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="E42" s="1" t="s">
         <x:v>146</x:v>
       </x:c>
-      <x:c r="D42" s="1" t="s">
+      <x:c r="F42" s="1" t="s">
         <x:v>147</x:v>
       </x:c>
-      <x:c r="E42" s="1" t="s">
+      <x:c r="G42" s="1" t="s">
         <x:v>148</x:v>
-      </x:c>
-      <x:c r="F42" s="1" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="G42" s="1" t="s">
-        <x:v>150</x:v>
       </x:c>
       <x:c r="H42" s="1" t="s">
         <x:v>10</x:v>
@@ -1978,22 +1975,22 @@
     </x:row>
     <x:row r="43" spans="1:8">
       <x:c r="A43" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="D43" s="1" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="E43" s="1" t="s">
         <x:v>152</x:v>
       </x:c>
-      <x:c r="D43" s="1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="E43" s="1" t="s">
+      <x:c r="F43" s="1" t="s">
         <x:v>153</x:v>
-      </x:c>
-      <x:c r="F43" s="1" t="s">
-        <x:v>154</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
         <x:v>17</x:v>
@@ -2004,25 +2001,25 @@
     </x:row>
     <x:row r="44" spans="1:8">
       <x:c r="A44" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="D44" s="1" t="s">
         <x:v>155</x:v>
       </x:c>
-      <x:c r="D44" s="1" t="s">
+      <x:c r="E44" s="1" t="s">
         <x:v>156</x:v>
       </x:c>
-      <x:c r="E44" s="1" t="s">
+      <x:c r="F44" s="1" t="s">
         <x:v>157</x:v>
       </x:c>
-      <x:c r="F44" s="1" t="s">
+      <x:c r="G44" s="1" t="s">
         <x:v>158</x:v>
-      </x:c>
-      <x:c r="G44" s="1" t="s">
-        <x:v>159</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
         <x:v>10</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -109,13 +109,13 @@
     <x:t>1240</x:t>
   </x:si>
   <x:si>
-    <x:t>1224</x:t>
+    <x:t>1225</x:t>
   </x:si>
   <x:si>
     <x:t>422</x:t>
   </x:si>
   <x:si>
-    <x:t>1329</x:t>
+    <x:t>1330</x:t>
   </x:si>
   <x:si>
     <x:t>2040</x:t>
@@ -124,10 +124,10 @@
     <x:t>3746</x:t>
   </x:si>
   <x:si>
-    <x:t>4034</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1664</x:t>
+    <x:t>4035</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1665</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>
@@ -154,7 +154,7 @@
     <x:t>233</x:t>
   </x:si>
   <x:si>
-    <x:t>505</x:t>
+    <x:t>506</x:t>
   </x:si>
   <x:si>
     <x:t>423</x:t>
@@ -244,10 +244,10 @@
     <x:t>833</x:t>
   </x:si>
   <x:si>
-    <x:t>1792</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2130</x:t>
+    <x:t>1793</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2131</x:t>
   </x:si>
   <x:si>
     <x:t>830</x:t>
@@ -334,19 +334,22 @@
     <x:t>Larceny/Theft Offenses</x:t>
   </x:si>
   <x:si>
+    <x:t>729</x:t>
+  </x:si>
+  <x:si>
     <x:t>1398</x:t>
   </x:si>
   <x:si>
-    <x:t>2183</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2355</x:t>
-  </x:si>
-  <x:si>
-    <x:t>949</x:t>
-  </x:si>
-  <x:si>
-    <x:t>860</x:t>
+    <x:t>2186</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2356</x:t>
+  </x:si>
+  <x:si>
+    <x:t>950</x:t>
+  </x:si>
+  <x:si>
+    <x:t>861</x:t>
   </x:si>
   <x:si>
     <x:t>1732</x:t>
@@ -355,7 +358,7 @@
     <x:t>2850</x:t>
   </x:si>
   <x:si>
-    <x:t>2765</x:t>
+    <x:t>2767</x:t>
   </x:si>
   <x:si>
     <x:t>1230</x:t>
@@ -409,7 +412,7 @@
     <x:t>167</x:t>
   </x:si>
   <x:si>
-    <x:t>165</x:t>
+    <x:t>166</x:t>
   </x:si>
   <x:si>
     <x:t>134</x:t>
@@ -427,7 +430,7 @@
     <x:t>193</x:t>
   </x:si>
   <x:si>
-    <x:t>225</x:t>
+    <x:t>226</x:t>
   </x:si>
   <x:si>
     <x:t>247</x:t>
@@ -1643,19 +1646,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D30" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E30" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F30" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="G30" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
         <x:v>10</x:v>
@@ -1669,19 +1672,19 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E31" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F31" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G31" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H31" s="1" t="s">
         <x:v>10</x:v>
@@ -1689,7 +1692,7 @@
     </x:row>
     <x:row r="32" spans="1:8">
       <x:c r="A32" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>9</x:v>
@@ -1698,13 +1701,13 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E32" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="F32" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="G32" s="1" t="s">
         <x:v>80</x:v>
@@ -1715,7 +1718,7 @@
     </x:row>
     <x:row r="33" spans="1:8">
       <x:c r="A33" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>15</x:v>
@@ -1724,16 +1727,16 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="D33" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E33" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F33" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G33" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="H33" s="1" t="s">
         <x:v>10</x:v>
@@ -1741,7 +1744,7 @@
     </x:row>
     <x:row r="34" spans="1:8">
       <x:c r="A34" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>9</x:v>
@@ -1767,19 +1770,19 @@
     </x:row>
     <x:row r="35" spans="1:8">
       <x:c r="A35" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C35" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D35" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E35" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="F35" s="1" t="s">
         <x:v>69</x:v>
@@ -1793,7 +1796,7 @@
     </x:row>
     <x:row r="36" spans="1:8">
       <x:c r="A36" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>15</x:v>
@@ -1819,22 +1822,22 @@
     </x:row>
     <x:row r="37" spans="1:8">
       <x:c r="A37" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C37" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E37" s="1" t="s">
         <x:v>54</x:v>
       </x:c>
       <x:c r="F37" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="G37" s="1" t="s">
         <x:v>82</x:v>
@@ -1845,25 +1848,25 @@
     </x:row>
     <x:row r="38" spans="1:8">
       <x:c r="A38" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D38" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="F38" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G38" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H38" s="1" t="s">
         <x:v>10</x:v>
@@ -1871,7 +1874,7 @@
     </x:row>
     <x:row r="39" spans="1:8">
       <x:c r="A39" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>9</x:v>
@@ -1897,7 +1900,7 @@
     </x:row>
     <x:row r="40" spans="1:8">
       <x:c r="A40" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>15</x:v>
@@ -1906,16 +1909,16 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="F40" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="G40" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="H40" s="1" t="s">
         <x:v>10</x:v>
@@ -1923,22 +1926,22 @@
     </x:row>
     <x:row r="41" spans="1:8">
       <x:c r="A41" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="F41" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="G41" s="1" t="s">
         <x:v>12</x:v>
@@ -1949,25 +1952,25 @@
     </x:row>
     <x:row r="42" spans="1:8">
       <x:c r="A42" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F42" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="G42" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="H42" s="1" t="s">
         <x:v>10</x:v>
@@ -1975,22 +1978,22 @@
     </x:row>
     <x:row r="43" spans="1:8">
       <x:c r="A43" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D43" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="E43" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F43" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
         <x:v>17</x:v>
@@ -2001,25 +2004,25 @@
     </x:row>
     <x:row r="44" spans="1:8">
       <x:c r="A44" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F44" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="G44" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
         <x:v>10</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -100,7 +100,7 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>845</x:t>
+    <x:t>847</x:t>
   </x:si>
   <x:si>
     <x:t>728</x:t>
@@ -109,7 +109,7 @@
     <x:t>1240</x:t>
   </x:si>
   <x:si>
-    <x:t>1225</x:t>
+    <x:t>1227</x:t>
   </x:si>
   <x:si>
     <x:t>422</x:t>
@@ -118,13 +118,13 @@
     <x:t>1330</x:t>
   </x:si>
   <x:si>
-    <x:t>2040</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3746</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4035</x:t>
+    <x:t>2041</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3747</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4036</x:t>
   </x:si>
   <x:si>
     <x:t>1665</x:t>
@@ -151,7 +151,7 @@
     <x:t>135</x:t>
   </x:si>
   <x:si>
-    <x:t>233</x:t>
+    <x:t>234</x:t>
   </x:si>
   <x:si>
     <x:t>506</x:t>
@@ -181,7 +181,7 @@
     <x:t>40</x:t>
   </x:si>
   <x:si>
-    <x:t>96</x:t>
+    <x:t>98</x:t>
   </x:si>
   <x:si>
     <x:t>44</x:t>
@@ -226,13 +226,13 @@
     <x:t>47</x:t>
   </x:si>
   <x:si>
-    <x:t>342</x:t>
-  </x:si>
-  <x:si>
-    <x:t>747</x:t>
-  </x:si>
-  <x:si>
-    <x:t>874</x:t>
+    <x:t>341</x:t>
+  </x:si>
+  <x:si>
+    <x:t>748</x:t>
+  </x:si>
+  <x:si>
+    <x:t>873</x:t>
   </x:si>
   <x:si>
     <x:t>231</x:t>
@@ -241,18 +241,15 @@
     <x:t>132</x:t>
   </x:si>
   <x:si>
-    <x:t>833</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1793</x:t>
+    <x:t>831</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1794</x:t>
   </x:si>
   <x:si>
     <x:t>2131</x:t>
   </x:si>
   <x:si>
-    <x:t>830</x:t>
-  </x:si>
-  <x:si>
     <x:t>Embezzlement</x:t>
   </x:si>
   <x:si>
@@ -295,7 +292,7 @@
     <x:t>517</x:t>
   </x:si>
   <x:si>
-    <x:t>482</x:t>
+    <x:t>483</x:t>
   </x:si>
   <x:si>
     <x:t>175</x:t>
@@ -337,31 +334,31 @@
     <x:t>729</x:t>
   </x:si>
   <x:si>
-    <x:t>1398</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2186</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2356</x:t>
-  </x:si>
-  <x:si>
-    <x:t>950</x:t>
-  </x:si>
-  <x:si>
-    <x:t>861</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1732</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2850</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2767</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230</x:t>
+    <x:t>1399</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2188</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2360</x:t>
+  </x:si>
+  <x:si>
+    <x:t>952</x:t>
+  </x:si>
+  <x:si>
+    <x:t>865</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1743</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2855</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2772</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1229</x:t>
   </x:si>
   <x:si>
     <x:t>Motor Vehicle Theft</x:t>
@@ -418,22 +415,22 @@
     <x:t>134</x:t>
   </x:si>
   <x:si>
-    <x:t>98</x:t>
-  </x:si>
-  <x:si>
     <x:t>29</x:t>
   </x:si>
   <x:si>
     <x:t>Sex Offenses</x:t>
   </x:si>
   <x:si>
+    <x:t>139</x:t>
+  </x:si>
+  <x:si>
     <x:t>193</x:t>
   </x:si>
   <x:si>
     <x:t>226</x:t>
   </x:si>
   <x:si>
-    <x:t>247</x:t>
+    <x:t>249</x:t>
   </x:si>
   <x:si>
     <x:t>159</x:t>
@@ -1294,7 +1291,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="G16" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
         <x:v>10</x:v>
@@ -1302,7 +1299,7 @@
     </x:row>
     <x:row r="17" spans="1:8">
       <x:c r="A17" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>9</x:v>
@@ -1311,10 +1308,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E17" s="1" t="s">
         <x:v>80</x:v>
-      </x:c>
-      <x:c r="E17" s="1" t="s">
-        <x:v>81</x:v>
       </x:c>
       <x:c r="F17" s="1" t="s">
         <x:v>18</x:v>
@@ -1328,7 +1325,7 @@
     </x:row>
     <x:row r="18" spans="1:8">
       <x:c r="A18" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>15</x:v>
@@ -1346,7 +1343,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G18" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
         <x:v>10</x:v>
@@ -1354,7 +1351,7 @@
     </x:row>
     <x:row r="19" spans="1:8">
       <x:c r="A19" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>15</x:v>
@@ -1380,25 +1377,25 @@
     </x:row>
     <x:row r="20" spans="1:8">
       <x:c r="A20" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D20" s="1" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="D20" s="1" t="s">
+      <x:c r="E20" s="1" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="E20" s="1" t="s">
+      <x:c r="F20" s="1" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="F20" s="1" t="s">
+      <x:c r="G20" s="1" t="s">
         <x:v>88</x:v>
-      </x:c>
-      <x:c r="G20" s="1" t="s">
-        <x:v>89</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
         <x:v>10</x:v>
@@ -1406,25 +1403,25 @@
     </x:row>
     <x:row r="21" spans="1:8">
       <x:c r="A21" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D21" s="1" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="D21" s="1" t="s">
+      <x:c r="E21" s="1" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="E21" s="1" t="s">
+      <x:c r="F21" s="1" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="F21" s="1" t="s">
+      <x:c r="G21" s="1" t="s">
         <x:v>93</x:v>
-      </x:c>
-      <x:c r="G21" s="1" t="s">
-        <x:v>94</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
         <x:v>10</x:v>
@@ -1432,7 +1429,7 @@
     </x:row>
     <x:row r="22" spans="1:8">
       <x:c r="A22" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>9</x:v>
@@ -1458,7 +1455,7 @@
     </x:row>
     <x:row r="23" spans="1:8">
       <x:c r="A23" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>15</x:v>
@@ -1473,7 +1470,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F23" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G23" s="1" t="s">
         <x:v>22</x:v>
@@ -1484,7 +1481,7 @@
     </x:row>
     <x:row r="24" spans="1:8">
       <x:c r="A24" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>9</x:v>
@@ -1502,7 +1499,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G24" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H24" s="1" t="s">
         <x:v>10</x:v>
@@ -1510,7 +1507,7 @@
     </x:row>
     <x:row r="25" spans="1:8">
       <x:c r="A25" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>15</x:v>
@@ -1519,16 +1516,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D25" s="1" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="E25" s="1" t="s">
         <x:v>97</x:v>
-      </x:c>
-      <x:c r="E25" s="1" t="s">
-        <x:v>98</x:v>
       </x:c>
       <x:c r="F25" s="1" t="s">
         <x:v>43</x:v>
       </x:c>
       <x:c r="G25" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H25" s="1" t="s">
         <x:v>10</x:v>
@@ -1536,7 +1533,7 @@
     </x:row>
     <x:row r="26" spans="1:8">
       <x:c r="A26" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>9</x:v>
@@ -1548,10 +1545,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E26" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F26" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G26" s="1" t="s">
         <x:v>10</x:v>
@@ -1562,25 +1559,25 @@
     </x:row>
     <x:row r="27" spans="1:8">
       <x:c r="A27" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C27" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D27" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E27" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="F27" s="1" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="B27" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C27" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D27" s="1" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E27" s="1" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="F27" s="1" t="s">
+      <x:c r="G27" s="1" t="s">
         <x:v>100</x:v>
-      </x:c>
-      <x:c r="G27" s="1" t="s">
-        <x:v>101</x:v>
       </x:c>
       <x:c r="H27" s="1" t="s">
         <x:v>10</x:v>
@@ -1588,7 +1585,7 @@
     </x:row>
     <x:row r="28" spans="1:8">
       <x:c r="A28" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>9</x:v>
@@ -1606,7 +1603,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G28" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="H28" s="1" t="s">
         <x:v>10</x:v>
@@ -1614,25 +1611,25 @@
     </x:row>
     <x:row r="29" spans="1:8">
       <x:c r="A29" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C29" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D29" s="1" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="B29" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C29" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D29" s="1" t="s">
+      <x:c r="E29" s="1" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="F29" s="1" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="E29" s="1" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="F29" s="1" t="s">
-        <x:v>104</x:v>
-      </x:c>
       <x:c r="G29" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H29" s="1" t="s">
         <x:v>10</x:v>
@@ -1640,25 +1637,25 @@
     </x:row>
     <x:row r="30" spans="1:8">
       <x:c r="A30" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D30" s="1" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="D30" s="1" t="s">
+      <x:c r="E30" s="1" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="E30" s="1" t="s">
+      <x:c r="F30" s="1" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="F30" s="1" t="s">
+      <x:c r="G30" s="1" t="s">
         <x:v>109</x:v>
-      </x:c>
-      <x:c r="G30" s="1" t="s">
-        <x:v>110</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
         <x:v>10</x:v>
@@ -1666,25 +1663,25 @@
     </x:row>
     <x:row r="31" spans="1:8">
       <x:c r="A31" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D31" s="1" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="D31" s="1" t="s">
+      <x:c r="E31" s="1" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="E31" s="1" t="s">
+      <x:c r="F31" s="1" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="F31" s="1" t="s">
+      <x:c r="G31" s="1" t="s">
         <x:v>114</x:v>
-      </x:c>
-      <x:c r="G31" s="1" t="s">
-        <x:v>115</x:v>
       </x:c>
       <x:c r="H31" s="1" t="s">
         <x:v>10</x:v>
@@ -1692,7 +1689,7 @@
     </x:row>
     <x:row r="32" spans="1:8">
       <x:c r="A32" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>9</x:v>
@@ -1701,16 +1698,16 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="E32" s="1" t="s">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="E32" s="1" t="s">
+      <x:c r="F32" s="1" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="F32" s="1" t="s">
-        <x:v>119</x:v>
-      </x:c>
       <x:c r="G32" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
         <x:v>10</x:v>
@@ -1718,7 +1715,7 @@
     </x:row>
     <x:row r="33" spans="1:8">
       <x:c r="A33" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>15</x:v>
@@ -1727,16 +1724,16 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="D33" s="1" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="E33" s="1" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="E33" s="1" t="s">
+      <x:c r="F33" s="1" t="s">
         <x:v>121</x:v>
       </x:c>
-      <x:c r="F33" s="1" t="s">
+      <x:c r="G33" s="1" t="s">
         <x:v>122</x:v>
-      </x:c>
-      <x:c r="G33" s="1" t="s">
-        <x:v>123</x:v>
       </x:c>
       <x:c r="H33" s="1" t="s">
         <x:v>10</x:v>
@@ -1744,7 +1741,7 @@
     </x:row>
     <x:row r="34" spans="1:8">
       <x:c r="A34" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>9</x:v>
@@ -1770,19 +1767,19 @@
     </x:row>
     <x:row r="35" spans="1:8">
       <x:c r="A35" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C35" s="1" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="B35" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C35" s="1" t="s">
+      <x:c r="D35" s="1" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E35" s="1" t="s">
         <x:v>125</x:v>
-      </x:c>
-      <x:c r="D35" s="1" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="E35" s="1" t="s">
-        <x:v>126</x:v>
       </x:c>
       <x:c r="F35" s="1" t="s">
         <x:v>69</x:v>
@@ -1796,7 +1793,7 @@
     </x:row>
     <x:row r="36" spans="1:8">
       <x:c r="A36" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>15</x:v>
@@ -1814,7 +1811,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G36" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H36" s="1" t="s">
         <x:v>10</x:v>
@@ -1822,25 +1819,25 @@
     </x:row>
     <x:row r="37" spans="1:8">
       <x:c r="A37" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C37" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E37" s="1" t="s">
         <x:v>54</x:v>
       </x:c>
       <x:c r="F37" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G37" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H37" s="1" t="s">
         <x:v>10</x:v>
@@ -1848,25 +1845,25 @@
     </x:row>
     <x:row r="38" spans="1:8">
       <x:c r="A38" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="D38" s="1" t="s">
         <x:v>131</x:v>
       </x:c>
-      <x:c r="D38" s="1" t="s">
+      <x:c r="E38" s="1" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="E38" s="1" t="s">
+      <x:c r="F38" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G38" s="1" t="s">
         <x:v>133</x:v>
-      </x:c>
-      <x:c r="F38" s="1" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="G38" s="1" t="s">
-        <x:v>135</x:v>
       </x:c>
       <x:c r="H38" s="1" t="s">
         <x:v>10</x:v>
@@ -1874,7 +1871,7 @@
     </x:row>
     <x:row r="39" spans="1:8">
       <x:c r="A39" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>9</x:v>
@@ -1889,7 +1886,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F39" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="G39" s="1" t="s">
         <x:v>22</x:v>
@@ -1900,25 +1897,25 @@
     </x:row>
     <x:row r="40" spans="1:8">
       <x:c r="A40" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C40" s="1" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="D40" s="1" t="s">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="B40" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C40" s="1" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="D40" s="1" t="s">
+      <x:c r="E40" s="1" t="s">
         <x:v>137</x:v>
       </x:c>
-      <x:c r="E40" s="1" t="s">
+      <x:c r="F40" s="1" t="s">
         <x:v>138</x:v>
       </x:c>
-      <x:c r="F40" s="1" t="s">
+      <x:c r="G40" s="1" t="s">
         <x:v>139</x:v>
-      </x:c>
-      <x:c r="G40" s="1" t="s">
-        <x:v>140</x:v>
       </x:c>
       <x:c r="H40" s="1" t="s">
         <x:v>10</x:v>
@@ -1926,22 +1923,22 @@
     </x:row>
     <x:row r="41" spans="1:8">
       <x:c r="A41" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="D41" s="1" t="s">
         <x:v>142</x:v>
-      </x:c>
-      <x:c r="D41" s="1" t="s">
-        <x:v>143</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="F41" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="G41" s="1" t="s">
         <x:v>12</x:v>
@@ -1952,25 +1949,25 @@
     </x:row>
     <x:row r="42" spans="1:8">
       <x:c r="A42" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D42" s="1" t="s">
         <x:v>145</x:v>
       </x:c>
-      <x:c r="D42" s="1" t="s">
+      <x:c r="E42" s="1" t="s">
         <x:v>146</x:v>
       </x:c>
-      <x:c r="E42" s="1" t="s">
+      <x:c r="F42" s="1" t="s">
         <x:v>147</x:v>
       </x:c>
-      <x:c r="F42" s="1" t="s">
+      <x:c r="G42" s="1" t="s">
         <x:v>148</x:v>
-      </x:c>
-      <x:c r="G42" s="1" t="s">
-        <x:v>149</x:v>
       </x:c>
       <x:c r="H42" s="1" t="s">
         <x:v>10</x:v>
@@ -1978,22 +1975,22 @@
     </x:row>
     <x:row r="43" spans="1:8">
       <x:c r="A43" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="D43" s="1" t="s">
         <x:v>151</x:v>
       </x:c>
-      <x:c r="D43" s="1" t="s">
+      <x:c r="E43" s="1" t="s">
         <x:v>152</x:v>
       </x:c>
-      <x:c r="E43" s="1" t="s">
+      <x:c r="F43" s="1" t="s">
         <x:v>153</x:v>
-      </x:c>
-      <x:c r="F43" s="1" t="s">
-        <x:v>154</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
         <x:v>17</x:v>
@@ -2004,25 +2001,25 @@
     </x:row>
     <x:row r="44" spans="1:8">
       <x:c r="A44" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="D44" s="1" t="s">
         <x:v>155</x:v>
       </x:c>
-      <x:c r="D44" s="1" t="s">
+      <x:c r="E44" s="1" t="s">
         <x:v>156</x:v>
       </x:c>
-      <x:c r="E44" s="1" t="s">
+      <x:c r="F44" s="1" t="s">
         <x:v>157</x:v>
       </x:c>
-      <x:c r="F44" s="1" t="s">
+      <x:c r="G44" s="1" t="s">
         <x:v>158</x:v>
-      </x:c>
-      <x:c r="G44" s="1" t="s">
-        <x:v>159</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
         <x:v>10</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -100,28 +100,28 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>847</x:t>
-  </x:si>
-  <x:si>
-    <x:t>728</x:t>
+    <x:t>848</x:t>
+  </x:si>
+  <x:si>
+    <x:t>729</x:t>
   </x:si>
   <x:si>
     <x:t>1240</x:t>
   </x:si>
   <x:si>
-    <x:t>1227</x:t>
+    <x:t>1228</x:t>
   </x:si>
   <x:si>
     <x:t>422</x:t>
   </x:si>
   <x:si>
-    <x:t>1330</x:t>
+    <x:t>1331</x:t>
   </x:si>
   <x:si>
     <x:t>2041</x:t>
   </x:si>
   <x:si>
-    <x:t>3747</x:t>
+    <x:t>3749</x:t>
   </x:si>
   <x:si>
     <x:t>4036</x:t>
@@ -172,7 +172,7 @@
     <x:t>60</x:t>
   </x:si>
   <x:si>
-    <x:t>99</x:t>
+    <x:t>100</x:t>
   </x:si>
   <x:si>
     <x:t>20</x:t>
@@ -211,7 +211,7 @@
     <x:t>305</x:t>
   </x:si>
   <x:si>
-    <x:t>425</x:t>
+    <x:t>426</x:t>
   </x:si>
   <x:si>
     <x:t>409</x:t>
@@ -232,7 +232,7 @@
     <x:t>748</x:t>
   </x:si>
   <x:si>
-    <x:t>873</x:t>
+    <x:t>874</x:t>
   </x:si>
   <x:si>
     <x:t>231</x:t>
@@ -247,7 +247,7 @@
     <x:t>1794</x:t>
   </x:si>
   <x:si>
-    <x:t>2131</x:t>
+    <x:t>2132</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -274,7 +274,7 @@
     <x:t>181</x:t>
   </x:si>
   <x:si>
-    <x:t>323</x:t>
+    <x:t>322</x:t>
   </x:si>
   <x:si>
     <x:t>251</x:t>
@@ -331,10 +331,7 @@
     <x:t>Larceny/Theft Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>729</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1399</x:t>
+    <x:t>1400</x:t>
   </x:si>
   <x:si>
     <x:t>2188</x:t>
@@ -346,13 +343,13 @@
     <x:t>952</x:t>
   </x:si>
   <x:si>
-    <x:t>865</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1743</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2855</x:t>
+    <x:t>866</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1744</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2856</x:t>
   </x:si>
   <x:si>
     <x:t>2772</x:t>
@@ -427,7 +424,7 @@
     <x:t>193</x:t>
   </x:si>
   <x:si>
-    <x:t>226</x:t>
+    <x:t>224</x:t>
   </x:si>
   <x:si>
     <x:t>249</x:t>
@@ -1643,19 +1640,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D30" s="1" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="D30" s="1" t="s">
+      <x:c r="E30" s="1" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="E30" s="1" t="s">
+      <x:c r="F30" s="1" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="F30" s="1" t="s">
+      <x:c r="G30" s="1" t="s">
         <x:v>108</x:v>
-      </x:c>
-      <x:c r="G30" s="1" t="s">
-        <x:v>109</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
         <x:v>10</x:v>
@@ -1669,19 +1666,19 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="D31" s="1" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="D31" s="1" t="s">
+      <x:c r="E31" s="1" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="E31" s="1" t="s">
+      <x:c r="F31" s="1" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="F31" s="1" t="s">
+      <x:c r="G31" s="1" t="s">
         <x:v>113</x:v>
-      </x:c>
-      <x:c r="G31" s="1" t="s">
-        <x:v>114</x:v>
       </x:c>
       <x:c r="H31" s="1" t="s">
         <x:v>10</x:v>
@@ -1689,7 +1686,7 @@
     </x:row>
     <x:row r="32" spans="1:8">
       <x:c r="A32" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>9</x:v>
@@ -1698,13 +1695,13 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="E32" s="1" t="s">
         <x:v>116</x:v>
       </x:c>
-      <x:c r="E32" s="1" t="s">
+      <x:c r="F32" s="1" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="F32" s="1" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="G32" s="1" t="s">
         <x:v>79</x:v>
@@ -1715,7 +1712,7 @@
     </x:row>
     <x:row r="33" spans="1:8">
       <x:c r="A33" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>15</x:v>
@@ -1724,16 +1721,16 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="D33" s="1" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E33" s="1" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="E33" s="1" t="s">
+      <x:c r="F33" s="1" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="F33" s="1" t="s">
+      <x:c r="G33" s="1" t="s">
         <x:v>121</x:v>
-      </x:c>
-      <x:c r="G33" s="1" t="s">
-        <x:v>122</x:v>
       </x:c>
       <x:c r="H33" s="1" t="s">
         <x:v>10</x:v>
@@ -1741,7 +1738,7 @@
     </x:row>
     <x:row r="34" spans="1:8">
       <x:c r="A34" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>9</x:v>
@@ -1767,19 +1764,19 @@
     </x:row>
     <x:row r="35" spans="1:8">
       <x:c r="A35" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C35" s="1" t="s">
         <x:v>123</x:v>
       </x:c>
-      <x:c r="B35" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C35" s="1" t="s">
+      <x:c r="D35" s="1" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="E35" s="1" t="s">
         <x:v>124</x:v>
-      </x:c>
-      <x:c r="D35" s="1" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="E35" s="1" t="s">
-        <x:v>125</x:v>
       </x:c>
       <x:c r="F35" s="1" t="s">
         <x:v>69</x:v>
@@ -1793,7 +1790,7 @@
     </x:row>
     <x:row r="36" spans="1:8">
       <x:c r="A36" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>15</x:v>
@@ -1819,22 +1816,22 @@
     </x:row>
     <x:row r="37" spans="1:8">
       <x:c r="A37" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C37" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E37" s="1" t="s">
         <x:v>54</x:v>
       </x:c>
       <x:c r="F37" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="G37" s="1" t="s">
         <x:v>81</x:v>
@@ -1845,25 +1842,25 @@
     </x:row>
     <x:row r="38" spans="1:8">
       <x:c r="A38" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="D38" s="1" t="s">
         <x:v>130</x:v>
       </x:c>
-      <x:c r="D38" s="1" t="s">
+      <x:c r="E38" s="1" t="s">
         <x:v>131</x:v>
-      </x:c>
-      <x:c r="E38" s="1" t="s">
-        <x:v>132</x:v>
       </x:c>
       <x:c r="F38" s="1" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="G38" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="H38" s="1" t="s">
         <x:v>10</x:v>
@@ -1871,7 +1868,7 @@
     </x:row>
     <x:row r="39" spans="1:8">
       <x:c r="A39" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>9</x:v>
@@ -1897,25 +1894,25 @@
     </x:row>
     <x:row r="40" spans="1:8">
       <x:c r="A40" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C40" s="1" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="B40" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C40" s="1" t="s">
+      <x:c r="D40" s="1" t="s">
         <x:v>135</x:v>
       </x:c>
-      <x:c r="D40" s="1" t="s">
+      <x:c r="E40" s="1" t="s">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="E40" s="1" t="s">
+      <x:c r="F40" s="1" t="s">
         <x:v>137</x:v>
       </x:c>
-      <x:c r="F40" s="1" t="s">
+      <x:c r="G40" s="1" t="s">
         <x:v>138</x:v>
-      </x:c>
-      <x:c r="G40" s="1" t="s">
-        <x:v>139</x:v>
       </x:c>
       <x:c r="H40" s="1" t="s">
         <x:v>10</x:v>
@@ -1923,22 +1920,22 @@
     </x:row>
     <x:row r="41" spans="1:8">
       <x:c r="A41" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D41" s="1" t="s">
         <x:v>141</x:v>
-      </x:c>
-      <x:c r="D41" s="1" t="s">
-        <x:v>142</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="F41" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="G41" s="1" t="s">
         <x:v>12</x:v>
@@ -1949,25 +1946,25 @@
     </x:row>
     <x:row r="42" spans="1:8">
       <x:c r="A42" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D42" s="1" t="s">
         <x:v>144</x:v>
       </x:c>
-      <x:c r="D42" s="1" t="s">
+      <x:c r="E42" s="1" t="s">
         <x:v>145</x:v>
       </x:c>
-      <x:c r="E42" s="1" t="s">
+      <x:c r="F42" s="1" t="s">
         <x:v>146</x:v>
       </x:c>
-      <x:c r="F42" s="1" t="s">
+      <x:c r="G42" s="1" t="s">
         <x:v>147</x:v>
-      </x:c>
-      <x:c r="G42" s="1" t="s">
-        <x:v>148</x:v>
       </x:c>
       <x:c r="H42" s="1" t="s">
         <x:v>10</x:v>
@@ -1975,22 +1972,22 @@
     </x:row>
     <x:row r="43" spans="1:8">
       <x:c r="A43" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="D43" s="1" t="s">
         <x:v>150</x:v>
       </x:c>
-      <x:c r="D43" s="1" t="s">
+      <x:c r="E43" s="1" t="s">
         <x:v>151</x:v>
       </x:c>
-      <x:c r="E43" s="1" t="s">
+      <x:c r="F43" s="1" t="s">
         <x:v>152</x:v>
-      </x:c>
-      <x:c r="F43" s="1" t="s">
-        <x:v>153</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
         <x:v>17</x:v>
@@ -2001,25 +1998,25 @@
     </x:row>
     <x:row r="44" spans="1:8">
       <x:c r="A44" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="D44" s="1" t="s">
         <x:v>154</x:v>
       </x:c>
-      <x:c r="D44" s="1" t="s">
+      <x:c r="E44" s="1" t="s">
         <x:v>155</x:v>
       </x:c>
-      <x:c r="E44" s="1" t="s">
+      <x:c r="F44" s="1" t="s">
         <x:v>156</x:v>
       </x:c>
-      <x:c r="F44" s="1" t="s">
+      <x:c r="G44" s="1" t="s">
         <x:v>157</x:v>
-      </x:c>
-      <x:c r="G44" s="1" t="s">
-        <x:v>158</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
         <x:v>10</x:v>
